--- a/Documents/Scrum/Sprint_backlog.xlsx
+++ b/Documents/Scrum/Sprint_backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3988CDC4-2414-4C85-AAA5-C340146B631C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCDA165-05F1-46C9-BB8B-59972B45C9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" firstSheet="4" activeTab="6" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="5" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint_0." sheetId="4" r:id="rId1"/>
@@ -2683,54 +2683,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2743,7 +2695,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3099,7 +3099,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="82" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -3113,7 +3113,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="77"/>
+      <c r="A3" s="83"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
@@ -3125,7 +3125,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
+      <c r="A4" s="83"/>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -3137,7 +3137,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="77"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
@@ -3149,7 +3149,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="77"/>
+      <c r="A6" s="83"/>
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -3161,7 +3161,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="77"/>
+      <c r="A7" s="83"/>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
@@ -3173,7 +3173,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="78"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
@@ -3193,7 +3193,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="85" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3206,7 +3206,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="80"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
@@ -3217,7 +3217,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="80"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
@@ -3229,7 +3229,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="80"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="2" t="s">
         <v>75</v>
       </c>
@@ -3241,7 +3241,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="80"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
@@ -3252,7 +3252,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="80"/>
+      <c r="A15" s="86"/>
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
@@ -3263,7 +3263,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="80"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
@@ -3274,7 +3274,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="80"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="58" t="s">
         <v>188</v>
       </c>
@@ -3285,7 +3285,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="80"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="58" t="s">
         <v>189</v>
       </c>
@@ -3296,7 +3296,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="81"/>
+      <c r="A19" s="87"/>
       <c r="B19" s="6" t="s">
         <v>190</v>
       </c>
@@ -3349,7 +3349,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="88" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -3363,7 +3363,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="83"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="17" t="s">
         <v>193</v>
       </c>
@@ -3375,7 +3375,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="83"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="17" t="s">
         <v>9</v>
       </c>
@@ -3387,7 +3387,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="83"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3398,7 +3398,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="83"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="17" t="s">
         <v>192</v>
       </c>
@@ -3410,7 +3410,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="83"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3421,7 +3421,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="83"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="17" t="s">
         <v>186</v>
       </c>
@@ -3432,7 +3432,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="83"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="17" t="s">
         <v>11</v>
       </c>
@@ -3443,7 +3443,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="83"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -3454,7 +3454,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="83"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="17" t="s">
         <v>185</v>
       </c>
@@ -3465,7 +3465,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="83"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="17" t="s">
         <v>184</v>
       </c>
@@ -3476,7 +3476,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="91"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="17" t="s">
         <v>191</v>
       </c>
@@ -3487,22 +3487,22 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="92"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="94"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="78"/>
     </row>
     <row r="15" spans="1:8" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="80" t="s">
         <v>217</v>
       </c>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="81" t="s">
         <v>218</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="95" t="s">
+      <c r="E15" s="79" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="85" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="65" t="s">
@@ -3563,7 +3563,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="80"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="65" t="s">
         <v>107</v>
       </c>
@@ -3575,7 +3575,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="80"/>
+      <c r="A4" s="86"/>
       <c r="B4" s="65" t="s">
         <v>121</v>
       </c>
@@ -3587,7 +3587,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="80"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="65" t="s">
         <v>108</v>
       </c>
@@ -3599,7 +3599,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="80"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="65" t="s">
         <v>122</v>
       </c>
@@ -3611,7 +3611,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="80"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="65" t="s">
         <v>110</v>
       </c>
@@ -3623,7 +3623,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="80"/>
+      <c r="A8" s="86"/>
       <c r="B8" s="65" t="s">
         <v>194</v>
       </c>
@@ -3635,7 +3635,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="80"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="65" t="s">
         <v>109</v>
       </c>
@@ -3647,7 +3647,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="80"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="65" t="s">
         <v>111</v>
       </c>
@@ -3659,7 +3659,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="80"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="65" t="s">
         <v>195</v>
       </c>
@@ -3671,7 +3671,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="80"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="65" t="s">
         <v>196</v>
       </c>
@@ -3683,7 +3683,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="80"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="65" t="s">
         <v>112</v>
       </c>
@@ -3695,7 +3695,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="80"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="65" t="s">
         <v>197</v>
       </c>
@@ -3707,7 +3707,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="80"/>
+      <c r="A15" s="86"/>
       <c r="B15" s="65" t="s">
         <v>114</v>
       </c>
@@ -3719,7 +3719,7 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="80"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="65" t="s">
         <v>115</v>
       </c>
@@ -3731,7 +3731,7 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="80"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="65" t="s">
         <v>118</v>
       </c>
@@ -3743,7 +3743,7 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="80"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="65" t="s">
         <v>117</v>
       </c>
@@ -3755,7 +3755,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="80"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="65" t="s">
         <v>116</v>
       </c>
@@ -3767,7 +3767,7 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="80"/>
+      <c r="A20" s="86"/>
       <c r="B20" s="65" t="s">
         <v>119</v>
       </c>
@@ -3779,7 +3779,7 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="85"/>
+      <c r="A21" s="91"/>
       <c r="B21" s="65" t="s">
         <v>120</v>
       </c>
@@ -3799,7 +3799,7 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="86" t="s">
+      <c r="A23" s="92" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="38" t="s">
@@ -3813,7 +3813,7 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
+      <c r="A24" s="93"/>
       <c r="B24" s="17" t="s">
         <v>173</v>
       </c>
@@ -3825,7 +3825,7 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="87"/>
+      <c r="A25" s="93"/>
       <c r="B25" s="17" t="s">
         <v>172</v>
       </c>
@@ -3837,7 +3837,7 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="87"/>
+      <c r="A26" s="93"/>
       <c r="B26" s="17" t="s">
         <v>171</v>
       </c>
@@ -3849,7 +3849,7 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="87"/>
+      <c r="A27" s="93"/>
       <c r="B27" s="66" t="s">
         <v>170</v>
       </c>
@@ -3861,7 +3861,7 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="87"/>
+      <c r="A28" s="93"/>
       <c r="B28" s="17" t="s">
         <v>183</v>
       </c>
@@ -3873,7 +3873,7 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="87"/>
+      <c r="A29" s="93"/>
       <c r="B29" s="17" t="s">
         <v>174</v>
       </c>
@@ -3885,7 +3885,7 @@
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="87"/>
+      <c r="A30" s="93"/>
       <c r="B30" s="17" t="s">
         <v>175</v>
       </c>
@@ -3897,7 +3897,7 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="87"/>
+      <c r="A31" s="93"/>
       <c r="B31" s="2" t="s">
         <v>163</v>
       </c>
@@ -3909,7 +3909,7 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="87"/>
+      <c r="A32" s="93"/>
       <c r="B32" s="17" t="s">
         <v>176</v>
       </c>
@@ -3921,7 +3921,7 @@
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="87"/>
+      <c r="A33" s="93"/>
       <c r="B33" s="66" t="s">
         <v>177</v>
       </c>
@@ -3933,7 +3933,7 @@
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="87"/>
+      <c r="A34" s="93"/>
       <c r="B34" s="38" t="s">
         <v>164</v>
       </c>
@@ -3945,7 +3945,7 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="87"/>
+      <c r="A35" s="93"/>
       <c r="B35" s="67" t="s">
         <v>178</v>
       </c>
@@ -3957,7 +3957,7 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="87"/>
+      <c r="A36" s="93"/>
       <c r="B36" s="66" t="s">
         <v>179</v>
       </c>
@@ -3969,7 +3969,7 @@
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="87"/>
+      <c r="A37" s="93"/>
       <c r="B37" s="41" t="s">
         <v>165</v>
       </c>
@@ -3981,7 +3981,7 @@
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="87"/>
+      <c r="A38" s="93"/>
       <c r="B38" s="66" t="s">
         <v>180</v>
       </c>
@@ -3993,7 +3993,7 @@
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="87"/>
+      <c r="A39" s="93"/>
       <c r="B39" s="38" t="s">
         <v>166</v>
       </c>
@@ -4005,7 +4005,7 @@
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="87"/>
+      <c r="A40" s="93"/>
       <c r="B40" s="38" t="s">
         <v>167</v>
       </c>
@@ -4017,7 +4017,7 @@
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="87"/>
+      <c r="A41" s="93"/>
       <c r="B41" s="66" t="s">
         <v>182</v>
       </c>
@@ -4029,7 +4029,7 @@
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="87"/>
+      <c r="A42" s="93"/>
       <c r="B42" s="66" t="s">
         <v>181</v>
       </c>
@@ -4041,7 +4041,7 @@
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="88"/>
+      <c r="A43" s="94"/>
       <c r="B43" s="38" t="s">
         <v>168</v>
       </c>
@@ -4061,7 +4061,7 @@
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="86" t="s">
+      <c r="A45" s="92" t="s">
         <v>76</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -4075,7 +4075,7 @@
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="89"/>
+      <c r="A46" s="95"/>
       <c r="B46" s="6" t="s">
         <v>30</v>
       </c>
@@ -4145,7 +4145,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="85" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="38" t="s">
@@ -4159,7 +4159,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="87"/>
+      <c r="A3" s="93"/>
       <c r="B3" s="38" t="s">
         <v>161</v>
       </c>
@@ -4171,7 +4171,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="87"/>
+      <c r="A4" s="93"/>
       <c r="B4" s="38" t="s">
         <v>52</v>
       </c>
@@ -4183,7 +4183,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="87"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="2" t="s">
         <v>51</v>
       </c>
@@ -4195,7 +4195,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="87"/>
+      <c r="A6" s="93"/>
       <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
@@ -4207,7 +4207,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="87"/>
+      <c r="A7" s="93"/>
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
@@ -4219,7 +4219,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="87"/>
+      <c r="A8" s="93"/>
       <c r="B8" s="38" t="s">
         <v>55</v>
       </c>
@@ -4231,7 +4231,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="87"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="2" t="s">
         <v>56</v>
       </c>
@@ -4243,7 +4243,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="87"/>
+      <c r="A10" s="93"/>
       <c r="B10" s="2" t="s">
         <v>57</v>
       </c>
@@ -4255,7 +4255,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="87"/>
+      <c r="A11" s="93"/>
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -4267,7 +4267,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="87"/>
+      <c r="A12" s="93"/>
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -4279,7 +4279,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="87"/>
+      <c r="A13" s="93"/>
       <c r="B13" s="2" t="s">
         <v>60</v>
       </c>
@@ -4291,7 +4291,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="87"/>
+      <c r="A14" s="93"/>
       <c r="B14" s="38" t="s">
         <v>61</v>
       </c>
@@ -4303,7 +4303,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="87"/>
+      <c r="A15" s="93"/>
       <c r="B15" s="38" t="s">
         <v>62</v>
       </c>
@@ -4315,7 +4315,7 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="87"/>
+      <c r="A16" s="93"/>
       <c r="B16" s="41" t="s">
         <v>63</v>
       </c>
@@ -4327,7 +4327,7 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="87"/>
+      <c r="A17" s="93"/>
       <c r="B17" s="38" t="s">
         <v>64</v>
       </c>
@@ -4339,7 +4339,7 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="87"/>
+      <c r="A18" s="93"/>
       <c r="B18" s="41" t="s">
         <v>65</v>
       </c>
@@ -4351,7 +4351,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="87"/>
+      <c r="A19" s="93"/>
       <c r="B19" s="38" t="s">
         <v>67</v>
       </c>
@@ -4363,7 +4363,7 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="87"/>
+      <c r="A20" s="93"/>
       <c r="B20" s="38" t="s">
         <v>68</v>
       </c>
@@ -4375,7 +4375,7 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="87"/>
+      <c r="A21" s="93"/>
       <c r="B21" s="38" t="s">
         <v>69</v>
       </c>
@@ -4387,7 +4387,7 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="87"/>
+      <c r="A22" s="93"/>
       <c r="B22" s="38" t="s">
         <v>70</v>
       </c>
@@ -4399,7 +4399,7 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="87"/>
+      <c r="A23" s="93"/>
       <c r="B23" s="38" t="s">
         <v>71</v>
       </c>
@@ -4411,7 +4411,7 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="88"/>
+      <c r="A24" s="94"/>
       <c r="B24" s="38" t="s">
         <v>72</v>
       </c>
@@ -4431,7 +4431,7 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="86" t="s">
+      <c r="A26" s="92" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -4444,7 +4444,7 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="87"/>
+      <c r="A27" s="93"/>
       <c r="B27" s="2" t="s">
         <v>45</v>
       </c>
@@ -4456,7 +4456,7 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="87"/>
+      <c r="A28" s="93"/>
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -4468,7 +4468,7 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="87"/>
+      <c r="A29" s="93"/>
       <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
@@ -4480,7 +4480,7 @@
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="87"/>
+      <c r="A30" s="93"/>
       <c r="B30" s="2" t="s">
         <v>50</v>
       </c>
@@ -4492,7 +4492,7 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="87"/>
+      <c r="A31" s="93"/>
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
@@ -4504,7 +4504,7 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="87"/>
+      <c r="A32" s="93"/>
       <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
@@ -4516,7 +4516,7 @@
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="87"/>
+      <c r="A33" s="93"/>
       <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
@@ -4528,7 +4528,7 @@
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="87"/>
+      <c r="A34" s="93"/>
       <c r="B34" s="26" t="s">
         <v>40</v>
       </c>
@@ -4540,7 +4540,7 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="87"/>
+      <c r="A35" s="93"/>
       <c r="B35" s="2" t="s">
         <v>41</v>
       </c>
@@ -4552,7 +4552,7 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="87"/>
+      <c r="A36" s="93"/>
       <c r="B36" s="2" t="s">
         <v>42</v>
       </c>
@@ -4564,7 +4564,7 @@
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="87"/>
+      <c r="A37" s="93"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -4584,7 +4584,7 @@
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="90" t="s">
+      <c r="A39" s="96" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="74" t="s">
@@ -4597,7 +4597,7 @@
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="77"/>
+      <c r="A40" s="83"/>
       <c r="B40" s="17" t="s">
         <v>33</v>
       </c>
@@ -4608,7 +4608,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="77"/>
+      <c r="A41" s="83"/>
       <c r="B41" s="17" t="s">
         <v>34</v>
       </c>
@@ -4620,7 +4620,7 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="78"/>
+      <c r="A42" s="84"/>
       <c r="B42" s="17" t="s">
         <v>35</v>
       </c>
@@ -4638,7 +4638,7 @@
       <c r="E43" s="29"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="86" t="s">
+      <c r="A44" s="92" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -4651,7 +4651,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="87"/>
+      <c r="A45" s="93"/>
       <c r="B45" s="2" t="s">
         <v>48</v>
       </c>
@@ -4662,7 +4662,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="89"/>
+      <c r="A46" s="95"/>
       <c r="B46" s="6" t="s">
         <v>49</v>
       </c>
@@ -4731,7 +4731,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="86" t="s">
         <v>79</v>
       </c>
       <c r="B2" s="66" t="s">
@@ -4745,7 +4745,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="80"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="66" t="s">
         <v>200</v>
       </c>
@@ -4757,7 +4757,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="80"/>
+      <c r="A4" s="86"/>
       <c r="B4" s="66" t="s">
         <v>201</v>
       </c>
@@ -4769,7 +4769,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="85"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="66" t="s">
         <v>202</v>
       </c>
@@ -4789,7 +4789,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="93" t="s">
         <v>198</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4803,7 +4803,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="87"/>
+      <c r="A8" s="93"/>
       <c r="B8" s="2" t="s">
         <v>204</v>
       </c>
@@ -4815,7 +4815,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="87"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="2" t="s">
         <v>207</v>
       </c>
@@ -4827,7 +4827,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="87"/>
+      <c r="A10" s="93"/>
       <c r="B10" s="2" t="s">
         <v>205</v>
       </c>
@@ -4839,7 +4839,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="87"/>
+      <c r="A11" s="93"/>
       <c r="B11" s="2" t="s">
         <v>203</v>
       </c>
@@ -4851,7 +4851,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="87"/>
+      <c r="A12" s="93"/>
       <c r="B12" s="26" t="s">
         <v>206</v>
       </c>
@@ -4871,7 +4871,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="96" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="74" t="s">
@@ -4884,7 +4884,7 @@
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="77"/>
+      <c r="A15" s="83"/>
       <c r="B15" s="17" t="s">
         <v>34</v>
       </c>
@@ -4896,7 +4896,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="98"/>
+      <c r="A16" s="97"/>
       <c r="B16" s="72" t="s">
         <v>35</v>
       </c>
@@ -4935,8 +4935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77982FF-C4D2-41E8-A83F-1D743BC8CBAF}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4963,39 +4963,39 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="88" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>12</v>
-      </c>
+      <c r="C2" s="25"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="31"/>
+      <c r="E2" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="83"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>12</v>
-      </c>
+      <c r="C3" s="25"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="31"/>
+      <c r="E3" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="83"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>12</v>
-      </c>
+      <c r="C4" s="25"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="31"/>
+      <c r="E4" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="75"/>
@@ -5005,7 +5005,7 @@
       <c r="E5" s="56"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="88" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -5018,7 +5018,7 @@
       <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="83"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="52" t="s">
         <v>81</v>
       </c>
@@ -5029,7 +5029,7 @@
       <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="83"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="52" t="s">
         <v>92</v>
       </c>
@@ -5040,7 +5040,7 @@
       <c r="E8" s="31"/>
     </row>
     <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="83"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="62" t="s">
         <v>95</v>
       </c>
@@ -5051,7 +5051,7 @@
       <c r="E9" s="31"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="83"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="62" t="s">
         <v>104</v>
       </c>
@@ -5062,7 +5062,7 @@
       <c r="E10" s="31"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="83"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="62" t="s">
         <v>105</v>
       </c>
@@ -5073,7 +5073,7 @@
       <c r="E11" s="31"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="83"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="62" t="s">
         <v>106</v>
       </c>
@@ -5084,7 +5084,7 @@
       <c r="E12" s="31"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="91"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="54" t="s">
         <v>124</v>
       </c>
@@ -5102,7 +5102,7 @@
       <c r="E14" s="56"/>
     </row>
     <row r="15" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="92" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -5115,7 +5115,7 @@
       <c r="E15" s="31"/>
     </row>
     <row r="16" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="87"/>
+      <c r="A16" s="93"/>
       <c r="B16" s="17" t="s">
         <v>150</v>
       </c>
@@ -5126,7 +5126,7 @@
       <c r="E16" s="31"/>
     </row>
     <row r="17" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="87"/>
+      <c r="A17" s="93"/>
       <c r="B17" s="17" t="s">
         <v>149</v>
       </c>
@@ -5137,7 +5137,7 @@
       <c r="E17" s="31"/>
     </row>
     <row r="18" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="87"/>
+      <c r="A18" s="93"/>
       <c r="B18" s="17" t="s">
         <v>148</v>
       </c>
@@ -5148,7 +5148,7 @@
       <c r="E18" s="31"/>
     </row>
     <row r="19" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="87"/>
+      <c r="A19" s="93"/>
       <c r="B19" s="17" t="s">
         <v>147</v>
       </c>
@@ -5159,7 +5159,7 @@
       <c r="E19" s="31"/>
     </row>
     <row r="20" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="87"/>
+      <c r="A20" s="93"/>
       <c r="B20" s="17" t="s">
         <v>146</v>
       </c>
@@ -5170,7 +5170,7 @@
       <c r="E20" s="31"/>
     </row>
     <row r="21" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="87"/>
+      <c r="A21" s="93"/>
       <c r="B21" s="17" t="s">
         <v>145</v>
       </c>
@@ -5181,7 +5181,7 @@
       <c r="E21" s="31"/>
     </row>
     <row r="22" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="87"/>
+      <c r="A22" s="93"/>
       <c r="B22" s="17" t="s">
         <v>144</v>
       </c>
@@ -5192,7 +5192,7 @@
       <c r="E22" s="31"/>
     </row>
     <row r="23" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="87"/>
+      <c r="A23" s="93"/>
       <c r="B23" s="17" t="s">
         <v>151</v>
       </c>
@@ -5203,7 +5203,7 @@
       <c r="E23" s="31"/>
     </row>
     <row r="24" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
+      <c r="A24" s="93"/>
       <c r="B24" s="17" t="s">
         <v>152</v>
       </c>
@@ -5214,7 +5214,7 @@
       <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="87"/>
+      <c r="A25" s="93"/>
       <c r="B25" s="17" t="s">
         <v>153</v>
       </c>
@@ -5225,7 +5225,7 @@
       <c r="E25" s="31"/>
     </row>
     <row r="26" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="87"/>
+      <c r="A26" s="93"/>
       <c r="B26" s="17" t="s">
         <v>154</v>
       </c>
@@ -5236,7 +5236,7 @@
       <c r="E26" s="31"/>
     </row>
     <row r="27" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="87"/>
+      <c r="A27" s="93"/>
       <c r="B27" s="17" t="s">
         <v>155</v>
       </c>
@@ -5247,7 +5247,7 @@
       <c r="E27" s="31"/>
     </row>
     <row r="28" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="87"/>
+      <c r="A28" s="93"/>
       <c r="B28" s="17" t="s">
         <v>209</v>
       </c>
@@ -5258,7 +5258,7 @@
       <c r="E28" s="31"/>
     </row>
     <row r="29" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="87"/>
+      <c r="A29" s="93"/>
       <c r="B29" s="17" t="s">
         <v>210</v>
       </c>
@@ -5269,7 +5269,7 @@
       <c r="E29" s="31"/>
     </row>
     <row r="30" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="87"/>
+      <c r="A30" s="93"/>
       <c r="B30" s="17" t="s">
         <v>211</v>
       </c>
@@ -5280,7 +5280,7 @@
       <c r="E30" s="31"/>
     </row>
     <row r="31" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="87"/>
+      <c r="A31" s="93"/>
       <c r="B31" s="17" t="s">
         <v>212</v>
       </c>
@@ -5291,7 +5291,7 @@
       <c r="E31" s="31"/>
     </row>
     <row r="32" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="87"/>
+      <c r="A32" s="93"/>
       <c r="B32" s="17" t="s">
         <v>157</v>
       </c>
@@ -5302,7 +5302,7 @@
       <c r="E32" s="31"/>
     </row>
     <row r="33" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="87"/>
+      <c r="A33" s="93"/>
       <c r="B33" s="17" t="s">
         <v>158</v>
       </c>
@@ -5313,7 +5313,7 @@
       <c r="E33" s="31"/>
     </row>
     <row r="34" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="87"/>
+      <c r="A34" s="93"/>
       <c r="B34" s="17" t="s">
         <v>159</v>
       </c>
@@ -5324,7 +5324,7 @@
       <c r="E34" s="31"/>
     </row>
     <row r="35" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="87"/>
+      <c r="A35" s="93"/>
       <c r="B35" s="17" t="s">
         <v>156</v>
       </c>
@@ -5335,14 +5335,14 @@
       <c r="E35" s="31"/>
     </row>
     <row r="36" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="87"/>
+      <c r="A36" s="93"/>
       <c r="B36" s="17"/>
       <c r="C36" s="47"/>
       <c r="D36" s="47"/>
       <c r="E36" s="31"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="87"/>
+      <c r="A37" s="93"/>
       <c r="B37" s="2" t="s">
         <v>134</v>
       </c>
@@ -5353,7 +5353,7 @@
       <c r="E37" s="31"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="87"/>
+      <c r="A38" s="93"/>
       <c r="B38" s="2" t="s">
         <v>133</v>
       </c>
@@ -5364,7 +5364,7 @@
       <c r="E38" s="31"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="87"/>
+      <c r="A39" s="93"/>
       <c r="B39" s="2" t="s">
         <v>132</v>
       </c>
@@ -5375,7 +5375,7 @@
       <c r="E39" s="31"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="87"/>
+      <c r="A40" s="93"/>
       <c r="B40" s="2" t="s">
         <v>131</v>
       </c>
@@ -5386,7 +5386,7 @@
       <c r="E40" s="31"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="87"/>
+      <c r="A41" s="93"/>
       <c r="B41" s="2" t="s">
         <v>130</v>
       </c>
@@ -5397,7 +5397,7 @@
       <c r="E41" s="31"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="87"/>
+      <c r="A42" s="93"/>
       <c r="B42" s="2" t="s">
         <v>129</v>
       </c>
@@ -5408,7 +5408,7 @@
       <c r="E42" s="31"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="87"/>
+      <c r="A43" s="93"/>
       <c r="B43" s="2" t="s">
         <v>128</v>
       </c>
@@ -5419,7 +5419,7 @@
       <c r="E43" s="31"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="87"/>
+      <c r="A44" s="93"/>
       <c r="B44" s="2" t="s">
         <v>135</v>
       </c>
@@ -5430,7 +5430,7 @@
       <c r="E44" s="31"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="87"/>
+      <c r="A45" s="93"/>
       <c r="B45" s="2" t="s">
         <v>136</v>
       </c>
@@ -5441,7 +5441,7 @@
       <c r="E45" s="31"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="87"/>
+      <c r="A46" s="93"/>
       <c r="B46" s="2" t="s">
         <v>137</v>
       </c>
@@ -5452,7 +5452,7 @@
       <c r="E46" s="31"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="87"/>
+      <c r="A47" s="93"/>
       <c r="B47" s="2" t="s">
         <v>138</v>
       </c>
@@ -5463,7 +5463,7 @@
       <c r="E47" s="31"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="87"/>
+      <c r="A48" s="93"/>
       <c r="B48" s="2" t="s">
         <v>139</v>
       </c>
@@ -5474,7 +5474,7 @@
       <c r="E48" s="31"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="87"/>
+      <c r="A49" s="93"/>
       <c r="B49" s="2" t="s">
         <v>213</v>
       </c>
@@ -5485,7 +5485,7 @@
       <c r="E49" s="31"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="87"/>
+      <c r="A50" s="93"/>
       <c r="B50" s="2" t="s">
         <v>214</v>
       </c>
@@ -5496,7 +5496,7 @@
       <c r="E50" s="31"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="87"/>
+      <c r="A51" s="93"/>
       <c r="B51" s="2" t="s">
         <v>215</v>
       </c>
@@ -5507,7 +5507,7 @@
       <c r="E51" s="31"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="87"/>
+      <c r="A52" s="93"/>
       <c r="B52" s="2" t="s">
         <v>216</v>
       </c>
@@ -5518,7 +5518,7 @@
       <c r="E52" s="31"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="87"/>
+      <c r="A53" s="93"/>
       <c r="B53" s="26" t="s">
         <v>140</v>
       </c>
@@ -5529,7 +5529,7 @@
       <c r="E53" s="31"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="87"/>
+      <c r="A54" s="93"/>
       <c r="B54" s="2" t="s">
         <v>141</v>
       </c>
@@ -5540,7 +5540,7 @@
       <c r="E54" s="31"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="87"/>
+      <c r="A55" s="93"/>
       <c r="B55" s="2" t="s">
         <v>142</v>
       </c>
@@ -5551,7 +5551,7 @@
       <c r="E55" s="31"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="87"/>
+      <c r="A56" s="93"/>
       <c r="B56" s="2" t="s">
         <v>143</v>
       </c>
@@ -5569,39 +5569,39 @@
       <c r="E57" s="56"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="86" t="s">
+      <c r="A58" s="92" t="s">
         <v>79</v>
       </c>
       <c r="B58" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C58" s="25" t="s">
-        <v>12</v>
-      </c>
+      <c r="C58" s="25"/>
       <c r="D58" s="47"/>
-      <c r="E58" s="31"/>
+      <c r="E58" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="87"/>
+      <c r="A59" s="93"/>
       <c r="B59" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C59" s="25" t="s">
-        <v>12</v>
-      </c>
+      <c r="C59" s="25"/>
       <c r="D59" s="47"/>
-      <c r="E59" s="31"/>
+      <c r="E59" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="88"/>
+      <c r="A60" s="94"/>
       <c r="B60" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C60" s="25" t="s">
-        <v>12</v>
-      </c>
+      <c r="C60" s="25"/>
       <c r="D60" s="47"/>
-      <c r="E60" s="31"/>
+      <c r="E60" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="75"/>
@@ -5611,86 +5611,86 @@
       <c r="E61" s="55"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="82" t="s">
+      <c r="A62" s="88" t="s">
         <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="47"/>
-      <c r="E62" s="31"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="83"/>
+      <c r="A63" s="89"/>
       <c r="B63" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="25" t="s">
-        <v>12</v>
-      </c>
+      <c r="C63" s="25"/>
       <c r="D63" s="47"/>
-      <c r="E63" s="31"/>
+      <c r="E63" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="83"/>
+      <c r="A64" s="89"/>
       <c r="B64" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="25" t="s">
-        <v>12</v>
-      </c>
+      <c r="C64" s="25"/>
       <c r="D64" s="47"/>
-      <c r="E64" s="31"/>
+      <c r="E64" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="83"/>
+      <c r="A65" s="89"/>
       <c r="B65" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C65" s="25" t="s">
-        <v>12</v>
-      </c>
+      <c r="C65" s="25"/>
       <c r="D65" s="47"/>
-      <c r="E65" s="31"/>
+      <c r="E65" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="83"/>
+      <c r="A66" s="89"/>
       <c r="B66" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C66" s="25" t="s">
-        <v>12</v>
-      </c>
+      <c r="C66" s="25"/>
       <c r="D66" s="47"/>
-      <c r="E66" s="31"/>
+      <c r="E66" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="83"/>
+      <c r="A67" s="89"/>
       <c r="B67" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="C67" s="25" t="s">
-        <v>12</v>
-      </c>
+      <c r="C67" s="25"/>
       <c r="D67" s="59"/>
-      <c r="E67" s="60"/>
+      <c r="E67" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="83"/>
+      <c r="A68" s="89"/>
       <c r="B68" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="C68" s="25" t="s">
-        <v>12</v>
-      </c>
+      <c r="C68" s="25"/>
       <c r="D68" s="59"/>
-      <c r="E68" s="60"/>
+      <c r="E68" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="83"/>
+      <c r="A69" s="89"/>
       <c r="B69" s="58" t="s">
         <v>90</v>
       </c>
@@ -5701,26 +5701,26 @@
       <c r="E69" s="60"/>
     </row>
     <row r="70" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A70" s="83"/>
+      <c r="A70" s="89"/>
       <c r="B70" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="C70" s="25" t="s">
-        <v>12</v>
-      </c>
+      <c r="C70" s="25"/>
       <c r="D70" s="59"/>
-      <c r="E70" s="60"/>
+      <c r="E70" s="71" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="71" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A71" s="91"/>
+      <c r="A71" s="90"/>
       <c r="B71" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="C71" s="25" t="s">
-        <v>12</v>
-      </c>
+      <c r="C71" s="25"/>
       <c r="D71" s="59"/>
-      <c r="E71" s="60"/>
+      <c r="E71" s="71" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="75"/>
@@ -5730,7 +5730,7 @@
       <c r="E72" s="63"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="82" t="s">
+      <c r="A73" s="88" t="s">
         <v>97</v>
       </c>
       <c r="B73" s="61" t="s">
@@ -5743,7 +5743,7 @@
       <c r="E73" s="60"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="83"/>
+      <c r="A74" s="89"/>
       <c r="B74" s="61" t="s">
         <v>98</v>
       </c>
@@ -5754,7 +5754,7 @@
       <c r="E74" s="60"/>
     </row>
     <row r="75" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A75" s="83"/>
+      <c r="A75" s="89"/>
       <c r="B75" s="61" t="s">
         <v>99</v>
       </c>
@@ -5765,7 +5765,7 @@
       <c r="E75" s="60"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="83"/>
+      <c r="A76" s="89"/>
       <c r="B76" s="61" t="s">
         <v>103</v>
       </c>
@@ -5776,7 +5776,7 @@
       <c r="E76" s="60"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="83"/>
+      <c r="A77" s="89"/>
       <c r="B77" s="61" t="s">
         <v>100</v>
       </c>
@@ -5787,7 +5787,7 @@
       <c r="E77" s="60"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="83"/>
+      <c r="A78" s="89"/>
       <c r="B78" s="61" t="s">
         <v>101</v>
       </c>
@@ -5798,7 +5798,7 @@
       <c r="E78" s="60"/>
     </row>
     <row r="79" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="84"/>
+      <c r="A79" s="98"/>
       <c r="B79" s="72" t="s">
         <v>102</v>
       </c>
@@ -5833,7 +5833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF97C5A-E76A-4F7F-AE1B-EEE4815545E3}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Scrum/Sprint_backlog.xlsx
+++ b/Documents/Scrum/Sprint_backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCDA165-05F1-46C9-BB8B-59972B45C9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC3DCE0-92D7-4853-975B-10E89C24E9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="5" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="220">
   <si>
     <t>STORY</t>
   </si>
@@ -607,10 +607,6 @@
   </si>
   <si>
     <t xml:space="preserve">Image finalisation de la base de données </t>
-  </si>
-  <si>
-    <t>Trouver un paramètre pour ouverture 
-unique sur toutes les tailles (résolution)</t>
   </si>
   <si>
     <t>Créer l'interface en web (html, php, js + atom)</t>
@@ -2011,6 +2007,12 @@
   </si>
   <si>
     <t>Création du système de l'application sur draw.io</t>
+  </si>
+  <si>
+    <t>Trouver un paramètre pour ouverture unique sur toutes les tailles (résolution)</t>
+  </si>
+  <si>
+    <t>Recherche sur l'API</t>
   </si>
 </sst>
 </file>
@@ -2088,7 +2090,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2161,6 +2163,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -2490,7 +2498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2746,6 +2754,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3103,7 +3117,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3276,7 +3290,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="86"/>
       <c r="B17" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C17" s="58"/>
       <c r="D17" s="58"/>
@@ -3287,7 +3301,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="86"/>
       <c r="B18" s="58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C18" s="58"/>
       <c r="D18" s="58"/>
@@ -3298,7 +3312,7 @@
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="87"/>
       <c r="B19" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -3365,7 +3379,7 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="89"/>
       <c r="B3" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3400,7 +3414,7 @@
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="89"/>
       <c r="B6" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3423,7 +3437,7 @@
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="89"/>
       <c r="B8" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -3456,7 +3470,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="89"/>
       <c r="B11" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -3467,7 +3481,7 @@
     <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="89"/>
       <c r="B12" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -3478,7 +3492,7 @@
     <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="90"/>
       <c r="B13" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -3495,10 +3509,10 @@
     </row>
     <row r="15" spans="1:8" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="81" t="s">
         <v>217</v>
-      </c>
-      <c r="B15" s="81" t="s">
-        <v>218</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -3553,7 +3567,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="2"/>
@@ -3565,7 +3579,7 @@
     <row r="3" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="86"/>
       <c r="B3" s="65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="2"/>
@@ -3577,7 +3591,7 @@
     <row r="4" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="86"/>
       <c r="B4" s="65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="2"/>
@@ -3589,7 +3603,7 @@
     <row r="5" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="86"/>
       <c r="B5" s="65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="2"/>
@@ -3601,7 +3615,7 @@
     <row r="6" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="86"/>
       <c r="B6" s="65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="2"/>
@@ -3613,7 +3627,7 @@
     <row r="7" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="86"/>
       <c r="B7" s="65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="2"/>
@@ -3625,7 +3639,7 @@
     <row r="8" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="86"/>
       <c r="B8" s="65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="2"/>
@@ -3637,7 +3651,7 @@
     <row r="9" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="86"/>
       <c r="B9" s="65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="2"/>
@@ -3649,7 +3663,7 @@
     <row r="10" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="86"/>
       <c r="B10" s="65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="2"/>
@@ -3661,7 +3675,7 @@
     <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="86"/>
       <c r="B11" s="65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="2"/>
@@ -3673,7 +3687,7 @@
     <row r="12" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="86"/>
       <c r="B12" s="65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="2"/>
@@ -3685,7 +3699,7 @@
     <row r="13" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="86"/>
       <c r="B13" s="65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="2"/>
@@ -3697,7 +3711,7 @@
     <row r="14" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="86"/>
       <c r="B14" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="2"/>
@@ -3709,7 +3723,7 @@
     <row r="15" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="86"/>
       <c r="B15" s="65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="2"/>
@@ -3721,7 +3735,7 @@
     <row r="16" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="86"/>
       <c r="B16" s="65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="2"/>
@@ -3733,7 +3747,7 @@
     <row r="17" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="86"/>
       <c r="B17" s="65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="2"/>
@@ -3745,7 +3759,7 @@
     <row r="18" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="86"/>
       <c r="B18" s="65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="2"/>
@@ -3757,7 +3771,7 @@
     <row r="19" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="86"/>
       <c r="B19" s="65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="2"/>
@@ -3769,7 +3783,7 @@
     <row r="20" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="86"/>
       <c r="B20" s="65" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="2"/>
@@ -3781,7 +3795,7 @@
     <row r="21" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="91"/>
       <c r="B21" s="65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="2"/>
@@ -3803,252 +3817,252 @@
         <v>29</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="2"/>
       <c r="E23" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="93"/>
       <c r="B24" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="2"/>
       <c r="E24" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="93"/>
       <c r="B25" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="2"/>
       <c r="E25" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="93"/>
       <c r="B26" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="2"/>
       <c r="E26" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="93"/>
       <c r="B27" s="66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="2"/>
       <c r="E27" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="93"/>
       <c r="B28" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="2"/>
       <c r="E28" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="93"/>
       <c r="B29" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="2"/>
       <c r="E29" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="93"/>
       <c r="B30" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="2"/>
       <c r="E30" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="93"/>
       <c r="B31" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="2"/>
       <c r="E31" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="93"/>
       <c r="B32" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="2"/>
       <c r="E32" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="93"/>
       <c r="B33" s="66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="2"/>
       <c r="E33" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="93"/>
       <c r="B34" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="2"/>
       <c r="E34" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="93"/>
       <c r="B35" s="67" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="2"/>
       <c r="E35" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="93"/>
       <c r="B36" s="66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="2"/>
       <c r="E36" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="93"/>
       <c r="B37" s="41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="2"/>
       <c r="E37" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="93"/>
       <c r="B38" s="66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="2"/>
       <c r="E38" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="93"/>
       <c r="B39" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="2"/>
       <c r="E39" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="93"/>
       <c r="B40" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="2"/>
       <c r="E40" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="93"/>
       <c r="B41" s="66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="2"/>
       <c r="E41" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="93"/>
       <c r="B42" s="66" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C42" s="25"/>
       <c r="D42" s="2"/>
       <c r="E42" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="94"/>
       <c r="B43" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="2"/>
       <c r="E43" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F43" s="1"/>
     </row>
@@ -4065,7 +4079,7 @@
         <v>76</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C45" s="25"/>
       <c r="D45" s="2"/>
@@ -4161,7 +4175,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="93"/>
       <c r="B3" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
@@ -4735,7 +4749,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="40"/>
@@ -4747,7 +4761,7 @@
     <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="86"/>
       <c r="B3" s="66" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
@@ -4759,7 +4773,7 @@
     <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="86"/>
       <c r="B4" s="66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="40"/>
@@ -4771,7 +4785,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="91"/>
       <c r="B5" s="66" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="40"/>
@@ -4790,10 +4804,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="93" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4805,7 +4819,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="93"/>
       <c r="B8" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4817,7 +4831,7 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="93"/>
       <c r="B9" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -4829,7 +4843,7 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="93"/>
       <c r="B10" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -4841,7 +4855,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="93"/>
       <c r="B11" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -4853,7 +4867,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="93"/>
       <c r="B12" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -4933,10 +4947,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77982FF-C4D2-41E8-A83F-1D743BC8CBAF}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5011,88 +5025,88 @@
       <c r="B6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="47" t="s">
-        <v>12</v>
-      </c>
+      <c r="C6" s="47"/>
       <c r="D6" s="47"/>
-      <c r="E6" s="31"/>
+      <c r="E6" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="89"/>
       <c r="B7" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="47" t="s">
-        <v>12</v>
-      </c>
+      <c r="C7" s="47"/>
       <c r="D7" s="53"/>
-      <c r="E7" s="31"/>
+      <c r="E7" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="89"/>
       <c r="B8" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="47" t="s">
-        <v>12</v>
-      </c>
+      <c r="C8" s="47"/>
       <c r="D8" s="53"/>
-      <c r="E8" s="31"/>
-    </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E8" s="31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="89"/>
       <c r="B9" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="C9" s="47"/>
       <c r="D9" s="53"/>
-      <c r="E9" s="31"/>
+      <c r="E9" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="89"/>
       <c r="B10" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C10" s="47"/>
       <c r="D10" s="53"/>
-      <c r="E10" s="31"/>
+      <c r="E10" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="89"/>
       <c r="B11" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C11" s="47"/>
       <c r="D11" s="53"/>
-      <c r="E11" s="31"/>
+      <c r="E11" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="89"/>
       <c r="B12" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C12" s="47"/>
       <c r="D12" s="53"/>
-      <c r="E12" s="31"/>
+      <c r="E12" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="90"/>
       <c r="B13" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C13" s="47"/>
       <c r="D13" s="53"/>
-      <c r="E13" s="31"/>
+      <c r="E13" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="55"/>
@@ -5108,231 +5122,231 @@
       <c r="B15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="47" t="s">
-        <v>12</v>
-      </c>
+      <c r="C15" s="47"/>
       <c r="D15" s="47"/>
-      <c r="E15" s="31"/>
+      <c r="E15" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="93"/>
       <c r="B16" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="C16" s="47"/>
       <c r="D16" s="47"/>
-      <c r="E16" s="31"/>
+      <c r="E16" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="93"/>
       <c r="B17" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C17" s="47"/>
       <c r="D17" s="47"/>
-      <c r="E17" s="31"/>
+      <c r="E17" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="93"/>
       <c r="B18" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C18" s="47"/>
       <c r="D18" s="47"/>
-      <c r="E18" s="31"/>
+      <c r="E18" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="93"/>
       <c r="B19" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C19" s="47"/>
       <c r="D19" s="47"/>
-      <c r="E19" s="31"/>
+      <c r="E19" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="93"/>
       <c r="B20" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C20" s="47"/>
       <c r="D20" s="47"/>
-      <c r="E20" s="31"/>
+      <c r="E20" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="93"/>
       <c r="B21" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C21" s="47"/>
       <c r="D21" s="47"/>
-      <c r="E21" s="31"/>
+      <c r="E21" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="93"/>
       <c r="B22" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C22" s="47"/>
       <c r="D22" s="47"/>
-      <c r="E22" s="31"/>
+      <c r="E22" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="93"/>
       <c r="B23" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C23" s="47"/>
       <c r="D23" s="47"/>
-      <c r="E23" s="31"/>
+      <c r="E23" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="93"/>
       <c r="B24" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C24" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C24" s="47"/>
       <c r="D24" s="47"/>
-      <c r="E24" s="31"/>
+      <c r="E24" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="93"/>
       <c r="B25" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C25" s="47"/>
       <c r="D25" s="47"/>
-      <c r="E25" s="31"/>
+      <c r="E25" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="93"/>
       <c r="B26" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C26" s="47"/>
       <c r="D26" s="47"/>
-      <c r="E26" s="31"/>
+      <c r="E26" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="93"/>
       <c r="B27" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C27" s="47"/>
       <c r="D27" s="47"/>
-      <c r="E27" s="31"/>
+      <c r="E27" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="93"/>
       <c r="B28" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="C28" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="C28" s="47"/>
       <c r="D28" s="47"/>
-      <c r="E28" s="31"/>
+      <c r="E28" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="93"/>
       <c r="B29" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="C29" s="47"/>
       <c r="D29" s="47"/>
-      <c r="E29" s="31"/>
+      <c r="E29" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="93"/>
       <c r="B30" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="C30" s="47"/>
       <c r="D30" s="47"/>
-      <c r="E30" s="31"/>
+      <c r="E30" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="93"/>
       <c r="B31" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C31" s="47"/>
       <c r="D31" s="47"/>
-      <c r="E31" s="31"/>
+      <c r="E31" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="93"/>
       <c r="B32" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C32" s="47"/>
       <c r="D32" s="47"/>
-      <c r="E32" s="31"/>
+      <c r="E32" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="93"/>
       <c r="B33" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C33" s="47"/>
       <c r="D33" s="47"/>
-      <c r="E33" s="31"/>
+      <c r="E33" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="93"/>
       <c r="B34" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C34" s="47"/>
       <c r="D34" s="47"/>
-      <c r="E34" s="31"/>
+      <c r="E34" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="93"/>
       <c r="B35" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C35" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C35" s="47"/>
       <c r="D35" s="47"/>
-      <c r="E35" s="31"/>
+      <c r="E35" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="93"/>
@@ -5344,222 +5358,222 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="93"/>
       <c r="B37" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C37" s="47"/>
       <c r="D37" s="47"/>
-      <c r="E37" s="31"/>
+      <c r="E37" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="93"/>
       <c r="B38" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C38" s="47"/>
       <c r="D38" s="47"/>
-      <c r="E38" s="31"/>
+      <c r="E38" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="93"/>
       <c r="B39" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C39" s="47"/>
       <c r="D39" s="47"/>
-      <c r="E39" s="31"/>
+      <c r="E39" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="93"/>
       <c r="B40" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C40" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C40" s="47"/>
       <c r="D40" s="47"/>
-      <c r="E40" s="31"/>
+      <c r="E40" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="93"/>
       <c r="B41" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C41" s="47"/>
       <c r="D41" s="47"/>
-      <c r="E41" s="31"/>
+      <c r="E41" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="93"/>
       <c r="B42" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C42" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C42" s="47"/>
       <c r="D42" s="47"/>
-      <c r="E42" s="31"/>
+      <c r="E42" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="93"/>
       <c r="B43" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C43" s="47"/>
       <c r="D43" s="47"/>
-      <c r="E43" s="31"/>
+      <c r="E43" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="93"/>
       <c r="B44" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C44" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C44" s="47"/>
       <c r="D44" s="47"/>
-      <c r="E44" s="31"/>
+      <c r="E44" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="93"/>
       <c r="B45" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C45" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C45" s="47"/>
       <c r="D45" s="47"/>
-      <c r="E45" s="31"/>
+      <c r="E45" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="93"/>
       <c r="B46" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C46" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C46" s="47"/>
       <c r="D46" s="47"/>
-      <c r="E46" s="31"/>
+      <c r="E46" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="93"/>
       <c r="B47" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C47" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C47" s="47"/>
       <c r="D47" s="47"/>
-      <c r="E47" s="31"/>
+      <c r="E47" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="93"/>
       <c r="B48" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C48" s="47"/>
       <c r="D48" s="47"/>
-      <c r="E48" s="31"/>
+      <c r="E48" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="93"/>
       <c r="B49" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C49" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C49" s="47"/>
       <c r="D49" s="47"/>
-      <c r="E49" s="31"/>
+      <c r="E49" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="93"/>
       <c r="B50" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C50" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C50" s="47"/>
       <c r="D50" s="47"/>
-      <c r="E50" s="31"/>
+      <c r="E50" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="93"/>
       <c r="B51" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C51" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="C51" s="47"/>
       <c r="D51" s="47"/>
-      <c r="E51" s="31"/>
+      <c r="E51" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="93"/>
       <c r="B52" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C52" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C52" s="47"/>
       <c r="D52" s="47"/>
-      <c r="E52" s="31"/>
+      <c r="E52" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="93"/>
       <c r="B53" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C53" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C53" s="47"/>
       <c r="D53" s="47"/>
-      <c r="E53" s="31"/>
+      <c r="E53" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="93"/>
       <c r="B54" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C54" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C54" s="47"/>
       <c r="D54" s="47"/>
-      <c r="E54" s="31"/>
+      <c r="E54" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="93"/>
       <c r="B55" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C55" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C55" s="47"/>
       <c r="D55" s="47"/>
-      <c r="E55" s="31"/>
+      <c r="E55" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="93"/>
       <c r="B56" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C56" s="47"/>
       <c r="D56" s="47"/>
-      <c r="E56" s="31"/>
+      <c r="E56" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="75"/>
@@ -5573,7 +5587,7 @@
         <v>79</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C58" s="25"/>
       <c r="D58" s="47"/>
@@ -5694,11 +5708,11 @@
       <c r="B69" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="C69" s="25" t="s">
-        <v>12</v>
-      </c>
+      <c r="C69" s="25"/>
       <c r="D69" s="59"/>
-      <c r="E69" s="60"/>
+      <c r="E69" s="60" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="70" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="89"/>
@@ -5714,7 +5728,7 @@
     <row r="71" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="90"/>
       <c r="B71" s="61" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C71" s="25"/>
       <c r="D71" s="59"/>
@@ -5731,21 +5745,21 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B73" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="C73" s="64" t="s">
-        <v>12</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="C73" s="64"/>
       <c r="D73" s="59"/>
-      <c r="E73" s="60"/>
+      <c r="E73" s="60" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="89"/>
       <c r="B74" s="61" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C74" s="64" t="s">
         <v>12</v>
@@ -5753,10 +5767,10 @@
       <c r="D74" s="59"/>
       <c r="E74" s="60"/>
     </row>
-    <row r="75" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="89"/>
       <c r="B75" s="61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C75" s="64" t="s">
         <v>12</v>
@@ -5764,10 +5778,10 @@
       <c r="D75" s="59"/>
       <c r="E75" s="60"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="89"/>
       <c r="B76" s="61" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C76" s="64" t="s">
         <v>12</v>
@@ -5778,7 +5792,7 @@
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="89"/>
       <c r="B77" s="61" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C77" s="64" t="s">
         <v>12</v>
@@ -5789,7 +5803,7 @@
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="89"/>
       <c r="B78" s="61" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C78" s="64" t="s">
         <v>12</v>
@@ -5797,27 +5811,38 @@
       <c r="D78" s="59"/>
       <c r="E78" s="60"/>
     </row>
-    <row r="79" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="98"/>
-      <c r="B79" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="C79" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="48"/>
-      <c r="E79" s="43"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="89"/>
+      <c r="B79" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="59"/>
+      <c r="E79" s="60"/>
+    </row>
+    <row r="80" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="98"/>
+      <c r="B80" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="48"/>
+      <c r="E80" s="43"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A73:A79"/>
+    <mergeCell ref="A73:A80"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A6:A13"/>
     <mergeCell ref="A15:A56"/>
@@ -5831,15 +5856,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF97C5A-E76A-4F7F-AE1B-EEE4815545E3}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -5861,93 +5887,129 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="47" t="s">
+        <v>12</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="4"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="47" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="4"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>12</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>12</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+    <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="89"/>
+      <c r="B8" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>12</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>12</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>12</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>12</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="103"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="102"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
@@ -5991,21 +6053,32 @@
       <c r="D19" s="2"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:A12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/Scrum/Sprint_backlog.xlsx
+++ b/Documents/Scrum/Sprint_backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC3DCE0-92D7-4853-975B-10E89C24E9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A4D34C-0DBD-45DD-BA81-D112DF81C0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="5" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
   </bookViews>

--- a/Documents/Scrum/Sprint_backlog.xlsx
+++ b/Documents/Scrum/Sprint_backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A4D34C-0DBD-45DD-BA81-D112DF81C0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FB1C74-446A-4B0E-8C12-ECD879ABDCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="5" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="6" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint_0." sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="223">
   <si>
     <t>STORY</t>
   </si>
@@ -2013,6 +2013,15 @@
   </si>
   <si>
     <t>Recherche sur l'API</t>
+  </si>
+  <si>
+    <t>Enlever le nom et prénom De la fenêtre "Paramétres"</t>
+  </si>
+  <si>
+    <t>Créer le code pour le mot de passe oublié</t>
+  </si>
+  <si>
+    <t>Faire le POST et DELETE pour la fenêtre "stock matériel"</t>
   </si>
 </sst>
 </file>
@@ -2498,7 +2507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2703,63 +2712,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3113,7 +3123,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="88" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -3127,7 +3137,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="83"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
@@ -3139,7 +3149,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="83"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -3151,7 +3161,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="83"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
@@ -3163,7 +3173,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="83"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -3175,7 +3185,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="83"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
@@ -3187,7 +3197,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="84"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
@@ -3207,7 +3217,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="91" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3220,7 +3230,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="86"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
@@ -3231,7 +3241,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="86"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
@@ -3243,7 +3253,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="86"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="2" t="s">
         <v>75</v>
       </c>
@@ -3255,7 +3265,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="86"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
@@ -3266,7 +3276,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="86"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
@@ -3277,7 +3287,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="86"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
@@ -3288,7 +3298,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="86"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="58" t="s">
         <v>187</v>
       </c>
@@ -3299,7 +3309,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="86"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="58" t="s">
         <v>188</v>
       </c>
@@ -3310,7 +3320,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="87"/>
+      <c r="A19" s="93"/>
       <c r="B19" s="6" t="s">
         <v>189</v>
       </c>
@@ -3363,7 +3373,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="94" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -3377,7 +3387,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="89"/>
+      <c r="A3" s="95"/>
       <c r="B3" s="17" t="s">
         <v>192</v>
       </c>
@@ -3389,7 +3399,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="89"/>
+      <c r="A4" s="95"/>
       <c r="B4" s="17" t="s">
         <v>9</v>
       </c>
@@ -3401,7 +3411,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="89"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3412,7 +3422,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="89"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="17" t="s">
         <v>191</v>
       </c>
@@ -3424,7 +3434,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="89"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3435,7 +3445,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="89"/>
+      <c r="A8" s="95"/>
       <c r="B8" s="17" t="s">
         <v>185</v>
       </c>
@@ -3446,7 +3456,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="89"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="17" t="s">
         <v>11</v>
       </c>
@@ -3457,7 +3467,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="89"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -3468,7 +3478,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="89"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="17" t="s">
         <v>184</v>
       </c>
@@ -3479,7 +3489,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="89"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="17" t="s">
         <v>183</v>
       </c>
@@ -3490,7 +3500,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="90"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="17" t="s">
         <v>190</v>
       </c>
@@ -3563,7 +3573,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="91" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="65" t="s">
@@ -3577,7 +3587,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="86"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="65" t="s">
         <v>106</v>
       </c>
@@ -3589,7 +3599,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="86"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="65" t="s">
         <v>120</v>
       </c>
@@ -3601,7 +3611,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="86"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="65" t="s">
         <v>107</v>
       </c>
@@ -3613,7 +3623,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="86"/>
+      <c r="A6" s="92"/>
       <c r="B6" s="65" t="s">
         <v>121</v>
       </c>
@@ -3625,7 +3635,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="86"/>
+      <c r="A7" s="92"/>
       <c r="B7" s="65" t="s">
         <v>109</v>
       </c>
@@ -3637,7 +3647,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="86"/>
+      <c r="A8" s="92"/>
       <c r="B8" s="65" t="s">
         <v>193</v>
       </c>
@@ -3649,7 +3659,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="86"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="65" t="s">
         <v>108</v>
       </c>
@@ -3661,7 +3671,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="86"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="65" t="s">
         <v>110</v>
       </c>
@@ -3673,7 +3683,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="86"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="65" t="s">
         <v>194</v>
       </c>
@@ -3685,7 +3695,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="86"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="65" t="s">
         <v>195</v>
       </c>
@@ -3697,7 +3707,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="86"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="65" t="s">
         <v>111</v>
       </c>
@@ -3709,7 +3719,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="86"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="65" t="s">
         <v>196</v>
       </c>
@@ -3721,7 +3731,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="86"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="65" t="s">
         <v>113</v>
       </c>
@@ -3733,7 +3743,7 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="86"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="65" t="s">
         <v>114</v>
       </c>
@@ -3745,7 +3755,7 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="86"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="65" t="s">
         <v>117</v>
       </c>
@@ -3757,7 +3767,7 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="86"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="65" t="s">
         <v>116</v>
       </c>
@@ -3769,7 +3779,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="86"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="65" t="s">
         <v>115</v>
       </c>
@@ -3781,7 +3791,7 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="86"/>
+      <c r="A20" s="92"/>
       <c r="B20" s="65" t="s">
         <v>118</v>
       </c>
@@ -3793,7 +3803,7 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="91"/>
+      <c r="A21" s="97"/>
       <c r="B21" s="65" t="s">
         <v>119</v>
       </c>
@@ -3813,7 +3823,7 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="92" t="s">
+      <c r="A23" s="98" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="38" t="s">
@@ -3827,7 +3837,7 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="93"/>
+      <c r="A24" s="99"/>
       <c r="B24" s="17" t="s">
         <v>172</v>
       </c>
@@ -3839,7 +3849,7 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="93"/>
+      <c r="A25" s="99"/>
       <c r="B25" s="17" t="s">
         <v>171</v>
       </c>
@@ -3851,7 +3861,7 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="93"/>
+      <c r="A26" s="99"/>
       <c r="B26" s="17" t="s">
         <v>170</v>
       </c>
@@ -3863,7 +3873,7 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="93"/>
+      <c r="A27" s="99"/>
       <c r="B27" s="66" t="s">
         <v>169</v>
       </c>
@@ -3875,7 +3885,7 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="93"/>
+      <c r="A28" s="99"/>
       <c r="B28" s="17" t="s">
         <v>182</v>
       </c>
@@ -3887,7 +3897,7 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="93"/>
+      <c r="A29" s="99"/>
       <c r="B29" s="17" t="s">
         <v>173</v>
       </c>
@@ -3899,7 +3909,7 @@
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="93"/>
+      <c r="A30" s="99"/>
       <c r="B30" s="17" t="s">
         <v>174</v>
       </c>
@@ -3911,7 +3921,7 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="93"/>
+      <c r="A31" s="99"/>
       <c r="B31" s="2" t="s">
         <v>162</v>
       </c>
@@ -3923,7 +3933,7 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="93"/>
+      <c r="A32" s="99"/>
       <c r="B32" s="17" t="s">
         <v>175</v>
       </c>
@@ -3935,7 +3945,7 @@
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="93"/>
+      <c r="A33" s="99"/>
       <c r="B33" s="66" t="s">
         <v>176</v>
       </c>
@@ -3947,7 +3957,7 @@
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="93"/>
+      <c r="A34" s="99"/>
       <c r="B34" s="38" t="s">
         <v>163</v>
       </c>
@@ -3959,7 +3969,7 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="93"/>
+      <c r="A35" s="99"/>
       <c r="B35" s="67" t="s">
         <v>177</v>
       </c>
@@ -3971,7 +3981,7 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="93"/>
+      <c r="A36" s="99"/>
       <c r="B36" s="66" t="s">
         <v>178</v>
       </c>
@@ -3983,7 +3993,7 @@
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="93"/>
+      <c r="A37" s="99"/>
       <c r="B37" s="41" t="s">
         <v>164</v>
       </c>
@@ -3995,7 +4005,7 @@
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="93"/>
+      <c r="A38" s="99"/>
       <c r="B38" s="66" t="s">
         <v>179</v>
       </c>
@@ -4007,7 +4017,7 @@
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="93"/>
+      <c r="A39" s="99"/>
       <c r="B39" s="38" t="s">
         <v>165</v>
       </c>
@@ -4019,7 +4029,7 @@
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="93"/>
+      <c r="A40" s="99"/>
       <c r="B40" s="38" t="s">
         <v>166</v>
       </c>
@@ -4031,7 +4041,7 @@
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="93"/>
+      <c r="A41" s="99"/>
       <c r="B41" s="66" t="s">
         <v>181</v>
       </c>
@@ -4043,7 +4053,7 @@
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="93"/>
+      <c r="A42" s="99"/>
       <c r="B42" s="66" t="s">
         <v>180</v>
       </c>
@@ -4055,7 +4065,7 @@
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="94"/>
+      <c r="A43" s="100"/>
       <c r="B43" s="38" t="s">
         <v>167</v>
       </c>
@@ -4075,7 +4085,7 @@
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="92" t="s">
+      <c r="A45" s="98" t="s">
         <v>76</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -4089,7 +4099,7 @@
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="95"/>
+      <c r="A46" s="101"/>
       <c r="B46" s="6" t="s">
         <v>30</v>
       </c>
@@ -4159,7 +4169,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="91" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="38" t="s">
@@ -4173,7 +4183,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="93"/>
+      <c r="A3" s="99"/>
       <c r="B3" s="38" t="s">
         <v>160</v>
       </c>
@@ -4185,7 +4195,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="93"/>
+      <c r="A4" s="99"/>
       <c r="B4" s="38" t="s">
         <v>52</v>
       </c>
@@ -4197,7 +4207,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="93"/>
+      <c r="A5" s="99"/>
       <c r="B5" s="2" t="s">
         <v>51</v>
       </c>
@@ -4209,7 +4219,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="93"/>
+      <c r="A6" s="99"/>
       <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
@@ -4221,7 +4231,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="93"/>
+      <c r="A7" s="99"/>
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
@@ -4233,7 +4243,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="93"/>
+      <c r="A8" s="99"/>
       <c r="B8" s="38" t="s">
         <v>55</v>
       </c>
@@ -4245,7 +4255,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="93"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="2" t="s">
         <v>56</v>
       </c>
@@ -4257,7 +4267,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="93"/>
+      <c r="A10" s="99"/>
       <c r="B10" s="2" t="s">
         <v>57</v>
       </c>
@@ -4269,7 +4279,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="93"/>
+      <c r="A11" s="99"/>
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -4281,7 +4291,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="93"/>
+      <c r="A12" s="99"/>
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -4293,7 +4303,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="93"/>
+      <c r="A13" s="99"/>
       <c r="B13" s="2" t="s">
         <v>60</v>
       </c>
@@ -4305,7 +4315,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="93"/>
+      <c r="A14" s="99"/>
       <c r="B14" s="38" t="s">
         <v>61</v>
       </c>
@@ -4317,7 +4327,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="93"/>
+      <c r="A15" s="99"/>
       <c r="B15" s="38" t="s">
         <v>62</v>
       </c>
@@ -4329,7 +4339,7 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="93"/>
+      <c r="A16" s="99"/>
       <c r="B16" s="41" t="s">
         <v>63</v>
       </c>
@@ -4341,7 +4351,7 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="93"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="38" t="s">
         <v>64</v>
       </c>
@@ -4353,7 +4363,7 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="93"/>
+      <c r="A18" s="99"/>
       <c r="B18" s="41" t="s">
         <v>65</v>
       </c>
@@ -4365,7 +4375,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="93"/>
+      <c r="A19" s="99"/>
       <c r="B19" s="38" t="s">
         <v>67</v>
       </c>
@@ -4377,7 +4387,7 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="93"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="38" t="s">
         <v>68</v>
       </c>
@@ -4389,7 +4399,7 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="93"/>
+      <c r="A21" s="99"/>
       <c r="B21" s="38" t="s">
         <v>69</v>
       </c>
@@ -4401,7 +4411,7 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="93"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="38" t="s">
         <v>70</v>
       </c>
@@ -4413,7 +4423,7 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="93"/>
+      <c r="A23" s="99"/>
       <c r="B23" s="38" t="s">
         <v>71</v>
       </c>
@@ -4425,7 +4435,7 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="94"/>
+      <c r="A24" s="100"/>
       <c r="B24" s="38" t="s">
         <v>72</v>
       </c>
@@ -4445,7 +4455,7 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="92" t="s">
+      <c r="A26" s="98" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -4458,7 +4468,7 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="93"/>
+      <c r="A27" s="99"/>
       <c r="B27" s="2" t="s">
         <v>45</v>
       </c>
@@ -4470,7 +4480,7 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="93"/>
+      <c r="A28" s="99"/>
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -4482,7 +4492,7 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="93"/>
+      <c r="A29" s="99"/>
       <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
@@ -4494,7 +4504,7 @@
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="93"/>
+      <c r="A30" s="99"/>
       <c r="B30" s="2" t="s">
         <v>50</v>
       </c>
@@ -4506,7 +4516,7 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="93"/>
+      <c r="A31" s="99"/>
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
@@ -4518,7 +4528,7 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="93"/>
+      <c r="A32" s="99"/>
       <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
@@ -4530,7 +4540,7 @@
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="93"/>
+      <c r="A33" s="99"/>
       <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
@@ -4542,7 +4552,7 @@
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="93"/>
+      <c r="A34" s="99"/>
       <c r="B34" s="26" t="s">
         <v>40</v>
       </c>
@@ -4554,7 +4564,7 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="93"/>
+      <c r="A35" s="99"/>
       <c r="B35" s="2" t="s">
         <v>41</v>
       </c>
@@ -4566,7 +4576,7 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="93"/>
+      <c r="A36" s="99"/>
       <c r="B36" s="2" t="s">
         <v>42</v>
       </c>
@@ -4578,7 +4588,7 @@
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="93"/>
+      <c r="A37" s="99"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -4598,7 +4608,7 @@
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="96" t="s">
+      <c r="A39" s="102" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="74" t="s">
@@ -4611,7 +4621,7 @@
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="83"/>
+      <c r="A40" s="89"/>
       <c r="B40" s="17" t="s">
         <v>33</v>
       </c>
@@ -4622,7 +4632,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="83"/>
+      <c r="A41" s="89"/>
       <c r="B41" s="17" t="s">
         <v>34</v>
       </c>
@@ -4634,7 +4644,7 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="84"/>
+      <c r="A42" s="90"/>
       <c r="B42" s="17" t="s">
         <v>35</v>
       </c>
@@ -4652,7 +4662,7 @@
       <c r="E43" s="29"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="92" t="s">
+      <c r="A44" s="98" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -4665,7 +4675,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="93"/>
+      <c r="A45" s="99"/>
       <c r="B45" s="2" t="s">
         <v>48</v>
       </c>
@@ -4676,7 +4686,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="95"/>
+      <c r="A46" s="101"/>
       <c r="B46" s="6" t="s">
         <v>49</v>
       </c>
@@ -4745,7 +4755,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="92" t="s">
         <v>79</v>
       </c>
       <c r="B2" s="66" t="s">
@@ -4759,7 +4769,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="86"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="66" t="s">
         <v>199</v>
       </c>
@@ -4771,7 +4781,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="86"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="66" t="s">
         <v>200</v>
       </c>
@@ -4783,7 +4793,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="91"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="66" t="s">
         <v>201</v>
       </c>
@@ -4803,7 +4813,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="99" t="s">
         <v>197</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4817,7 +4827,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="93"/>
+      <c r="A8" s="99"/>
       <c r="B8" s="2" t="s">
         <v>203</v>
       </c>
@@ -4829,7 +4839,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="93"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="2" t="s">
         <v>206</v>
       </c>
@@ -4841,7 +4851,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="93"/>
+      <c r="A10" s="99"/>
       <c r="B10" s="2" t="s">
         <v>204</v>
       </c>
@@ -4853,7 +4863,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="93"/>
+      <c r="A11" s="99"/>
       <c r="B11" s="2" t="s">
         <v>202</v>
       </c>
@@ -4865,7 +4875,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="93"/>
+      <c r="A12" s="99"/>
       <c r="B12" s="26" t="s">
         <v>205</v>
       </c>
@@ -4885,7 +4895,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="102" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="74" t="s">
@@ -4898,7 +4908,7 @@
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="83"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="17" t="s">
         <v>34</v>
       </c>
@@ -4910,7 +4920,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="97"/>
+      <c r="A16" s="103"/>
       <c r="B16" s="72" t="s">
         <v>35</v>
       </c>
@@ -4949,7 +4959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77982FF-C4D2-41E8-A83F-1D743BC8CBAF}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
@@ -4977,7 +4987,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="94" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -4990,7 +5000,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="89"/>
+      <c r="A3" s="95"/>
       <c r="B3" s="17" t="s">
         <v>34</v>
       </c>
@@ -5001,7 +5011,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="89"/>
+      <c r="A4" s="95"/>
       <c r="B4" s="17" t="s">
         <v>35</v>
       </c>
@@ -5019,7 +5029,7 @@
       <c r="E5" s="56"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="94" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -5032,7 +5042,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="89"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="52" t="s">
         <v>81</v>
       </c>
@@ -5043,7 +5053,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="89"/>
+      <c r="A8" s="95"/>
       <c r="B8" s="52" t="s">
         <v>92</v>
       </c>
@@ -5054,7 +5064,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="89"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="62" t="s">
         <v>218</v>
       </c>
@@ -5065,7 +5075,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="89"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="62" t="s">
         <v>103</v>
       </c>
@@ -5076,7 +5086,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="89"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="62" t="s">
         <v>104</v>
       </c>
@@ -5087,7 +5097,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="89"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="62" t="s">
         <v>105</v>
       </c>
@@ -5098,7 +5108,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="90"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="54" t="s">
         <v>123</v>
       </c>
@@ -5116,7 +5126,7 @@
       <c r="E14" s="56"/>
     </row>
     <row r="15" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="98" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -5129,7 +5139,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="93"/>
+      <c r="A16" s="99"/>
       <c r="B16" s="17" t="s">
         <v>149</v>
       </c>
@@ -5140,7 +5150,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="93"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="17" t="s">
         <v>148</v>
       </c>
@@ -5151,7 +5161,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="93"/>
+      <c r="A18" s="99"/>
       <c r="B18" s="17" t="s">
         <v>147</v>
       </c>
@@ -5162,7 +5172,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="93"/>
+      <c r="A19" s="99"/>
       <c r="B19" s="17" t="s">
         <v>146</v>
       </c>
@@ -5173,7 +5183,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="93"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="17" t="s">
         <v>145</v>
       </c>
@@ -5184,7 +5194,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="93"/>
+      <c r="A21" s="99"/>
       <c r="B21" s="17" t="s">
         <v>144</v>
       </c>
@@ -5195,7 +5205,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="93"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="17" t="s">
         <v>143</v>
       </c>
@@ -5206,7 +5216,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="93"/>
+      <c r="A23" s="99"/>
       <c r="B23" s="17" t="s">
         <v>150</v>
       </c>
@@ -5217,7 +5227,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="93"/>
+      <c r="A24" s="99"/>
       <c r="B24" s="17" t="s">
         <v>151</v>
       </c>
@@ -5228,7 +5238,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="93"/>
+      <c r="A25" s="99"/>
       <c r="B25" s="17" t="s">
         <v>152</v>
       </c>
@@ -5239,7 +5249,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="93"/>
+      <c r="A26" s="99"/>
       <c r="B26" s="17" t="s">
         <v>153</v>
       </c>
@@ -5250,7 +5260,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="93"/>
+      <c r="A27" s="99"/>
       <c r="B27" s="17" t="s">
         <v>154</v>
       </c>
@@ -5261,7 +5271,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="93"/>
+      <c r="A28" s="99"/>
       <c r="B28" s="17" t="s">
         <v>208</v>
       </c>
@@ -5272,7 +5282,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="93"/>
+      <c r="A29" s="99"/>
       <c r="B29" s="17" t="s">
         <v>209</v>
       </c>
@@ -5283,7 +5293,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="93"/>
+      <c r="A30" s="99"/>
       <c r="B30" s="17" t="s">
         <v>210</v>
       </c>
@@ -5294,7 +5304,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="93"/>
+      <c r="A31" s="99"/>
       <c r="B31" s="17" t="s">
         <v>211</v>
       </c>
@@ -5305,7 +5315,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="93"/>
+      <c r="A32" s="99"/>
       <c r="B32" s="17" t="s">
         <v>156</v>
       </c>
@@ -5316,7 +5326,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="93"/>
+      <c r="A33" s="99"/>
       <c r="B33" s="17" t="s">
         <v>157</v>
       </c>
@@ -5327,7 +5337,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="93"/>
+      <c r="A34" s="99"/>
       <c r="B34" s="17" t="s">
         <v>158</v>
       </c>
@@ -5338,7 +5348,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="93"/>
+      <c r="A35" s="99"/>
       <c r="B35" s="17" t="s">
         <v>155</v>
       </c>
@@ -5349,14 +5359,14 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="93"/>
+      <c r="A36" s="99"/>
       <c r="B36" s="17"/>
       <c r="C36" s="47"/>
       <c r="D36" s="47"/>
       <c r="E36" s="31"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="93"/>
+      <c r="A37" s="99"/>
       <c r="B37" s="2" t="s">
         <v>133</v>
       </c>
@@ -5367,7 +5377,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="93"/>
+      <c r="A38" s="99"/>
       <c r="B38" s="2" t="s">
         <v>132</v>
       </c>
@@ -5378,7 +5388,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="93"/>
+      <c r="A39" s="99"/>
       <c r="B39" s="2" t="s">
         <v>131</v>
       </c>
@@ -5389,7 +5399,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="93"/>
+      <c r="A40" s="99"/>
       <c r="B40" s="2" t="s">
         <v>130</v>
       </c>
@@ -5400,7 +5410,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="93"/>
+      <c r="A41" s="99"/>
       <c r="B41" s="2" t="s">
         <v>129</v>
       </c>
@@ -5411,7 +5421,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="93"/>
+      <c r="A42" s="99"/>
       <c r="B42" s="2" t="s">
         <v>128</v>
       </c>
@@ -5422,7 +5432,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="93"/>
+      <c r="A43" s="99"/>
       <c r="B43" s="2" t="s">
         <v>127</v>
       </c>
@@ -5433,7 +5443,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="93"/>
+      <c r="A44" s="99"/>
       <c r="B44" s="2" t="s">
         <v>134</v>
       </c>
@@ -5444,7 +5454,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="93"/>
+      <c r="A45" s="99"/>
       <c r="B45" s="2" t="s">
         <v>135</v>
       </c>
@@ -5455,7 +5465,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="93"/>
+      <c r="A46" s="99"/>
       <c r="B46" s="2" t="s">
         <v>136</v>
       </c>
@@ -5466,7 +5476,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="93"/>
+      <c r="A47" s="99"/>
       <c r="B47" s="2" t="s">
         <v>137</v>
       </c>
@@ -5477,7 +5487,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="93"/>
+      <c r="A48" s="99"/>
       <c r="B48" s="2" t="s">
         <v>138</v>
       </c>
@@ -5488,7 +5498,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="93"/>
+      <c r="A49" s="99"/>
       <c r="B49" s="2" t="s">
         <v>212</v>
       </c>
@@ -5499,7 +5509,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="93"/>
+      <c r="A50" s="99"/>
       <c r="B50" s="2" t="s">
         <v>213</v>
       </c>
@@ -5510,7 +5520,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="93"/>
+      <c r="A51" s="99"/>
       <c r="B51" s="2" t="s">
         <v>214</v>
       </c>
@@ -5521,7 +5531,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="93"/>
+      <c r="A52" s="99"/>
       <c r="B52" s="2" t="s">
         <v>215</v>
       </c>
@@ -5532,7 +5542,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="93"/>
+      <c r="A53" s="99"/>
       <c r="B53" s="26" t="s">
         <v>139</v>
       </c>
@@ -5543,7 +5553,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="93"/>
+      <c r="A54" s="99"/>
       <c r="B54" s="2" t="s">
         <v>140</v>
       </c>
@@ -5554,7 +5564,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="93"/>
+      <c r="A55" s="99"/>
       <c r="B55" s="2" t="s">
         <v>141</v>
       </c>
@@ -5565,7 +5575,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="93"/>
+      <c r="A56" s="99"/>
       <c r="B56" s="2" t="s">
         <v>142</v>
       </c>
@@ -5583,7 +5593,7 @@
       <c r="E57" s="56"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="92" t="s">
+      <c r="A58" s="98" t="s">
         <v>79</v>
       </c>
       <c r="B58" s="17" t="s">
@@ -5596,7 +5606,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="93"/>
+      <c r="A59" s="99"/>
       <c r="B59" s="17" t="s">
         <v>94</v>
       </c>
@@ -5607,7 +5617,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="94"/>
+      <c r="A60" s="100"/>
       <c r="B60" s="17" t="s">
         <v>93</v>
       </c>
@@ -5625,7 +5635,7 @@
       <c r="E61" s="55"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="88" t="s">
+      <c r="A62" s="94" t="s">
         <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -5638,7 +5648,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="89"/>
+      <c r="A63" s="95"/>
       <c r="B63" s="2" t="s">
         <v>84</v>
       </c>
@@ -5649,7 +5659,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="89"/>
+      <c r="A64" s="95"/>
       <c r="B64" s="2" t="s">
         <v>87</v>
       </c>
@@ -5660,7 +5670,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="89"/>
+      <c r="A65" s="95"/>
       <c r="B65" s="2" t="s">
         <v>85</v>
       </c>
@@ -5671,7 +5681,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="89"/>
+      <c r="A66" s="95"/>
       <c r="B66" s="2" t="s">
         <v>86</v>
       </c>
@@ -5682,7 +5692,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="89"/>
+      <c r="A67" s="95"/>
       <c r="B67" s="58" t="s">
         <v>88</v>
       </c>
@@ -5693,7 +5703,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="89"/>
+      <c r="A68" s="95"/>
       <c r="B68" s="58" t="s">
         <v>89</v>
       </c>
@@ -5704,7 +5714,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="89"/>
+      <c r="A69" s="95"/>
       <c r="B69" s="58" t="s">
         <v>90</v>
       </c>
@@ -5715,7 +5725,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A70" s="89"/>
+      <c r="A70" s="95"/>
       <c r="B70" s="61" t="s">
         <v>91</v>
       </c>
@@ -5726,7 +5736,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A71" s="90"/>
+      <c r="A71" s="96"/>
       <c r="B71" s="61" t="s">
         <v>159</v>
       </c>
@@ -5744,7 +5754,7 @@
       <c r="E72" s="63"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="88" t="s">
+      <c r="A73" s="94" t="s">
         <v>96</v>
       </c>
       <c r="B73" s="61" t="s">
@@ -5757,7 +5767,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="89"/>
+      <c r="A74" s="95"/>
       <c r="B74" s="61" t="s">
         <v>95</v>
       </c>
@@ -5768,7 +5778,7 @@
       <c r="E74" s="60"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="89"/>
+      <c r="A75" s="95"/>
       <c r="B75" s="61" t="s">
         <v>97</v>
       </c>
@@ -5779,7 +5789,7 @@
       <c r="E75" s="60"/>
     </row>
     <row r="76" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A76" s="89"/>
+      <c r="A76" s="95"/>
       <c r="B76" s="61" t="s">
         <v>98</v>
       </c>
@@ -5790,7 +5800,7 @@
       <c r="E76" s="60"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="89"/>
+      <c r="A77" s="95"/>
       <c r="B77" s="61" t="s">
         <v>102</v>
       </c>
@@ -5801,7 +5811,7 @@
       <c r="E77" s="60"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="89"/>
+      <c r="A78" s="95"/>
       <c r="B78" s="61" t="s">
         <v>99</v>
       </c>
@@ -5812,7 +5822,7 @@
       <c r="E78" s="60"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="89"/>
+      <c r="A79" s="95"/>
       <c r="B79" s="61" t="s">
         <v>100</v>
       </c>
@@ -5823,7 +5833,7 @@
       <c r="E79" s="60"/>
     </row>
     <row r="80" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="98"/>
+      <c r="A80" s="104"/>
       <c r="B80" s="72" t="s">
         <v>101</v>
       </c>
@@ -5858,14 +5868,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF97C5A-E76A-4F7F-AE1B-EEE4815545E3}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.1796875" customWidth="1"/>
+    <col min="2" max="2" width="47.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -5898,11 +5908,11 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="99"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="102"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -5918,15 +5928,15 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="99"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="102"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="85"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="95" t="s">
         <v>96</v>
       </c>
       <c r="B6" s="61" t="s">
@@ -5939,7 +5949,7 @@
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="89"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="61" t="s">
         <v>97</v>
       </c>
@@ -5950,7 +5960,7 @@
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="89"/>
+      <c r="A8" s="95"/>
       <c r="B8" s="61" t="s">
         <v>98</v>
       </c>
@@ -5961,7 +5971,7 @@
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="89"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="61" t="s">
         <v>102</v>
       </c>
@@ -5972,7 +5982,7 @@
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="89"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="61" t="s">
         <v>99</v>
       </c>
@@ -5983,7 +5993,7 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="89"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="61" t="s">
         <v>100</v>
       </c>
@@ -5994,7 +6004,7 @@
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="90"/>
+      <c r="A12" s="96"/>
       <c r="B12" s="17" t="s">
         <v>101</v>
       </c>
@@ -6005,39 +6015,53 @@
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="103"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="85"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="95"/>
+      <c r="B15" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="4"/>
+      <c r="A17" s="105"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="85"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
@@ -6075,8 +6099,9 @@
       <c r="E22" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Documents/Scrum/Sprint_backlog.xlsx
+++ b/Documents/Scrum/Sprint_backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FB1C74-446A-4B0E-8C12-ECD879ABDCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C88DAC-1467-4D8B-81F4-73580ADFC079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="6" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint_0." sheetId="4" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Sprint_4." sheetId="7" r:id="rId5"/>
     <sheet name="Sprint_5." sheetId="5" r:id="rId6"/>
     <sheet name="Sprint_6." sheetId="6" r:id="rId7"/>
+    <sheet name="Sprint_7." sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="239">
   <si>
     <t>STORY</t>
   </si>
@@ -701,9 +702,6 @@
   </si>
   <si>
     <t>Insérer dans table réservation ajouter id matériel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manuel utilisateur </t>
   </si>
   <si>
     <t>Manuel d'installation</t>
@@ -2022,6 +2020,334 @@
   </si>
   <si>
     <t>Faire le POST et DELETE pour la fenêtre "stock matériel"</t>
+  </si>
+  <si>
+    <t>Documentation
+jeux de tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documenter le test login correct </t>
+  </si>
+  <si>
+    <t>Documenter le test login incorrect</t>
+  </si>
+  <si>
+    <t>Documenter le test get user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documenter le create user </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Expliquer en détail pour les utilisateurs la view pour le chat </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Expliquer en détail pour les utilisateurs la view de la page principale</t>
+    </r>
+  </si>
+  <si>
+    <t>Manuel utilisateur  et membre
+WavCom</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Membre</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Expliquer en détail pour les membres la view pour le chat </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Membre</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expliquer en détail pour les membres la view pour la gestion de projet  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Membre</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Expliquer en détail pour les membres la view pour la gestion de stock </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Membre</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Expliquer en détail pour les membres la view pour les projets </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Membre</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Expliquer en détail pour les membres la view page principale</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Commun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Expliquer en détail pour les utilisateurs et membres la view du login</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Commun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Expliquer en détail pour les utilisateurs et membres la view du mot de passe oublié</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Commun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Expliquer en détail pour les utilisateurs et membres la view des paramètres </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Commun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Expliquer en détail pour les utilisateurs et membres la view des projets</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2507,7 +2833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2649,7 +2975,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2712,12 +3037,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2769,7 +3094,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3123,11 +3457,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="87" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3137,7 +3471,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="89"/>
+      <c r="A3" s="88"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
@@ -3149,7 +3483,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="89"/>
+      <c r="A4" s="88"/>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -3161,7 +3495,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="89"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
@@ -3173,7 +3507,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="89"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -3185,7 +3519,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="89"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
@@ -3197,7 +3531,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="90"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
@@ -3209,15 +3543,15 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="90" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3230,7 +3564,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="92"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
@@ -3241,7 +3575,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="92"/>
+      <c r="A12" s="91"/>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
@@ -3253,7 +3587,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="92"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="2" t="s">
         <v>75</v>
       </c>
@@ -3265,7 +3599,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="92"/>
+      <c r="A14" s="91"/>
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
@@ -3276,7 +3610,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="92"/>
+      <c r="A15" s="91"/>
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
@@ -3287,7 +3621,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="92"/>
+      <c r="A16" s="91"/>
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
@@ -3298,31 +3632,31 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="92"/>
-      <c r="B17" s="58" t="s">
+      <c r="A17" s="91"/>
+      <c r="B17" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="91"/>
+      <c r="B18" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="71" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="92"/>
-      <c r="B18" s="58" t="s">
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="92"/>
+      <c r="B19" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="71" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="93"/>
-      <c r="B19" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -3373,7 +3707,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="93" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -3387,9 +3721,9 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="95"/>
+      <c r="A3" s="94"/>
       <c r="B3" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3399,7 +3733,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="95"/>
+      <c r="A4" s="94"/>
       <c r="B4" s="17" t="s">
         <v>9</v>
       </c>
@@ -3411,7 +3745,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="95"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3422,9 +3756,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="95"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3434,7 +3768,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="95"/>
+      <c r="A7" s="94"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3445,9 +3779,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="95"/>
+      <c r="A8" s="94"/>
       <c r="B8" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -3456,7 +3790,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="95"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="17" t="s">
         <v>11</v>
       </c>
@@ -3467,7 +3801,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="95"/>
+      <c r="A10" s="94"/>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -3478,9 +3812,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="95"/>
+      <c r="A11" s="94"/>
       <c r="B11" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -3489,9 +3823,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="95"/>
+      <c r="A12" s="94"/>
       <c r="B12" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -3500,9 +3834,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="96"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -3511,22 +3845,22 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="76"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="78"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="77"/>
     </row>
     <row r="15" spans="1:8" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="79" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" s="80" t="s">
         <v>216</v>
-      </c>
-      <c r="B15" s="81" t="s">
-        <v>217</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="79" t="s">
+      <c r="E15" s="78" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3544,7 +3878,7 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -3573,10 +3907,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="64" t="s">
         <v>112</v>
       </c>
       <c r="C2" s="25"/>
@@ -3587,8 +3921,8 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="92"/>
-      <c r="B3" s="65" t="s">
+      <c r="A3" s="91"/>
+      <c r="B3" s="64" t="s">
         <v>106</v>
       </c>
       <c r="C3" s="25"/>
@@ -3599,8 +3933,8 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="92"/>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="64" t="s">
         <v>120</v>
       </c>
       <c r="C4" s="25"/>
@@ -3611,8 +3945,8 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="92"/>
-      <c r="B5" s="65" t="s">
+      <c r="A5" s="91"/>
+      <c r="B5" s="64" t="s">
         <v>107</v>
       </c>
       <c r="C5" s="25"/>
@@ -3623,8 +3957,8 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="92"/>
-      <c r="B6" s="65" t="s">
+      <c r="A6" s="91"/>
+      <c r="B6" s="64" t="s">
         <v>121</v>
       </c>
       <c r="C6" s="25"/>
@@ -3635,8 +3969,8 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="92"/>
-      <c r="B7" s="65" t="s">
+      <c r="A7" s="91"/>
+      <c r="B7" s="64" t="s">
         <v>109</v>
       </c>
       <c r="C7" s="25"/>
@@ -3647,9 +3981,9 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="92"/>
-      <c r="B8" s="65" t="s">
-        <v>193</v>
+      <c r="A8" s="91"/>
+      <c r="B8" s="64" t="s">
+        <v>192</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="2"/>
@@ -3659,8 +3993,8 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="92"/>
-      <c r="B9" s="65" t="s">
+      <c r="A9" s="91"/>
+      <c r="B9" s="64" t="s">
         <v>108</v>
       </c>
       <c r="C9" s="25"/>
@@ -3671,8 +4005,8 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="92"/>
-      <c r="B10" s="65" t="s">
+      <c r="A10" s="91"/>
+      <c r="B10" s="64" t="s">
         <v>110</v>
       </c>
       <c r="C10" s="25"/>
@@ -3683,9 +4017,9 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="92"/>
-      <c r="B11" s="65" t="s">
-        <v>194</v>
+      <c r="A11" s="91"/>
+      <c r="B11" s="64" t="s">
+        <v>193</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="2"/>
@@ -3695,9 +4029,9 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="92"/>
-      <c r="B12" s="65" t="s">
-        <v>195</v>
+      <c r="A12" s="91"/>
+      <c r="B12" s="64" t="s">
+        <v>194</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="2"/>
@@ -3707,8 +4041,8 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="92"/>
-      <c r="B13" s="65" t="s">
+      <c r="A13" s="91"/>
+      <c r="B13" s="64" t="s">
         <v>111</v>
       </c>
       <c r="C13" s="25"/>
@@ -3719,9 +4053,9 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="92"/>
-      <c r="B14" s="65" t="s">
-        <v>196</v>
+      <c r="A14" s="91"/>
+      <c r="B14" s="64" t="s">
+        <v>195</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="2"/>
@@ -3731,8 +4065,8 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="92"/>
-      <c r="B15" s="65" t="s">
+      <c r="A15" s="91"/>
+      <c r="B15" s="64" t="s">
         <v>113</v>
       </c>
       <c r="C15" s="25"/>
@@ -3743,8 +4077,8 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="92"/>
-      <c r="B16" s="65" t="s">
+      <c r="A16" s="91"/>
+      <c r="B16" s="64" t="s">
         <v>114</v>
       </c>
       <c r="C16" s="25"/>
@@ -3755,8 +4089,8 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="92"/>
-      <c r="B17" s="65" t="s">
+      <c r="A17" s="91"/>
+      <c r="B17" s="64" t="s">
         <v>117</v>
       </c>
       <c r="C17" s="25"/>
@@ -3767,8 +4101,8 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="92"/>
-      <c r="B18" s="65" t="s">
+      <c r="A18" s="91"/>
+      <c r="B18" s="64" t="s">
         <v>116</v>
       </c>
       <c r="C18" s="25"/>
@@ -3779,8 +4113,8 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="92"/>
-      <c r="B19" s="65" t="s">
+      <c r="A19" s="91"/>
+      <c r="B19" s="64" t="s">
         <v>115</v>
       </c>
       <c r="C19" s="25"/>
@@ -3791,8 +4125,8 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="92"/>
-      <c r="B20" s="65" t="s">
+      <c r="A20" s="91"/>
+      <c r="B20" s="64" t="s">
         <v>118</v>
       </c>
       <c r="C20" s="25"/>
@@ -3803,8 +4137,8 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="97"/>
-      <c r="B21" s="65" t="s">
+      <c r="A21" s="96"/>
+      <c r="B21" s="64" t="s">
         <v>119</v>
       </c>
       <c r="C21" s="25"/>
@@ -3823,256 +4157,256 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="98" t="s">
+      <c r="A23" s="97" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="2"/>
       <c r="E23" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="99"/>
+      <c r="A24" s="98"/>
       <c r="B24" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="2"/>
       <c r="E24" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="99"/>
+      <c r="A25" s="98"/>
       <c r="B25" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="2"/>
       <c r="E25" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="99"/>
+      <c r="A26" s="98"/>
       <c r="B26" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="2"/>
       <c r="E26" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="98"/>
+      <c r="B27" s="65" t="s">
         <v>168</v>
-      </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="99"/>
-      <c r="B27" s="66" t="s">
-        <v>169</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="2"/>
       <c r="E27" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="99"/>
+      <c r="A28" s="98"/>
       <c r="B28" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="2"/>
       <c r="E28" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="99"/>
+      <c r="A29" s="98"/>
       <c r="B29" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="2"/>
       <c r="E29" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="99"/>
+      <c r="A30" s="98"/>
       <c r="B30" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="2"/>
       <c r="E30" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="99"/>
+      <c r="A31" s="98"/>
       <c r="B31" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="2"/>
       <c r="E31" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="99"/>
+      <c r="A32" s="98"/>
       <c r="B32" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="2"/>
       <c r="E32" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="99"/>
-      <c r="B33" s="66" t="s">
-        <v>176</v>
+      <c r="A33" s="98"/>
+      <c r="B33" s="65" t="s">
+        <v>175</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="2"/>
       <c r="E33" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="99"/>
+      <c r="A34" s="98"/>
       <c r="B34" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="2"/>
       <c r="E34" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="99"/>
-      <c r="B35" s="67" t="s">
-        <v>177</v>
+      <c r="A35" s="98"/>
+      <c r="B35" s="66" t="s">
+        <v>176</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="2"/>
       <c r="E35" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="99"/>
-      <c r="B36" s="66" t="s">
-        <v>178</v>
+      <c r="A36" s="98"/>
+      <c r="B36" s="65" t="s">
+        <v>177</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="2"/>
       <c r="E36" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="99"/>
+      <c r="A37" s="98"/>
       <c r="B37" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="2"/>
       <c r="E37" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="99"/>
-      <c r="B38" s="66" t="s">
-        <v>179</v>
+      <c r="A38" s="98"/>
+      <c r="B38" s="65" t="s">
+        <v>178</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="2"/>
       <c r="E38" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="99"/>
+      <c r="A39" s="98"/>
       <c r="B39" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="2"/>
       <c r="E39" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="99"/>
+      <c r="A40" s="98"/>
       <c r="B40" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="2"/>
       <c r="E40" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="99"/>
-      <c r="B41" s="66" t="s">
-        <v>181</v>
+      <c r="A41" s="98"/>
+      <c r="B41" s="65" t="s">
+        <v>180</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="2"/>
       <c r="E41" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="99"/>
-      <c r="B42" s="66" t="s">
-        <v>180</v>
+      <c r="A42" s="98"/>
+      <c r="B42" s="65" t="s">
+        <v>179</v>
       </c>
       <c r="C42" s="25"/>
       <c r="D42" s="2"/>
       <c r="E42" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="99"/>
       <c r="B43" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="2"/>
       <c r="E43" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F43" s="1"/>
     </row>
@@ -4085,7 +4419,7 @@
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="98" t="s">
+      <c r="A45" s="97" t="s">
         <v>76</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -4099,11 +4433,11 @@
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="101"/>
+      <c r="A46" s="100"/>
       <c r="B46" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="73"/>
+      <c r="C46" s="72"/>
       <c r="D46" s="6"/>
       <c r="E46" s="43" t="s">
         <v>12</v>
@@ -4140,7 +4474,7 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B26" sqref="B26:B36"/>
     </sheetView>
   </sheetViews>
@@ -4169,7 +4503,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="90" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="38" t="s">
@@ -4183,9 +4517,9 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="99"/>
+      <c r="A3" s="98"/>
       <c r="B3" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
@@ -4195,7 +4529,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="99"/>
+      <c r="A4" s="98"/>
       <c r="B4" s="38" t="s">
         <v>52</v>
       </c>
@@ -4207,7 +4541,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="99"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="2" t="s">
         <v>51</v>
       </c>
@@ -4219,7 +4553,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="99"/>
+      <c r="A6" s="98"/>
       <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
@@ -4231,7 +4565,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="99"/>
+      <c r="A7" s="98"/>
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
@@ -4243,7 +4577,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="99"/>
+      <c r="A8" s="98"/>
       <c r="B8" s="38" t="s">
         <v>55</v>
       </c>
@@ -4255,7 +4589,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="99"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="2" t="s">
         <v>56</v>
       </c>
@@ -4267,7 +4601,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="99"/>
+      <c r="A10" s="98"/>
       <c r="B10" s="2" t="s">
         <v>57</v>
       </c>
@@ -4279,7 +4613,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="99"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -4291,7 +4625,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="99"/>
+      <c r="A12" s="98"/>
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -4303,7 +4637,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="99"/>
+      <c r="A13" s="98"/>
       <c r="B13" s="2" t="s">
         <v>60</v>
       </c>
@@ -4315,7 +4649,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="99"/>
+      <c r="A14" s="98"/>
       <c r="B14" s="38" t="s">
         <v>61</v>
       </c>
@@ -4327,7 +4661,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="99"/>
+      <c r="A15" s="98"/>
       <c r="B15" s="38" t="s">
         <v>62</v>
       </c>
@@ -4339,7 +4673,7 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="99"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="41" t="s">
         <v>63</v>
       </c>
@@ -4351,7 +4685,7 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="99"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="38" t="s">
         <v>64</v>
       </c>
@@ -4363,7 +4697,7 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="99"/>
+      <c r="A18" s="98"/>
       <c r="B18" s="41" t="s">
         <v>65</v>
       </c>
@@ -4375,7 +4709,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="99"/>
+      <c r="A19" s="98"/>
       <c r="B19" s="38" t="s">
         <v>67</v>
       </c>
@@ -4387,7 +4721,7 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="99"/>
+      <c r="A20" s="98"/>
       <c r="B20" s="38" t="s">
         <v>68</v>
       </c>
@@ -4399,7 +4733,7 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="99"/>
+      <c r="A21" s="98"/>
       <c r="B21" s="38" t="s">
         <v>69</v>
       </c>
@@ -4411,7 +4745,7 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="99"/>
+      <c r="A22" s="98"/>
       <c r="B22" s="38" t="s">
         <v>70</v>
       </c>
@@ -4423,7 +4757,7 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="99"/>
+      <c r="A23" s="98"/>
       <c r="B23" s="38" t="s">
         <v>71</v>
       </c>
@@ -4435,7 +4769,7 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="100"/>
+      <c r="A24" s="99"/>
       <c r="B24" s="38" t="s">
         <v>72</v>
       </c>
@@ -4455,7 +4789,7 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="98" t="s">
+      <c r="A26" s="97" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -4468,7 +4802,7 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="99"/>
+      <c r="A27" s="98"/>
       <c r="B27" s="2" t="s">
         <v>45</v>
       </c>
@@ -4480,7 +4814,7 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="99"/>
+      <c r="A28" s="98"/>
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -4492,7 +4826,7 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="99"/>
+      <c r="A29" s="98"/>
       <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
@@ -4504,7 +4838,7 @@
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="99"/>
+      <c r="A30" s="98"/>
       <c r="B30" s="2" t="s">
         <v>50</v>
       </c>
@@ -4516,7 +4850,7 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="99"/>
+      <c r="A31" s="98"/>
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
@@ -4528,7 +4862,7 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="99"/>
+      <c r="A32" s="98"/>
       <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
@@ -4540,7 +4874,7 @@
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="99"/>
+      <c r="A33" s="98"/>
       <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
@@ -4552,7 +4886,7 @@
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="99"/>
+      <c r="A34" s="98"/>
       <c r="B34" s="26" t="s">
         <v>40</v>
       </c>
@@ -4564,7 +4898,7 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="99"/>
+      <c r="A35" s="98"/>
       <c r="B35" s="2" t="s">
         <v>41</v>
       </c>
@@ -4576,7 +4910,7 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="99"/>
+      <c r="A36" s="98"/>
       <c r="B36" s="2" t="s">
         <v>42</v>
       </c>
@@ -4588,7 +4922,7 @@
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="99"/>
+      <c r="A37" s="98"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -4608,10 +4942,10 @@
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="102" t="s">
+      <c r="A39" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="73" t="s">
         <v>32</v>
       </c>
       <c r="C39" s="25" t="s">
@@ -4621,7 +4955,7 @@
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="89"/>
+      <c r="A40" s="88"/>
       <c r="B40" s="17" t="s">
         <v>33</v>
       </c>
@@ -4632,7 +4966,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="89"/>
+      <c r="A41" s="88"/>
       <c r="B41" s="17" t="s">
         <v>34</v>
       </c>
@@ -4644,7 +4978,7 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="90"/>
+      <c r="A42" s="89"/>
       <c r="B42" s="17" t="s">
         <v>35</v>
       </c>
@@ -4662,7 +4996,7 @@
       <c r="E43" s="29"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="98" t="s">
+      <c r="A44" s="97" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -4675,7 +5009,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="99"/>
+      <c r="A45" s="98"/>
       <c r="B45" s="2" t="s">
         <v>48</v>
       </c>
@@ -4686,7 +5020,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="101"/>
+      <c r="A46" s="100"/>
       <c r="B46" s="6" t="s">
         <v>49</v>
       </c>
@@ -4755,11 +5089,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="66" t="s">
-        <v>198</v>
+      <c r="B2" s="65" t="s">
+        <v>197</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="40"/>
@@ -4769,9 +5103,9 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="92"/>
-      <c r="B3" s="66" t="s">
-        <v>199</v>
+      <c r="A3" s="91"/>
+      <c r="B3" s="65" t="s">
+        <v>198</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
@@ -4781,9 +5115,9 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="92"/>
-      <c r="B4" s="66" t="s">
-        <v>200</v>
+      <c r="A4" s="91"/>
+      <c r="B4" s="65" t="s">
+        <v>199</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="40"/>
@@ -4793,9 +5127,9 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="97"/>
-      <c r="B5" s="66" t="s">
-        <v>201</v>
+      <c r="A5" s="96"/>
+      <c r="B5" s="65" t="s">
+        <v>200</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="40"/>
@@ -4813,11 +5147,11 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="99" t="s">
-        <v>197</v>
+      <c r="A7" s="98" t="s">
+        <v>196</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4827,9 +5161,9 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="99"/>
+      <c r="A8" s="98"/>
       <c r="B8" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4839,9 +5173,9 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="99"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -4851,9 +5185,9 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="99"/>
+      <c r="A10" s="98"/>
       <c r="B10" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -4863,9 +5197,9 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="99"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -4875,9 +5209,9 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="99"/>
+      <c r="A12" s="98"/>
       <c r="B12" s="26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -4895,10 +5229,10 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="73" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="25" t="s">
@@ -4908,7 +5242,7 @@
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="89"/>
+      <c r="A15" s="88"/>
       <c r="B15" s="17" t="s">
         <v>34</v>
       </c>
@@ -4920,11 +5254,11 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="103"/>
-      <c r="B16" s="72" t="s">
+      <c r="A16" s="102"/>
+      <c r="B16" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="72" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="6"/>
@@ -4959,7 +5293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77982FF-C4D2-41E8-A83F-1D743BC8CBAF}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
@@ -4987,7 +5321,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="93" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -5000,7 +5334,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="95"/>
+      <c r="A3" s="94"/>
       <c r="B3" s="17" t="s">
         <v>34</v>
       </c>
@@ -5011,7 +5345,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="95"/>
+      <c r="A4" s="94"/>
       <c r="B4" s="17" t="s">
         <v>35</v>
       </c>
@@ -5022,14 +5356,14 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="75"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
       <c r="D5" s="55"/>
       <c r="E5" s="56"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="93" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -5042,7 +5376,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="95"/>
+      <c r="A7" s="94"/>
       <c r="B7" s="52" t="s">
         <v>81</v>
       </c>
@@ -5053,7 +5387,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="95"/>
+      <c r="A8" s="94"/>
       <c r="B8" s="52" t="s">
         <v>92</v>
       </c>
@@ -5064,9 +5398,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="95"/>
-      <c r="B9" s="62" t="s">
-        <v>218</v>
+      <c r="A9" s="94"/>
+      <c r="B9" s="61" t="s">
+        <v>217</v>
       </c>
       <c r="C9" s="47"/>
       <c r="D9" s="53"/>
@@ -5075,8 +5409,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="95"/>
-      <c r="B10" s="62" t="s">
+      <c r="A10" s="94"/>
+      <c r="B10" s="61" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="47"/>
@@ -5086,8 +5420,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="95"/>
-      <c r="B11" s="62" t="s">
+      <c r="A11" s="94"/>
+      <c r="B11" s="61" t="s">
         <v>104</v>
       </c>
       <c r="C11" s="47"/>
@@ -5097,8 +5431,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="95"/>
-      <c r="B12" s="62" t="s">
+      <c r="A12" s="94"/>
+      <c r="B12" s="61" t="s">
         <v>105</v>
       </c>
       <c r="C12" s="47"/>
@@ -5108,7 +5442,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="96"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="54" t="s">
         <v>123</v>
       </c>
@@ -5126,7 +5460,7 @@
       <c r="E14" s="56"/>
     </row>
     <row r="15" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="97" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -5139,9 +5473,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="99"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" s="47"/>
       <c r="D16" s="47"/>
@@ -5150,9 +5484,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="99"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
@@ -5161,9 +5495,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="99"/>
+      <c r="A18" s="98"/>
       <c r="B18" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
@@ -5172,9 +5506,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="99"/>
+      <c r="A19" s="98"/>
       <c r="B19" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C19" s="47"/>
       <c r="D19" s="47"/>
@@ -5183,9 +5517,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="99"/>
+      <c r="A20" s="98"/>
       <c r="B20" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C20" s="47"/>
       <c r="D20" s="47"/>
@@ -5194,9 +5528,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="99"/>
+      <c r="A21" s="98"/>
       <c r="B21" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
@@ -5205,9 +5539,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="99"/>
+      <c r="A22" s="98"/>
       <c r="B22" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
@@ -5216,9 +5550,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="99"/>
+      <c r="A23" s="98"/>
       <c r="B23" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
@@ -5227,9 +5561,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="99"/>
+      <c r="A24" s="98"/>
       <c r="B24" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
@@ -5238,9 +5572,9 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="99"/>
+      <c r="A25" s="98"/>
       <c r="B25" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C25" s="47"/>
       <c r="D25" s="47"/>
@@ -5249,9 +5583,9 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99"/>
+      <c r="A26" s="98"/>
       <c r="B26" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C26" s="47"/>
       <c r="D26" s="47"/>
@@ -5260,9 +5594,9 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="99"/>
+      <c r="A27" s="98"/>
       <c r="B27" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C27" s="47"/>
       <c r="D27" s="47"/>
@@ -5271,9 +5605,9 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="99"/>
+      <c r="A28" s="98"/>
       <c r="B28" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C28" s="47"/>
       <c r="D28" s="47"/>
@@ -5282,9 +5616,9 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="99"/>
+      <c r="A29" s="98"/>
       <c r="B29" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -5293,9 +5627,9 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="99"/>
+      <c r="A30" s="98"/>
       <c r="B30" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -5304,9 +5638,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="99"/>
+      <c r="A31" s="98"/>
       <c r="B31" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C31" s="47"/>
       <c r="D31" s="47"/>
@@ -5315,9 +5649,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="99"/>
+      <c r="A32" s="98"/>
       <c r="B32" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C32" s="47"/>
       <c r="D32" s="47"/>
@@ -5326,9 +5660,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="99"/>
+      <c r="A33" s="98"/>
       <c r="B33" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C33" s="47"/>
       <c r="D33" s="47"/>
@@ -5337,9 +5671,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="99"/>
+      <c r="A34" s="98"/>
       <c r="B34" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C34" s="47"/>
       <c r="D34" s="47"/>
@@ -5348,9 +5682,9 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="99"/>
+      <c r="A35" s="98"/>
       <c r="B35" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C35" s="47"/>
       <c r="D35" s="47"/>
@@ -5359,16 +5693,16 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="99"/>
+      <c r="A36" s="98"/>
       <c r="B36" s="17"/>
       <c r="C36" s="47"/>
       <c r="D36" s="47"/>
       <c r="E36" s="31"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="99"/>
+      <c r="A37" s="98"/>
       <c r="B37" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C37" s="47"/>
       <c r="D37" s="47"/>
@@ -5377,9 +5711,9 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="99"/>
+      <c r="A38" s="98"/>
       <c r="B38" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C38" s="47"/>
       <c r="D38" s="47"/>
@@ -5388,9 +5722,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="99"/>
+      <c r="A39" s="98"/>
       <c r="B39" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C39" s="47"/>
       <c r="D39" s="47"/>
@@ -5399,9 +5733,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="99"/>
+      <c r="A40" s="98"/>
       <c r="B40" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C40" s="47"/>
       <c r="D40" s="47"/>
@@ -5410,9 +5744,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="99"/>
+      <c r="A41" s="98"/>
       <c r="B41" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C41" s="47"/>
       <c r="D41" s="47"/>
@@ -5421,9 +5755,9 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="99"/>
+      <c r="A42" s="98"/>
       <c r="B42" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C42" s="47"/>
       <c r="D42" s="47"/>
@@ -5432,9 +5766,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="99"/>
+      <c r="A43" s="98"/>
       <c r="B43" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C43" s="47"/>
       <c r="D43" s="47"/>
@@ -5443,9 +5777,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="99"/>
+      <c r="A44" s="98"/>
       <c r="B44" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C44" s="47"/>
       <c r="D44" s="47"/>
@@ -5454,9 +5788,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="99"/>
+      <c r="A45" s="98"/>
       <c r="B45" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C45" s="47"/>
       <c r="D45" s="47"/>
@@ -5465,9 +5799,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="99"/>
+      <c r="A46" s="98"/>
       <c r="B46" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C46" s="47"/>
       <c r="D46" s="47"/>
@@ -5476,9 +5810,9 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="99"/>
+      <c r="A47" s="98"/>
       <c r="B47" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C47" s="47"/>
       <c r="D47" s="47"/>
@@ -5487,9 +5821,9 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="99"/>
+      <c r="A48" s="98"/>
       <c r="B48" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C48" s="47"/>
       <c r="D48" s="47"/>
@@ -5498,9 +5832,9 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="99"/>
+      <c r="A49" s="98"/>
       <c r="B49" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C49" s="47"/>
       <c r="D49" s="47"/>
@@ -5509,9 +5843,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="99"/>
+      <c r="A50" s="98"/>
       <c r="B50" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C50" s="47"/>
       <c r="D50" s="47"/>
@@ -5520,9 +5854,9 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="99"/>
+      <c r="A51" s="98"/>
       <c r="B51" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C51" s="47"/>
       <c r="D51" s="47"/>
@@ -5531,9 +5865,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="99"/>
+      <c r="A52" s="98"/>
       <c r="B52" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C52" s="47"/>
       <c r="D52" s="47"/>
@@ -5542,9 +5876,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="99"/>
+      <c r="A53" s="98"/>
       <c r="B53" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C53" s="47"/>
       <c r="D53" s="47"/>
@@ -5553,9 +5887,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="99"/>
+      <c r="A54" s="98"/>
       <c r="B54" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C54" s="47"/>
       <c r="D54" s="47"/>
@@ -5564,9 +5898,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="99"/>
+      <c r="A55" s="98"/>
       <c r="B55" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C55" s="47"/>
       <c r="D55" s="47"/>
@@ -5575,9 +5909,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="99"/>
+      <c r="A56" s="98"/>
       <c r="B56" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C56" s="47"/>
       <c r="D56" s="47"/>
@@ -5586,14 +5920,14 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="75"/>
+      <c r="A57" s="74"/>
       <c r="B57" s="55"/>
       <c r="C57" s="55"/>
       <c r="D57" s="55"/>
       <c r="E57" s="56"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="98" t="s">
+      <c r="A58" s="97" t="s">
         <v>79</v>
       </c>
       <c r="B58" s="17" t="s">
@@ -5606,7 +5940,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="99"/>
+      <c r="A59" s="98"/>
       <c r="B59" s="17" t="s">
         <v>94</v>
       </c>
@@ -5617,7 +5951,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="99"/>
       <c r="B60" s="17" t="s">
         <v>93</v>
       </c>
@@ -5628,14 +5962,14 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="75"/>
+      <c r="A61" s="74"/>
       <c r="B61" s="55"/>
       <c r="C61" s="55"/>
       <c r="D61" s="55"/>
       <c r="E61" s="55"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="94" t="s">
+      <c r="A62" s="93" t="s">
         <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -5648,7 +5982,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="95"/>
+      <c r="A63" s="94"/>
       <c r="B63" s="2" t="s">
         <v>84</v>
       </c>
@@ -5659,7 +5993,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="95"/>
+      <c r="A64" s="94"/>
       <c r="B64" s="2" t="s">
         <v>87</v>
       </c>
@@ -5670,7 +6004,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="95"/>
+      <c r="A65" s="94"/>
       <c r="B65" s="2" t="s">
         <v>85</v>
       </c>
@@ -5681,7 +6015,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="95"/>
+      <c r="A66" s="94"/>
       <c r="B66" s="2" t="s">
         <v>86</v>
       </c>
@@ -5692,152 +6026,152 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="95"/>
-      <c r="B67" s="58" t="s">
+      <c r="A67" s="94"/>
+      <c r="B67" s="57" t="s">
         <v>88</v>
       </c>
       <c r="C67" s="25"/>
-      <c r="D67" s="59"/>
+      <c r="D67" s="58"/>
       <c r="E67" s="31" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="95"/>
-      <c r="B68" s="58" t="s">
+      <c r="A68" s="94"/>
+      <c r="B68" s="57" t="s">
         <v>89</v>
       </c>
       <c r="C68" s="25"/>
-      <c r="D68" s="59"/>
+      <c r="D68" s="58"/>
       <c r="E68" s="31" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="95"/>
-      <c r="B69" s="58" t="s">
+      <c r="A69" s="94"/>
+      <c r="B69" s="57" t="s">
         <v>90</v>
       </c>
       <c r="C69" s="25"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="60" t="s">
+      <c r="D69" s="58"/>
+      <c r="E69" s="59" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A70" s="95"/>
-      <c r="B70" s="61" t="s">
+      <c r="A70" s="94"/>
+      <c r="B70" s="60" t="s">
         <v>91</v>
       </c>
       <c r="C70" s="25"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="71" t="s">
+      <c r="D70" s="58"/>
+      <c r="E70" s="70" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A71" s="96"/>
-      <c r="B71" s="61" t="s">
-        <v>159</v>
+      <c r="A71" s="95"/>
+      <c r="B71" s="60" t="s">
+        <v>158</v>
       </c>
       <c r="C71" s="25"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="71" t="s">
+      <c r="D71" s="58"/>
+      <c r="E71" s="70" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="75"/>
+      <c r="A72" s="74"/>
       <c r="B72" s="55"/>
       <c r="C72" s="55"/>
       <c r="D72" s="55"/>
-      <c r="E72" s="63"/>
+      <c r="E72" s="62"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="94" t="s">
+      <c r="A73" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="B73" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="C73" s="64"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="60" t="s">
+      <c r="B73" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="C73" s="63"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="59" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="95"/>
-      <c r="B74" s="61" t="s">
+      <c r="A74" s="94"/>
+      <c r="B74" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="C74" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="59"/>
-      <c r="E74" s="60"/>
+      <c r="C74" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="58"/>
+      <c r="E74" s="59"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="95"/>
-      <c r="B75" s="61" t="s">
+      <c r="A75" s="94"/>
+      <c r="B75" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="C75" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="59"/>
-      <c r="E75" s="60"/>
+      <c r="C75" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="58"/>
+      <c r="E75" s="59"/>
     </row>
     <row r="76" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A76" s="95"/>
-      <c r="B76" s="61" t="s">
+      <c r="A76" s="94"/>
+      <c r="B76" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C76" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="59"/>
-      <c r="E76" s="60"/>
+      <c r="C76" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="58"/>
+      <c r="E76" s="59"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="95"/>
-      <c r="B77" s="61" t="s">
+      <c r="A77" s="94"/>
+      <c r="B77" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="C77" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="59"/>
-      <c r="E77" s="60"/>
+      <c r="C77" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="58"/>
+      <c r="E77" s="59"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="95"/>
-      <c r="B78" s="61" t="s">
+      <c r="A78" s="94"/>
+      <c r="B78" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="C78" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="59"/>
-      <c r="E78" s="60"/>
+      <c r="C78" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="58"/>
+      <c r="E78" s="59"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="95"/>
-      <c r="B79" s="61" t="s">
+      <c r="A79" s="94"/>
+      <c r="B79" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="C79" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="59"/>
-      <c r="E79" s="60"/>
+      <c r="C79" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="58"/>
+      <c r="E79" s="59"/>
     </row>
     <row r="80" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="104"/>
-      <c r="B80" s="72" t="s">
+      <c r="A80" s="103"/>
+      <c r="B80" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="C80" s="73" t="s">
+      <c r="C80" s="72" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="48"/>
@@ -5866,16 +6200,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF97C5A-E76A-4F7F-AE1B-EEE4815545E3}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:E17"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -5896,10 +6230,12 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="2"/>
+      <c r="A2" s="104" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="C2" s="47" t="s">
         <v>12</v>
       </c>
@@ -5908,18 +6244,22 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="82"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="2"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="C4" s="47" t="s">
         <v>12</v>
       </c>
@@ -5929,181 +6269,415 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="105"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="85"/>
+      <c r="B5" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="95" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="64" t="s">
+      <c r="A6" s="105"/>
+      <c r="B6" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="47" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="4"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="95"/>
-      <c r="B7" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="64" t="s">
+      <c r="A7" s="105"/>
+      <c r="B7" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="47" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="95"/>
-      <c r="B8" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="64" t="s">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="105"/>
+      <c r="B8" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="47" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="4"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="95"/>
-      <c r="B9" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="64" t="s">
+      <c r="A9" s="105"/>
+      <c r="B9" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="47" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="4"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="95"/>
-      <c r="B10" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="64" t="s">
+      <c r="A10" s="105"/>
+      <c r="B10" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="47" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="4"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="95"/>
-      <c r="B11" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="96"/>
-      <c r="B12" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="106"/>
+      <c r="B12" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="86"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="85"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="94" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14" s="25" t="s">
+      <c r="A14" s="104" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="63" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="4"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="95"/>
-      <c r="B15" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C15" s="25" t="s">
+      <c r="A15" s="105"/>
+      <c r="B15" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="63" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="4"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="96"/>
-      <c r="B16" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C16" s="25" t="s">
+      <c r="A16" s="105"/>
+      <c r="B16" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="63" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="105"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="85"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="106"/>
+      <c r="B17" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="86"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>12</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="94"/>
+      <c r="B20" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>12</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="94"/>
+      <c r="B21" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="94"/>
+      <c r="B22" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="94"/>
+      <c r="B23" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="94"/>
+      <c r="B24" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="95"/>
+      <c r="B25" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="84"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="83"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="94"/>
+      <c r="B28" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="95"/>
+      <c r="B29" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="86"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="83"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="3"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="3"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="3"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="A14:A16"/>
+  <mergeCells count="4">
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A2:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A365AE-7930-4274-837C-B5D83DFDF1FE}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="107"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/Scrum/Sprint_backlog.xlsx
+++ b/Documents/Scrum/Sprint_backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C88DAC-1467-4D8B-81F4-73580ADFC079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C70B245-FD64-4B06-B91E-13994EAFC427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint_0." sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="241">
   <si>
     <t>STORY</t>
   </si>
@@ -599,9 +599,6 @@
   <si>
     <t>Mettre à jour la modélisation de 
 la base de données</t>
-  </si>
-  <si>
-    <t>Finbalisation le designe</t>
   </si>
   <si>
     <t xml:space="preserve">Remplir la base de données avec les informations </t>
@@ -2013,9 +2010,6 @@
     <t>Recherche sur l'API</t>
   </si>
   <si>
-    <t>Enlever le nom et prénom De la fenêtre "Paramétres"</t>
-  </si>
-  <si>
     <t>Créer le code pour le mot de passe oublié</t>
   </si>
   <si>
@@ -2348,6 +2342,18 @@
       </rPr>
       <t xml:space="preserve"> : Expliquer en détail pour les utilisateurs et membres la view des projets</t>
     </r>
+  </si>
+  <si>
+    <t>Jeux de tests</t>
+  </si>
+  <si>
+    <t>Enlever le nom et prénom De la fenêtre "Paramètres"</t>
+  </si>
+  <si>
+    <t>Finalisation le designe</t>
+  </si>
+  <si>
+    <t>Recherche API de l'interface web</t>
   </si>
 </sst>
 </file>
@@ -2804,7 +2810,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -2817,13 +2823,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -2833,7 +2839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2988,9 +2994,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3043,6 +3046,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3088,22 +3092,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3461,7 +3464,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3543,11 +3546,11 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="67"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="68"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3634,29 +3637,29 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="91"/>
       <c r="B17" s="57" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17" s="57"/>
       <c r="D17" s="57"/>
-      <c r="E17" s="70" t="s">
+      <c r="E17" s="69" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="91"/>
       <c r="B18" s="57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18" s="57"/>
       <c r="D18" s="57"/>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="69" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="92"/>
       <c r="B19" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -3723,7 +3726,7 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="94"/>
       <c r="B3" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3758,7 +3761,7 @@
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="94"/>
       <c r="B6" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3781,7 +3784,7 @@
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="94"/>
       <c r="B8" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -3814,7 +3817,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="94"/>
       <c r="B11" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -3825,7 +3828,7 @@
     <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="94"/>
       <c r="B12" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -3836,7 +3839,7 @@
     <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="95"/>
       <c r="B13" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -3845,22 +3848,22 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="75"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="76"/>
     </row>
     <row r="15" spans="1:8" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" s="79" t="s">
         <v>215</v>
-      </c>
-      <c r="B15" s="80" t="s">
-        <v>216</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="78" t="s">
+      <c r="E15" s="77" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3878,7 +3881,7 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="82" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -3910,8 +3913,8 @@
       <c r="A2" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="64" t="s">
-        <v>112</v>
+      <c r="B2" s="63" t="s">
+        <v>111</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="2"/>
@@ -3922,8 +3925,8 @@
     </row>
     <row r="3" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="91"/>
-      <c r="B3" s="64" t="s">
-        <v>106</v>
+      <c r="B3" s="63" t="s">
+        <v>105</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="2"/>
@@ -3934,8 +3937,8 @@
     </row>
     <row r="4" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="91"/>
-      <c r="B4" s="64" t="s">
-        <v>120</v>
+      <c r="B4" s="63" t="s">
+        <v>119</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="2"/>
@@ -3946,8 +3949,8 @@
     </row>
     <row r="5" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="91"/>
-      <c r="B5" s="64" t="s">
-        <v>107</v>
+      <c r="B5" s="63" t="s">
+        <v>106</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="2"/>
@@ -3958,8 +3961,8 @@
     </row>
     <row r="6" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="91"/>
-      <c r="B6" s="64" t="s">
-        <v>121</v>
+      <c r="B6" s="63" t="s">
+        <v>120</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="2"/>
@@ -3970,8 +3973,8 @@
     </row>
     <row r="7" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="91"/>
-      <c r="B7" s="64" t="s">
-        <v>109</v>
+      <c r="B7" s="63" t="s">
+        <v>108</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="2"/>
@@ -3982,8 +3985,8 @@
     </row>
     <row r="8" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="91"/>
-      <c r="B8" s="64" t="s">
-        <v>192</v>
+      <c r="B8" s="63" t="s">
+        <v>191</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="2"/>
@@ -3994,8 +3997,8 @@
     </row>
     <row r="9" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="91"/>
-      <c r="B9" s="64" t="s">
-        <v>108</v>
+      <c r="B9" s="63" t="s">
+        <v>107</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="2"/>
@@ -4006,8 +4009,8 @@
     </row>
     <row r="10" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="91"/>
-      <c r="B10" s="64" t="s">
-        <v>110</v>
+      <c r="B10" s="63" t="s">
+        <v>109</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="2"/>
@@ -4018,8 +4021,8 @@
     </row>
     <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="91"/>
-      <c r="B11" s="64" t="s">
-        <v>193</v>
+      <c r="B11" s="63" t="s">
+        <v>192</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="2"/>
@@ -4030,8 +4033,8 @@
     </row>
     <row r="12" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="91"/>
-      <c r="B12" s="64" t="s">
-        <v>194</v>
+      <c r="B12" s="63" t="s">
+        <v>193</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="2"/>
@@ -4042,8 +4045,8 @@
     </row>
     <row r="13" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="91"/>
-      <c r="B13" s="64" t="s">
-        <v>111</v>
+      <c r="B13" s="63" t="s">
+        <v>110</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="2"/>
@@ -4054,8 +4057,8 @@
     </row>
     <row r="14" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="91"/>
-      <c r="B14" s="64" t="s">
-        <v>195</v>
+      <c r="B14" s="63" t="s">
+        <v>194</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="2"/>
@@ -4066,8 +4069,8 @@
     </row>
     <row r="15" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="91"/>
-      <c r="B15" s="64" t="s">
-        <v>113</v>
+      <c r="B15" s="63" t="s">
+        <v>112</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="2"/>
@@ -4078,8 +4081,8 @@
     </row>
     <row r="16" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="91"/>
-      <c r="B16" s="64" t="s">
-        <v>114</v>
+      <c r="B16" s="63" t="s">
+        <v>113</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="2"/>
@@ -4090,8 +4093,8 @@
     </row>
     <row r="17" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="91"/>
-      <c r="B17" s="64" t="s">
-        <v>117</v>
+      <c r="B17" s="63" t="s">
+        <v>116</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="2"/>
@@ -4102,8 +4105,8 @@
     </row>
     <row r="18" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="91"/>
-      <c r="B18" s="64" t="s">
-        <v>116</v>
+      <c r="B18" s="63" t="s">
+        <v>115</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="2"/>
@@ -4114,8 +4117,8 @@
     </row>
     <row r="19" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="91"/>
-      <c r="B19" s="64" t="s">
-        <v>115</v>
+      <c r="B19" s="63" t="s">
+        <v>114</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="2"/>
@@ -4126,8 +4129,8 @@
     </row>
     <row r="20" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="91"/>
-      <c r="B20" s="64" t="s">
-        <v>118</v>
+      <c r="B20" s="63" t="s">
+        <v>117</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="2"/>
@@ -4138,8 +4141,8 @@
     </row>
     <row r="21" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="96"/>
-      <c r="B21" s="64" t="s">
-        <v>119</v>
+      <c r="B21" s="63" t="s">
+        <v>118</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="2"/>
@@ -4161,252 +4164,252 @@
         <v>29</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="2"/>
       <c r="E23" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="98"/>
       <c r="B24" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="2"/>
       <c r="E24" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="98"/>
       <c r="B25" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="2"/>
       <c r="E25" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="98"/>
       <c r="B26" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="2"/>
       <c r="E26" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="98"/>
-      <c r="B27" s="65" t="s">
-        <v>168</v>
+      <c r="B27" s="64" t="s">
+        <v>167</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="2"/>
       <c r="E27" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="98"/>
       <c r="B28" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="2"/>
       <c r="E28" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="98"/>
       <c r="B29" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="2"/>
       <c r="E29" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="98"/>
       <c r="B30" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="2"/>
       <c r="E30" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="98"/>
       <c r="B31" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="2"/>
       <c r="E31" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="98"/>
       <c r="B32" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="2"/>
       <c r="E32" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="98"/>
-      <c r="B33" s="65" t="s">
-        <v>175</v>
+      <c r="B33" s="64" t="s">
+        <v>174</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="2"/>
       <c r="E33" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="98"/>
       <c r="B34" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="2"/>
       <c r="E34" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="98"/>
-      <c r="B35" s="66" t="s">
-        <v>176</v>
+      <c r="B35" s="65" t="s">
+        <v>175</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="2"/>
       <c r="E35" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="98"/>
-      <c r="B36" s="65" t="s">
-        <v>177</v>
+      <c r="B36" s="64" t="s">
+        <v>176</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="2"/>
       <c r="E36" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="98"/>
       <c r="B37" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="2"/>
       <c r="E37" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="98"/>
-      <c r="B38" s="65" t="s">
-        <v>178</v>
+      <c r="B38" s="64" t="s">
+        <v>177</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="2"/>
       <c r="E38" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="98"/>
       <c r="B39" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="2"/>
       <c r="E39" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="98"/>
       <c r="B40" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="2"/>
       <c r="E40" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="98"/>
-      <c r="B41" s="65" t="s">
-        <v>180</v>
+      <c r="B41" s="64" t="s">
+        <v>179</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="2"/>
       <c r="E41" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="98"/>
-      <c r="B42" s="65" t="s">
-        <v>179</v>
+      <c r="B42" s="64" t="s">
+        <v>178</v>
       </c>
       <c r="C42" s="25"/>
       <c r="D42" s="2"/>
       <c r="E42" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="99"/>
       <c r="B43" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="2"/>
       <c r="E43" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F43" s="1"/>
     </row>
@@ -4423,7 +4426,7 @@
         <v>76</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="25"/>
       <c r="D45" s="2"/>
@@ -4437,7 +4440,7 @@
       <c r="B46" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="72"/>
+      <c r="C46" s="71"/>
       <c r="D46" s="6"/>
       <c r="E46" s="43" t="s">
         <v>12</v>
@@ -4519,7 +4522,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="98"/>
       <c r="B3" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
@@ -4945,7 +4948,7 @@
       <c r="A39" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="73" t="s">
+      <c r="B39" s="72" t="s">
         <v>32</v>
       </c>
       <c r="C39" s="25" t="s">
@@ -5092,8 +5095,8 @@
       <c r="A2" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="65" t="s">
-        <v>197</v>
+      <c r="B2" s="64" t="s">
+        <v>196</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="40"/>
@@ -5104,8 +5107,8 @@
     </row>
     <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="91"/>
-      <c r="B3" s="65" t="s">
-        <v>198</v>
+      <c r="B3" s="64" t="s">
+        <v>197</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
@@ -5116,8 +5119,8 @@
     </row>
     <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="91"/>
-      <c r="B4" s="65" t="s">
-        <v>199</v>
+      <c r="B4" s="64" t="s">
+        <v>198</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="40"/>
@@ -5128,8 +5131,8 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="96"/>
-      <c r="B5" s="65" t="s">
-        <v>200</v>
+      <c r="B5" s="64" t="s">
+        <v>199</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="40"/>
@@ -5148,10 +5151,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="98" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -5163,7 +5166,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="98"/>
       <c r="B8" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -5175,7 +5178,7 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="98"/>
       <c r="B9" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -5187,7 +5190,7 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="98"/>
       <c r="B10" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -5199,7 +5202,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="98"/>
       <c r="B11" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -5211,7 +5214,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="98"/>
       <c r="B12" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5232,7 +5235,7 @@
       <c r="A14" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="72" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="25" t="s">
@@ -5255,10 +5258,10 @@
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="102"/>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="71" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="6"/>
@@ -5291,15 +5294,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77982FF-C4D2-41E8-A83F-1D743BC8CBAF}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView showGridLines="0" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5356,7 +5359,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="74"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
       <c r="D5" s="55"/>
@@ -5389,7 +5392,7 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="94"/>
       <c r="B8" s="52" t="s">
-        <v>92</v>
+        <v>239</v>
       </c>
       <c r="C8" s="47"/>
       <c r="D8" s="53"/>
@@ -5400,7 +5403,7 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="94"/>
       <c r="B9" s="61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="47"/>
       <c r="D9" s="53"/>
@@ -5411,7 +5414,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="94"/>
       <c r="B10" s="61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" s="47"/>
       <c r="D10" s="53"/>
@@ -5422,7 +5425,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="94"/>
       <c r="B11" s="61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="47"/>
       <c r="D11" s="53"/>
@@ -5433,7 +5436,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="94"/>
       <c r="B12" s="61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="47"/>
       <c r="D12" s="53"/>
@@ -5444,7 +5447,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="95"/>
       <c r="B13" s="54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13" s="47"/>
       <c r="D13" s="53"/>
@@ -5475,7 +5478,7 @@
     <row r="16" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="98"/>
       <c r="B16" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C16" s="47"/>
       <c r="D16" s="47"/>
@@ -5486,7 +5489,7 @@
     <row r="17" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="98"/>
       <c r="B17" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
@@ -5497,7 +5500,7 @@
     <row r="18" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="98"/>
       <c r="B18" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
@@ -5508,7 +5511,7 @@
     <row r="19" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="98"/>
       <c r="B19" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" s="47"/>
       <c r="D19" s="47"/>
@@ -5519,7 +5522,7 @@
     <row r="20" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="98"/>
       <c r="B20" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C20" s="47"/>
       <c r="D20" s="47"/>
@@ -5530,7 +5533,7 @@
     <row r="21" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="98"/>
       <c r="B21" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
@@ -5541,7 +5544,7 @@
     <row r="22" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="98"/>
       <c r="B22" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
@@ -5552,7 +5555,7 @@
     <row r="23" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="98"/>
       <c r="B23" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
@@ -5563,7 +5566,7 @@
     <row r="24" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="98"/>
       <c r="B24" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
@@ -5574,7 +5577,7 @@
     <row r="25" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="98"/>
       <c r="B25" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C25" s="47"/>
       <c r="D25" s="47"/>
@@ -5585,7 +5588,7 @@
     <row r="26" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="98"/>
       <c r="B26" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C26" s="47"/>
       <c r="D26" s="47"/>
@@ -5596,7 +5599,7 @@
     <row r="27" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="98"/>
       <c r="B27" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C27" s="47"/>
       <c r="D27" s="47"/>
@@ -5607,7 +5610,7 @@
     <row r="28" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="98"/>
       <c r="B28" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C28" s="47"/>
       <c r="D28" s="47"/>
@@ -5618,7 +5621,7 @@
     <row r="29" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="98"/>
       <c r="B29" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -5629,7 +5632,7 @@
     <row r="30" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="98"/>
       <c r="B30" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -5640,7 +5643,7 @@
     <row r="31" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="98"/>
       <c r="B31" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C31" s="47"/>
       <c r="D31" s="47"/>
@@ -5651,7 +5654,7 @@
     <row r="32" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="98"/>
       <c r="B32" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C32" s="47"/>
       <c r="D32" s="47"/>
@@ -5662,7 +5665,7 @@
     <row r="33" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="98"/>
       <c r="B33" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C33" s="47"/>
       <c r="D33" s="47"/>
@@ -5673,7 +5676,7 @@
     <row r="34" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="98"/>
       <c r="B34" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C34" s="47"/>
       <c r="D34" s="47"/>
@@ -5684,7 +5687,7 @@
     <row r="35" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="98"/>
       <c r="B35" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C35" s="47"/>
       <c r="D35" s="47"/>
@@ -5702,7 +5705,7 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="98"/>
       <c r="B37" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C37" s="47"/>
       <c r="D37" s="47"/>
@@ -5713,7 +5716,7 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="98"/>
       <c r="B38" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C38" s="47"/>
       <c r="D38" s="47"/>
@@ -5724,7 +5727,7 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="98"/>
       <c r="B39" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C39" s="47"/>
       <c r="D39" s="47"/>
@@ -5735,7 +5738,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="98"/>
       <c r="B40" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C40" s="47"/>
       <c r="D40" s="47"/>
@@ -5746,7 +5749,7 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="98"/>
       <c r="B41" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" s="47"/>
       <c r="D41" s="47"/>
@@ -5757,7 +5760,7 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="98"/>
       <c r="B42" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C42" s="47"/>
       <c r="D42" s="47"/>
@@ -5768,7 +5771,7 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="98"/>
       <c r="B43" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C43" s="47"/>
       <c r="D43" s="47"/>
@@ -5779,7 +5782,7 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="98"/>
       <c r="B44" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C44" s="47"/>
       <c r="D44" s="47"/>
@@ -5790,7 +5793,7 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="98"/>
       <c r="B45" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C45" s="47"/>
       <c r="D45" s="47"/>
@@ -5801,7 +5804,7 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="98"/>
       <c r="B46" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C46" s="47"/>
       <c r="D46" s="47"/>
@@ -5812,7 +5815,7 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="98"/>
       <c r="B47" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C47" s="47"/>
       <c r="D47" s="47"/>
@@ -5823,7 +5826,7 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="98"/>
       <c r="B48" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C48" s="47"/>
       <c r="D48" s="47"/>
@@ -5834,7 +5837,7 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="98"/>
       <c r="B49" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C49" s="47"/>
       <c r="D49" s="47"/>
@@ -5845,7 +5848,7 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="98"/>
       <c r="B50" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C50" s="47"/>
       <c r="D50" s="47"/>
@@ -5856,7 +5859,7 @@
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="98"/>
       <c r="B51" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C51" s="47"/>
       <c r="D51" s="47"/>
@@ -5867,7 +5870,7 @@
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="98"/>
       <c r="B52" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C52" s="47"/>
       <c r="D52" s="47"/>
@@ -5878,7 +5881,7 @@
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="98"/>
       <c r="B53" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C53" s="47"/>
       <c r="D53" s="47"/>
@@ -5889,7 +5892,7 @@
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="98"/>
       <c r="B54" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C54" s="47"/>
       <c r="D54" s="47"/>
@@ -5900,7 +5903,7 @@
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="98"/>
       <c r="B55" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C55" s="47"/>
       <c r="D55" s="47"/>
@@ -5911,7 +5914,7 @@
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="98"/>
       <c r="B56" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C56" s="47"/>
       <c r="D56" s="47"/>
@@ -5920,7 +5923,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="74"/>
+      <c r="A57" s="73"/>
       <c r="B57" s="55"/>
       <c r="C57" s="55"/>
       <c r="D57" s="55"/>
@@ -5931,7 +5934,7 @@
         <v>79</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C58" s="25"/>
       <c r="D58" s="47"/>
@@ -5942,7 +5945,7 @@
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="98"/>
       <c r="B59" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C59" s="25"/>
       <c r="D59" s="47"/>
@@ -5953,7 +5956,7 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="99"/>
       <c r="B60" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C60" s="25"/>
       <c r="D60" s="47"/>
@@ -5962,7 +5965,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="74"/>
+      <c r="A61" s="73"/>
       <c r="B61" s="55"/>
       <c r="C61" s="55"/>
       <c r="D61" s="55"/>
@@ -6065,128 +6068,50 @@
       </c>
       <c r="C70" s="25"/>
       <c r="D70" s="58"/>
-      <c r="E70" s="70" t="s">
+      <c r="E70" s="69" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="95"/>
       <c r="B71" s="60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C71" s="25"/>
       <c r="D71" s="58"/>
-      <c r="E71" s="70" t="s">
+      <c r="E71" s="69" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="74"/>
+      <c r="A72" s="55"/>
       <c r="B72" s="55"/>
       <c r="C72" s="55"/>
       <c r="D72" s="55"/>
-      <c r="E72" s="62"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="93" t="s">
-        <v>96</v>
-      </c>
-      <c r="B73" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="C73" s="63"/>
-      <c r="D73" s="58"/>
-      <c r="E73" s="59" t="s">
+      <c r="E72" s="55"/>
+    </row>
+    <row r="73" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="106" t="s">
+        <v>240</v>
+      </c>
+      <c r="B73" s="79" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" s="71"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="43" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="94"/>
-      <c r="B74" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="C74" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="58"/>
-      <c r="E74" s="59"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="94"/>
-      <c r="B75" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="C75" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="58"/>
-      <c r="E75" s="59"/>
-    </row>
-    <row r="76" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A76" s="94"/>
-      <c r="B76" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="C76" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="58"/>
-      <c r="E76" s="59"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="94"/>
-      <c r="B77" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="C77" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="58"/>
-      <c r="E77" s="59"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="94"/>
-      <c r="B78" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="C78" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="58"/>
-      <c r="E78" s="59"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="94"/>
-      <c r="B79" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="C79" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="58"/>
-      <c r="E79" s="59"/>
-    </row>
-    <row r="80" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="103"/>
-      <c r="B80" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="C80" s="72" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="48"/>
-      <c r="E80" s="43"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A73:A80"/>
+  <mergeCells count="5">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A6:A13"/>
     <mergeCell ref="A15:A56"/>
@@ -6202,8 +6127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF97C5A-E76A-4F7F-AE1B-EEE4815545E3}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6230,11 +6155,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="104" t="s">
-        <v>229</v>
+      <c r="A2" s="103" t="s">
+        <v>227</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C2" s="47" t="s">
         <v>12</v>
@@ -6244,9 +6169,9 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="105"/>
+      <c r="A3" s="104"/>
       <c r="B3" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>12</v>
@@ -6256,9 +6181,9 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="105"/>
+      <c r="A4" s="104"/>
       <c r="B4" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>12</v>
@@ -6268,9 +6193,9 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="105"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>12</v>
@@ -6280,9 +6205,9 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="105"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C6" s="47" t="s">
         <v>12</v>
@@ -6292,9 +6217,9 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="105"/>
+      <c r="A7" s="104"/>
       <c r="B7" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C7" s="47" t="s">
         <v>12</v>
@@ -6304,9 +6229,9 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="105"/>
+      <c r="A8" s="104"/>
       <c r="B8" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C8" s="47" t="s">
         <v>12</v>
@@ -6316,9 +6241,9 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="105"/>
+      <c r="A9" s="104"/>
       <c r="B9" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C9" s="47" t="s">
         <v>12</v>
@@ -6328,9 +6253,9 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="105"/>
+      <c r="A10" s="104"/>
       <c r="B10" s="26" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>12</v>
@@ -6340,45 +6265,45 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="105"/>
+      <c r="A11" s="104"/>
       <c r="B11" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C11" s="47" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="38"/>
-      <c r="E11" s="107"/>
+      <c r="E11" s="86"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="106"/>
+      <c r="A12" s="105"/>
       <c r="B12" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C12" s="47" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="38"/>
-      <c r="E12" s="107"/>
+      <c r="E12" s="86"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="81"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="104" t="s">
-        <v>222</v>
+      <c r="A14" s="103" t="s">
+        <v>220</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>223</v>
-      </c>
-      <c r="C14" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" s="62" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2"/>
@@ -6386,11 +6311,11 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="105"/>
+      <c r="A15" s="104"/>
       <c r="B15" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="C15" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="62" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2"/>
@@ -6398,11 +6323,11 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="105"/>
+      <c r="A16" s="104"/>
       <c r="B16" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="C16" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" s="62" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2"/>
@@ -6410,11 +6335,11 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="106"/>
+      <c r="A17" s="105"/>
       <c r="B17" s="57" t="s">
-        <v>226</v>
-      </c>
-      <c r="C17" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="62" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="2"/>
@@ -6422,21 +6347,21 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="86"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="83"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="82"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="62" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="2"/>
@@ -6445,9 +6370,9 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="94"/>
       <c r="B20" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="62" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="2"/>
@@ -6456,9 +6381,9 @@
     <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="94"/>
       <c r="B21" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="62" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="2"/>
@@ -6467,9 +6392,9 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="94"/>
       <c r="B22" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="62" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="2"/>
@@ -6478,9 +6403,9 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="94"/>
       <c r="B23" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="62" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="2"/>
@@ -6489,9 +6414,9 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="94"/>
       <c r="B24" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="62" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="2"/>
@@ -6500,7 +6425,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="95"/>
       <c r="B25" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>12</v>
@@ -6509,18 +6434,18 @@
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="84"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="83"/>
+      <c r="A26" s="83"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="82"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="93" t="s">
         <v>76</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>12</v>
@@ -6531,7 +6456,7 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="94"/>
       <c r="B28" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>12</v>
@@ -6542,7 +6467,7 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="95"/>
       <c r="B29" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>12</v>
@@ -6551,28 +6476,30 @@
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="86"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="83"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="82"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
+      <c r="A31" s="93" t="s">
+        <v>237</v>
+      </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="3"/>
+      <c r="A32" s="94"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
+      <c r="A33" s="95"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -6593,11 +6520,12 @@
       <c r="E35" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A19:A25"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A31:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6636,7 +6564,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="47" t="s">
@@ -6652,7 +6580,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="38"/>
-      <c r="E3" s="107"/>
+      <c r="E3" s="86"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>

--- a/Documents/Scrum/Sprint_backlog.xlsx
+++ b/Documents/Scrum/Sprint_backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C70B245-FD64-4B06-B91E-13994EAFC427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA76B6E8-5D00-4697-A298-9C265A4ABF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="257">
   <si>
     <t>STORY</t>
   </si>
@@ -617,15 +617,6 @@
   </si>
   <si>
     <t>Dès qu'on ouvre l'application créer un endroit avec tous les critères de rechercher sur la gauche (avec filtres et des tags)</t>
-  </si>
-  <si>
-    <t>Insérer un menu Tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insérer un menu Catégorie </t>
-  </si>
-  <si>
-    <t>Insérer un menu Localisation</t>
   </si>
   <si>
     <t xml:space="preserve">Insérer la map à droite de la page </t>
@@ -2078,10 +2069,6 @@
     </r>
   </si>
   <si>
-    <t>Manuel utilisateur  et membre
-WavCom</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2354,6 +2341,126 @@
   </si>
   <si>
     <t>Recherche API de l'interface web</t>
+  </si>
+  <si>
+    <t>Manuel utilisateur, membre et administrateur WavCom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revoir le chat (savoir où est-ce qu'il est stocké) </t>
+  </si>
+  <si>
+    <t>Corriger le problème avec le mot de passe admin(si on essaye 2x il y a une erreur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérifier le copier-coller du mot de passe ne n'affiche pas en clair </t>
+  </si>
+  <si>
+    <t>Vérifier le format d'affichage sur tous les PCS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Membre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Changer le nom des fenêtres pour "FrmWaviewProject"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Membre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Fenêtre "FrmWaviewProject" bouton "Ouvrir Chat" ne fonctionne pas régler le problème</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Membre </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Fenêtre "FrmWaviewProject" bouton "Matériel" ne fonctionne pas régler le problème</t>
+    </r>
+  </si>
+  <si>
+    <t>Vérifier que tous les CRUD fonctionne pour toutes les fenêtres de WavCom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faire les encrages des fenêtres </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revoir tous les cliques </t>
+  </si>
+  <si>
+    <t>Fenêtre "Mot de passe" changer la couleur des boutons quand c'est en dark</t>
+  </si>
+  <si>
+    <t>Recherche pour login application web</t>
+  </si>
+  <si>
+    <t>Vérifier que l'API est bien connecté à WavMap</t>
+  </si>
+  <si>
+    <t>Créer le lien base de données</t>
+  </si>
+  <si>
+    <t>Afficher les tags</t>
+  </si>
+  <si>
+    <t>Ajouter onglet pour les tags (catégorie, localisation, etc.)</t>
+  </si>
+  <si>
+    <t>Créer test de performance (surcharge test)</t>
+  </si>
+  <si>
+    <t>Créer test de sécurité (copier-coller le mdp **** et voir s'il apparaît en clair)</t>
+  </si>
+  <si>
+    <t>Créer test unitaire (gestion de matériel)</t>
   </si>
 </sst>
 </file>
@@ -3047,6 +3154,9 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3103,9 +3213,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3460,11 +3567,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3474,7 +3581,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="88"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
@@ -3486,7 +3593,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="88"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -3498,7 +3605,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="88"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
@@ -3510,7 +3617,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="88"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -3522,7 +3629,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="88"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
@@ -3534,7 +3641,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="89"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
@@ -3554,7 +3661,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="91" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3567,7 +3674,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="91"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
@@ -3578,7 +3685,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="91"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
@@ -3590,7 +3697,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="91"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="2" t="s">
         <v>75</v>
       </c>
@@ -3602,7 +3709,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="91"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
@@ -3613,7 +3720,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="91"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
@@ -3624,7 +3731,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="91"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
@@ -3635,9 +3742,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="91"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="57" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C17" s="57"/>
       <c r="D17" s="57"/>
@@ -3646,9 +3753,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="91"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="57" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C18" s="57"/>
       <c r="D18" s="57"/>
@@ -3657,9 +3764,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="92"/>
+      <c r="A19" s="93"/>
       <c r="B19" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -3710,7 +3817,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="94" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -3724,9 +3831,9 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="94"/>
+      <c r="A3" s="95"/>
       <c r="B3" s="17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3736,7 +3843,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="94"/>
+      <c r="A4" s="95"/>
       <c r="B4" s="17" t="s">
         <v>9</v>
       </c>
@@ -3748,7 +3855,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="94"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3759,9 +3866,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="94"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3771,7 +3878,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="94"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3782,9 +3889,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="94"/>
+      <c r="A8" s="95"/>
       <c r="B8" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -3793,7 +3900,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="94"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="17" t="s">
         <v>11</v>
       </c>
@@ -3804,7 +3911,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="94"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -3815,9 +3922,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="94"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -3826,9 +3933,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="94"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -3837,9 +3944,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="95"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -3856,10 +3963,10 @@
     </row>
     <row r="15" spans="1:8" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="78" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B15" s="79" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -3910,11 +4017,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="91" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="2"/>
@@ -3924,9 +4031,9 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="91"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="63" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="2"/>
@@ -3936,9 +4043,9 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="63" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="2"/>
@@ -3948,9 +4055,9 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="91"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="63" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="2"/>
@@ -3960,9 +4067,9 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="91"/>
+      <c r="A6" s="92"/>
       <c r="B6" s="63" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="2"/>
@@ -3972,9 +4079,9 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="91"/>
+      <c r="A7" s="92"/>
       <c r="B7" s="63" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="2"/>
@@ -3984,9 +4091,9 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="91"/>
+      <c r="A8" s="92"/>
       <c r="B8" s="63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="2"/>
@@ -3996,9 +4103,9 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="91"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="63" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="2"/>
@@ -4008,9 +4115,9 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="91"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="63" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="2"/>
@@ -4020,9 +4127,9 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="91"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="63" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="2"/>
@@ -4032,9 +4139,9 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="91"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="63" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="2"/>
@@ -4044,9 +4151,9 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="91"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="63" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="2"/>
@@ -4056,9 +4163,9 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="91"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="63" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="2"/>
@@ -4068,9 +4175,9 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="91"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="63" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="2"/>
@@ -4080,9 +4187,9 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="91"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="63" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="2"/>
@@ -4092,9 +4199,9 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="91"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="63" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="2"/>
@@ -4104,9 +4211,9 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="91"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="63" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="2"/>
@@ -4116,9 +4223,9 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="91"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="63" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="2"/>
@@ -4128,9 +4235,9 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="91"/>
+      <c r="A20" s="92"/>
       <c r="B20" s="63" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="2"/>
@@ -4140,9 +4247,9 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="96"/>
+      <c r="A21" s="97"/>
       <c r="B21" s="63" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="2"/>
@@ -4160,256 +4267,256 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="97" t="s">
+      <c r="A23" s="98" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="2"/>
       <c r="E23" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="98"/>
+      <c r="A24" s="99"/>
       <c r="B24" s="17" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="2"/>
       <c r="E24" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="99"/>
+      <c r="B25" s="17" t="s">
         <v>166</v>
-      </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="98"/>
-      <c r="B25" s="17" t="s">
-        <v>169</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="2"/>
       <c r="E25" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="98"/>
+      <c r="A26" s="99"/>
       <c r="B26" s="17" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="2"/>
       <c r="E26" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="98"/>
+      <c r="A27" s="99"/>
       <c r="B27" s="64" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="2"/>
       <c r="E27" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="98"/>
+      <c r="A28" s="99"/>
       <c r="B28" s="17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="2"/>
       <c r="E28" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="98"/>
+      <c r="A29" s="99"/>
       <c r="B29" s="17" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="2"/>
       <c r="E29" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="98"/>
+      <c r="A30" s="99"/>
       <c r="B30" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="2"/>
       <c r="E30" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="98"/>
+      <c r="A31" s="99"/>
       <c r="B31" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="2"/>
       <c r="E31" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="98"/>
+      <c r="A32" s="99"/>
       <c r="B32" s="17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="2"/>
       <c r="E32" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="98"/>
+      <c r="A33" s="99"/>
       <c r="B33" s="64" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="2"/>
       <c r="E33" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="98"/>
+      <c r="A34" s="99"/>
       <c r="B34" s="38" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="2"/>
       <c r="E34" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="98"/>
+      <c r="A35" s="99"/>
       <c r="B35" s="65" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="2"/>
       <c r="E35" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="98"/>
+      <c r="A36" s="99"/>
       <c r="B36" s="64" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="2"/>
       <c r="E36" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="98"/>
+      <c r="A37" s="99"/>
       <c r="B37" s="41" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="2"/>
       <c r="E37" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="98"/>
+      <c r="A38" s="99"/>
       <c r="B38" s="64" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="2"/>
       <c r="E38" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="98"/>
+      <c r="A39" s="99"/>
       <c r="B39" s="38" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="2"/>
       <c r="E39" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="98"/>
+      <c r="A40" s="99"/>
       <c r="B40" s="38" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="2"/>
       <c r="E40" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="98"/>
+      <c r="A41" s="99"/>
       <c r="B41" s="64" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="2"/>
       <c r="E41" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="98"/>
+      <c r="A42" s="99"/>
       <c r="B42" s="64" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C42" s="25"/>
       <c r="D42" s="2"/>
       <c r="E42" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="99"/>
+      <c r="A43" s="100"/>
       <c r="B43" s="38" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="2"/>
       <c r="E43" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F43" s="1"/>
     </row>
@@ -4422,11 +4529,11 @@
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="97" t="s">
+      <c r="A45" s="98" t="s">
         <v>76</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="25"/>
       <c r="D45" s="2"/>
@@ -4436,7 +4543,7 @@
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="100"/>
+      <c r="A46" s="101"/>
       <c r="B46" s="6" t="s">
         <v>30</v>
       </c>
@@ -4506,7 +4613,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="91" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="38" t="s">
@@ -4520,9 +4627,9 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="98"/>
+      <c r="A3" s="99"/>
       <c r="B3" s="38" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
@@ -4532,7 +4639,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="98"/>
+      <c r="A4" s="99"/>
       <c r="B4" s="38" t="s">
         <v>52</v>
       </c>
@@ -4544,7 +4651,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="98"/>
+      <c r="A5" s="99"/>
       <c r="B5" s="2" t="s">
         <v>51</v>
       </c>
@@ -4556,7 +4663,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="98"/>
+      <c r="A6" s="99"/>
       <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
@@ -4568,7 +4675,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="98"/>
+      <c r="A7" s="99"/>
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
@@ -4580,7 +4687,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="98"/>
+      <c r="A8" s="99"/>
       <c r="B8" s="38" t="s">
         <v>55</v>
       </c>
@@ -4592,7 +4699,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="98"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="2" t="s">
         <v>56</v>
       </c>
@@ -4604,7 +4711,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="98"/>
+      <c r="A10" s="99"/>
       <c r="B10" s="2" t="s">
         <v>57</v>
       </c>
@@ -4616,7 +4723,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="98"/>
+      <c r="A11" s="99"/>
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -4628,7 +4735,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="98"/>
+      <c r="A12" s="99"/>
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -4640,7 +4747,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="98"/>
+      <c r="A13" s="99"/>
       <c r="B13" s="2" t="s">
         <v>60</v>
       </c>
@@ -4652,7 +4759,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="98"/>
+      <c r="A14" s="99"/>
       <c r="B14" s="38" t="s">
         <v>61</v>
       </c>
@@ -4664,7 +4771,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="98"/>
+      <c r="A15" s="99"/>
       <c r="B15" s="38" t="s">
         <v>62</v>
       </c>
@@ -4676,7 +4783,7 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="98"/>
+      <c r="A16" s="99"/>
       <c r="B16" s="41" t="s">
         <v>63</v>
       </c>
@@ -4688,7 +4795,7 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="98"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="38" t="s">
         <v>64</v>
       </c>
@@ -4700,7 +4807,7 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="98"/>
+      <c r="A18" s="99"/>
       <c r="B18" s="41" t="s">
         <v>65</v>
       </c>
@@ -4712,7 +4819,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="98"/>
+      <c r="A19" s="99"/>
       <c r="B19" s="38" t="s">
         <v>67</v>
       </c>
@@ -4724,7 +4831,7 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="98"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="38" t="s">
         <v>68</v>
       </c>
@@ -4736,7 +4843,7 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="98"/>
+      <c r="A21" s="99"/>
       <c r="B21" s="38" t="s">
         <v>69</v>
       </c>
@@ -4748,7 +4855,7 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="98"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="38" t="s">
         <v>70</v>
       </c>
@@ -4760,7 +4867,7 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="98"/>
+      <c r="A23" s="99"/>
       <c r="B23" s="38" t="s">
         <v>71</v>
       </c>
@@ -4772,7 +4879,7 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="99"/>
+      <c r="A24" s="100"/>
       <c r="B24" s="38" t="s">
         <v>72</v>
       </c>
@@ -4792,7 +4899,7 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="97" t="s">
+      <c r="A26" s="98" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -4805,7 +4912,7 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="98"/>
+      <c r="A27" s="99"/>
       <c r="B27" s="2" t="s">
         <v>45</v>
       </c>
@@ -4817,7 +4924,7 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="98"/>
+      <c r="A28" s="99"/>
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -4829,7 +4936,7 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="98"/>
+      <c r="A29" s="99"/>
       <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
@@ -4841,7 +4948,7 @@
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="98"/>
+      <c r="A30" s="99"/>
       <c r="B30" s="2" t="s">
         <v>50</v>
       </c>
@@ -4853,7 +4960,7 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="98"/>
+      <c r="A31" s="99"/>
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
@@ -4865,7 +4972,7 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="98"/>
+      <c r="A32" s="99"/>
       <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
@@ -4877,7 +4984,7 @@
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="98"/>
+      <c r="A33" s="99"/>
       <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
@@ -4889,7 +4996,7 @@
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="98"/>
+      <c r="A34" s="99"/>
       <c r="B34" s="26" t="s">
         <v>40</v>
       </c>
@@ -4901,7 +5008,7 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="98"/>
+      <c r="A35" s="99"/>
       <c r="B35" s="2" t="s">
         <v>41</v>
       </c>
@@ -4913,7 +5020,7 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="98"/>
+      <c r="A36" s="99"/>
       <c r="B36" s="2" t="s">
         <v>42</v>
       </c>
@@ -4925,7 +5032,7 @@
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="98"/>
+      <c r="A37" s="99"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -4945,7 +5052,7 @@
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="101" t="s">
+      <c r="A39" s="102" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="72" t="s">
@@ -4958,7 +5065,7 @@
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="88"/>
+      <c r="A40" s="89"/>
       <c r="B40" s="17" t="s">
         <v>33</v>
       </c>
@@ -4969,7 +5076,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="88"/>
+      <c r="A41" s="89"/>
       <c r="B41" s="17" t="s">
         <v>34</v>
       </c>
@@ -4981,7 +5088,7 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="89"/>
+      <c r="A42" s="90"/>
       <c r="B42" s="17" t="s">
         <v>35</v>
       </c>
@@ -4999,7 +5106,7 @@
       <c r="E43" s="29"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="97" t="s">
+      <c r="A44" s="98" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -5012,7 +5119,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="98"/>
+      <c r="A45" s="99"/>
       <c r="B45" s="2" t="s">
         <v>48</v>
       </c>
@@ -5023,7 +5130,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="100"/>
+      <c r="A46" s="101"/>
       <c r="B46" s="6" t="s">
         <v>49</v>
       </c>
@@ -5092,11 +5199,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="92" t="s">
         <v>79</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="40"/>
@@ -5106,9 +5213,9 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="91"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="64" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
@@ -5118,9 +5225,9 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="64" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="40"/>
@@ -5130,9 +5237,9 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="96"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="64" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="40"/>
@@ -5150,11 +5257,11 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="98" t="s">
-        <v>195</v>
+      <c r="A7" s="99" t="s">
+        <v>192</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -5164,9 +5271,9 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="98"/>
+      <c r="A8" s="99"/>
       <c r="B8" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -5176,9 +5283,9 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="98"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -5188,9 +5295,9 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="98"/>
+      <c r="A10" s="99"/>
       <c r="B10" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -5200,9 +5307,9 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="98"/>
+      <c r="A11" s="99"/>
       <c r="B11" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -5212,9 +5319,9 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="98"/>
+      <c r="A12" s="99"/>
       <c r="B12" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5232,7 +5339,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="102" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="72" t="s">
@@ -5245,7 +5352,7 @@
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="88"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="17" t="s">
         <v>34</v>
       </c>
@@ -5257,7 +5364,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="102"/>
+      <c r="A16" s="103"/>
       <c r="B16" s="70" t="s">
         <v>35</v>
       </c>
@@ -5324,7 +5431,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="94" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -5337,7 +5444,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="94"/>
+      <c r="A3" s="95"/>
       <c r="B3" s="17" t="s">
         <v>34</v>
       </c>
@@ -5348,7 +5455,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="94"/>
+      <c r="A4" s="95"/>
       <c r="B4" s="17" t="s">
         <v>35</v>
       </c>
@@ -5366,7 +5473,7 @@
       <c r="E5" s="56"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -5379,7 +5486,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="94"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="52" t="s">
         <v>81</v>
       </c>
@@ -5390,9 +5497,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="94"/>
+      <c r="A8" s="95"/>
       <c r="B8" s="52" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C8" s="47"/>
       <c r="D8" s="53"/>
@@ -5401,9 +5508,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="94"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="61" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C9" s="47"/>
       <c r="D9" s="53"/>
@@ -5412,9 +5519,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="94"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="61" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C10" s="47"/>
       <c r="D10" s="53"/>
@@ -5423,9 +5530,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="94"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="61" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C11" s="47"/>
       <c r="D11" s="53"/>
@@ -5434,9 +5541,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="94"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="61" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C12" s="47"/>
       <c r="D12" s="53"/>
@@ -5445,9 +5552,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="95"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="54" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C13" s="47"/>
       <c r="D13" s="53"/>
@@ -5463,7 +5570,7 @@
       <c r="E14" s="56"/>
     </row>
     <row r="15" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="98" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -5476,9 +5583,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="98"/>
+      <c r="A16" s="99"/>
       <c r="B16" s="17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C16" s="47"/>
       <c r="D16" s="47"/>
@@ -5487,9 +5594,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="98"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
@@ -5498,9 +5605,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="98"/>
+      <c r="A18" s="99"/>
       <c r="B18" s="17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
@@ -5509,9 +5616,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="98"/>
+      <c r="A19" s="99"/>
       <c r="B19" s="17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C19" s="47"/>
       <c r="D19" s="47"/>
@@ -5520,9 +5627,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="98"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C20" s="47"/>
       <c r="D20" s="47"/>
@@ -5531,9 +5638,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="98"/>
+      <c r="A21" s="99"/>
       <c r="B21" s="17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
@@ -5542,9 +5649,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="98"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
@@ -5553,9 +5660,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="98"/>
+      <c r="A23" s="99"/>
       <c r="B23" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
@@ -5564,9 +5671,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="98"/>
+      <c r="A24" s="99"/>
       <c r="B24" s="17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
@@ -5575,9 +5682,9 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="98"/>
+      <c r="A25" s="99"/>
       <c r="B25" s="17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C25" s="47"/>
       <c r="D25" s="47"/>
@@ -5586,9 +5693,9 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="98"/>
+      <c r="A26" s="99"/>
       <c r="B26" s="17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C26" s="47"/>
       <c r="D26" s="47"/>
@@ -5597,9 +5704,9 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="98"/>
+      <c r="A27" s="99"/>
       <c r="B27" s="17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C27" s="47"/>
       <c r="D27" s="47"/>
@@ -5608,9 +5715,9 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="98"/>
+      <c r="A28" s="99"/>
       <c r="B28" s="17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C28" s="47"/>
       <c r="D28" s="47"/>
@@ -5619,9 +5726,9 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="98"/>
+      <c r="A29" s="99"/>
       <c r="B29" s="17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -5630,9 +5737,9 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="98"/>
+      <c r="A30" s="99"/>
       <c r="B30" s="17" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -5641,9 +5748,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="98"/>
+      <c r="A31" s="99"/>
       <c r="B31" s="17" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C31" s="47"/>
       <c r="D31" s="47"/>
@@ -5652,9 +5759,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="98"/>
+      <c r="A32" s="99"/>
       <c r="B32" s="17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C32" s="47"/>
       <c r="D32" s="47"/>
@@ -5663,9 +5770,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="98"/>
+      <c r="A33" s="99"/>
       <c r="B33" s="17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C33" s="47"/>
       <c r="D33" s="47"/>
@@ -5674,9 +5781,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="98"/>
+      <c r="A34" s="99"/>
       <c r="B34" s="17" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C34" s="47"/>
       <c r="D34" s="47"/>
@@ -5685,9 +5792,9 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="98"/>
+      <c r="A35" s="99"/>
       <c r="B35" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C35" s="47"/>
       <c r="D35" s="47"/>
@@ -5696,16 +5803,16 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="98"/>
+      <c r="A36" s="99"/>
       <c r="B36" s="17"/>
       <c r="C36" s="47"/>
       <c r="D36" s="47"/>
       <c r="E36" s="31"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="98"/>
+      <c r="A37" s="99"/>
       <c r="B37" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C37" s="47"/>
       <c r="D37" s="47"/>
@@ -5714,9 +5821,9 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="98"/>
+      <c r="A38" s="99"/>
       <c r="B38" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C38" s="47"/>
       <c r="D38" s="47"/>
@@ -5725,9 +5832,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="98"/>
+      <c r="A39" s="99"/>
       <c r="B39" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C39" s="47"/>
       <c r="D39" s="47"/>
@@ -5736,9 +5843,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="98"/>
+      <c r="A40" s="99"/>
       <c r="B40" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C40" s="47"/>
       <c r="D40" s="47"/>
@@ -5747,9 +5854,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="98"/>
+      <c r="A41" s="99"/>
       <c r="B41" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C41" s="47"/>
       <c r="D41" s="47"/>
@@ -5758,9 +5865,9 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="98"/>
+      <c r="A42" s="99"/>
       <c r="B42" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C42" s="47"/>
       <c r="D42" s="47"/>
@@ -5769,9 +5876,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="98"/>
+      <c r="A43" s="99"/>
       <c r="B43" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C43" s="47"/>
       <c r="D43" s="47"/>
@@ -5780,9 +5887,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="98"/>
+      <c r="A44" s="99"/>
       <c r="B44" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C44" s="47"/>
       <c r="D44" s="47"/>
@@ -5791,9 +5898,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="98"/>
+      <c r="A45" s="99"/>
       <c r="B45" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C45" s="47"/>
       <c r="D45" s="47"/>
@@ -5802,9 +5909,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="98"/>
+      <c r="A46" s="99"/>
       <c r="B46" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C46" s="47"/>
       <c r="D46" s="47"/>
@@ -5813,9 +5920,9 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="98"/>
+      <c r="A47" s="99"/>
       <c r="B47" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C47" s="47"/>
       <c r="D47" s="47"/>
@@ -5824,9 +5931,9 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="98"/>
+      <c r="A48" s="99"/>
       <c r="B48" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C48" s="47"/>
       <c r="D48" s="47"/>
@@ -5835,9 +5942,9 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="98"/>
+      <c r="A49" s="99"/>
       <c r="B49" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C49" s="47"/>
       <c r="D49" s="47"/>
@@ -5846,9 +5953,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="98"/>
+      <c r="A50" s="99"/>
       <c r="B50" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C50" s="47"/>
       <c r="D50" s="47"/>
@@ -5857,9 +5964,9 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="98"/>
+      <c r="A51" s="99"/>
       <c r="B51" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C51" s="47"/>
       <c r="D51" s="47"/>
@@ -5868,9 +5975,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="98"/>
+      <c r="A52" s="99"/>
       <c r="B52" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C52" s="47"/>
       <c r="D52" s="47"/>
@@ -5879,9 +5986,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="98"/>
+      <c r="A53" s="99"/>
       <c r="B53" s="26" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C53" s="47"/>
       <c r="D53" s="47"/>
@@ -5890,9 +5997,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="98"/>
+      <c r="A54" s="99"/>
       <c r="B54" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C54" s="47"/>
       <c r="D54" s="47"/>
@@ -5901,9 +6008,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="98"/>
+      <c r="A55" s="99"/>
       <c r="B55" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C55" s="47"/>
       <c r="D55" s="47"/>
@@ -5912,9 +6019,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="98"/>
+      <c r="A56" s="99"/>
       <c r="B56" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C56" s="47"/>
       <c r="D56" s="47"/>
@@ -5930,11 +6037,11 @@
       <c r="E57" s="56"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="97" t="s">
+      <c r="A58" s="98" t="s">
         <v>79</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C58" s="25"/>
       <c r="D58" s="47"/>
@@ -5943,7 +6050,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="98"/>
+      <c r="A59" s="99"/>
       <c r="B59" s="17" t="s">
         <v>93</v>
       </c>
@@ -5954,7 +6061,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="99"/>
+      <c r="A60" s="100"/>
       <c r="B60" s="17" t="s">
         <v>92</v>
       </c>
@@ -5972,7 +6079,7 @@
       <c r="E61" s="55"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="93" t="s">
+      <c r="A62" s="94" t="s">
         <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -5985,7 +6092,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="94"/>
+      <c r="A63" s="95"/>
       <c r="B63" s="2" t="s">
         <v>84</v>
       </c>
@@ -5996,7 +6103,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="94"/>
+      <c r="A64" s="95"/>
       <c r="B64" s="2" t="s">
         <v>87</v>
       </c>
@@ -6007,7 +6114,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="94"/>
+      <c r="A65" s="95"/>
       <c r="B65" s="2" t="s">
         <v>85</v>
       </c>
@@ -6018,7 +6125,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="94"/>
+      <c r="A66" s="95"/>
       <c r="B66" s="2" t="s">
         <v>86</v>
       </c>
@@ -6029,7 +6136,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="94"/>
+      <c r="A67" s="95"/>
       <c r="B67" s="57" t="s">
         <v>88</v>
       </c>
@@ -6040,7 +6147,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="94"/>
+      <c r="A68" s="95"/>
       <c r="B68" s="57" t="s">
         <v>89</v>
       </c>
@@ -6051,7 +6158,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="94"/>
+      <c r="A69" s="95"/>
       <c r="B69" s="57" t="s">
         <v>90</v>
       </c>
@@ -6062,7 +6169,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A70" s="94"/>
+      <c r="A70" s="95"/>
       <c r="B70" s="60" t="s">
         <v>91</v>
       </c>
@@ -6073,9 +6180,9 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A71" s="95"/>
+      <c r="A71" s="96"/>
       <c r="B71" s="60" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C71" s="25"/>
       <c r="D71" s="58"/>
@@ -6091,11 +6198,11 @@
       <c r="E72" s="55"/>
     </row>
     <row r="73" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="106" t="s">
-        <v>240</v>
+      <c r="A73" s="87" t="s">
+        <v>236</v>
       </c>
       <c r="B73" s="79" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C73" s="71"/>
       <c r="D73" s="48"/>
@@ -6125,16 +6232,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF97C5A-E76A-4F7F-AE1B-EEE4815545E3}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -6155,11 +6262,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="103" t="s">
-        <v>227</v>
+      <c r="A2" s="104" t="s">
+        <v>237</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C2" s="47" t="s">
         <v>12</v>
@@ -6169,9 +6276,9 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="104"/>
+      <c r="A3" s="105"/>
       <c r="B3" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>12</v>
@@ -6181,9 +6288,9 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="104"/>
+      <c r="A4" s="105"/>
       <c r="B4" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>12</v>
@@ -6193,9 +6300,9 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="104"/>
+      <c r="A5" s="105"/>
       <c r="B5" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>12</v>
@@ -6205,9 +6312,9 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="104"/>
+      <c r="A6" s="105"/>
       <c r="B6" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C6" s="47" t="s">
         <v>12</v>
@@ -6217,9 +6324,9 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="104"/>
+      <c r="A7" s="105"/>
       <c r="B7" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C7" s="47" t="s">
         <v>12</v>
@@ -6229,9 +6336,9 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="104"/>
+      <c r="A8" s="105"/>
       <c r="B8" s="17" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C8" s="47" t="s">
         <v>12</v>
@@ -6241,9 +6348,9 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="104"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C9" s="47" t="s">
         <v>12</v>
@@ -6253,9 +6360,9 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="104"/>
+      <c r="A10" s="105"/>
       <c r="B10" s="26" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>12</v>
@@ -6265,9 +6372,9 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="104"/>
+      <c r="A11" s="105"/>
       <c r="B11" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C11" s="47" t="s">
         <v>12</v>
@@ -6277,9 +6384,9 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="105"/>
+      <c r="A12" s="106"/>
       <c r="B12" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C12" s="47" t="s">
         <v>12</v>
@@ -6297,35 +6404,35 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="103" t="s">
+      <c r="A14" s="104" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="62"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="105"/>
+      <c r="B15" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="62"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="105"/>
+      <c r="B16" s="57" t="s">
         <v>220</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>221</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="104"/>
-      <c r="B15" s="57" t="s">
-        <v>222</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="104"/>
-      <c r="B16" s="57" t="s">
-        <v>223</v>
       </c>
       <c r="C16" s="62" t="s">
         <v>12</v>
@@ -6335,9 +6442,9 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="105"/>
+      <c r="A17" s="106"/>
       <c r="B17" s="57" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C17" s="62" t="s">
         <v>12</v>
@@ -6355,20 +6462,20 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="95" t="s">
         <v>95</v>
       </c>
       <c r="B19" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="62" t="s">
-        <v>12</v>
-      </c>
+      <c r="C19" s="62"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="4"/>
+      <c r="E19" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="94"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="60" t="s">
         <v>96</v>
       </c>
@@ -6379,7 +6486,7 @@
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="94"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="60" t="s">
         <v>97</v>
       </c>
@@ -6390,9 +6497,9 @@
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="94"/>
+      <c r="A22" s="95"/>
       <c r="B22" s="60" t="s">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="C22" s="62" t="s">
         <v>12</v>
@@ -6401,9 +6508,9 @@
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="94"/>
+      <c r="A23" s="95"/>
       <c r="B23" s="60" t="s">
-        <v>98</v>
+        <v>250</v>
       </c>
       <c r="C23" s="62" t="s">
         <v>12</v>
@@ -6412,62 +6519,60 @@
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="94"/>
+      <c r="A24" s="95"/>
       <c r="B24" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="62" t="s">
-        <v>12</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="C24" s="62"/>
       <c r="D24" s="2"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="95"/>
-      <c r="B25" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="25" t="s">
+      <c r="B25" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="62" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="83"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="82"/>
+      <c r="A26" s="95"/>
+      <c r="B26" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="93" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C27" s="25" t="s">
+      <c r="A27" s="95"/>
+      <c r="B27" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="C27" s="62" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="94"/>
-      <c r="B28" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="4"/>
+      <c r="A28" s="83"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="82"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="95"/>
+      <c r="A29" s="94" t="s">
+        <v>76</v>
+      </c>
       <c r="B29" s="2" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>12</v>
@@ -6476,56 +6581,211 @@
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="85"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="82"/>
+      <c r="A30" s="95"/>
+      <c r="B30" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="93" t="s">
-        <v>237</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="A31" s="95"/>
+      <c r="B31" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="94"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="A32" s="95"/>
+      <c r="B32" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="95"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="7"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="95"/>
+      <c r="B34" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="A35" s="95"/>
+      <c r="B35" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="95"/>
+      <c r="B36" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="95"/>
+      <c r="B37" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="95"/>
+      <c r="B38" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="95"/>
+      <c r="B39" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="95"/>
+      <c r="B40" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="95"/>
+      <c r="B41" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="96"/>
+      <c r="B42" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="85"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="82"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="94" t="s">
+        <v>233</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="95"/>
+      <c r="B45" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="96"/>
+      <c r="B46" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="A29:A42"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A44:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6564,7 +6824,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="47" t="s">

--- a/Documents/Scrum/Sprint_backlog.xlsx
+++ b/Documents/Scrum/Sprint_backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA76B6E8-5D00-4697-A298-9C265A4ABF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B108F0C-EB39-42F2-A4A3-B439B6EF9DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
+    <workbookView xWindow="5140" yWindow="2200" windowWidth="14400" windowHeight="7360" firstSheet="2" activeTab="6" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint_0." sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="258">
   <si>
     <t>STORY</t>
   </si>
@@ -2343,9 +2343,6 @@
     <t>Recherche API de l'interface web</t>
   </si>
   <si>
-    <t>Manuel utilisateur, membre et administrateur WavCom</t>
-  </si>
-  <si>
     <t xml:space="preserve">Revoir le chat (savoir où est-ce qu'il est stocké) </t>
   </si>
   <si>
@@ -2461,6 +2458,12 @@
   </si>
   <si>
     <t>Créer test unitaire (gestion de matériel)</t>
+  </si>
+  <si>
+    <t>Document utilisation membre et administrateur WavCom</t>
+  </si>
+  <si>
+    <t>Document utilisation utilisateur WavCom</t>
   </si>
 </sst>
 </file>
@@ -2946,7 +2949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3214,6 +3217,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6232,10 +6236,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF97C5A-E76A-4F7F-AE1B-EEE4815545E3}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6263,7 +6267,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="104" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>224</v>
@@ -6372,165 +6376,170 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="105"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="80"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="92" t="s">
+        <v>257</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C11" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="106"/>
-      <c r="B12" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="C12" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="38"/>
+      <c r="D12" s="107"/>
       <c r="E12" s="86"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="80"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="107"/>
+      <c r="E13" s="86"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="104" t="s">
-        <v>217</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="A14" s="92"/>
+      <c r="B14" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="107"/>
+      <c r="E14" s="86"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="105"/>
-      <c r="B15" s="57" t="s">
-        <v>219</v>
-      </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="A15" s="92"/>
+      <c r="B15" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="107"/>
+      <c r="E15" s="86"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="105"/>
-      <c r="B16" s="57" t="s">
-        <v>220</v>
-      </c>
-      <c r="C16" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="4"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="107"/>
+      <c r="E16" s="86"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="106"/>
-      <c r="B17" s="57" t="s">
-        <v>221</v>
-      </c>
-      <c r="C17" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="4"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="107"/>
+      <c r="E17" s="86"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="85"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="80"/>
       <c r="C18" s="80"/>
-      <c r="D18" s="81"/>
+      <c r="D18" s="80"/>
       <c r="E18" s="82"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="60" t="s">
-        <v>94</v>
+      <c r="A19" s="104" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>218</v>
       </c>
       <c r="C19" s="62"/>
       <c r="D19" s="2"/>
       <c r="E19" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="95"/>
-      <c r="B20" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="62" t="s">
-        <v>12</v>
-      </c>
+      <c r="A20" s="105"/>
+      <c r="B20" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="62"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="95"/>
-      <c r="B21" s="60" t="s">
-        <v>97</v>
+      <c r="E20" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="105"/>
+      <c r="B21" s="57" t="s">
+        <v>220</v>
       </c>
       <c r="C21" s="62" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="4"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="95"/>
-      <c r="B22" s="60" t="s">
-        <v>249</v>
+      <c r="A22" s="106"/>
+      <c r="B22" s="57" t="s">
+        <v>221</v>
       </c>
       <c r="C22" s="62" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="4"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="95"/>
-      <c r="B23" s="60" t="s">
-        <v>250</v>
-      </c>
-      <c r="C23" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="4"/>
+      <c r="A23" s="85"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="95"/>
+      <c r="A24" s="95" t="s">
+        <v>95</v>
+      </c>
       <c r="B24" s="60" t="s">
-        <v>251</v>
+        <v>94</v>
       </c>
       <c r="C24" s="62"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="4"/>
+      <c r="E24" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="95"/>
       <c r="B25" s="60" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C25" s="62" t="s">
         <v>12</v>
@@ -6538,10 +6547,10 @@
       <c r="D25" s="2"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="95"/>
       <c r="B26" s="60" t="s">
-        <v>253</v>
+        <v>97</v>
       </c>
       <c r="C26" s="62" t="s">
         <v>12</v>
@@ -6552,7 +6561,7 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="95"/>
       <c r="B27" s="60" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C27" s="62" t="s">
         <v>12</v>
@@ -6561,31 +6570,31 @@
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="83"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="82"/>
+      <c r="A28" s="95"/>
+      <c r="B28" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="C28" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="94" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>12</v>
-      </c>
+      <c r="A29" s="95"/>
+      <c r="B29" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="C29" s="62"/>
       <c r="D29" s="2"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="95"/>
-      <c r="B30" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C30" s="25" t="s">
+      <c r="B30" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="62" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="2"/>
@@ -6593,10 +6602,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="95"/>
-      <c r="B31" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C31" s="25" t="s">
+      <c r="B31" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="C31" s="62" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="2"/>
@@ -6604,30 +6613,28 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="95"/>
-      <c r="B32" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C32" s="25" t="s">
+      <c r="B32" s="60" t="s">
+        <v>251</v>
+      </c>
+      <c r="C32" s="62" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="95"/>
-      <c r="B33" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="4"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="82"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="95"/>
+      <c r="A34" s="94" t="s">
+        <v>76</v>
+      </c>
       <c r="B34" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>12</v>
@@ -6638,7 +6645,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="95"/>
       <c r="B35" s="2" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>12</v>
@@ -6649,7 +6656,7 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="95"/>
       <c r="B36" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>12</v>
@@ -6660,7 +6667,7 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="95"/>
       <c r="B37" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C37" s="25" t="s">
         <v>12</v>
@@ -6671,7 +6678,7 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="95"/>
       <c r="B38" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C38" s="25" t="s">
         <v>12</v>
@@ -6682,7 +6689,7 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="95"/>
       <c r="B39" s="2" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>12</v>
@@ -6693,7 +6700,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="95"/>
       <c r="B40" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C40" s="25" t="s">
         <v>12</v>
@@ -6704,7 +6711,7 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="95"/>
       <c r="B41" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C41" s="25" t="s">
         <v>12</v>
@@ -6713,9 +6720,9 @@
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="96"/>
+      <c r="A42" s="95"/>
       <c r="B42" s="2" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="C42" s="25" t="s">
         <v>12</v>
@@ -6724,18 +6731,20 @@
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="85"/>
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="82"/>
+      <c r="A43" s="95"/>
+      <c r="B43" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="94" t="s">
-        <v>233</v>
-      </c>
+      <c r="A44" s="95"/>
       <c r="B44" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C44" s="25" t="s">
         <v>12</v>
@@ -6746,7 +6755,7 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="95"/>
       <c r="B45" s="2" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C45" s="25" t="s">
         <v>12</v>
@@ -6755,9 +6764,9 @@
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="96"/>
+      <c r="A46" s="95"/>
       <c r="B46" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C46" s="25" t="s">
         <v>12</v>
@@ -6765,27 +6774,81 @@
       <c r="D46" s="2"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="5"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="7"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="96"/>
+      <c r="B47" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="A48" s="85"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="82"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="94" t="s">
+        <v>233</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="95"/>
+      <c r="B50" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="96"/>
+      <c r="B51" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="5"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="A29:A42"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A44:A46"/>
+  <mergeCells count="6">
+    <mergeCell ref="A24:A32"/>
+    <mergeCell ref="A34:A47"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A12:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Documents/Scrum/Sprint_backlog.xlsx
+++ b/Documents/Scrum/Sprint_backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B108F0C-EB39-42F2-A4A3-B439B6EF9DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DFFEF2-C1B9-44B8-AC27-9522A546E0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="2200" windowWidth="14400" windowHeight="7360" firstSheet="2" activeTab="6" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="6" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint_0." sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="260">
   <si>
     <t>STORY</t>
   </si>
@@ -607,19 +607,7 @@
     <t xml:space="preserve">Image finalisation de la base de données </t>
   </si>
   <si>
-    <t>Créer l'interface en web (html, php, js + atom)</t>
-  </si>
-  <si>
     <t>WavMap</t>
-  </si>
-  <si>
-    <t>Faire le lien avec Waview.ch</t>
-  </si>
-  <si>
-    <t>Dès qu'on ouvre l'application créer un endroit avec tous les critères de rechercher sur la gauche (avec filtres et des tags)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insérer la map à droite de la page </t>
   </si>
   <si>
     <t>Finaliser la fenêtre "Chat"</t>
@@ -2448,9 +2436,6 @@
     <t>Afficher les tags</t>
   </si>
   <si>
-    <t>Ajouter onglet pour les tags (catégorie, localisation, etc.)</t>
-  </si>
-  <si>
     <t>Créer test de performance (surcharge test)</t>
   </si>
   <si>
@@ -2464,6 +2449,27 @@
   </si>
   <si>
     <t>Document utilisation utilisateur WavCom</t>
+  </si>
+  <si>
+    <t>sprint 7 en done</t>
+  </si>
+  <si>
+    <t>Faire le lien avec le serveur de Waview.ch</t>
+  </si>
+  <si>
+    <t>Dès qu'on ouvre l'application créer un endroit avec tous les critères de recherche sur la gauche (avec filtres et des tags) (partie visuel)</t>
+  </si>
+  <si>
+    <t>Recherches pour la création de la map avec l'API Google Maps</t>
+  </si>
+  <si>
+    <t>Créer de l'environnement de l'application web (html, php, js + atom)</t>
+  </si>
+  <si>
+    <t>Insérer la map dans WavMap</t>
+  </si>
+  <si>
+    <t>Ajouter marker pour les tags sur les lieux</t>
   </si>
 </sst>
 </file>
@@ -2949,7 +2955,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3153,13 +3159,12 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3217,7 +3222,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3571,11 +3575,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="87" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3585,7 +3589,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="89"/>
+      <c r="A3" s="88"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
@@ -3597,7 +3601,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="89"/>
+      <c r="A4" s="88"/>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -3609,7 +3613,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="89"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
@@ -3621,7 +3625,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="89"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -3633,7 +3637,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="89"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
@@ -3645,7 +3649,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="90"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
@@ -3665,7 +3669,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="90" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3678,7 +3682,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="92"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
@@ -3689,7 +3693,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="92"/>
+      <c r="A12" s="91"/>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
@@ -3701,7 +3705,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="92"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="2" t="s">
         <v>75</v>
       </c>
@@ -3713,7 +3717,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="92"/>
+      <c r="A14" s="91"/>
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
@@ -3724,7 +3728,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="92"/>
+      <c r="A15" s="91"/>
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
@@ -3735,7 +3739,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="92"/>
+      <c r="A16" s="91"/>
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
@@ -3746,9 +3750,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="92"/>
+      <c r="A17" s="91"/>
       <c r="B17" s="57" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C17" s="57"/>
       <c r="D17" s="57"/>
@@ -3757,9 +3761,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="92"/>
+      <c r="A18" s="91"/>
       <c r="B18" s="57" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C18" s="57"/>
       <c r="D18" s="57"/>
@@ -3768,9 +3772,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="93"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -3821,7 +3825,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="93" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -3835,9 +3839,9 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="95"/>
+      <c r="A3" s="94"/>
       <c r="B3" s="17" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3847,7 +3851,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="95"/>
+      <c r="A4" s="94"/>
       <c r="B4" s="17" t="s">
         <v>9</v>
       </c>
@@ -3859,7 +3863,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="95"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3870,9 +3874,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="95"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3882,7 +3886,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="95"/>
+      <c r="A7" s="94"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3893,9 +3897,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="95"/>
+      <c r="A8" s="94"/>
       <c r="B8" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -3904,7 +3908,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="95"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="17" t="s">
         <v>11</v>
       </c>
@@ -3915,7 +3919,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="95"/>
+      <c r="A10" s="94"/>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -3926,9 +3930,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="95"/>
+      <c r="A11" s="94"/>
       <c r="B11" s="17" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -3937,9 +3941,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="95"/>
+      <c r="A12" s="94"/>
       <c r="B12" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -3948,9 +3952,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="96"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="17" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -3967,10 +3971,10 @@
     </row>
     <row r="15" spans="1:8" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="78" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B15" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -4021,11 +4025,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="90" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="2"/>
@@ -4035,9 +4039,9 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="92"/>
+      <c r="A3" s="91"/>
       <c r="B3" s="63" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="2"/>
@@ -4047,9 +4051,9 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="92"/>
+      <c r="A4" s="91"/>
       <c r="B4" s="63" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="2"/>
@@ -4059,9 +4063,9 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="92"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="2"/>
@@ -4071,9 +4075,9 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="92"/>
+      <c r="A6" s="91"/>
       <c r="B6" s="63" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="2"/>
@@ -4083,9 +4087,9 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="92"/>
+      <c r="A7" s="91"/>
       <c r="B7" s="63" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="2"/>
@@ -4095,9 +4099,9 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="92"/>
+      <c r="A8" s="91"/>
       <c r="B8" s="63" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="2"/>
@@ -4107,9 +4111,9 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="92"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="63" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="2"/>
@@ -4119,9 +4123,9 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="92"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="63" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="2"/>
@@ -4131,9 +4135,9 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="92"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="63" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="2"/>
@@ -4143,9 +4147,9 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="92"/>
+      <c r="A12" s="91"/>
       <c r="B12" s="63" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="2"/>
@@ -4155,9 +4159,9 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="92"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="63" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="2"/>
@@ -4167,9 +4171,9 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="92"/>
+      <c r="A14" s="91"/>
       <c r="B14" s="63" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="2"/>
@@ -4179,9 +4183,9 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="92"/>
+      <c r="A15" s="91"/>
       <c r="B15" s="63" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="2"/>
@@ -4191,9 +4195,9 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="92"/>
+      <c r="A16" s="91"/>
       <c r="B16" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="2"/>
@@ -4203,9 +4207,9 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="92"/>
+      <c r="A17" s="91"/>
       <c r="B17" s="63" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="2"/>
@@ -4215,9 +4219,9 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="92"/>
+      <c r="A18" s="91"/>
       <c r="B18" s="63" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="2"/>
@@ -4227,9 +4231,9 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="92"/>
+      <c r="A19" s="91"/>
       <c r="B19" s="63" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="2"/>
@@ -4239,9 +4243,9 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="92"/>
+      <c r="A20" s="91"/>
       <c r="B20" s="63" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="2"/>
@@ -4251,9 +4255,9 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="97"/>
+      <c r="A21" s="96"/>
       <c r="B21" s="63" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="2"/>
@@ -4271,256 +4275,256 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="98" t="s">
+      <c r="A23" s="97" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="2"/>
       <c r="E23" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="98"/>
+      <c r="B24" s="17" t="s">
         <v>163</v>
-      </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="99"/>
-      <c r="B24" s="17" t="s">
-        <v>167</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="2"/>
       <c r="E24" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="99"/>
+      <c r="A25" s="98"/>
       <c r="B25" s="17" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="2"/>
       <c r="E25" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="99"/>
+      <c r="A26" s="98"/>
       <c r="B26" s="17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="2"/>
       <c r="E26" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="99"/>
+      <c r="A27" s="98"/>
       <c r="B27" s="64" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="2"/>
       <c r="E27" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="99"/>
+      <c r="A28" s="98"/>
       <c r="B28" s="17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="2"/>
       <c r="E28" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="99"/>
+      <c r="A29" s="98"/>
       <c r="B29" s="17" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="2"/>
       <c r="E29" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="99"/>
+      <c r="A30" s="98"/>
       <c r="B30" s="17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="2"/>
       <c r="E30" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="99"/>
+      <c r="A31" s="98"/>
       <c r="B31" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="2"/>
       <c r="E31" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="99"/>
+      <c r="A32" s="98"/>
       <c r="B32" s="17" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="2"/>
       <c r="E32" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="99"/>
+      <c r="A33" s="98"/>
       <c r="B33" s="64" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="2"/>
       <c r="E33" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="99"/>
+      <c r="A34" s="98"/>
       <c r="B34" s="38" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="2"/>
       <c r="E34" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="99"/>
+      <c r="A35" s="98"/>
       <c r="B35" s="65" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="2"/>
       <c r="E35" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="99"/>
+      <c r="A36" s="98"/>
       <c r="B36" s="64" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="2"/>
       <c r="E36" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="99"/>
+      <c r="A37" s="98"/>
       <c r="B37" s="41" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="2"/>
       <c r="E37" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="99"/>
+      <c r="A38" s="98"/>
       <c r="B38" s="64" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="2"/>
       <c r="E38" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="99"/>
+      <c r="A39" s="98"/>
       <c r="B39" s="38" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="2"/>
       <c r="E39" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="99"/>
+      <c r="A40" s="98"/>
       <c r="B40" s="38" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="2"/>
       <c r="E40" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="99"/>
+      <c r="A41" s="98"/>
       <c r="B41" s="64" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="2"/>
       <c r="E41" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="99"/>
+      <c r="A42" s="98"/>
       <c r="B42" s="64" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C42" s="25"/>
       <c r="D42" s="2"/>
       <c r="E42" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
+      <c r="A43" s="99"/>
       <c r="B43" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="2"/>
       <c r="E43" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F43" s="1"/>
     </row>
@@ -4533,11 +4537,11 @@
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="98" t="s">
+      <c r="A45" s="97" t="s">
         <v>76</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C45" s="25"/>
       <c r="D45" s="2"/>
@@ -4547,7 +4551,7 @@
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="101"/>
+      <c r="A46" s="100"/>
       <c r="B46" s="6" t="s">
         <v>30</v>
       </c>
@@ -4617,7 +4621,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="90" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="38" t="s">
@@ -4631,9 +4635,9 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="99"/>
+      <c r="A3" s="98"/>
       <c r="B3" s="38" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
@@ -4643,7 +4647,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="99"/>
+      <c r="A4" s="98"/>
       <c r="B4" s="38" t="s">
         <v>52</v>
       </c>
@@ -4655,7 +4659,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="99"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="2" t="s">
         <v>51</v>
       </c>
@@ -4667,7 +4671,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="99"/>
+      <c r="A6" s="98"/>
       <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
@@ -4679,7 +4683,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="99"/>
+      <c r="A7" s="98"/>
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
@@ -4691,7 +4695,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="99"/>
+      <c r="A8" s="98"/>
       <c r="B8" s="38" t="s">
         <v>55</v>
       </c>
@@ -4703,7 +4707,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="99"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="2" t="s">
         <v>56</v>
       </c>
@@ -4715,7 +4719,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="99"/>
+      <c r="A10" s="98"/>
       <c r="B10" s="2" t="s">
         <v>57</v>
       </c>
@@ -4727,7 +4731,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="99"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -4739,7 +4743,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="99"/>
+      <c r="A12" s="98"/>
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -4751,7 +4755,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="99"/>
+      <c r="A13" s="98"/>
       <c r="B13" s="2" t="s">
         <v>60</v>
       </c>
@@ -4763,7 +4767,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="99"/>
+      <c r="A14" s="98"/>
       <c r="B14" s="38" t="s">
         <v>61</v>
       </c>
@@ -4775,7 +4779,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="99"/>
+      <c r="A15" s="98"/>
       <c r="B15" s="38" t="s">
         <v>62</v>
       </c>
@@ -4787,7 +4791,7 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="99"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="41" t="s">
         <v>63</v>
       </c>
@@ -4799,7 +4803,7 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="99"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="38" t="s">
         <v>64</v>
       </c>
@@ -4811,7 +4815,7 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="99"/>
+      <c r="A18" s="98"/>
       <c r="B18" s="41" t="s">
         <v>65</v>
       </c>
@@ -4823,7 +4827,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="99"/>
+      <c r="A19" s="98"/>
       <c r="B19" s="38" t="s">
         <v>67</v>
       </c>
@@ -4835,7 +4839,7 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="99"/>
+      <c r="A20" s="98"/>
       <c r="B20" s="38" t="s">
         <v>68</v>
       </c>
@@ -4847,7 +4851,7 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="99"/>
+      <c r="A21" s="98"/>
       <c r="B21" s="38" t="s">
         <v>69</v>
       </c>
@@ -4859,7 +4863,7 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="99"/>
+      <c r="A22" s="98"/>
       <c r="B22" s="38" t="s">
         <v>70</v>
       </c>
@@ -4871,7 +4875,7 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="99"/>
+      <c r="A23" s="98"/>
       <c r="B23" s="38" t="s">
         <v>71</v>
       </c>
@@ -4883,7 +4887,7 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="100"/>
+      <c r="A24" s="99"/>
       <c r="B24" s="38" t="s">
         <v>72</v>
       </c>
@@ -4903,7 +4907,7 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="98" t="s">
+      <c r="A26" s="97" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -4916,7 +4920,7 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="99"/>
+      <c r="A27" s="98"/>
       <c r="B27" s="2" t="s">
         <v>45</v>
       </c>
@@ -4928,7 +4932,7 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="99"/>
+      <c r="A28" s="98"/>
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -4940,7 +4944,7 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="99"/>
+      <c r="A29" s="98"/>
       <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
@@ -4952,7 +4956,7 @@
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="99"/>
+      <c r="A30" s="98"/>
       <c r="B30" s="2" t="s">
         <v>50</v>
       </c>
@@ -4964,7 +4968,7 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="99"/>
+      <c r="A31" s="98"/>
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
@@ -4976,7 +4980,7 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="99"/>
+      <c r="A32" s="98"/>
       <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
@@ -4988,7 +4992,7 @@
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="99"/>
+      <c r="A33" s="98"/>
       <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
@@ -5000,7 +5004,7 @@
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="99"/>
+      <c r="A34" s="98"/>
       <c r="B34" s="26" t="s">
         <v>40</v>
       </c>
@@ -5012,7 +5016,7 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="99"/>
+      <c r="A35" s="98"/>
       <c r="B35" s="2" t="s">
         <v>41</v>
       </c>
@@ -5024,7 +5028,7 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="99"/>
+      <c r="A36" s="98"/>
       <c r="B36" s="2" t="s">
         <v>42</v>
       </c>
@@ -5036,7 +5040,7 @@
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="99"/>
+      <c r="A37" s="98"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -5056,7 +5060,7 @@
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="102" t="s">
+      <c r="A39" s="101" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="72" t="s">
@@ -5069,7 +5073,7 @@
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="89"/>
+      <c r="A40" s="88"/>
       <c r="B40" s="17" t="s">
         <v>33</v>
       </c>
@@ -5080,7 +5084,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="89"/>
+      <c r="A41" s="88"/>
       <c r="B41" s="17" t="s">
         <v>34</v>
       </c>
@@ -5092,7 +5096,7 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="90"/>
+      <c r="A42" s="89"/>
       <c r="B42" s="17" t="s">
         <v>35</v>
       </c>
@@ -5110,7 +5114,7 @@
       <c r="E43" s="29"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="98" t="s">
+      <c r="A44" s="97" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -5123,7 +5127,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="99"/>
+      <c r="A45" s="98"/>
       <c r="B45" s="2" t="s">
         <v>48</v>
       </c>
@@ -5134,7 +5138,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="101"/>
+      <c r="A46" s="100"/>
       <c r="B46" s="6" t="s">
         <v>49</v>
       </c>
@@ -5203,11 +5207,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="91" t="s">
         <v>79</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="40"/>
@@ -5217,9 +5221,9 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="92"/>
+      <c r="A3" s="91"/>
       <c r="B3" s="64" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
@@ -5229,9 +5233,9 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="92"/>
+      <c r="A4" s="91"/>
       <c r="B4" s="64" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="40"/>
@@ -5241,9 +5245,9 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="97"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="64" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="40"/>
@@ -5261,11 +5265,11 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="99" t="s">
-        <v>192</v>
+      <c r="A7" s="98" t="s">
+        <v>188</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -5275,9 +5279,9 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="99"/>
+      <c r="A8" s="98"/>
       <c r="B8" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -5287,9 +5291,9 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="99"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -5299,9 +5303,9 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="99"/>
+      <c r="A10" s="98"/>
       <c r="B10" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -5311,9 +5315,9 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="99"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -5323,9 +5327,9 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="99"/>
+      <c r="A12" s="98"/>
       <c r="B12" s="26" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5343,7 +5347,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="101" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="72" t="s">
@@ -5356,7 +5360,7 @@
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="89"/>
+      <c r="A15" s="88"/>
       <c r="B15" s="17" t="s">
         <v>34</v>
       </c>
@@ -5368,7 +5372,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="103"/>
+      <c r="A16" s="102"/>
       <c r="B16" s="70" t="s">
         <v>35</v>
       </c>
@@ -5407,7 +5411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77982FF-C4D2-41E8-A83F-1D743BC8CBAF}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
@@ -5435,7 +5439,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="93" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -5448,7 +5452,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="95"/>
+      <c r="A3" s="94"/>
       <c r="B3" s="17" t="s">
         <v>34</v>
       </c>
@@ -5459,7 +5463,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="95"/>
+      <c r="A4" s="94"/>
       <c r="B4" s="17" t="s">
         <v>35</v>
       </c>
@@ -5477,7 +5481,7 @@
       <c r="E5" s="56"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="93" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -5490,7 +5494,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="95"/>
+      <c r="A7" s="94"/>
       <c r="B7" s="52" t="s">
         <v>81</v>
       </c>
@@ -5501,9 +5505,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="95"/>
+      <c r="A8" s="94"/>
       <c r="B8" s="52" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C8" s="47"/>
       <c r="D8" s="53"/>
@@ -5512,9 +5516,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="95"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="61" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C9" s="47"/>
       <c r="D9" s="53"/>
@@ -5523,9 +5527,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="95"/>
+      <c r="A10" s="94"/>
       <c r="B10" s="61" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C10" s="47"/>
       <c r="D10" s="53"/>
@@ -5534,9 +5538,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="95"/>
+      <c r="A11" s="94"/>
       <c r="B11" s="61" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C11" s="47"/>
       <c r="D11" s="53"/>
@@ -5545,9 +5549,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="95"/>
+      <c r="A12" s="94"/>
       <c r="B12" s="61" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C12" s="47"/>
       <c r="D12" s="53"/>
@@ -5556,9 +5560,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="96"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="54" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C13" s="47"/>
       <c r="D13" s="53"/>
@@ -5574,7 +5578,7 @@
       <c r="E14" s="56"/>
     </row>
     <row r="15" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="97" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -5587,9 +5591,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="99"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="17" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C16" s="47"/>
       <c r="D16" s="47"/>
@@ -5598,9 +5602,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="99"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="17" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
@@ -5609,9 +5613,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="99"/>
+      <c r="A18" s="98"/>
       <c r="B18" s="17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
@@ -5620,9 +5624,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="99"/>
+      <c r="A19" s="98"/>
       <c r="B19" s="17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C19" s="47"/>
       <c r="D19" s="47"/>
@@ -5631,9 +5635,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="99"/>
+      <c r="A20" s="98"/>
       <c r="B20" s="17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C20" s="47"/>
       <c r="D20" s="47"/>
@@ -5642,9 +5646,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="99"/>
+      <c r="A21" s="98"/>
       <c r="B21" s="17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
@@ -5653,9 +5657,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="99"/>
+      <c r="A22" s="98"/>
       <c r="B22" s="17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
@@ -5664,9 +5668,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="99"/>
+      <c r="A23" s="98"/>
       <c r="B23" s="17" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
@@ -5675,9 +5679,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="99"/>
+      <c r="A24" s="98"/>
       <c r="B24" s="17" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
@@ -5686,9 +5690,9 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="99"/>
+      <c r="A25" s="98"/>
       <c r="B25" s="17" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C25" s="47"/>
       <c r="D25" s="47"/>
@@ -5697,9 +5701,9 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99"/>
+      <c r="A26" s="98"/>
       <c r="B26" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C26" s="47"/>
       <c r="D26" s="47"/>
@@ -5708,9 +5712,9 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="99"/>
+      <c r="A27" s="98"/>
       <c r="B27" s="17" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C27" s="47"/>
       <c r="D27" s="47"/>
@@ -5719,9 +5723,9 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="99"/>
+      <c r="A28" s="98"/>
       <c r="B28" s="17" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C28" s="47"/>
       <c r="D28" s="47"/>
@@ -5730,9 +5734,9 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="99"/>
+      <c r="A29" s="98"/>
       <c r="B29" s="17" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -5741,9 +5745,9 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="99"/>
+      <c r="A30" s="98"/>
       <c r="B30" s="17" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -5752,9 +5756,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="99"/>
+      <c r="A31" s="98"/>
       <c r="B31" s="17" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C31" s="47"/>
       <c r="D31" s="47"/>
@@ -5763,9 +5767,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="99"/>
+      <c r="A32" s="98"/>
       <c r="B32" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C32" s="47"/>
       <c r="D32" s="47"/>
@@ -5774,9 +5778,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="99"/>
+      <c r="A33" s="98"/>
       <c r="B33" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C33" s="47"/>
       <c r="D33" s="47"/>
@@ -5785,9 +5789,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="99"/>
+      <c r="A34" s="98"/>
       <c r="B34" s="17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C34" s="47"/>
       <c r="D34" s="47"/>
@@ -5796,9 +5800,9 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="99"/>
+      <c r="A35" s="98"/>
       <c r="B35" s="17" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C35" s="47"/>
       <c r="D35" s="47"/>
@@ -5807,16 +5811,16 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="99"/>
+      <c r="A36" s="98"/>
       <c r="B36" s="17"/>
       <c r="C36" s="47"/>
       <c r="D36" s="47"/>
       <c r="E36" s="31"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="99"/>
+      <c r="A37" s="98"/>
       <c r="B37" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C37" s="47"/>
       <c r="D37" s="47"/>
@@ -5825,9 +5829,9 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="99"/>
+      <c r="A38" s="98"/>
       <c r="B38" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C38" s="47"/>
       <c r="D38" s="47"/>
@@ -5836,9 +5840,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="99"/>
+      <c r="A39" s="98"/>
       <c r="B39" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C39" s="47"/>
       <c r="D39" s="47"/>
@@ -5847,9 +5851,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="99"/>
+      <c r="A40" s="98"/>
       <c r="B40" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C40" s="47"/>
       <c r="D40" s="47"/>
@@ -5858,9 +5862,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="99"/>
+      <c r="A41" s="98"/>
       <c r="B41" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C41" s="47"/>
       <c r="D41" s="47"/>
@@ -5869,9 +5873,9 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="99"/>
+      <c r="A42" s="98"/>
       <c r="B42" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C42" s="47"/>
       <c r="D42" s="47"/>
@@ -5880,9 +5884,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="99"/>
+      <c r="A43" s="98"/>
       <c r="B43" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C43" s="47"/>
       <c r="D43" s="47"/>
@@ -5891,9 +5895,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="99"/>
+      <c r="A44" s="98"/>
       <c r="B44" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C44" s="47"/>
       <c r="D44" s="47"/>
@@ -5902,9 +5906,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="99"/>
+      <c r="A45" s="98"/>
       <c r="B45" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C45" s="47"/>
       <c r="D45" s="47"/>
@@ -5913,9 +5917,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="99"/>
+      <c r="A46" s="98"/>
       <c r="B46" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C46" s="47"/>
       <c r="D46" s="47"/>
@@ -5924,9 +5928,9 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="99"/>
+      <c r="A47" s="98"/>
       <c r="B47" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C47" s="47"/>
       <c r="D47" s="47"/>
@@ -5935,9 +5939,9 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="99"/>
+      <c r="A48" s="98"/>
       <c r="B48" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C48" s="47"/>
       <c r="D48" s="47"/>
@@ -5946,9 +5950,9 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="99"/>
+      <c r="A49" s="98"/>
       <c r="B49" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C49" s="47"/>
       <c r="D49" s="47"/>
@@ -5957,9 +5961,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="99"/>
+      <c r="A50" s="98"/>
       <c r="B50" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C50" s="47"/>
       <c r="D50" s="47"/>
@@ -5968,9 +5972,9 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="99"/>
+      <c r="A51" s="98"/>
       <c r="B51" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C51" s="47"/>
       <c r="D51" s="47"/>
@@ -5979,9 +5983,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="99"/>
+      <c r="A52" s="98"/>
       <c r="B52" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C52" s="47"/>
       <c r="D52" s="47"/>
@@ -5990,9 +5994,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="99"/>
+      <c r="A53" s="98"/>
       <c r="B53" s="26" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C53" s="47"/>
       <c r="D53" s="47"/>
@@ -6001,9 +6005,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="99"/>
+      <c r="A54" s="98"/>
       <c r="B54" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C54" s="47"/>
       <c r="D54" s="47"/>
@@ -6012,9 +6016,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="99"/>
+      <c r="A55" s="98"/>
       <c r="B55" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C55" s="47"/>
       <c r="D55" s="47"/>
@@ -6023,9 +6027,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="99"/>
+      <c r="A56" s="98"/>
       <c r="B56" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C56" s="47"/>
       <c r="D56" s="47"/>
@@ -6041,11 +6045,11 @@
       <c r="E57" s="56"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="98" t="s">
+      <c r="A58" s="97" t="s">
         <v>79</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C58" s="25"/>
       <c r="D58" s="47"/>
@@ -6054,7 +6058,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="99"/>
+      <c r="A59" s="98"/>
       <c r="B59" s="17" t="s">
         <v>93</v>
       </c>
@@ -6065,7 +6069,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="100"/>
+      <c r="A60" s="99"/>
       <c r="B60" s="17" t="s">
         <v>92</v>
       </c>
@@ -6083,7 +6087,7 @@
       <c r="E61" s="55"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="94" t="s">
+      <c r="A62" s="93" t="s">
         <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -6096,7 +6100,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="95"/>
+      <c r="A63" s="94"/>
       <c r="B63" s="2" t="s">
         <v>84</v>
       </c>
@@ -6107,7 +6111,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="95"/>
+      <c r="A64" s="94"/>
       <c r="B64" s="2" t="s">
         <v>87</v>
       </c>
@@ -6118,7 +6122,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="95"/>
+      <c r="A65" s="94"/>
       <c r="B65" s="2" t="s">
         <v>85</v>
       </c>
@@ -6129,7 +6133,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="95"/>
+      <c r="A66" s="94"/>
       <c r="B66" s="2" t="s">
         <v>86</v>
       </c>
@@ -6140,7 +6144,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="95"/>
+      <c r="A67" s="94"/>
       <c r="B67" s="57" t="s">
         <v>88</v>
       </c>
@@ -6151,7 +6155,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="95"/>
+      <c r="A68" s="94"/>
       <c r="B68" s="57" t="s">
         <v>89</v>
       </c>
@@ -6162,7 +6166,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="95"/>
+      <c r="A69" s="94"/>
       <c r="B69" s="57" t="s">
         <v>90</v>
       </c>
@@ -6173,7 +6177,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A70" s="95"/>
+      <c r="A70" s="94"/>
       <c r="B70" s="60" t="s">
         <v>91</v>
       </c>
@@ -6184,9 +6188,9 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A71" s="96"/>
+      <c r="A71" s="95"/>
       <c r="B71" s="60" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C71" s="25"/>
       <c r="D71" s="58"/>
@@ -6202,11 +6206,11 @@
       <c r="E72" s="55"/>
     </row>
     <row r="73" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="87" t="s">
-        <v>236</v>
+      <c r="A73" s="85" t="s">
+        <v>232</v>
       </c>
       <c r="B73" s="79" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C73" s="71"/>
       <c r="D73" s="48"/>
@@ -6236,10 +6240,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF97C5A-E76A-4F7F-AE1B-EEE4815545E3}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6266,11 +6270,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="104" t="s">
-        <v>256</v>
+      <c r="A2" s="103" t="s">
+        <v>251</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C2" s="47" t="s">
         <v>12</v>
@@ -6280,9 +6284,9 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="105"/>
+      <c r="A3" s="104"/>
       <c r="B3" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>12</v>
@@ -6292,9 +6296,9 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="105"/>
+      <c r="A4" s="104"/>
       <c r="B4" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>12</v>
@@ -6304,9 +6308,9 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="105"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>12</v>
@@ -6316,9 +6320,9 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="105"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C6" s="47" t="s">
         <v>12</v>
@@ -6328,9 +6332,9 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="105"/>
+      <c r="A7" s="104"/>
       <c r="B7" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C7" s="47" t="s">
         <v>12</v>
@@ -6340,9 +6344,9 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="105"/>
+      <c r="A8" s="104"/>
       <c r="B8" s="17" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C8" s="47" t="s">
         <v>12</v>
@@ -6352,9 +6356,9 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="105"/>
+      <c r="A9" s="104"/>
       <c r="B9" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C9" s="47" t="s">
         <v>12</v>
@@ -6364,9 +6368,9 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="105"/>
+      <c r="A10" s="104"/>
       <c r="B10" s="26" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>12</v>
@@ -6384,77 +6388,77 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="92" t="s">
-        <v>257</v>
+      <c r="A12" s="91" t="s">
+        <v>252</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C12" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="107"/>
-      <c r="E12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="84"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="92"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C13" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="107"/>
-      <c r="E13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="84"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="92"/>
+      <c r="A14" s="91"/>
       <c r="B14" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C14" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="107"/>
-      <c r="E14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="84"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="92"/>
+      <c r="A15" s="91"/>
       <c r="B15" s="17" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C15" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="107"/>
-      <c r="E15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="84"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="92"/>
+      <c r="A16" s="91"/>
       <c r="B16" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C16" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="107"/>
-      <c r="E16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="84"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="97"/>
+      <c r="A17" s="96"/>
       <c r="B17" s="26" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="107"/>
-      <c r="E17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="84"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -6466,11 +6470,11 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="104" t="s">
-        <v>217</v>
+      <c r="A19" s="103" t="s">
+        <v>213</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C19" s="62"/>
       <c r="D19" s="2"/>
@@ -6480,9 +6484,9 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="105"/>
+      <c r="A20" s="104"/>
       <c r="B20" s="57" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C20" s="62"/>
       <c r="D20" s="2"/>
@@ -6492,9 +6496,9 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="105"/>
+      <c r="A21" s="104"/>
       <c r="B21" s="57" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C21" s="62" t="s">
         <v>12</v>
@@ -6504,9 +6508,9 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="106"/>
+      <c r="A22" s="105"/>
       <c r="B22" s="57" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C22" s="62" t="s">
         <v>12</v>
@@ -6516,7 +6520,7 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="85"/>
+      <c r="A23" s="83"/>
       <c r="B23" s="80"/>
       <c r="C23" s="80"/>
       <c r="D23" s="81"/>
@@ -6524,11 +6528,11 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="95" t="s">
-        <v>95</v>
+      <c r="A24" s="93" t="s">
+        <v>94</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>94</v>
+        <v>256</v>
       </c>
       <c r="C24" s="62"/>
       <c r="D24" s="2"/>
@@ -6537,84 +6541,92 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="95"/>
+      <c r="A25" s="94"/>
       <c r="B25" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="62" t="s">
-        <v>12</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="C25" s="62"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="95"/>
+      <c r="E25" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="94"/>
       <c r="B26" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="62" t="s">
-        <v>12</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C26" s="62"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="95"/>
+      <c r="E26" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="94"/>
       <c r="B27" s="60" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C27" s="62" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="4"/>
+      <c r="E27" s="18"/>
+      <c r="F27" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="95"/>
+      <c r="A28" s="94"/>
       <c r="B28" s="60" t="s">
-        <v>249</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>12</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C28" s="62"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="4"/>
+      <c r="E28" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="95"/>
+      <c r="A29" s="94"/>
       <c r="B29" s="60" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C29" s="62"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="4"/>
+      <c r="E29" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="95"/>
+      <c r="A30" s="94"/>
       <c r="B30" s="60" t="s">
-        <v>98</v>
+        <v>246</v>
       </c>
       <c r="C30" s="62" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="4"/>
+      <c r="E30" s="31"/>
+      <c r="F30" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="95"/>
+      <c r="A31" s="94"/>
       <c r="B31" s="60" t="s">
-        <v>252</v>
-      </c>
-      <c r="C31" s="62" t="s">
-        <v>12</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="C31" s="62"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="4"/>
+      <c r="E31" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="95"/>
+      <c r="A32" s="94"/>
       <c r="B32" s="60" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C32" s="62" t="s">
         <v>12</v>
@@ -6622,30 +6634,33 @@
       <c r="D32" s="2"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="83"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="82"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="94" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="94"/>
+      <c r="B33" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="4"/>
+      <c r="F33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="81"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="82"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="95"/>
       <c r="B35" s="2" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>12</v>
@@ -6653,10 +6668,10 @@
       <c r="D35" s="2"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="95"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="94"/>
       <c r="B36" s="2" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>12</v>
@@ -6664,10 +6679,10 @@
       <c r="D36" s="2"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="95"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="94"/>
       <c r="B37" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C37" s="25" t="s">
         <v>12</v>
@@ -6675,10 +6690,10 @@
       <c r="D37" s="2"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="95"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="94"/>
       <c r="B38" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C38" s="25" t="s">
         <v>12</v>
@@ -6686,10 +6701,10 @@
       <c r="D38" s="2"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="95"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="94"/>
       <c r="B39" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>12</v>
@@ -6697,10 +6712,10 @@
       <c r="D39" s="2"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="95"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="94"/>
       <c r="B40" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C40" s="25" t="s">
         <v>12</v>
@@ -6708,10 +6723,10 @@
       <c r="D40" s="2"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="95"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="94"/>
       <c r="B41" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C41" s="25" t="s">
         <v>12</v>
@@ -6719,10 +6734,10 @@
       <c r="D41" s="2"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="95"/>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="94"/>
       <c r="B42" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C42" s="25" t="s">
         <v>12</v>
@@ -6730,10 +6745,10 @@
       <c r="D42" s="2"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="95"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="94"/>
       <c r="B43" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C43" s="25" t="s">
         <v>12</v>
@@ -6741,10 +6756,10 @@
       <c r="D43" s="2"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="95"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="94"/>
       <c r="B44" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C44" s="25" t="s">
         <v>12</v>
@@ -6752,10 +6767,10 @@
       <c r="D44" s="2"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="95"/>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="94"/>
       <c r="B45" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C45" s="25" t="s">
         <v>12</v>
@@ -6763,10 +6778,10 @@
       <c r="D45" s="2"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="95"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="94"/>
       <c r="B46" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C46" s="25" t="s">
         <v>12</v>
@@ -6774,10 +6789,10 @@
       <c r="D46" s="2"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="96"/>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="94"/>
       <c r="B47" s="2" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="C47" s="25" t="s">
         <v>12</v>
@@ -6785,30 +6800,30 @@
       <c r="D47" s="2"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="85"/>
-      <c r="B48" s="81"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="82"/>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="95"/>
+      <c r="B48" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="94" t="s">
-        <v>233</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="4"/>
+      <c r="A49" s="83"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="82"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="95"/>
+      <c r="A50" s="93" t="s">
+        <v>229</v>
+      </c>
       <c r="B50" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C50" s="25" t="s">
         <v>12</v>
@@ -6817,9 +6832,9 @@
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="96"/>
+      <c r="A51" s="94"/>
       <c r="B51" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C51" s="25" t="s">
         <v>12</v>
@@ -6827,28 +6842,39 @@
       <c r="D51" s="2"/>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="5"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="7"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="95"/>
+      <c r="B52" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="5"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A24:A32"/>
-    <mergeCell ref="A34:A47"/>
+    <mergeCell ref="A35:A48"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A50:A52"/>
     <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A24:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6887,7 +6913,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="47" t="s">
@@ -6903,7 +6929,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="38"/>
-      <c r="E3" s="86"/>
+      <c r="E3" s="84"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>

--- a/Documents/Scrum/Sprint_backlog.xlsx
+++ b/Documents/Scrum/Sprint_backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DFFEF2-C1B9-44B8-AC27-9522A546E0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37012B59-13DD-477F-980B-CC5485698788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="6" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint_0." sheetId="4" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Sprint_5." sheetId="5" r:id="rId6"/>
     <sheet name="Sprint_6." sheetId="6" r:id="rId7"/>
     <sheet name="Sprint_7." sheetId="8" r:id="rId8"/>
+    <sheet name="Sprint_8." sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="268">
   <si>
     <t>STORY</t>
   </si>
@@ -2057,6 +2058,30 @@
     </r>
   </si>
   <si>
+    <t>Jeux de tests</t>
+  </si>
+  <si>
+    <t>Enlever le nom et prénom De la fenêtre "Paramètres"</t>
+  </si>
+  <si>
+    <t>Finalisation le designe</t>
+  </si>
+  <si>
+    <t>Recherche API de l'interface web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revoir le chat (savoir où est-ce qu'il est stocké) </t>
+  </si>
+  <si>
+    <t>Corriger le problème avec le mot de passe admin(si on essaye 2x il y a une erreur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérifier le copier-coller du mot de passe ne n'affiche pas en clair </t>
+  </si>
+  <si>
+    <t>Vérifier le format d'affichage sur tous les PCS</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2070,6 +2095,129 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Changer le nom des fenêtres pour "FrmWaviewProject"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Membre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Fenêtre "FrmWaviewProject" bouton "Ouvrir Chat" ne fonctionne pas régler le problème</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Membre </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Fenêtre "FrmWaviewProject" bouton "Matériel" ne fonctionne pas régler le problème</t>
+    </r>
+  </si>
+  <si>
+    <t>Vérifier que tous les CRUD fonctionne pour toutes les fenêtres de WavCom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faire les encrages des fenêtres </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revoir tous les cliques </t>
+  </si>
+  <si>
+    <t>Fenêtre "Mot de passe" changer la couleur des boutons quand c'est en dark</t>
+  </si>
+  <si>
+    <t>Recherche pour login application web</t>
+  </si>
+  <si>
+    <t>Vérifier que l'API est bien connecté à WavMap</t>
+  </si>
+  <si>
+    <t>Créer le lien base de données</t>
+  </si>
+  <si>
+    <t>Afficher les tags</t>
+  </si>
+  <si>
+    <t>Créer test de performance (surcharge test)</t>
+  </si>
+  <si>
+    <t>Créer test de sécurité (copier-coller le mdp **** et voir s'il apparaît en clair)</t>
+  </si>
+  <si>
+    <t>Créer test unitaire (gestion de matériel)</t>
+  </si>
+  <si>
+    <t>Document utilisation utilisateur WavCom</t>
+  </si>
+  <si>
+    <t>Faire le lien avec le serveur de Waview.ch</t>
+  </si>
+  <si>
+    <t>Dès qu'on ouvre l'application créer un endroit avec tous les critères de recherche sur la gauche (avec filtres et des tags) (partie visuel)</t>
+  </si>
+  <si>
+    <t>Recherches pour la création de la map avec l'API Google Maps</t>
+  </si>
+  <si>
+    <t>Créer de l'environnement de l'application web (html, php, js + atom)</t>
+  </si>
+  <si>
+    <t>Insérer la map dans WavMap</t>
+  </si>
+  <si>
+    <t>Document utilisation  administrateur WavCom</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Administrateur</t>
+    </r>
+    <r>
+      <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
@@ -2100,18 +2248,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Membre</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : </t>
+      <t>Administrateur :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2134,13 +2282,104 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Membre</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t>Administrateur :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Expliquer en détail pour les membres la view pour la gestion de stock </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Administrateur : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expliquer en détail pour les membres la view pour les projets </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Administrateur : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expliquer en détail pour les membres la view page principale</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Administrateur : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expliquer en détail pour les utilisateurs et membres la view des paramètres </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Administrateur :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2155,7 +2394,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Expliquer en détail pour les membres la view pour la gestion de stock </t>
+      <t>Expliquer en détail pour les utilisateurs et membres la view du mot de passe oublié</t>
     </r>
   </si>
   <si>
@@ -2168,65 +2407,41 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Membre</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Expliquer en détail pour les membres la view pour les projets </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t>Administrateur :</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Membre</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Expliquer en détail pour les membres la view page principale</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expliquer en détail pour les utilisateurs et membres la view du login</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Administrateur :</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -2236,247 +2451,156 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Commun</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : Expliquer en détail pour les utilisateurs et membres la view du login</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Commun</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : Expliquer en détail pour les utilisateurs et membres la view du mot de passe oublié</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Commun</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : Expliquer en détail pour les utilisateurs et membres la view des paramètres </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Commun</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : Expliquer en détail pour les utilisateurs et membres la view des projets</t>
-    </r>
-  </si>
-  <si>
-    <t>Jeux de tests</t>
-  </si>
-  <si>
-    <t>Enlever le nom et prénom De la fenêtre "Paramètres"</t>
-  </si>
-  <si>
-    <t>Finalisation le designe</t>
-  </si>
-  <si>
-    <t>Recherche API de l'interface web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revoir le chat (savoir où est-ce qu'il est stocké) </t>
-  </si>
-  <si>
-    <t>Corriger le problème avec le mot de passe admin(si on essaye 2x il y a une erreur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vérifier le copier-coller du mot de passe ne n'affiche pas en clair </t>
-  </si>
-  <si>
-    <t>Vérifier le format d'affichage sur tous les PCS</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Membre</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : Changer le nom des fenêtres pour "FrmWaviewProject"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Membre</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : Fenêtre "FrmWaviewProject" bouton "Ouvrir Chat" ne fonctionne pas régler le problème</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Membre </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Fenêtre "FrmWaviewProject" bouton "Matériel" ne fonctionne pas régler le problème</t>
-    </r>
-  </si>
-  <si>
-    <t>Vérifier que tous les CRUD fonctionne pour toutes les fenêtres de WavCom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faire les encrages des fenêtres </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revoir tous les cliques </t>
-  </si>
-  <si>
-    <t>Fenêtre "Mot de passe" changer la couleur des boutons quand c'est en dark</t>
-  </si>
-  <si>
-    <t>Recherche pour login application web</t>
-  </si>
-  <si>
-    <t>Vérifier que l'API est bien connecté à WavMap</t>
-  </si>
-  <si>
-    <t>Créer le lien base de données</t>
-  </si>
-  <si>
-    <t>Afficher les tags</t>
-  </si>
-  <si>
-    <t>Créer test de performance (surcharge test)</t>
-  </si>
-  <si>
-    <t>Créer test de sécurité (copier-coller le mdp **** et voir s'il apparaît en clair)</t>
-  </si>
-  <si>
-    <t>Créer test unitaire (gestion de matériel)</t>
-  </si>
-  <si>
-    <t>Document utilisation membre et administrateur WavCom</t>
-  </si>
-  <si>
-    <t>Document utilisation utilisateur WavCom</t>
-  </si>
-  <si>
-    <t>sprint 7 en done</t>
-  </si>
-  <si>
-    <t>Faire le lien avec le serveur de Waview.ch</t>
-  </si>
-  <si>
-    <t>Dès qu'on ouvre l'application créer un endroit avec tous les critères de recherche sur la gauche (avec filtres et des tags) (partie visuel)</t>
-  </si>
-  <si>
-    <t>Recherches pour la création de la map avec l'API Google Maps</t>
-  </si>
-  <si>
-    <t>Créer de l'environnement de l'application web (html, php, js + atom)</t>
-  </si>
-  <si>
-    <t>Insérer la map dans WavMap</t>
-  </si>
-  <si>
-    <t>Ajouter marker pour les tags sur les lieux</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expliquer en détail pour les utilisateurs et membres la view des projets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Client :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Expliquer en détail pour les utilisateurs et membres la view du login</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Client :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Expliquer en détail pour les utilisateurs et membres la view du mot de passe oublié</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Client :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expliquer en détail pour les utilisateurs et membres la view des paramètres </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Client :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expliquer en détail pour les utilisateurs et membres la view des projets</t>
+    </r>
+  </si>
+  <si>
+    <t>Document utilisation  administrateur WavMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter marker pour les tags </t>
+  </si>
+  <si>
+    <t>Documentation
+ jeux de tests</t>
+  </si>
+  <si>
+    <t>Documenter le test gestion matériel</t>
+  </si>
+  <si>
+    <t>Documenter le test sécurité coper-coller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documenter le test performance de surcharge </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2546,8 +2670,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2626,8 +2764,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -2951,15 +3113,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -3165,6 +3337,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3220,6 +3395,61 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3230,6 +3460,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99CCFF"/>
+      <color rgb="FF0066FF"/>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFF9999"/>
+      <color rgb="FFFF5050"/>
       <color rgb="FFCCCCFF"/>
       <color rgb="FF9966FF"/>
       <color rgb="FFEFC6FE"/>
@@ -3551,124 +3786,124 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="51.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="51.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>177</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="88"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="88"/>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="88"/>
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="88"/>
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="88"/>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="89"/>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="66"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="65"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="90" t="s">
         <v>27</v>
       </c>
@@ -3677,108 +3912,108 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E10" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="91"/>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E11" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="91"/>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="91"/>
       <c r="B13" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="91"/>
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E14" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="91"/>
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E15" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="91"/>
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E16" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="91"/>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="91"/>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="92"/>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="43" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="42" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3800,185 +4035,185 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.1796875" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="94"/>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>183</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="94"/>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="94"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="E5" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="94"/>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>182</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="94"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="E7" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="94"/>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>176</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="E8" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="94"/>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E9" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="94"/>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E10" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="94"/>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>175</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="E11" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="94"/>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>174</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="E12" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="95"/>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>181</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="74"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="76"/>
-    </row>
-    <row r="15" spans="1:8" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="78" t="s">
+      <c r="E13" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="73"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="75"/>
+    </row>
+    <row r="15" spans="1:8" ht="35.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="77" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="76" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4000,576 +4235,576 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.26953125" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="91"/>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="91"/>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="91"/>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="91"/>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="91"/>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="91"/>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="91"/>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="91"/>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="91"/>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="25"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="91"/>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="91"/>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="91"/>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="91"/>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="91"/>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="91"/>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="91"/>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="91"/>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="91"/>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="25"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="96"/>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="25"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>159</v>
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="98"/>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C24" s="25"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="17" t="s">
         <v>159</v>
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="98"/>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="25"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>159</v>
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="98"/>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C26" s="25"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>159</v>
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="98"/>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="C27" s="25"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="17" t="s">
         <v>159</v>
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="98"/>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="25"/>
+      <c r="C28" s="24"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="17" t="s">
         <v>159</v>
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="98"/>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C29" s="25"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="17" t="s">
         <v>159</v>
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="98"/>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="17" t="s">
         <v>159</v>
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="98"/>
       <c r="B31" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C31" s="25"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="17" t="s">
         <v>159</v>
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="98"/>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C32" s="25"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="17" t="s">
         <v>159</v>
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="98"/>
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="C33" s="25"/>
+      <c r="C33" s="24"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="17" t="s">
         <v>159</v>
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="98"/>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C34" s="25"/>
+      <c r="C34" s="24"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="17" t="s">
         <v>159</v>
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="98"/>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="C35" s="25"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="17" t="s">
         <v>159</v>
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="98"/>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="C36" s="25"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="17" t="s">
         <v>159</v>
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="98"/>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="C37" s="25"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="17" t="s">
         <v>159</v>
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="98"/>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="63" t="s">
         <v>170</v>
       </c>
-      <c r="C38" s="25"/>
+      <c r="C38" s="24"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="17" t="s">
         <v>159</v>
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="98"/>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="C39" s="25"/>
+      <c r="C39" s="24"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="17" t="s">
         <v>159</v>
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="98"/>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="25"/>
+      <c r="C40" s="24"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="17" t="s">
         <v>159</v>
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="98"/>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="C41" s="25"/>
+      <c r="C41" s="24"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="17" t="s">
         <v>159</v>
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="98"/>
-      <c r="B42" s="64" t="s">
+      <c r="B42" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="C42" s="25"/>
+      <c r="C42" s="24"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="17" t="s">
         <v>159</v>
       </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="99"/>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="C43" s="25"/>
+      <c r="C43" s="24"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="17" t="s">
         <v>159</v>
       </c>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="36"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="35"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="97" t="s">
         <v>76</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="25"/>
+      <c r="C45" s="24"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="31" t="s">
+      <c r="E45" s="30" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="100"/>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="71"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="43" t="s">
+      <c r="C46" s="70"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="42" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -4596,317 +4831,317 @@
       <selection activeCell="B26" sqref="B26:B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="42" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="41" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="98"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="42" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="41" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="98"/>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="42" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="41" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="98"/>
       <c r="B5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="42" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="98"/>
       <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="42" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="41" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="98"/>
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="42" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="41" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="98"/>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="42" t="s">
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="41" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="98"/>
       <c r="B9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="42" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="41" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="98"/>
       <c r="B10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="42" t="s">
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="41" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="98"/>
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="42" t="s">
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="41" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="98"/>
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="42" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="41" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="98"/>
       <c r="B13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="42" t="s">
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="41" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="98"/>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="42" t="s">
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="41" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="98"/>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="42" t="s">
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="41" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="98"/>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="42" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="41" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="98"/>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="42" t="s">
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="41" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="98"/>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="42" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="41" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="98"/>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="42" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="41" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="98"/>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="42" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="41" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="98"/>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="42" t="s">
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="41" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="98"/>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="42" t="s">
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="41" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="98"/>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="42" t="s">
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="41" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="99"/>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="42" t="s">
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="41" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="50"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="29"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="49"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="97" t="s">
         <v>36</v>
       </c>
@@ -4914,248 +5149,248 @@
         <v>46</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="98"/>
       <c r="B27" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="98"/>
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="98"/>
       <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="98"/>
       <c r="B30" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="98"/>
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="98"/>
       <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="98"/>
       <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="98"/>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="98"/>
       <c r="B35" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="98"/>
       <c r="B36" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="98"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="51"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="29"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="50"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="28"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="88"/>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="25"/>
+      <c r="C40" s="24"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E40" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="88"/>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="2"/>
-      <c r="E41" s="4"/>
+      <c r="E41" s="3"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="89"/>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="49"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="29"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="48"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="28"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="97" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="25"/>
+      <c r="C44" s="24"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E44" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="98"/>
       <c r="B45" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E45" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="100"/>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -5182,89 +5417,89 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="42" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="41" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="91"/>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="63" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="42" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="41" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="91"/>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="42" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="41" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="96"/>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="42" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="50"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="29"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="49"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="98" t="s">
         <v>188</v>
       </c>
@@ -5273,123 +5508,123 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="98"/>
       <c r="B8" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="98"/>
       <c r="B9" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="98"/>
       <c r="B10" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="98"/>
       <c r="B11" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="98"/>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>196</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="51"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="29"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="50"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="88"/>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="3"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="102"/>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C16" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5411,814 +5646,814 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77982FF-C4D2-41E8-A83F-1D743BC8CBAF}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E2" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="94"/>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E3" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="94"/>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="73"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E4" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="72"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="93" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="94"/>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C7" s="46"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="94"/>
-      <c r="B8" s="52" t="s">
-        <v>231</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="94"/>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="60" t="s">
         <v>209</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C9" s="46"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="94"/>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C10" s="46"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="94"/>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C11" s="46"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="94"/>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C12" s="46"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="95"/>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="46"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+    </row>
+    <row r="15" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="97" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="98"/>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="98"/>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="98"/>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="98"/>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="98"/>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="98"/>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="98"/>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="98"/>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="98"/>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="98"/>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="98"/>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="98"/>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="98"/>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="98"/>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="98"/>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="98"/>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="98"/>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="98"/>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="98"/>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="98"/>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="98"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="31"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B36" s="16"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="30"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="98"/>
       <c r="B37" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="98"/>
       <c r="B38" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="98"/>
       <c r="B39" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="98"/>
       <c r="B40" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="98"/>
       <c r="B41" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="98"/>
       <c r="B42" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="98"/>
       <c r="B43" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="98"/>
       <c r="B44" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="98"/>
       <c r="B45" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="98"/>
       <c r="B46" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="98"/>
       <c r="B47" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="98"/>
       <c r="B48" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="98"/>
       <c r="B49" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="98"/>
       <c r="B50" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="98"/>
       <c r="B51" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="98"/>
       <c r="B52" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="98"/>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="98"/>
       <c r="B54" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="98"/>
       <c r="B55" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="98"/>
       <c r="B56" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="73"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="56"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="72"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="55"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C58" s="24"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="98"/>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C59" s="24"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="99"/>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C60" s="25"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="73"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C60" s="24"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="72"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="93" t="s">
         <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="94"/>
       <c r="B63" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="25"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C63" s="24"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="94"/>
       <c r="B64" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="25"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C64" s="24"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="94"/>
       <c r="B65" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C65" s="25"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C65" s="24"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="94"/>
       <c r="B66" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C66" s="25"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C66" s="24"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="94"/>
-      <c r="B67" s="57" t="s">
+      <c r="B67" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="C67" s="25"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C67" s="24"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="94"/>
-      <c r="B68" s="57" t="s">
+      <c r="B68" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="58"/>
-      <c r="E68" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C68" s="24"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="94"/>
-      <c r="B69" s="57" t="s">
+      <c r="B69" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="59" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="C69" s="24"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="94"/>
-      <c r="B70" s="60" t="s">
+      <c r="B70" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="C70" s="25"/>
-      <c r="D70" s="58"/>
-      <c r="E70" s="69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="C70" s="24"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="95"/>
-      <c r="B71" s="60" t="s">
+      <c r="B71" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="C71" s="25"/>
-      <c r="D71" s="58"/>
-      <c r="E71" s="69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="55"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="55"/>
-      <c r="E72" s="55"/>
-    </row>
-    <row r="73" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="85" t="s">
-        <v>232</v>
-      </c>
-      <c r="B73" s="79" t="s">
+      <c r="C71" s="24"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="54"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="54"/>
+    </row>
+    <row r="73" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="84" t="s">
+        <v>223</v>
+      </c>
+      <c r="B73" s="78" t="s">
         <v>210</v>
       </c>
-      <c r="C73" s="71"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C73" s="70"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -6240,641 +6475,556 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF97C5A-E76A-4F7F-AE1B-EEE4815545E3}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="45" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="103" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="C2" s="46"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="104"/>
       <c r="B3" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="C3" s="46"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="104"/>
       <c r="B4" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="C4" s="46"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="104"/>
       <c r="B5" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C5" s="46"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="104"/>
       <c r="B6" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="C6" s="46"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="104"/>
       <c r="B7" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="C7" s="46"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="104"/>
-      <c r="B8" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>12</v>
-      </c>
+      <c r="B8" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="46"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="104"/>
       <c r="B9" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>12</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C9" s="46"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="104"/>
-      <c r="B10" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>12</v>
-      </c>
+      <c r="B10" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="46"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="80"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="82"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="79"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="81"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="91" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C12" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="86"/>
-      <c r="E12" s="84"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="111" t="s">
+        <v>12</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="91"/>
       <c r="B13" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C13" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="84"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="111" t="s">
+        <v>12</v>
+      </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="91"/>
       <c r="B14" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="84"/>
+        <v>258</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="111" t="s">
+        <v>12</v>
+      </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="91"/>
-      <c r="B15" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="86"/>
-      <c r="E15" s="84"/>
+      <c r="B15" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="111" t="s">
+        <v>12</v>
+      </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="91"/>
       <c r="B16" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="86"/>
-      <c r="E16" s="84"/>
+        <v>260</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="111" t="s">
+        <v>12</v>
+      </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="96"/>
-      <c r="B17" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="86"/>
-      <c r="E17" s="84"/>
+      <c r="B17" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="111" t="s">
+        <v>12</v>
+      </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="82"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="79"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="81"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="103" t="s">
         <v>213</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="C19" s="62"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="104"/>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="C20" s="62"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="104"/>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="61" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="4"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="105"/>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="61" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="83"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="82"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="82"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="81"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="60" t="s">
-        <v>256</v>
-      </c>
-      <c r="C24" s="62"/>
+      <c r="B24" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="C24" s="61"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E24" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="94"/>
-      <c r="B25" s="60" t="s">
-        <v>257</v>
-      </c>
-      <c r="C25" s="62"/>
+      <c r="B25" s="59" t="s">
+        <v>246</v>
+      </c>
+      <c r="C25" s="61"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E25" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="94"/>
-      <c r="B26" s="60" t="s">
-        <v>254</v>
-      </c>
-      <c r="C26" s="62"/>
+      <c r="B26" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="C26" s="61"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="E26" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="94"/>
-      <c r="B27" s="60" t="s">
-        <v>255</v>
-      </c>
-      <c r="C27" s="62" t="s">
-        <v>12</v>
-      </c>
+      <c r="B27" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="C27" s="61"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="18"/>
-      <c r="F27" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E27" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="94"/>
-      <c r="B28" s="60" t="s">
-        <v>244</v>
-      </c>
-      <c r="C28" s="62"/>
+      <c r="B28" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" s="61"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E28" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="94"/>
-      <c r="B29" s="60" t="s">
-        <v>245</v>
-      </c>
-      <c r="C29" s="62"/>
+      <c r="B29" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="C29" s="61"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E29" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="94"/>
-      <c r="B30" s="60" t="s">
-        <v>246</v>
-      </c>
-      <c r="C30" s="62" t="s">
+      <c r="B30" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="C30" s="61" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="31"/>
-      <c r="F30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="94"/>
-      <c r="B31" s="60" t="s">
-        <v>258</v>
-      </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="94"/>
-      <c r="B32" s="60" t="s">
-        <v>259</v>
-      </c>
-      <c r="C32" s="62" t="s">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="80"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="81"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="94"/>
-      <c r="B33" s="60" t="s">
-        <v>247</v>
-      </c>
-      <c r="C33" s="62" t="s">
+      <c r="B33" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2"/>
-      <c r="E33" s="4"/>
-      <c r="F33" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="81"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="82"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="93" t="s">
-        <v>76</v>
-      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="94"/>
+      <c r="B34" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="94"/>
       <c r="B35" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C35" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="2"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="94"/>
       <c r="B36" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>12</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C36" s="24"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E36" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="94"/>
       <c r="B37" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C37" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C37" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="94"/>
       <c r="B38" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C38" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="2"/>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="94"/>
       <c r="B39" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C39" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C39" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="94"/>
       <c r="B40" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>12</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="C40" s="24"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E40" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="94"/>
       <c r="B41" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>12</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="C41" s="24"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E41" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="94"/>
       <c r="B42" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>12</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="C42" s="24"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E42" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="94"/>
       <c r="B43" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C43" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2"/>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="94"/>
       <c r="B44" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C44" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C44" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="94"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="95"/>
       <c r="B45" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C45" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C45" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2"/>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="94"/>
-      <c r="B46" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="94"/>
-      <c r="B47" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="95"/>
-      <c r="B48" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="83"/>
-      <c r="B49" s="81"/>
-      <c r="C49" s="81"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="82"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="93" t="s">
-        <v>229</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="94"/>
-      <c r="B51" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="95"/>
-      <c r="B52" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="5"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="7"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A35:A48"/>
+  <mergeCells count="5">
+    <mergeCell ref="A32:A45"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A50:A52"/>
     <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A24:A33"/>
+    <mergeCell ref="A24:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6883,78 +7033,346 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A365AE-7930-4274-837C-B5D83DFDF1FE}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="2" max="2" width="63.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="108" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="98"/>
+      <c r="B3" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="98"/>
+      <c r="B4" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="99"/>
+      <c r="B5" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="112"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="114"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="129" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" s="85"/>
+      <c r="C7" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="85"/>
+      <c r="E7" s="109"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="130"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="85"/>
+      <c r="E8" s="109"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="112"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="94"/>
+      <c r="B11" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="95"/>
+      <c r="B12" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="112"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="126" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="56"/>
+      <c r="E14" s="109"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="88"/>
+      <c r="B15" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="56"/>
+      <c r="E15" s="109"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="89"/>
+      <c r="B16" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="85"/>
+      <c r="E16" s="109"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="110"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="86"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="128"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8D2795-3703-4799-82AD-D959B47FB411}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="118" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="93" t="s">
         <v>117</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="84"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="94"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="83"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="95"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="46" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="119"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="122"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="97"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="98"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="98"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="99"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="123"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="125"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="115"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="109"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents/Scrum/Sprint_backlog.xlsx
+++ b/Documents/Scrum/Sprint_backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37012B59-13DD-477F-980B-CC5485698788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89351A1B-24AF-467B-98C8-E900742E89A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="276">
   <si>
     <t>STORY</t>
   </si>
@@ -2594,6 +2594,30 @@
   </si>
   <si>
     <t xml:space="preserve">Documenter le test performance de surcharge </t>
+  </si>
+  <si>
+    <t>Vérifier que toutes les fonctionnalités et que l'application fonctionne</t>
+  </si>
+  <si>
+    <t>Améliorer les performances de l'API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expliquer la map </t>
+  </si>
+  <si>
+    <t>Expliquer les tags actifs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expliquer la recherche de tag </t>
+  </si>
+  <si>
+    <t>Expliquer comment se connecter à WavMap</t>
+  </si>
+  <si>
+    <t>Expliquer les tags favoris</t>
+  </si>
+  <si>
+    <t>Lier le calendrier de disponibiltés de Waview avec leur calendrier personnel</t>
   </si>
 </sst>
 </file>
@@ -3121,14 +3145,16 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3337,66 +3363,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3439,17 +3405,79 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3460,10 +3488,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9999"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FF0066FF"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FFFF9999"/>
       <color rgb="FFFF5050"/>
       <color rgb="FFCCCCFF"/>
       <color rgb="FF9966FF"/>
@@ -3810,7 +3838,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="106" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -3824,7 +3852,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="88"/>
+      <c r="A3" s="107"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
@@ -3836,7 +3864,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="88"/>
+      <c r="A4" s="107"/>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -3848,7 +3876,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="88"/>
+      <c r="A5" s="107"/>
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
@@ -3860,7 +3888,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="88"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -3872,7 +3900,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
+      <c r="A7" s="107"/>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
@@ -3884,7 +3912,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
+      <c r="A8" s="108"/>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
@@ -3904,7 +3932,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="109" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3917,7 +3945,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="91"/>
+      <c r="A11" s="110"/>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
@@ -3928,7 +3956,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="91"/>
+      <c r="A12" s="110"/>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
@@ -3940,7 +3968,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="91"/>
+      <c r="A13" s="110"/>
       <c r="B13" s="2" t="s">
         <v>75</v>
       </c>
@@ -3952,7 +3980,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="91"/>
+      <c r="A14" s="110"/>
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
@@ -3963,7 +3991,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="91"/>
+      <c r="A15" s="110"/>
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
@@ -3974,7 +4002,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="91"/>
+      <c r="A16" s="110"/>
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
@@ -3985,7 +4013,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="91"/>
+      <c r="A17" s="110"/>
       <c r="B17" s="56" t="s">
         <v>178</v>
       </c>
@@ -3996,7 +4024,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="91"/>
+      <c r="A18" s="110"/>
       <c r="B18" s="56" t="s">
         <v>179</v>
       </c>
@@ -4007,7 +4035,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="92"/>
+      <c r="A19" s="111"/>
       <c r="B19" s="5" t="s">
         <v>180</v>
       </c>
@@ -4060,7 +4088,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="112" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -4074,7 +4102,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="94"/>
+      <c r="A3" s="113"/>
       <c r="B3" s="16" t="s">
         <v>183</v>
       </c>
@@ -4086,7 +4114,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="94"/>
+      <c r="A4" s="113"/>
       <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
@@ -4098,7 +4126,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="94"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -4109,7 +4137,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="94"/>
+      <c r="A6" s="113"/>
       <c r="B6" s="16" t="s">
         <v>182</v>
       </c>
@@ -4121,7 +4149,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="94"/>
+      <c r="A7" s="113"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -4132,7 +4160,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="94"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="16" t="s">
         <v>176</v>
       </c>
@@ -4143,7 +4171,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="94"/>
+      <c r="A9" s="113"/>
       <c r="B9" s="16" t="s">
         <v>11</v>
       </c>
@@ -4154,7 +4182,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="94"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -4165,7 +4193,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="94"/>
+      <c r="A11" s="113"/>
       <c r="B11" s="16" t="s">
         <v>175</v>
       </c>
@@ -4176,7 +4204,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="94"/>
+      <c r="A12" s="113"/>
       <c r="B12" s="16" t="s">
         <v>174</v>
       </c>
@@ -4187,7 +4215,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="95"/>
+      <c r="A13" s="114"/>
       <c r="B13" s="16" t="s">
         <v>181</v>
       </c>
@@ -4260,7 +4288,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="109" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -4274,7 +4302,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="91"/>
+      <c r="A3" s="110"/>
       <c r="B3" s="62" t="s">
         <v>98</v>
       </c>
@@ -4286,7 +4314,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="91"/>
+      <c r="A4" s="110"/>
       <c r="B4" s="62" t="s">
         <v>112</v>
       </c>
@@ -4298,7 +4326,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="91"/>
+      <c r="A5" s="110"/>
       <c r="B5" s="62" t="s">
         <v>99</v>
       </c>
@@ -4310,7 +4338,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="91"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="62" t="s">
         <v>113</v>
       </c>
@@ -4322,7 +4350,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="91"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="62" t="s">
         <v>101</v>
       </c>
@@ -4334,7 +4362,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="91"/>
+      <c r="A8" s="110"/>
       <c r="B8" s="62" t="s">
         <v>184</v>
       </c>
@@ -4346,7 +4374,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="91"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="62" t="s">
         <v>100</v>
       </c>
@@ -4358,7 +4386,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="91"/>
+      <c r="A10" s="110"/>
       <c r="B10" s="62" t="s">
         <v>102</v>
       </c>
@@ -4370,7 +4398,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="91"/>
+      <c r="A11" s="110"/>
       <c r="B11" s="62" t="s">
         <v>185</v>
       </c>
@@ -4382,7 +4410,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="91"/>
+      <c r="A12" s="110"/>
       <c r="B12" s="62" t="s">
         <v>186</v>
       </c>
@@ -4394,7 +4422,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="91"/>
+      <c r="A13" s="110"/>
       <c r="B13" s="62" t="s">
         <v>103</v>
       </c>
@@ -4406,7 +4434,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="91"/>
+      <c r="A14" s="110"/>
       <c r="B14" s="62" t="s">
         <v>187</v>
       </c>
@@ -4418,7 +4446,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="91"/>
+      <c r="A15" s="110"/>
       <c r="B15" s="62" t="s">
         <v>105</v>
       </c>
@@ -4430,7 +4458,7 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="91"/>
+      <c r="A16" s="110"/>
       <c r="B16" s="62" t="s">
         <v>106</v>
       </c>
@@ -4442,7 +4470,7 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="91"/>
+      <c r="A17" s="110"/>
       <c r="B17" s="62" t="s">
         <v>109</v>
       </c>
@@ -4454,7 +4482,7 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="91"/>
+      <c r="A18" s="110"/>
       <c r="B18" s="62" t="s">
         <v>108</v>
       </c>
@@ -4466,7 +4494,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="91"/>
+      <c r="A19" s="110"/>
       <c r="B19" s="62" t="s">
         <v>107</v>
       </c>
@@ -4478,7 +4506,7 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="91"/>
+      <c r="A20" s="110"/>
       <c r="B20" s="62" t="s">
         <v>110</v>
       </c>
@@ -4490,7 +4518,7 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="96"/>
+      <c r="A21" s="115"/>
       <c r="B21" s="62" t="s">
         <v>111</v>
       </c>
@@ -4510,7 +4538,7 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="97" t="s">
+      <c r="A23" s="116" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="37" t="s">
@@ -4524,7 +4552,7 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="98"/>
+      <c r="A24" s="117"/>
       <c r="B24" s="16" t="s">
         <v>163</v>
       </c>
@@ -4536,7 +4564,7 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="98"/>
+      <c r="A25" s="117"/>
       <c r="B25" s="16" t="s">
         <v>162</v>
       </c>
@@ -4548,7 +4576,7 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="98"/>
+      <c r="A26" s="117"/>
       <c r="B26" s="16" t="s">
         <v>161</v>
       </c>
@@ -4560,7 +4588,7 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="98"/>
+      <c r="A27" s="117"/>
       <c r="B27" s="63" t="s">
         <v>160</v>
       </c>
@@ -4572,7 +4600,7 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="98"/>
+      <c r="A28" s="117"/>
       <c r="B28" s="16" t="s">
         <v>173</v>
       </c>
@@ -4584,7 +4612,7 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="98"/>
+      <c r="A29" s="117"/>
       <c r="B29" s="16" t="s">
         <v>164</v>
       </c>
@@ -4596,7 +4624,7 @@
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="98"/>
+      <c r="A30" s="117"/>
       <c r="B30" s="16" t="s">
         <v>165</v>
       </c>
@@ -4608,7 +4636,7 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="98"/>
+      <c r="A31" s="117"/>
       <c r="B31" s="2" t="s">
         <v>153</v>
       </c>
@@ -4620,7 +4648,7 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="98"/>
+      <c r="A32" s="117"/>
       <c r="B32" s="16" t="s">
         <v>166</v>
       </c>
@@ -4632,7 +4660,7 @@
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="98"/>
+      <c r="A33" s="117"/>
       <c r="B33" s="63" t="s">
         <v>167</v>
       </c>
@@ -4644,7 +4672,7 @@
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="98"/>
+      <c r="A34" s="117"/>
       <c r="B34" s="37" t="s">
         <v>154</v>
       </c>
@@ -4656,7 +4684,7 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="98"/>
+      <c r="A35" s="117"/>
       <c r="B35" s="64" t="s">
         <v>168</v>
       </c>
@@ -4668,7 +4696,7 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="98"/>
+      <c r="A36" s="117"/>
       <c r="B36" s="63" t="s">
         <v>169</v>
       </c>
@@ -4680,7 +4708,7 @@
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="98"/>
+      <c r="A37" s="117"/>
       <c r="B37" s="40" t="s">
         <v>155</v>
       </c>
@@ -4692,7 +4720,7 @@
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="98"/>
+      <c r="A38" s="117"/>
       <c r="B38" s="63" t="s">
         <v>170</v>
       </c>
@@ -4704,7 +4732,7 @@
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="98"/>
+      <c r="A39" s="117"/>
       <c r="B39" s="37" t="s">
         <v>156</v>
       </c>
@@ -4716,7 +4744,7 @@
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="98"/>
+      <c r="A40" s="117"/>
       <c r="B40" s="37" t="s">
         <v>157</v>
       </c>
@@ -4728,7 +4756,7 @@
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="98"/>
+      <c r="A41" s="117"/>
       <c r="B41" s="63" t="s">
         <v>172</v>
       </c>
@@ -4740,7 +4768,7 @@
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="98"/>
+      <c r="A42" s="117"/>
       <c r="B42" s="63" t="s">
         <v>171</v>
       </c>
@@ -4752,7 +4780,7 @@
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="99"/>
+      <c r="A43" s="118"/>
       <c r="B43" s="37" t="s">
         <v>158</v>
       </c>
@@ -4772,7 +4800,7 @@
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="97" t="s">
+      <c r="A45" s="116" t="s">
         <v>76</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -4786,7 +4814,7 @@
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="100"/>
+      <c r="A46" s="119"/>
       <c r="B46" s="5" t="s">
         <v>30</v>
       </c>
@@ -4856,7 +4884,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="109" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="37" t="s">
@@ -4870,7 +4898,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="98"/>
+      <c r="A3" s="117"/>
       <c r="B3" s="37" t="s">
         <v>151</v>
       </c>
@@ -4882,7 +4910,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="98"/>
+      <c r="A4" s="117"/>
       <c r="B4" s="37" t="s">
         <v>52</v>
       </c>
@@ -4894,7 +4922,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="98"/>
+      <c r="A5" s="117"/>
       <c r="B5" s="2" t="s">
         <v>51</v>
       </c>
@@ -4906,7 +4934,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="98"/>
+      <c r="A6" s="117"/>
       <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
@@ -4918,7 +4946,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="98"/>
+      <c r="A7" s="117"/>
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
@@ -4930,7 +4958,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="98"/>
+      <c r="A8" s="117"/>
       <c r="B8" s="37" t="s">
         <v>55</v>
       </c>
@@ -4942,7 +4970,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="98"/>
+      <c r="A9" s="117"/>
       <c r="B9" s="2" t="s">
         <v>56</v>
       </c>
@@ -4954,7 +4982,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="98"/>
+      <c r="A10" s="117"/>
       <c r="B10" s="2" t="s">
         <v>57</v>
       </c>
@@ -4966,7 +4994,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="98"/>
+      <c r="A11" s="117"/>
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -4978,7 +5006,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="98"/>
+      <c r="A12" s="117"/>
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -4990,7 +5018,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="98"/>
+      <c r="A13" s="117"/>
       <c r="B13" s="2" t="s">
         <v>60</v>
       </c>
@@ -5002,7 +5030,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="98"/>
+      <c r="A14" s="117"/>
       <c r="B14" s="37" t="s">
         <v>61</v>
       </c>
@@ -5014,7 +5042,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="98"/>
+      <c r="A15" s="117"/>
       <c r="B15" s="37" t="s">
         <v>62</v>
       </c>
@@ -5026,7 +5054,7 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="98"/>
+      <c r="A16" s="117"/>
       <c r="B16" s="40" t="s">
         <v>63</v>
       </c>
@@ -5038,7 +5066,7 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="98"/>
+      <c r="A17" s="117"/>
       <c r="B17" s="37" t="s">
         <v>64</v>
       </c>
@@ -5050,7 +5078,7 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="98"/>
+      <c r="A18" s="117"/>
       <c r="B18" s="40" t="s">
         <v>65</v>
       </c>
@@ -5062,7 +5090,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="98"/>
+      <c r="A19" s="117"/>
       <c r="B19" s="37" t="s">
         <v>67</v>
       </c>
@@ -5074,7 +5102,7 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="98"/>
+      <c r="A20" s="117"/>
       <c r="B20" s="37" t="s">
         <v>68</v>
       </c>
@@ -5086,7 +5114,7 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="98"/>
+      <c r="A21" s="117"/>
       <c r="B21" s="37" t="s">
         <v>69</v>
       </c>
@@ -5098,7 +5126,7 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="98"/>
+      <c r="A22" s="117"/>
       <c r="B22" s="37" t="s">
         <v>70</v>
       </c>
@@ -5110,7 +5138,7 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="98"/>
+      <c r="A23" s="117"/>
       <c r="B23" s="37" t="s">
         <v>71</v>
       </c>
@@ -5122,7 +5150,7 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="99"/>
+      <c r="A24" s="118"/>
       <c r="B24" s="37" t="s">
         <v>72</v>
       </c>
@@ -5142,7 +5170,7 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="97" t="s">
+      <c r="A26" s="116" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -5155,7 +5183,7 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="98"/>
+      <c r="A27" s="117"/>
       <c r="B27" s="2" t="s">
         <v>45</v>
       </c>
@@ -5167,7 +5195,7 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="98"/>
+      <c r="A28" s="117"/>
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -5179,7 +5207,7 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="98"/>
+      <c r="A29" s="117"/>
       <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
@@ -5191,7 +5219,7 @@
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="98"/>
+      <c r="A30" s="117"/>
       <c r="B30" s="2" t="s">
         <v>50</v>
       </c>
@@ -5203,7 +5231,7 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="98"/>
+      <c r="A31" s="117"/>
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
@@ -5215,7 +5243,7 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="98"/>
+      <c r="A32" s="117"/>
       <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
@@ -5227,7 +5255,7 @@
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="98"/>
+      <c r="A33" s="117"/>
       <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
@@ -5239,7 +5267,7 @@
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="98"/>
+      <c r="A34" s="117"/>
       <c r="B34" s="25" t="s">
         <v>40</v>
       </c>
@@ -5251,7 +5279,7 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="98"/>
+      <c r="A35" s="117"/>
       <c r="B35" s="2" t="s">
         <v>41</v>
       </c>
@@ -5263,7 +5291,7 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="98"/>
+      <c r="A36" s="117"/>
       <c r="B36" s="2" t="s">
         <v>42</v>
       </c>
@@ -5275,7 +5303,7 @@
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="98"/>
+      <c r="A37" s="117"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -5295,7 +5323,7 @@
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="101" t="s">
+      <c r="A39" s="120" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="71" t="s">
@@ -5308,7 +5336,7 @@
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="88"/>
+      <c r="A40" s="107"/>
       <c r="B40" s="16" t="s">
         <v>33</v>
       </c>
@@ -5319,7 +5347,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="88"/>
+      <c r="A41" s="107"/>
       <c r="B41" s="16" t="s">
         <v>34</v>
       </c>
@@ -5331,7 +5359,7 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="89"/>
+      <c r="A42" s="108"/>
       <c r="B42" s="16" t="s">
         <v>35</v>
       </c>
@@ -5349,7 +5377,7 @@
       <c r="E43" s="28"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="97" t="s">
+      <c r="A44" s="116" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -5362,7 +5390,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="98"/>
+      <c r="A45" s="117"/>
       <c r="B45" s="2" t="s">
         <v>48</v>
       </c>
@@ -5373,7 +5401,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="100"/>
+      <c r="A46" s="119"/>
       <c r="B46" s="5" t="s">
         <v>49</v>
       </c>
@@ -5442,7 +5470,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="110" t="s">
         <v>79</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -5456,7 +5484,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="91"/>
+      <c r="A3" s="110"/>
       <c r="B3" s="63" t="s">
         <v>190</v>
       </c>
@@ -5468,7 +5496,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="91"/>
+      <c r="A4" s="110"/>
       <c r="B4" s="63" t="s">
         <v>191</v>
       </c>
@@ -5480,7 +5508,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="96"/>
+      <c r="A5" s="115"/>
       <c r="B5" s="63" t="s">
         <v>192</v>
       </c>
@@ -5500,7 +5528,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="117" t="s">
         <v>188</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -5514,7 +5542,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="98"/>
+      <c r="A8" s="117"/>
       <c r="B8" s="2" t="s">
         <v>194</v>
       </c>
@@ -5526,7 +5554,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="98"/>
+      <c r="A9" s="117"/>
       <c r="B9" s="2" t="s">
         <v>197</v>
       </c>
@@ -5538,7 +5566,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="98"/>
+      <c r="A10" s="117"/>
       <c r="B10" s="2" t="s">
         <v>195</v>
       </c>
@@ -5550,7 +5578,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="98"/>
+      <c r="A11" s="117"/>
       <c r="B11" s="2" t="s">
         <v>193</v>
       </c>
@@ -5562,7 +5590,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="98"/>
+      <c r="A12" s="117"/>
       <c r="B12" s="25" t="s">
         <v>196</v>
       </c>
@@ -5582,7 +5610,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="120" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="71" t="s">
@@ -5595,7 +5623,7 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="88"/>
+      <c r="A15" s="107"/>
       <c r="B15" s="16" t="s">
         <v>34</v>
       </c>
@@ -5607,7 +5635,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="102"/>
+      <c r="A16" s="121"/>
       <c r="B16" s="69" t="s">
         <v>35</v>
       </c>
@@ -5674,7 +5702,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="112" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -5687,7 +5715,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="94"/>
+      <c r="A3" s="113"/>
       <c r="B3" s="16" t="s">
         <v>34</v>
       </c>
@@ -5698,7 +5726,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="94"/>
+      <c r="A4" s="113"/>
       <c r="B4" s="16" t="s">
         <v>35</v>
       </c>
@@ -5716,7 +5744,7 @@
       <c r="E5" s="55"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="112" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -5729,7 +5757,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="94"/>
+      <c r="A7" s="113"/>
       <c r="B7" s="51" t="s">
         <v>81</v>
       </c>
@@ -5740,7 +5768,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="94"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="51" t="s">
         <v>222</v>
       </c>
@@ -5751,7 +5779,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="94"/>
+      <c r="A9" s="113"/>
       <c r="B9" s="60" t="s">
         <v>209</v>
       </c>
@@ -5762,7 +5790,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="94"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="60" t="s">
         <v>95</v>
       </c>
@@ -5773,7 +5801,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="94"/>
+      <c r="A11" s="113"/>
       <c r="B11" s="60" t="s">
         <v>96</v>
       </c>
@@ -5784,7 +5812,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="94"/>
+      <c r="A12" s="113"/>
       <c r="B12" s="60" t="s">
         <v>97</v>
       </c>
@@ -5795,7 +5823,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="95"/>
+      <c r="A13" s="114"/>
       <c r="B13" s="53" t="s">
         <v>115</v>
       </c>
@@ -5813,7 +5841,7 @@
       <c r="E14" s="55"/>
     </row>
     <row r="15" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="116" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -5826,7 +5854,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="98"/>
+      <c r="A16" s="117"/>
       <c r="B16" s="16" t="s">
         <v>140</v>
       </c>
@@ -5837,7 +5865,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="98"/>
+      <c r="A17" s="117"/>
       <c r="B17" s="16" t="s">
         <v>139</v>
       </c>
@@ -5848,7 +5876,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="98"/>
+      <c r="A18" s="117"/>
       <c r="B18" s="16" t="s">
         <v>138</v>
       </c>
@@ -5859,7 +5887,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="98"/>
+      <c r="A19" s="117"/>
       <c r="B19" s="16" t="s">
         <v>137</v>
       </c>
@@ -5870,7 +5898,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="98"/>
+      <c r="A20" s="117"/>
       <c r="B20" s="16" t="s">
         <v>136</v>
       </c>
@@ -5881,7 +5909,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="98"/>
+      <c r="A21" s="117"/>
       <c r="B21" s="16" t="s">
         <v>135</v>
       </c>
@@ -5892,7 +5920,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="98"/>
+      <c r="A22" s="117"/>
       <c r="B22" s="16" t="s">
         <v>134</v>
       </c>
@@ -5903,7 +5931,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="98"/>
+      <c r="A23" s="117"/>
       <c r="B23" s="16" t="s">
         <v>141</v>
       </c>
@@ -5914,7 +5942,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="98"/>
+      <c r="A24" s="117"/>
       <c r="B24" s="16" t="s">
         <v>142</v>
       </c>
@@ -5925,7 +5953,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="98"/>
+      <c r="A25" s="117"/>
       <c r="B25" s="16" t="s">
         <v>143</v>
       </c>
@@ -5936,7 +5964,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="98"/>
+      <c r="A26" s="117"/>
       <c r="B26" s="16" t="s">
         <v>144</v>
       </c>
@@ -5947,7 +5975,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="98"/>
+      <c r="A27" s="117"/>
       <c r="B27" s="16" t="s">
         <v>145</v>
       </c>
@@ -5958,7 +5986,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="98"/>
+      <c r="A28" s="117"/>
       <c r="B28" s="16" t="s">
         <v>199</v>
       </c>
@@ -5969,7 +5997,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="98"/>
+      <c r="A29" s="117"/>
       <c r="B29" s="16" t="s">
         <v>200</v>
       </c>
@@ -5980,7 +6008,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="98"/>
+      <c r="A30" s="117"/>
       <c r="B30" s="16" t="s">
         <v>201</v>
       </c>
@@ -5991,7 +6019,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="98"/>
+      <c r="A31" s="117"/>
       <c r="B31" s="16" t="s">
         <v>202</v>
       </c>
@@ -6002,7 +6030,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="98"/>
+      <c r="A32" s="117"/>
       <c r="B32" s="16" t="s">
         <v>147</v>
       </c>
@@ -6013,7 +6041,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="98"/>
+      <c r="A33" s="117"/>
       <c r="B33" s="16" t="s">
         <v>148</v>
       </c>
@@ -6024,7 +6052,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="98"/>
+      <c r="A34" s="117"/>
       <c r="B34" s="16" t="s">
         <v>149</v>
       </c>
@@ -6035,7 +6063,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="98"/>
+      <c r="A35" s="117"/>
       <c r="B35" s="16" t="s">
         <v>146</v>
       </c>
@@ -6046,14 +6074,14 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="98"/>
+      <c r="A36" s="117"/>
       <c r="B36" s="16"/>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
       <c r="E36" s="30"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="98"/>
+      <c r="A37" s="117"/>
       <c r="B37" s="2" t="s">
         <v>124</v>
       </c>
@@ -6064,7 +6092,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="98"/>
+      <c r="A38" s="117"/>
       <c r="B38" s="2" t="s">
         <v>123</v>
       </c>
@@ -6075,7 +6103,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="98"/>
+      <c r="A39" s="117"/>
       <c r="B39" s="2" t="s">
         <v>122</v>
       </c>
@@ -6086,7 +6114,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="98"/>
+      <c r="A40" s="117"/>
       <c r="B40" s="2" t="s">
         <v>121</v>
       </c>
@@ -6097,7 +6125,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="98"/>
+      <c r="A41" s="117"/>
       <c r="B41" s="2" t="s">
         <v>120</v>
       </c>
@@ -6108,7 +6136,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="98"/>
+      <c r="A42" s="117"/>
       <c r="B42" s="2" t="s">
         <v>119</v>
       </c>
@@ -6119,7 +6147,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="98"/>
+      <c r="A43" s="117"/>
       <c r="B43" s="2" t="s">
         <v>118</v>
       </c>
@@ -6130,7 +6158,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="98"/>
+      <c r="A44" s="117"/>
       <c r="B44" s="2" t="s">
         <v>125</v>
       </c>
@@ -6141,7 +6169,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="98"/>
+      <c r="A45" s="117"/>
       <c r="B45" s="2" t="s">
         <v>126</v>
       </c>
@@ -6152,7 +6180,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="98"/>
+      <c r="A46" s="117"/>
       <c r="B46" s="2" t="s">
         <v>127</v>
       </c>
@@ -6163,7 +6191,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="98"/>
+      <c r="A47" s="117"/>
       <c r="B47" s="2" t="s">
         <v>128</v>
       </c>
@@ -6174,7 +6202,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="98"/>
+      <c r="A48" s="117"/>
       <c r="B48" s="2" t="s">
         <v>129</v>
       </c>
@@ -6185,7 +6213,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="98"/>
+      <c r="A49" s="117"/>
       <c r="B49" s="2" t="s">
         <v>203</v>
       </c>
@@ -6196,7 +6224,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="98"/>
+      <c r="A50" s="117"/>
       <c r="B50" s="2" t="s">
         <v>204</v>
       </c>
@@ -6207,7 +6235,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="98"/>
+      <c r="A51" s="117"/>
       <c r="B51" s="2" t="s">
         <v>205</v>
       </c>
@@ -6218,7 +6246,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="98"/>
+      <c r="A52" s="117"/>
       <c r="B52" s="2" t="s">
         <v>206</v>
       </c>
@@ -6229,7 +6257,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="98"/>
+      <c r="A53" s="117"/>
       <c r="B53" s="25" t="s">
         <v>130</v>
       </c>
@@ -6240,7 +6268,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="98"/>
+      <c r="A54" s="117"/>
       <c r="B54" s="2" t="s">
         <v>131</v>
       </c>
@@ -6251,7 +6279,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="98"/>
+      <c r="A55" s="117"/>
       <c r="B55" s="2" t="s">
         <v>132</v>
       </c>
@@ -6262,7 +6290,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="98"/>
+      <c r="A56" s="117"/>
       <c r="B56" s="2" t="s">
         <v>133</v>
       </c>
@@ -6280,7 +6308,7 @@
       <c r="E57" s="55"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="97" t="s">
+      <c r="A58" s="116" t="s">
         <v>79</v>
       </c>
       <c r="B58" s="16" t="s">
@@ -6293,7 +6321,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="98"/>
+      <c r="A59" s="117"/>
       <c r="B59" s="16" t="s">
         <v>93</v>
       </c>
@@ -6304,7 +6332,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="99"/>
+      <c r="A60" s="118"/>
       <c r="B60" s="16" t="s">
         <v>92</v>
       </c>
@@ -6322,7 +6350,7 @@
       <c r="E61" s="54"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="93" t="s">
+      <c r="A62" s="112" t="s">
         <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -6335,7 +6363,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="94"/>
+      <c r="A63" s="113"/>
       <c r="B63" s="2" t="s">
         <v>84</v>
       </c>
@@ -6346,7 +6374,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="94"/>
+      <c r="A64" s="113"/>
       <c r="B64" s="2" t="s">
         <v>87</v>
       </c>
@@ -6357,7 +6385,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="94"/>
+      <c r="A65" s="113"/>
       <c r="B65" s="2" t="s">
         <v>85</v>
       </c>
@@ -6368,7 +6396,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="94"/>
+      <c r="A66" s="113"/>
       <c r="B66" s="2" t="s">
         <v>86</v>
       </c>
@@ -6379,7 +6407,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="94"/>
+      <c r="A67" s="113"/>
       <c r="B67" s="56" t="s">
         <v>88</v>
       </c>
@@ -6390,7 +6418,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="94"/>
+      <c r="A68" s="113"/>
       <c r="B68" s="56" t="s">
         <v>89</v>
       </c>
@@ -6401,7 +6429,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="94"/>
+      <c r="A69" s="113"/>
       <c r="B69" s="56" t="s">
         <v>90</v>
       </c>
@@ -6412,7 +6440,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="94"/>
+      <c r="A70" s="113"/>
       <c r="B70" s="59" t="s">
         <v>91</v>
       </c>
@@ -6423,7 +6451,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="95"/>
+      <c r="A71" s="114"/>
       <c r="B71" s="59" t="s">
         <v>150</v>
       </c>
@@ -6475,10 +6503,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF97C5A-E76A-4F7F-AE1B-EEE4815545E3}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6505,7 +6533,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="122" t="s">
         <v>248</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -6519,7 +6547,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="104"/>
+      <c r="A3" s="123"/>
       <c r="B3" s="2" t="s">
         <v>250</v>
       </c>
@@ -6531,7 +6559,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="104"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="2" t="s">
         <v>251</v>
       </c>
@@ -6543,7 +6571,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="104"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="2" t="s">
         <v>252</v>
       </c>
@@ -6555,7 +6583,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="104"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="2" t="s">
         <v>253</v>
       </c>
@@ -6567,7 +6595,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="104"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="2" t="s">
         <v>256</v>
       </c>
@@ -6579,7 +6607,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="104"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="16" t="s">
         <v>255</v>
       </c>
@@ -6591,7 +6619,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="104"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="2" t="s">
         <v>254</v>
       </c>
@@ -6603,7 +6631,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="104"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="25" t="s">
         <v>257</v>
       </c>
@@ -6623,7 +6651,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="110" t="s">
         <v>242</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -6631,67 +6659,67 @@
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="85"/>
-      <c r="E12" s="111" t="s">
+      <c r="E12" s="91" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="91"/>
+      <c r="A13" s="110"/>
       <c r="B13" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="85"/>
-      <c r="E13" s="111" t="s">
+      <c r="E13" s="91" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="91"/>
+      <c r="A14" s="110"/>
       <c r="B14" s="2" t="s">
         <v>258</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="85"/>
-      <c r="E14" s="111" t="s">
+      <c r="E14" s="91" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="91"/>
+      <c r="A15" s="110"/>
       <c r="B15" s="16" t="s">
         <v>259</v>
       </c>
       <c r="C15" s="46"/>
       <c r="D15" s="85"/>
-      <c r="E15" s="111" t="s">
+      <c r="E15" s="91" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="91"/>
+      <c r="A16" s="110"/>
       <c r="B16" s="2" t="s">
         <v>260</v>
       </c>
       <c r="C16" s="46"/>
       <c r="D16" s="85"/>
-      <c r="E16" s="111" t="s">
+      <c r="E16" s="91" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="96"/>
+      <c r="A17" s="115"/>
       <c r="B17" s="25" t="s">
         <v>261</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="85"/>
-      <c r="E17" s="111" t="s">
+      <c r="E17" s="91" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="1"/>
@@ -6705,7 +6733,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="103" t="s">
+      <c r="A19" s="122" t="s">
         <v>213</v>
       </c>
       <c r="B19" s="56" t="s">
@@ -6719,7 +6747,7 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="104"/>
+      <c r="A20" s="123"/>
       <c r="B20" s="56" t="s">
         <v>215</v>
       </c>
@@ -6731,7 +6759,7 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="104"/>
+      <c r="A21" s="123"/>
       <c r="B21" s="56" t="s">
         <v>216</v>
       </c>
@@ -6743,7 +6771,7 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="105"/>
+      <c r="A22" s="124"/>
       <c r="B22" s="56" t="s">
         <v>217</v>
       </c>
@@ -6763,7 +6791,7 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="112" t="s">
         <v>94</v>
       </c>
       <c r="B24" s="59" t="s">
@@ -6776,7 +6804,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="94"/>
+      <c r="A25" s="113"/>
       <c r="B25" s="59" t="s">
         <v>246</v>
       </c>
@@ -6787,7 +6815,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="94"/>
+      <c r="A26" s="113"/>
       <c r="B26" s="59" t="s">
         <v>243</v>
       </c>
@@ -6798,7 +6826,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="94"/>
+      <c r="A27" s="113"/>
       <c r="B27" s="59" t="s">
         <v>235</v>
       </c>
@@ -6809,7 +6837,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="94"/>
+      <c r="A28" s="113"/>
       <c r="B28" s="59" t="s">
         <v>236</v>
       </c>
@@ -6820,7 +6848,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="94"/>
+      <c r="A29" s="113"/>
       <c r="B29" s="59" t="s">
         <v>247</v>
       </c>
@@ -6831,7 +6859,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="94"/>
+      <c r="A30" s="113"/>
       <c r="B30" s="59" t="s">
         <v>263</v>
       </c>
@@ -6849,7 +6877,7 @@
       <c r="E31" s="81"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="112" t="s">
         <v>76</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -6862,7 +6890,7 @@
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="94"/>
+      <c r="A33" s="113"/>
       <c r="B33" s="2" t="s">
         <v>211</v>
       </c>
@@ -6873,7 +6901,7 @@
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="94"/>
+      <c r="A34" s="113"/>
       <c r="B34" s="2" t="s">
         <v>224</v>
       </c>
@@ -6884,31 +6912,31 @@
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="94"/>
+      <c r="A35" s="113"/>
       <c r="B35" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>12</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C35" s="24"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="3"/>
+      <c r="E35" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="94"/>
+      <c r="A36" s="113"/>
       <c r="B36" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C36" s="24"/>
+        <v>226</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="D36" s="2"/>
-      <c r="E36" s="17" t="s">
-        <v>12</v>
-      </c>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="94"/>
+      <c r="A37" s="113"/>
       <c r="B37" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>12</v>
@@ -6917,9 +6945,9 @@
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="94"/>
+      <c r="A38" s="113"/>
       <c r="B38" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C38" s="24" t="s">
         <v>12</v>
@@ -6928,53 +6956,53 @@
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="94"/>
+      <c r="A39" s="113"/>
       <c r="B39" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>12</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="C39" s="24"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="3"/>
+      <c r="E39" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="94"/>
+      <c r="A40" s="113"/>
       <c r="B40" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C40" s="24"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="94"/>
+      <c r="A41" s="113"/>
       <c r="B41" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C41" s="24"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="30" t="s">
+      <c r="E41" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="94"/>
+      <c r="A42" s="113"/>
       <c r="B42" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C42" s="24"/>
+        <v>232</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="D42" s="2"/>
-      <c r="E42" s="17" t="s">
-        <v>12</v>
-      </c>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="94"/>
+      <c r="A43" s="113"/>
       <c r="B43" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>12</v>
@@ -6983,9 +7011,9 @@
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="94"/>
+      <c r="A44" s="114"/>
       <c r="B44" s="2" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="C44" s="24" t="s">
         <v>12</v>
@@ -6993,34 +7021,23 @@
       <c r="D44" s="2"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="95"/>
-      <c r="B45" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="4"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A32:A45"/>
+    <mergeCell ref="A32:A44"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A12:A17"/>
@@ -7033,10 +7050,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A365AE-7930-4274-837C-B5D83DFDF1FE}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7046,206 +7063,301 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="88" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="116" t="s">
         <v>94</v>
       </c>
       <c r="B2" s="59" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="46"/>
+      <c r="C2" s="46" t="s">
+        <v>12</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="98"/>
+      <c r="A3" s="117"/>
       <c r="B3" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="46"/>
+      <c r="C3" s="46" t="s">
+        <v>12</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="98"/>
+      <c r="A4" s="117"/>
       <c r="B4" s="59" t="s">
         <v>238</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="46" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" s="37"/>
       <c r="E4" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="99"/>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="118"/>
       <c r="B5" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="46" t="s">
+        <v>12</v>
+      </c>
       <c r="D5" s="85"/>
       <c r="E5" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="112"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="114"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="94"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="126" t="s">
         <v>262</v>
       </c>
-      <c r="B7" s="85"/>
+      <c r="B7" s="85" t="s">
+        <v>274</v>
+      </c>
       <c r="C7" s="57" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="85"/>
-      <c r="E7" s="109"/>
+      <c r="E7" s="89"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="130"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="85" t="s">
+        <v>270</v>
+      </c>
       <c r="C8" s="57" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="85"/>
-      <c r="E8" s="109"/>
+      <c r="E8" s="89"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="112"/>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
+      <c r="A9" s="132"/>
+      <c r="B9" s="85" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="85"/>
+      <c r="E9" s="89"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="132"/>
+      <c r="B10" s="85" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="85"/>
+      <c r="E10" s="89"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="132"/>
+      <c r="B11" s="85" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="85"/>
+      <c r="E11" s="89"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="92"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="112" t="s">
         <v>220</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="94"/>
-      <c r="B11" s="2" t="s">
+      <c r="C13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="113"/>
+      <c r="B14" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="95"/>
-      <c r="B12" s="2" t="s">
+      <c r="C14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="114"/>
+      <c r="B15" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="112"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="126" t="s">
+      <c r="C15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="92"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="125" t="s">
         <v>264</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B17" s="56" t="s">
         <v>265</v>
       </c>
-      <c r="C14" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="109"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="88"/>
-      <c r="B15" s="56" t="s">
+      <c r="C17" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="56"/>
+      <c r="E17" s="89"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="107"/>
+      <c r="B18" s="56" t="s">
         <v>266</v>
       </c>
-      <c r="C15" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="109"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="89"/>
-      <c r="B16" s="85" t="s">
+      <c r="C18" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="56"/>
+      <c r="E18" s="89"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="108"/>
+      <c r="B19" s="85" t="s">
         <v>267</v>
       </c>
-      <c r="C16" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="85"/>
-      <c r="E16" s="109"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="110"/>
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="86"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="128"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
+      <c r="C19" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="85"/>
+      <c r="E19" s="89"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="90"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="120" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="108"/>
+      <c r="B22" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="128"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="131"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="120" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="37"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="108"/>
+      <c r="B25" s="56" t="s">
+        <v>268</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="40"/>
+      <c r="E25" s="127"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7267,24 +7379,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="98" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="112" t="s">
         <v>117</v>
       </c>
       <c r="B2" s="2"/>
@@ -7295,7 +7407,7 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="94"/>
+      <c r="A3" s="113"/>
       <c r="B3" s="37"/>
       <c r="C3" s="46" t="s">
         <v>12</v>
@@ -7304,7 +7416,7 @@
       <c r="E3" s="83"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="95"/>
+      <c r="A4" s="114"/>
       <c r="B4" s="2"/>
       <c r="C4" s="46" t="s">
         <v>12</v>
@@ -7313,53 +7425,53 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="119"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="122"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="102"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="97"/>
+      <c r="A6" s="116"/>
       <c r="B6" s="59"/>
       <c r="C6" s="46"/>
       <c r="D6" s="2"/>
       <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="98"/>
+      <c r="A7" s="117"/>
       <c r="B7" s="59"/>
       <c r="C7" s="46"/>
       <c r="D7" s="2"/>
       <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="98"/>
+      <c r="A8" s="117"/>
       <c r="B8" s="59"/>
       <c r="C8" s="24"/>
       <c r="D8" s="37"/>
       <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="99"/>
+      <c r="A9" s="118"/>
       <c r="B9" s="59"/>
       <c r="C9" s="24"/>
       <c r="D9" s="85"/>
       <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="123"/>
-      <c r="B10" s="123"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="125"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="105"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="115"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="85"/>
       <c r="C11" s="57"/>
       <c r="D11" s="85"/>
-      <c r="E11" s="109"/>
+      <c r="E11" s="89"/>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>

--- a/Documents/Scrum/Sprint_backlog.xlsx
+++ b/Documents/Scrum/Sprint_backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89351A1B-24AF-467B-98C8-E900742E89A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AFFB1D-D6E2-4A7A-93FF-EDF80FA6D0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
+    <workbookView xWindow="15288" yWindow="2304" windowWidth="17280" windowHeight="8916" firstSheet="6" activeTab="7" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint_0." sheetId="4" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="Sprint_6." sheetId="6" r:id="rId7"/>
     <sheet name="Sprint_7." sheetId="8" r:id="rId8"/>
     <sheet name="Sprint_8." sheetId="9" r:id="rId9"/>
+    <sheet name="Sprint_9." sheetId="10" r:id="rId10"/>
+    <sheet name="Feuil2" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="291">
   <si>
     <t>STORY</t>
   </si>
@@ -2618,6 +2620,51 @@
   </si>
   <si>
     <t>Lier le calendrier de disponibiltés de Waview avec leur calendrier personnel</t>
+  </si>
+  <si>
+    <t>Créer le tag actuel</t>
+  </si>
+  <si>
+    <t>Créer les marquers sur la map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restructurer le projet </t>
+  </si>
+  <si>
+    <t>Isoler tous les points PHP dans les fichiers correspondants</t>
+  </si>
+  <si>
+    <t>Coder + design partie frontEnd</t>
+  </si>
+  <si>
+    <t>Faire la connexion avec la base de données</t>
+  </si>
+  <si>
+    <t>Faire le Update pour toutes les fonctionnalités</t>
+  </si>
+  <si>
+    <t>Améliorer l'optimisation de l'API</t>
+  </si>
+  <si>
+    <t>WavCom</t>
+  </si>
+  <si>
+    <t>Régler le problème liste déroulante tag</t>
+  </si>
+  <si>
+    <t>Créer les tags favoris</t>
+  </si>
+  <si>
+    <t>Agrandir la fenêtre session</t>
+  </si>
+  <si>
+    <t>Vérifier l'interface utilisateur</t>
+  </si>
+  <si>
+    <t>Gestion chat</t>
+  </si>
+  <si>
+    <t>Disponibilité calendrier</t>
   </si>
 </sst>
 </file>
@@ -3154,7 +3201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3382,9 +3429,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3405,69 +3449,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3478,6 +3459,78 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3838,7 +3891,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="111" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -3852,7 +3905,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="107"/>
+      <c r="A3" s="112"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
@@ -3864,7 +3917,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="107"/>
+      <c r="A4" s="112"/>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -3876,7 +3929,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="107"/>
+      <c r="A5" s="112"/>
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
@@ -3888,7 +3941,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="107"/>
+      <c r="A6" s="112"/>
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -3900,7 +3953,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="107"/>
+      <c r="A7" s="112"/>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
@@ -3912,7 +3965,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="108"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
@@ -3932,7 +3985,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="114" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3945,7 +3998,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="110"/>
+      <c r="A11" s="115"/>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
@@ -3956,7 +4009,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="110"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
@@ -3968,7 +4021,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="110"/>
+      <c r="A13" s="115"/>
       <c r="B13" s="2" t="s">
         <v>75</v>
       </c>
@@ -3980,7 +4033,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="110"/>
+      <c r="A14" s="115"/>
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
@@ -3991,7 +4044,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="110"/>
+      <c r="A15" s="115"/>
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
@@ -4002,7 +4055,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="110"/>
+      <c r="A16" s="115"/>
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
@@ -4013,7 +4066,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="110"/>
+      <c r="A17" s="115"/>
       <c r="B17" s="56" t="s">
         <v>178</v>
       </c>
@@ -4024,7 +4077,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="110"/>
+      <c r="A18" s="115"/>
       <c r="B18" s="56" t="s">
         <v>179</v>
       </c>
@@ -4035,7 +4088,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="111"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="5" t="s">
         <v>180</v>
       </c>
@@ -4050,6 +4103,179 @@
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A10:A19"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4275C1D2-30DB-4753-AC86-1CDFAF13FAD3}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="118"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="83"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="119"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="98"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="101"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="121"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="122"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="123"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="102"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="104"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="131"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="89"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="132"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="89"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="133"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="89"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="102"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="134"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="89"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="102"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="110"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="89"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:A12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8E88E9-D7E4-4380-9767-FF6AF9F97B48}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4088,7 +4314,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="117" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -4102,7 +4328,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="113"/>
+      <c r="A3" s="118"/>
       <c r="B3" s="16" t="s">
         <v>183</v>
       </c>
@@ -4114,7 +4340,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="113"/>
+      <c r="A4" s="118"/>
       <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
@@ -4126,7 +4352,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="113"/>
+      <c r="A5" s="118"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -4137,7 +4363,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="113"/>
+      <c r="A6" s="118"/>
       <c r="B6" s="16" t="s">
         <v>182</v>
       </c>
@@ -4149,7 +4375,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="113"/>
+      <c r="A7" s="118"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -4160,7 +4386,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="113"/>
+      <c r="A8" s="118"/>
       <c r="B8" s="16" t="s">
         <v>176</v>
       </c>
@@ -4171,7 +4397,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="113"/>
+      <c r="A9" s="118"/>
       <c r="B9" s="16" t="s">
         <v>11</v>
       </c>
@@ -4182,7 +4408,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="113"/>
+      <c r="A10" s="118"/>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -4193,7 +4419,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="113"/>
+      <c r="A11" s="118"/>
       <c r="B11" s="16" t="s">
         <v>175</v>
       </c>
@@ -4204,7 +4430,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="113"/>
+      <c r="A12" s="118"/>
       <c r="B12" s="16" t="s">
         <v>174</v>
       </c>
@@ -4215,7 +4441,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="114"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="16" t="s">
         <v>181</v>
       </c>
@@ -4288,7 +4514,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="114" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -4302,7 +4528,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="110"/>
+      <c r="A3" s="115"/>
       <c r="B3" s="62" t="s">
         <v>98</v>
       </c>
@@ -4314,7 +4540,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="110"/>
+      <c r="A4" s="115"/>
       <c r="B4" s="62" t="s">
         <v>112</v>
       </c>
@@ -4326,7 +4552,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="110"/>
+      <c r="A5" s="115"/>
       <c r="B5" s="62" t="s">
         <v>99</v>
       </c>
@@ -4338,7 +4564,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="110"/>
+      <c r="A6" s="115"/>
       <c r="B6" s="62" t="s">
         <v>113</v>
       </c>
@@ -4350,7 +4576,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="110"/>
+      <c r="A7" s="115"/>
       <c r="B7" s="62" t="s">
         <v>101</v>
       </c>
@@ -4362,7 +4588,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="110"/>
+      <c r="A8" s="115"/>
       <c r="B8" s="62" t="s">
         <v>184</v>
       </c>
@@ -4374,7 +4600,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="110"/>
+      <c r="A9" s="115"/>
       <c r="B9" s="62" t="s">
         <v>100</v>
       </c>
@@ -4386,7 +4612,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="110"/>
+      <c r="A10" s="115"/>
       <c r="B10" s="62" t="s">
         <v>102</v>
       </c>
@@ -4398,7 +4624,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="110"/>
+      <c r="A11" s="115"/>
       <c r="B11" s="62" t="s">
         <v>185</v>
       </c>
@@ -4410,7 +4636,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="110"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="62" t="s">
         <v>186</v>
       </c>
@@ -4422,7 +4648,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="110"/>
+      <c r="A13" s="115"/>
       <c r="B13" s="62" t="s">
         <v>103</v>
       </c>
@@ -4434,7 +4660,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="110"/>
+      <c r="A14" s="115"/>
       <c r="B14" s="62" t="s">
         <v>187</v>
       </c>
@@ -4446,7 +4672,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="110"/>
+      <c r="A15" s="115"/>
       <c r="B15" s="62" t="s">
         <v>105</v>
       </c>
@@ -4458,7 +4684,7 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="110"/>
+      <c r="A16" s="115"/>
       <c r="B16" s="62" t="s">
         <v>106</v>
       </c>
@@ -4470,7 +4696,7 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="110"/>
+      <c r="A17" s="115"/>
       <c r="B17" s="62" t="s">
         <v>109</v>
       </c>
@@ -4482,7 +4708,7 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="110"/>
+      <c r="A18" s="115"/>
       <c r="B18" s="62" t="s">
         <v>108</v>
       </c>
@@ -4494,7 +4720,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="110"/>
+      <c r="A19" s="115"/>
       <c r="B19" s="62" t="s">
         <v>107</v>
       </c>
@@ -4506,7 +4732,7 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="110"/>
+      <c r="A20" s="115"/>
       <c r="B20" s="62" t="s">
         <v>110</v>
       </c>
@@ -4518,7 +4744,7 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="115"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="62" t="s">
         <v>111</v>
       </c>
@@ -4538,7 +4764,7 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="116" t="s">
+      <c r="A23" s="121" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="37" t="s">
@@ -4552,7 +4778,7 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="117"/>
+      <c r="A24" s="122"/>
       <c r="B24" s="16" t="s">
         <v>163</v>
       </c>
@@ -4564,7 +4790,7 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="117"/>
+      <c r="A25" s="122"/>
       <c r="B25" s="16" t="s">
         <v>162</v>
       </c>
@@ -4576,7 +4802,7 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="117"/>
+      <c r="A26" s="122"/>
       <c r="B26" s="16" t="s">
         <v>161</v>
       </c>
@@ -4588,7 +4814,7 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="117"/>
+      <c r="A27" s="122"/>
       <c r="B27" s="63" t="s">
         <v>160</v>
       </c>
@@ -4600,7 +4826,7 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="117"/>
+      <c r="A28" s="122"/>
       <c r="B28" s="16" t="s">
         <v>173</v>
       </c>
@@ -4612,7 +4838,7 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="117"/>
+      <c r="A29" s="122"/>
       <c r="B29" s="16" t="s">
         <v>164</v>
       </c>
@@ -4624,7 +4850,7 @@
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="117"/>
+      <c r="A30" s="122"/>
       <c r="B30" s="16" t="s">
         <v>165</v>
       </c>
@@ -4636,7 +4862,7 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="117"/>
+      <c r="A31" s="122"/>
       <c r="B31" s="2" t="s">
         <v>153</v>
       </c>
@@ -4648,7 +4874,7 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="117"/>
+      <c r="A32" s="122"/>
       <c r="B32" s="16" t="s">
         <v>166</v>
       </c>
@@ -4660,7 +4886,7 @@
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="117"/>
+      <c r="A33" s="122"/>
       <c r="B33" s="63" t="s">
         <v>167</v>
       </c>
@@ -4672,7 +4898,7 @@
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="117"/>
+      <c r="A34" s="122"/>
       <c r="B34" s="37" t="s">
         <v>154</v>
       </c>
@@ -4684,7 +4910,7 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="117"/>
+      <c r="A35" s="122"/>
       <c r="B35" s="64" t="s">
         <v>168</v>
       </c>
@@ -4696,7 +4922,7 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="117"/>
+      <c r="A36" s="122"/>
       <c r="B36" s="63" t="s">
         <v>169</v>
       </c>
@@ -4708,7 +4934,7 @@
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="117"/>
+      <c r="A37" s="122"/>
       <c r="B37" s="40" t="s">
         <v>155</v>
       </c>
@@ -4720,7 +4946,7 @@
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="117"/>
+      <c r="A38" s="122"/>
       <c r="B38" s="63" t="s">
         <v>170</v>
       </c>
@@ -4732,7 +4958,7 @@
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="117"/>
+      <c r="A39" s="122"/>
       <c r="B39" s="37" t="s">
         <v>156</v>
       </c>
@@ -4744,7 +4970,7 @@
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="117"/>
+      <c r="A40" s="122"/>
       <c r="B40" s="37" t="s">
         <v>157</v>
       </c>
@@ -4756,7 +4982,7 @@
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="117"/>
+      <c r="A41" s="122"/>
       <c r="B41" s="63" t="s">
         <v>172</v>
       </c>
@@ -4768,7 +4994,7 @@
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="117"/>
+      <c r="A42" s="122"/>
       <c r="B42" s="63" t="s">
         <v>171</v>
       </c>
@@ -4780,7 +5006,7 @@
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="118"/>
+      <c r="A43" s="123"/>
       <c r="B43" s="37" t="s">
         <v>158</v>
       </c>
@@ -4800,7 +5026,7 @@
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="116" t="s">
+      <c r="A45" s="121" t="s">
         <v>76</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -4814,7 +5040,7 @@
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="119"/>
+      <c r="A46" s="124"/>
       <c r="B46" s="5" t="s">
         <v>30</v>
       </c>
@@ -4884,7 +5110,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="114" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="37" t="s">
@@ -4898,7 +5124,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="117"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="37" t="s">
         <v>151</v>
       </c>
@@ -4910,7 +5136,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="117"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="37" t="s">
         <v>52</v>
       </c>
@@ -4922,7 +5148,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="117"/>
+      <c r="A5" s="122"/>
       <c r="B5" s="2" t="s">
         <v>51</v>
       </c>
@@ -4934,7 +5160,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="117"/>
+      <c r="A6" s="122"/>
       <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
@@ -4946,7 +5172,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="117"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
@@ -4958,7 +5184,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="117"/>
+      <c r="A8" s="122"/>
       <c r="B8" s="37" t="s">
         <v>55</v>
       </c>
@@ -4970,7 +5196,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="117"/>
+      <c r="A9" s="122"/>
       <c r="B9" s="2" t="s">
         <v>56</v>
       </c>
@@ -4982,7 +5208,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="117"/>
+      <c r="A10" s="122"/>
       <c r="B10" s="2" t="s">
         <v>57</v>
       </c>
@@ -4994,7 +5220,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="117"/>
+      <c r="A11" s="122"/>
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -5006,7 +5232,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="117"/>
+      <c r="A12" s="122"/>
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
@@ -5018,7 +5244,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="117"/>
+      <c r="A13" s="122"/>
       <c r="B13" s="2" t="s">
         <v>60</v>
       </c>
@@ -5030,7 +5256,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="117"/>
+      <c r="A14" s="122"/>
       <c r="B14" s="37" t="s">
         <v>61</v>
       </c>
@@ -5042,7 +5268,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="117"/>
+      <c r="A15" s="122"/>
       <c r="B15" s="37" t="s">
         <v>62</v>
       </c>
@@ -5054,7 +5280,7 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="117"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="40" t="s">
         <v>63</v>
       </c>
@@ -5066,7 +5292,7 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="117"/>
+      <c r="A17" s="122"/>
       <c r="B17" s="37" t="s">
         <v>64</v>
       </c>
@@ -5078,7 +5304,7 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="117"/>
+      <c r="A18" s="122"/>
       <c r="B18" s="40" t="s">
         <v>65</v>
       </c>
@@ -5090,7 +5316,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="117"/>
+      <c r="A19" s="122"/>
       <c r="B19" s="37" t="s">
         <v>67</v>
       </c>
@@ -5102,7 +5328,7 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="117"/>
+      <c r="A20" s="122"/>
       <c r="B20" s="37" t="s">
         <v>68</v>
       </c>
@@ -5114,7 +5340,7 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="117"/>
+      <c r="A21" s="122"/>
       <c r="B21" s="37" t="s">
         <v>69</v>
       </c>
@@ -5126,7 +5352,7 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="117"/>
+      <c r="A22" s="122"/>
       <c r="B22" s="37" t="s">
         <v>70</v>
       </c>
@@ -5138,7 +5364,7 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="117"/>
+      <c r="A23" s="122"/>
       <c r="B23" s="37" t="s">
         <v>71</v>
       </c>
@@ -5150,7 +5376,7 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="118"/>
+      <c r="A24" s="123"/>
       <c r="B24" s="37" t="s">
         <v>72</v>
       </c>
@@ -5170,7 +5396,7 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="116" t="s">
+      <c r="A26" s="121" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -5183,7 +5409,7 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="117"/>
+      <c r="A27" s="122"/>
       <c r="B27" s="2" t="s">
         <v>45</v>
       </c>
@@ -5195,7 +5421,7 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="117"/>
+      <c r="A28" s="122"/>
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -5207,7 +5433,7 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="117"/>
+      <c r="A29" s="122"/>
       <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
@@ -5219,7 +5445,7 @@
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="117"/>
+      <c r="A30" s="122"/>
       <c r="B30" s="2" t="s">
         <v>50</v>
       </c>
@@ -5231,7 +5457,7 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="117"/>
+      <c r="A31" s="122"/>
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
@@ -5243,7 +5469,7 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="117"/>
+      <c r="A32" s="122"/>
       <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
@@ -5255,7 +5481,7 @@
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="117"/>
+      <c r="A33" s="122"/>
       <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
@@ -5267,7 +5493,7 @@
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="117"/>
+      <c r="A34" s="122"/>
       <c r="B34" s="25" t="s">
         <v>40</v>
       </c>
@@ -5279,7 +5505,7 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="117"/>
+      <c r="A35" s="122"/>
       <c r="B35" s="2" t="s">
         <v>41</v>
       </c>
@@ -5291,7 +5517,7 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="117"/>
+      <c r="A36" s="122"/>
       <c r="B36" s="2" t="s">
         <v>42</v>
       </c>
@@ -5303,7 +5529,7 @@
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="117"/>
+      <c r="A37" s="122"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -5323,7 +5549,7 @@
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="120" t="s">
+      <c r="A39" s="125" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="71" t="s">
@@ -5336,7 +5562,7 @@
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="107"/>
+      <c r="A40" s="112"/>
       <c r="B40" s="16" t="s">
         <v>33</v>
       </c>
@@ -5347,7 +5573,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="107"/>
+      <c r="A41" s="112"/>
       <c r="B41" s="16" t="s">
         <v>34</v>
       </c>
@@ -5359,7 +5585,7 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="108"/>
+      <c r="A42" s="113"/>
       <c r="B42" s="16" t="s">
         <v>35</v>
       </c>
@@ -5377,7 +5603,7 @@
       <c r="E43" s="28"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="116" t="s">
+      <c r="A44" s="121" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -5390,7 +5616,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="117"/>
+      <c r="A45" s="122"/>
       <c r="B45" s="2" t="s">
         <v>48</v>
       </c>
@@ -5401,7 +5627,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="119"/>
+      <c r="A46" s="124"/>
       <c r="B46" s="5" t="s">
         <v>49</v>
       </c>
@@ -5470,7 +5696,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="115" t="s">
         <v>79</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -5484,7 +5710,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="110"/>
+      <c r="A3" s="115"/>
       <c r="B3" s="63" t="s">
         <v>190</v>
       </c>
@@ -5496,7 +5722,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="110"/>
+      <c r="A4" s="115"/>
       <c r="B4" s="63" t="s">
         <v>191</v>
       </c>
@@ -5508,7 +5734,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="115"/>
+      <c r="A5" s="120"/>
       <c r="B5" s="63" t="s">
         <v>192</v>
       </c>
@@ -5528,7 +5754,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="122" t="s">
         <v>188</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -5542,7 +5768,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="117"/>
+      <c r="A8" s="122"/>
       <c r="B8" s="2" t="s">
         <v>194</v>
       </c>
@@ -5554,7 +5780,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="117"/>
+      <c r="A9" s="122"/>
       <c r="B9" s="2" t="s">
         <v>197</v>
       </c>
@@ -5566,7 +5792,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="117"/>
+      <c r="A10" s="122"/>
       <c r="B10" s="2" t="s">
         <v>195</v>
       </c>
@@ -5578,7 +5804,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="117"/>
+      <c r="A11" s="122"/>
       <c r="B11" s="2" t="s">
         <v>193</v>
       </c>
@@ -5590,7 +5816,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="117"/>
+      <c r="A12" s="122"/>
       <c r="B12" s="25" t="s">
         <v>196</v>
       </c>
@@ -5610,7 +5836,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="125" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="71" t="s">
@@ -5623,7 +5849,7 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="107"/>
+      <c r="A15" s="112"/>
       <c r="B15" s="16" t="s">
         <v>34</v>
       </c>
@@ -5635,7 +5861,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="121"/>
+      <c r="A16" s="126"/>
       <c r="B16" s="69" t="s">
         <v>35</v>
       </c>
@@ -5702,7 +5928,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="117" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -5715,7 +5941,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="113"/>
+      <c r="A3" s="118"/>
       <c r="B3" s="16" t="s">
         <v>34</v>
       </c>
@@ -5726,7 +5952,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="113"/>
+      <c r="A4" s="118"/>
       <c r="B4" s="16" t="s">
         <v>35</v>
       </c>
@@ -5744,7 +5970,7 @@
       <c r="E5" s="55"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="117" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -5757,7 +5983,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="113"/>
+      <c r="A7" s="118"/>
       <c r="B7" s="51" t="s">
         <v>81</v>
       </c>
@@ -5768,7 +5994,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="113"/>
+      <c r="A8" s="118"/>
       <c r="B8" s="51" t="s">
         <v>222</v>
       </c>
@@ -5779,7 +6005,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="113"/>
+      <c r="A9" s="118"/>
       <c r="B9" s="60" t="s">
         <v>209</v>
       </c>
@@ -5790,7 +6016,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="113"/>
+      <c r="A10" s="118"/>
       <c r="B10" s="60" t="s">
         <v>95</v>
       </c>
@@ -5801,7 +6027,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="113"/>
+      <c r="A11" s="118"/>
       <c r="B11" s="60" t="s">
         <v>96</v>
       </c>
@@ -5812,7 +6038,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="113"/>
+      <c r="A12" s="118"/>
       <c r="B12" s="60" t="s">
         <v>97</v>
       </c>
@@ -5823,7 +6049,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="114"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="53" t="s">
         <v>115</v>
       </c>
@@ -5841,7 +6067,7 @@
       <c r="E14" s="55"/>
     </row>
     <row r="15" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="121" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -5854,7 +6080,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="117"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="16" t="s">
         <v>140</v>
       </c>
@@ -5865,7 +6091,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="117"/>
+      <c r="A17" s="122"/>
       <c r="B17" s="16" t="s">
         <v>139</v>
       </c>
@@ -5876,7 +6102,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="117"/>
+      <c r="A18" s="122"/>
       <c r="B18" s="16" t="s">
         <v>138</v>
       </c>
@@ -5887,7 +6113,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="117"/>
+      <c r="A19" s="122"/>
       <c r="B19" s="16" t="s">
         <v>137</v>
       </c>
@@ -5898,7 +6124,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="117"/>
+      <c r="A20" s="122"/>
       <c r="B20" s="16" t="s">
         <v>136</v>
       </c>
@@ -5909,7 +6135,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="117"/>
+      <c r="A21" s="122"/>
       <c r="B21" s="16" t="s">
         <v>135</v>
       </c>
@@ -5920,7 +6146,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="117"/>
+      <c r="A22" s="122"/>
       <c r="B22" s="16" t="s">
         <v>134</v>
       </c>
@@ -5931,7 +6157,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="117"/>
+      <c r="A23" s="122"/>
       <c r="B23" s="16" t="s">
         <v>141</v>
       </c>
@@ -5942,7 +6168,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="117"/>
+      <c r="A24" s="122"/>
       <c r="B24" s="16" t="s">
         <v>142</v>
       </c>
@@ -5953,7 +6179,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="117"/>
+      <c r="A25" s="122"/>
       <c r="B25" s="16" t="s">
         <v>143</v>
       </c>
@@ -5964,7 +6190,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="117"/>
+      <c r="A26" s="122"/>
       <c r="B26" s="16" t="s">
         <v>144</v>
       </c>
@@ -5975,7 +6201,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="117"/>
+      <c r="A27" s="122"/>
       <c r="B27" s="16" t="s">
         <v>145</v>
       </c>
@@ -5986,7 +6212,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="117"/>
+      <c r="A28" s="122"/>
       <c r="B28" s="16" t="s">
         <v>199</v>
       </c>
@@ -5997,7 +6223,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="117"/>
+      <c r="A29" s="122"/>
       <c r="B29" s="16" t="s">
         <v>200</v>
       </c>
@@ -6008,7 +6234,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="117"/>
+      <c r="A30" s="122"/>
       <c r="B30" s="16" t="s">
         <v>201</v>
       </c>
@@ -6019,7 +6245,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="117"/>
+      <c r="A31" s="122"/>
       <c r="B31" s="16" t="s">
         <v>202</v>
       </c>
@@ -6030,7 +6256,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="117"/>
+      <c r="A32" s="122"/>
       <c r="B32" s="16" t="s">
         <v>147</v>
       </c>
@@ -6041,7 +6267,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="117"/>
+      <c r="A33" s="122"/>
       <c r="B33" s="16" t="s">
         <v>148</v>
       </c>
@@ -6052,7 +6278,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="117"/>
+      <c r="A34" s="122"/>
       <c r="B34" s="16" t="s">
         <v>149</v>
       </c>
@@ -6063,7 +6289,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="117"/>
+      <c r="A35" s="122"/>
       <c r="B35" s="16" t="s">
         <v>146</v>
       </c>
@@ -6074,14 +6300,14 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="117"/>
+      <c r="A36" s="122"/>
       <c r="B36" s="16"/>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
       <c r="E36" s="30"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="117"/>
+      <c r="A37" s="122"/>
       <c r="B37" s="2" t="s">
         <v>124</v>
       </c>
@@ -6092,7 +6318,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="117"/>
+      <c r="A38" s="122"/>
       <c r="B38" s="2" t="s">
         <v>123</v>
       </c>
@@ -6103,7 +6329,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="117"/>
+      <c r="A39" s="122"/>
       <c r="B39" s="2" t="s">
         <v>122</v>
       </c>
@@ -6114,7 +6340,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="117"/>
+      <c r="A40" s="122"/>
       <c r="B40" s="2" t="s">
         <v>121</v>
       </c>
@@ -6125,7 +6351,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="117"/>
+      <c r="A41" s="122"/>
       <c r="B41" s="2" t="s">
         <v>120</v>
       </c>
@@ -6136,7 +6362,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="117"/>
+      <c r="A42" s="122"/>
       <c r="B42" s="2" t="s">
         <v>119</v>
       </c>
@@ -6147,7 +6373,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="117"/>
+      <c r="A43" s="122"/>
       <c r="B43" s="2" t="s">
         <v>118</v>
       </c>
@@ -6158,7 +6384,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="117"/>
+      <c r="A44" s="122"/>
       <c r="B44" s="2" t="s">
         <v>125</v>
       </c>
@@ -6169,7 +6395,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="117"/>
+      <c r="A45" s="122"/>
       <c r="B45" s="2" t="s">
         <v>126</v>
       </c>
@@ -6180,7 +6406,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="117"/>
+      <c r="A46" s="122"/>
       <c r="B46" s="2" t="s">
         <v>127</v>
       </c>
@@ -6191,7 +6417,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="117"/>
+      <c r="A47" s="122"/>
       <c r="B47" s="2" t="s">
         <v>128</v>
       </c>
@@ -6202,7 +6428,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="117"/>
+      <c r="A48" s="122"/>
       <c r="B48" s="2" t="s">
         <v>129</v>
       </c>
@@ -6213,7 +6439,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="117"/>
+      <c r="A49" s="122"/>
       <c r="B49" s="2" t="s">
         <v>203</v>
       </c>
@@ -6224,7 +6450,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="117"/>
+      <c r="A50" s="122"/>
       <c r="B50" s="2" t="s">
         <v>204</v>
       </c>
@@ -6235,7 +6461,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="117"/>
+      <c r="A51" s="122"/>
       <c r="B51" s="2" t="s">
         <v>205</v>
       </c>
@@ -6246,7 +6472,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="117"/>
+      <c r="A52" s="122"/>
       <c r="B52" s="2" t="s">
         <v>206</v>
       </c>
@@ -6257,7 +6483,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="117"/>
+      <c r="A53" s="122"/>
       <c r="B53" s="25" t="s">
         <v>130</v>
       </c>
@@ -6268,7 +6494,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="117"/>
+      <c r="A54" s="122"/>
       <c r="B54" s="2" t="s">
         <v>131</v>
       </c>
@@ -6279,7 +6505,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="117"/>
+      <c r="A55" s="122"/>
       <c r="B55" s="2" t="s">
         <v>132</v>
       </c>
@@ -6290,7 +6516,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="117"/>
+      <c r="A56" s="122"/>
       <c r="B56" s="2" t="s">
         <v>133</v>
       </c>
@@ -6308,7 +6534,7 @@
       <c r="E57" s="55"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="116" t="s">
+      <c r="A58" s="121" t="s">
         <v>79</v>
       </c>
       <c r="B58" s="16" t="s">
@@ -6321,7 +6547,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="117"/>
+      <c r="A59" s="122"/>
       <c r="B59" s="16" t="s">
         <v>93</v>
       </c>
@@ -6332,7 +6558,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="118"/>
+      <c r="A60" s="123"/>
       <c r="B60" s="16" t="s">
         <v>92</v>
       </c>
@@ -6350,7 +6576,7 @@
       <c r="E61" s="54"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="112" t="s">
+      <c r="A62" s="117" t="s">
         <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -6363,7 +6589,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="113"/>
+      <c r="A63" s="118"/>
       <c r="B63" s="2" t="s">
         <v>84</v>
       </c>
@@ -6374,7 +6600,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="113"/>
+      <c r="A64" s="118"/>
       <c r="B64" s="2" t="s">
         <v>87</v>
       </c>
@@ -6385,7 +6611,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="113"/>
+      <c r="A65" s="118"/>
       <c r="B65" s="2" t="s">
         <v>85</v>
       </c>
@@ -6396,7 +6622,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="113"/>
+      <c r="A66" s="118"/>
       <c r="B66" s="2" t="s">
         <v>86</v>
       </c>
@@ -6407,7 +6633,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="113"/>
+      <c r="A67" s="118"/>
       <c r="B67" s="56" t="s">
         <v>88</v>
       </c>
@@ -6418,7 +6644,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="113"/>
+      <c r="A68" s="118"/>
       <c r="B68" s="56" t="s">
         <v>89</v>
       </c>
@@ -6429,7 +6655,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="113"/>
+      <c r="A69" s="118"/>
       <c r="B69" s="56" t="s">
         <v>90</v>
       </c>
@@ -6440,7 +6666,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="113"/>
+      <c r="A70" s="118"/>
       <c r="B70" s="59" t="s">
         <v>91</v>
       </c>
@@ -6451,7 +6677,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="114"/>
+      <c r="A71" s="119"/>
       <c r="B71" s="59" t="s">
         <v>150</v>
       </c>
@@ -6503,10 +6729,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF97C5A-E76A-4F7F-AE1B-EEE4815545E3}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6533,7 +6759,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="127" t="s">
         <v>248</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -6547,7 +6773,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="123"/>
+      <c r="A3" s="128"/>
       <c r="B3" s="2" t="s">
         <v>250</v>
       </c>
@@ -6559,7 +6785,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="123"/>
+      <c r="A4" s="128"/>
       <c r="B4" s="2" t="s">
         <v>251</v>
       </c>
@@ -6571,7 +6797,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="123"/>
+      <c r="A5" s="128"/>
       <c r="B5" s="2" t="s">
         <v>252</v>
       </c>
@@ -6583,7 +6809,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="123"/>
+      <c r="A6" s="128"/>
       <c r="B6" s="2" t="s">
         <v>253</v>
       </c>
@@ -6595,7 +6821,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="123"/>
+      <c r="A7" s="128"/>
       <c r="B7" s="2" t="s">
         <v>256</v>
       </c>
@@ -6607,7 +6833,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="123"/>
+      <c r="A8" s="128"/>
       <c r="B8" s="16" t="s">
         <v>255</v>
       </c>
@@ -6619,7 +6845,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="123"/>
+      <c r="A9" s="128"/>
       <c r="B9" s="2" t="s">
         <v>254</v>
       </c>
@@ -6631,7 +6857,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="123"/>
+      <c r="A10" s="128"/>
       <c r="B10" s="25" t="s">
         <v>257</v>
       </c>
@@ -6651,7 +6877,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="115" t="s">
         <v>242</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -6665,7 +6891,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="110"/>
+      <c r="A13" s="115"/>
       <c r="B13" s="2" t="s">
         <v>219</v>
       </c>
@@ -6677,7 +6903,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="110"/>
+      <c r="A14" s="115"/>
       <c r="B14" s="2" t="s">
         <v>258</v>
       </c>
@@ -6689,7 +6915,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="110"/>
+      <c r="A15" s="115"/>
       <c r="B15" s="16" t="s">
         <v>259</v>
       </c>
@@ -6701,7 +6927,7 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="110"/>
+      <c r="A16" s="115"/>
       <c r="B16" s="2" t="s">
         <v>260</v>
       </c>
@@ -6713,7 +6939,7 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="115"/>
+      <c r="A17" s="120"/>
       <c r="B17" s="25" t="s">
         <v>261</v>
       </c>
@@ -6733,7 +6959,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="122" t="s">
+      <c r="A19" s="127" t="s">
         <v>213</v>
       </c>
       <c r="B19" s="56" t="s">
@@ -6747,7 +6973,7 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="123"/>
+      <c r="A20" s="128"/>
       <c r="B20" s="56" t="s">
         <v>215</v>
       </c>
@@ -6759,7 +6985,7 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="123"/>
+      <c r="A21" s="128"/>
       <c r="B21" s="56" t="s">
         <v>216</v>
       </c>
@@ -6771,7 +6997,7 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="124"/>
+      <c r="A22" s="129"/>
       <c r="B22" s="56" t="s">
         <v>217</v>
       </c>
@@ -6791,7 +7017,7 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="112" t="s">
+      <c r="A24" s="117" t="s">
         <v>94</v>
       </c>
       <c r="B24" s="59" t="s">
@@ -6804,7 +7030,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="113"/>
+      <c r="A25" s="118"/>
       <c r="B25" s="59" t="s">
         <v>246</v>
       </c>
@@ -6815,7 +7041,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="113"/>
+      <c r="A26" s="118"/>
       <c r="B26" s="59" t="s">
         <v>243</v>
       </c>
@@ -6826,7 +7052,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="113"/>
+      <c r="A27" s="118"/>
       <c r="B27" s="59" t="s">
         <v>235</v>
       </c>
@@ -6837,7 +7063,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="113"/>
+      <c r="A28" s="118"/>
       <c r="B28" s="59" t="s">
         <v>236</v>
       </c>
@@ -6848,7 +7074,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="113"/>
+      <c r="A29" s="118"/>
       <c r="B29" s="59" t="s">
         <v>247</v>
       </c>
@@ -6859,29 +7085,29 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="113"/>
-      <c r="B30" s="59" t="s">
-        <v>263</v>
-      </c>
-      <c r="C30" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="3"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="81"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="80"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="81"/>
+      <c r="A31" s="117" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="112" t="s">
-        <v>76</v>
-      </c>
+      <c r="A32" s="118"/>
       <c r="B32" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>12</v>
@@ -6890,9 +7116,9 @@
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="113"/>
+      <c r="A33" s="118"/>
       <c r="B33" s="2" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C33" s="24" t="s">
         <v>12</v>
@@ -6901,31 +7127,31 @@
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="113"/>
+      <c r="A34" s="118"/>
       <c r="B34" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>12</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C34" s="24"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="3"/>
+      <c r="E34" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="113"/>
+      <c r="A35" s="118"/>
       <c r="B35" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C35" s="24"/>
+        <v>226</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="D35" s="2"/>
-      <c r="E35" s="17" t="s">
-        <v>12</v>
-      </c>
+      <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="113"/>
+      <c r="A36" s="118"/>
       <c r="B36" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C36" s="24" t="s">
         <v>12</v>
@@ -6934,9 +7160,9 @@
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="113"/>
+      <c r="A37" s="118"/>
       <c r="B37" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>12</v>
@@ -6945,53 +7171,53 @@
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="113"/>
+      <c r="A38" s="118"/>
       <c r="B38" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>12</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="C38" s="24"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="3"/>
+      <c r="E38" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="113"/>
+      <c r="A39" s="118"/>
       <c r="B39" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C39" s="24"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="113"/>
+      <c r="A40" s="118"/>
       <c r="B40" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C40" s="24"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="30" t="s">
+      <c r="E40" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="113"/>
+      <c r="A41" s="118"/>
       <c r="B41" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C41" s="24"/>
+        <v>232</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="D41" s="2"/>
-      <c r="E41" s="17" t="s">
-        <v>12</v>
-      </c>
+      <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="113"/>
+      <c r="A42" s="118"/>
       <c r="B42" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C42" s="24" t="s">
         <v>12</v>
@@ -7000,9 +7226,9 @@
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="113"/>
+      <c r="A43" s="119"/>
       <c r="B43" s="2" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>12</v>
@@ -7010,38 +7236,27 @@
       <c r="D43" s="2"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="114"/>
-      <c r="B44" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="4"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="6"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A32:A44"/>
+    <mergeCell ref="A31:A43"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A24:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7050,10 +7265,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A365AE-7930-4274-837C-B5D83DFDF1FE}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C23" sqref="C23:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7080,7 +7295,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="121" t="s">
         <v>94</v>
       </c>
       <c r="B2" s="59" t="s">
@@ -7095,7 +7310,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="117"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="59" t="s">
         <v>263</v>
       </c>
@@ -7108,7 +7323,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="117"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="59" t="s">
         <v>238</v>
       </c>
@@ -7121,7 +7336,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="118"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="59" t="s">
         <v>244</v>
       </c>
@@ -7141,7 +7356,7 @@
       <c r="E6" s="94"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="131" t="s">
         <v>262</v>
       </c>
       <c r="B7" s="85" t="s">
@@ -7205,7 +7420,7 @@
       <c r="E12" s="92"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="117" t="s">
         <v>220</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -7218,7 +7433,7 @@
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="113"/>
+      <c r="A14" s="118"/>
       <c r="B14" s="2" t="s">
         <v>240</v>
       </c>
@@ -7229,7 +7444,7 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="114"/>
+      <c r="A15" s="119"/>
       <c r="B15" s="2" t="s">
         <v>241</v>
       </c>
@@ -7247,7 +7462,7 @@
       <c r="E16" s="92"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="125" t="s">
+      <c r="A17" s="130" t="s">
         <v>264</v>
       </c>
       <c r="B17" s="56" t="s">
@@ -7260,7 +7475,7 @@
       <c r="E17" s="89"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="107"/>
+      <c r="A18" s="112"/>
       <c r="B18" s="56" t="s">
         <v>266</v>
       </c>
@@ -7271,7 +7486,7 @@
       <c r="E18" s="89"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="108"/>
+      <c r="A19" s="113"/>
       <c r="B19" s="85" t="s">
         <v>267</v>
       </c>
@@ -7289,7 +7504,7 @@
       <c r="E20" s="90"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="120" t="s">
+      <c r="A21" s="125" t="s">
         <v>188</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -7302,9 +7517,9 @@
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="108"/>
-      <c r="B22" s="16" t="s">
-        <v>275</v>
+      <c r="A22" s="112"/>
+      <c r="B22" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="C22" s="24" t="s">
         <v>12</v>
@@ -7313,18 +7528,20 @@
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="128"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="131"/>
+      <c r="A23" s="112"/>
+      <c r="B23" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="37"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="120" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>269</v>
+      <c r="A24" s="113"/>
+      <c r="B24" s="16" t="s">
+        <v>283</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>12</v>
@@ -7333,22 +7550,97 @@
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="108"/>
-      <c r="B25" s="56" t="s">
+      <c r="A25" s="106"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="109"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="125" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="37"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="112"/>
+      <c r="B27" s="56" t="s">
+        <v>278</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="40"/>
+      <c r="E27" s="105"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="112"/>
+      <c r="B28" s="56" t="s">
+        <v>279</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="40"/>
+      <c r="E28" s="105"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="112"/>
+      <c r="B29" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="40"/>
+      <c r="E29" s="105"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="112"/>
+      <c r="B30" s="56" t="s">
+        <v>277</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="40"/>
+      <c r="E30" s="105"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="112"/>
+      <c r="B31" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="40"/>
+      <c r="E31" s="105"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="113"/>
+      <c r="B32" s="56" t="s">
         <v>268</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="127"/>
-    </row>
-    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
+      <c r="C32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="40"/>
+      <c r="E32" s="105"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7356,8 +7648,8 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="A21:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7366,124 +7658,150 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8D2795-3703-4799-82AD-D959B47FB411}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="97" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="112" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="46" t="s">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="121" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="113"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="83"/>
+      <c r="A3" s="122"/>
+      <c r="B3" s="59" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="114"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="99"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="102"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="104"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="116"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="17"/>
+      <c r="A6" s="131" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="85" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="89"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="117"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="17"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="85" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="89"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="117"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="17"/>
+      <c r="A8" s="133"/>
+      <c r="B8" s="85" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="89"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="118"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="17"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="103"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="105"/>
+      <c r="A10" s="134" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" s="85"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="89"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="95"/>
+      <c r="A11" s="134"/>
       <c r="B11" s="85"/>
       <c r="C11" s="57"/>
       <c r="D11" s="85"/>
       <c r="E11" s="89"/>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="134"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="89"/>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="110" t="s">
+        <v>290</v>
+      </c>
+      <c r="B13" s="85"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="89"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A6:A9"/>
     <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Scrum/Sprint_backlog.xlsx
+++ b/Documents/Scrum/Sprint_backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCD2F54-1FFE-43C2-B530-F94C800C25A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9912FB6-ADBB-4FD8-A96B-C031F53FE404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="5" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="7" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint_0." sheetId="4" r:id="rId1"/>
@@ -3770,7 +3770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3981,7 +3981,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3992,7 +3991,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4000,7 +3998,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4026,104 +4023,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4145,8 +4054,110 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4482,13 +4493,13 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="2" max="2" width="80.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="80.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -4505,8 +4516,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="120" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -4519,8 +4530,8 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="111"/>
+    <row r="3" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="121"/>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
@@ -4531,8 +4542,8 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="111"/>
+    <row r="4" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="121"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
@@ -4543,8 +4554,8 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="111"/>
+    <row r="5" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="121"/>
       <c r="B5" s="2" t="s">
         <v>261</v>
       </c>
@@ -4555,8 +4566,8 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="111"/>
+    <row r="6" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="121"/>
       <c r="B6" s="2" t="s">
         <v>262</v>
       </c>
@@ -4567,8 +4578,8 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="111"/>
+    <row r="7" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="121"/>
       <c r="B7" s="2" t="s">
         <v>259</v>
       </c>
@@ -4579,8 +4590,8 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="111"/>
+    <row r="8" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="121"/>
       <c r="B8" s="2" t="s">
         <v>258</v>
       </c>
@@ -4591,8 +4602,8 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="112"/>
+    <row r="9" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="122"/>
       <c r="B9" s="2" t="s">
         <v>260</v>
       </c>
@@ -4601,7 +4612,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="63"/>
       <c r="B10" s="64"/>
       <c r="C10" s="63"/>
@@ -4609,8 +4620,8 @@
       <c r="E10" s="63"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="108" t="s">
+    <row r="11" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="118" t="s">
         <v>263</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -4623,8 +4634,8 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="108"/>
+    <row r="12" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="118"/>
       <c r="B12" s="2" t="s">
         <v>266</v>
       </c>
@@ -4635,8 +4646,8 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="108"/>
+    <row r="13" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="118"/>
       <c r="B13" s="15" t="s">
         <v>265</v>
       </c>
@@ -4647,8 +4658,8 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="108"/>
+    <row r="14" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="118"/>
       <c r="B14" s="15" t="s">
         <v>267</v>
       </c>
@@ -4659,8 +4670,8 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="108"/>
+    <row r="15" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="118"/>
       <c r="B15" s="15" t="s">
         <v>268</v>
       </c>
@@ -4671,8 +4682,8 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="108"/>
+    <row r="16" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="118"/>
       <c r="B16" s="15" t="s">
         <v>269</v>
       </c>
@@ -4683,8 +4694,8 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="108"/>
+    <row r="17" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="118"/>
       <c r="B17" s="15" t="s">
         <v>270</v>
       </c>
@@ -4695,8 +4706,8 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="108"/>
+    <row r="18" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="118"/>
       <c r="B18" s="15" t="s">
         <v>271</v>
       </c>
@@ -4707,8 +4718,8 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="108"/>
+    <row r="19" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="118"/>
       <c r="B19" s="15" t="s">
         <v>272</v>
       </c>
@@ -4719,8 +4730,8 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="108"/>
+    <row r="20" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="118"/>
       <c r="B20" s="15" t="s">
         <v>273</v>
       </c>
@@ -4731,16 +4742,16 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="63"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="102"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="99"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="107" t="s">
+    <row r="22" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="117" t="s">
         <v>274</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -4753,8 +4764,8 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="108"/>
+    <row r="23" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="118"/>
       <c r="B23" s="15" t="s">
         <v>276</v>
       </c>
@@ -4765,8 +4776,8 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="108"/>
+    <row r="24" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="118"/>
       <c r="B24" s="15" t="s">
         <v>277</v>
       </c>
@@ -4777,8 +4788,8 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="108"/>
+    <row r="25" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="118"/>
       <c r="B25" s="15" t="s">
         <v>278</v>
       </c>
@@ -4789,8 +4800,8 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="108"/>
+    <row r="26" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="118"/>
       <c r="B26" s="15" t="s">
         <v>279</v>
       </c>
@@ -4801,8 +4812,8 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="113"/>
+    <row r="27" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="123"/>
       <c r="B27" s="15" t="s">
         <v>280</v>
       </c>
@@ -4813,16 +4824,16 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="63"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="102"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="99"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="107" t="s">
+    <row r="29" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="117" t="s">
         <v>253</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -4834,8 +4845,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="108"/>
+    <row r="30" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="118"/>
       <c r="B30" s="2" t="s">
         <v>255</v>
       </c>
@@ -4845,8 +4856,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="108"/>
+    <row r="31" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="118"/>
       <c r="B31" s="2" t="s">
         <v>256</v>
       </c>
@@ -4857,8 +4868,8 @@
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="108"/>
+    <row r="32" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="118"/>
       <c r="B32" s="2" t="s">
         <v>257</v>
       </c>
@@ -4869,8 +4880,8 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="108"/>
+    <row r="33" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="118"/>
       <c r="B33" s="2" t="s">
         <v>13</v>
       </c>
@@ -4880,8 +4891,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="108"/>
+    <row r="34" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="118"/>
       <c r="B34" s="2" t="s">
         <v>14</v>
       </c>
@@ -4891,8 +4902,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="108"/>
+    <row r="35" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="118"/>
       <c r="B35" s="2" t="s">
         <v>15</v>
       </c>
@@ -4902,8 +4913,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="108"/>
+    <row r="36" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="118"/>
       <c r="B36" s="54" t="s">
         <v>159</v>
       </c>
@@ -4913,8 +4924,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="108"/>
+    <row r="37" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="118"/>
       <c r="B37" s="54" t="s">
         <v>160</v>
       </c>
@@ -4924,8 +4935,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="109"/>
+    <row r="38" spans="1:5" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="119"/>
       <c r="B38" s="4" t="s">
         <v>295</v>
       </c>
@@ -4955,31 +4966,31 @@
       <selection activeCell="A10" sqref="A10:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="141" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="142" t="s">
+      <c r="C1" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="142" t="s">
+      <c r="D1" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="143" t="s">
+      <c r="E1" s="110" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="124" t="s">
         <v>99</v>
       </c>
       <c r="B2" s="2"/>
@@ -4989,8 +5000,8 @@
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="115"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="125"/>
       <c r="B3" s="36"/>
       <c r="C3" s="45" t="s">
         <v>9</v>
@@ -4998,8 +5009,8 @@
       <c r="D3" s="36"/>
       <c r="E3" s="78"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="116"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="126"/>
       <c r="B4" s="2"/>
       <c r="C4" s="45" t="s">
         <v>9</v>
@@ -5007,15 +5018,15 @@
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="144"/>
-      <c r="B5" s="145"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="147"/>
-    </row>
-    <row r="6" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="107" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="111"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="114"/>
+    </row>
+    <row r="6" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="117" t="s">
         <v>337</v>
       </c>
       <c r="B6" s="15"/>
@@ -5023,84 +5034,84 @@
       <c r="D6" s="2"/>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="117"/>
+    <row r="7" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="127"/>
       <c r="B7" s="57"/>
       <c r="C7" s="45"/>
       <c r="D7" s="2"/>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="123"/>
+    <row r="8" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="133"/>
       <c r="B8" s="57"/>
       <c r="C8" s="23"/>
       <c r="D8" s="79"/>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="144"/>
-      <c r="B9" s="145"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="147"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="130"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="111"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="114"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="143"/>
       <c r="B10" s="79"/>
       <c r="C10" s="55"/>
       <c r="D10" s="79"/>
       <c r="E10" s="83"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="131"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="144"/>
       <c r="B11" s="79"/>
       <c r="C11" s="55"/>
       <c r="D11" s="79"/>
       <c r="E11" s="83"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="132"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="146"/>
       <c r="B12" s="79"/>
       <c r="C12" s="55"/>
       <c r="D12" s="79"/>
       <c r="E12" s="83"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="144"/>
-      <c r="B13" s="145"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="147"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="99"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="111"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="114"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="96"/>
       <c r="B14" s="79"/>
       <c r="C14" s="55"/>
       <c r="D14" s="79"/>
       <c r="E14" s="83"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="148"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="115"/>
       <c r="B15" s="79"/>
       <c r="C15" s="55"/>
       <c r="D15" s="79"/>
       <c r="E15" s="83"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="144"/>
-      <c r="B16" s="145"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="147"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="98"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="111"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="114"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="95"/>
       <c r="B17" s="79"/>
       <c r="C17" s="55"/>
       <c r="D17" s="79"/>
       <c r="E17" s="83"/>
     </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -5125,7 +5136,7 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5140,14 +5151,14 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5164,8 +5175,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
+    <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="124" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -5178,8 +5189,8 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="115"/>
+    <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="125"/>
       <c r="B3" s="15" t="s">
         <v>163</v>
       </c>
@@ -5190,8 +5201,8 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="115"/>
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="125"/>
       <c r="B4" s="15" t="s">
         <v>282</v>
       </c>
@@ -5202,8 +5213,8 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="115"/>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="125"/>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -5213,8 +5224,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="115"/>
+    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="125"/>
       <c r="B6" s="15" t="s">
         <v>162</v>
       </c>
@@ -5225,8 +5236,8 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="115"/>
+    <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="125"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -5236,8 +5247,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="115"/>
+    <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="125"/>
       <c r="B8" s="15" t="s">
         <v>157</v>
       </c>
@@ -5247,8 +5258,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="115"/>
+    <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="125"/>
       <c r="B9" s="15" t="s">
         <v>283</v>
       </c>
@@ -5258,8 +5269,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="115"/>
+    <row r="10" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="125"/>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -5269,8 +5280,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="115"/>
+    <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="125"/>
       <c r="B11" s="15" t="s">
         <v>156</v>
       </c>
@@ -5280,8 +5291,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="115"/>
+    <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="125"/>
       <c r="B12" s="15" t="s">
         <v>155</v>
       </c>
@@ -5291,8 +5302,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="116"/>
+    <row r="13" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="126"/>
       <c r="B13" s="15" t="s">
         <v>161</v>
       </c>
@@ -5302,15 +5313,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="70"/>
       <c r="B14" s="71"/>
       <c r="C14" s="71"/>
       <c r="D14" s="71"/>
       <c r="E14" s="72"/>
     </row>
-    <row r="15" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="119" t="s">
+    <row r="15" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="129" t="s">
         <v>284</v>
       </c>
       <c r="B15" s="36" t="s">
@@ -5322,8 +5333,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="120"/>
+    <row r="16" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="130"/>
       <c r="B16" s="36" t="s">
         <v>290</v>
       </c>
@@ -5333,8 +5344,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="120"/>
+    <row r="17" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="130"/>
       <c r="B17" s="36" t="s">
         <v>291</v>
       </c>
@@ -5344,8 +5355,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="120"/>
+    <row r="18" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="130"/>
       <c r="B18" s="36" t="s">
         <v>292</v>
       </c>
@@ -5355,8 +5366,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="121"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="131"/>
       <c r="B19" s="15" t="s">
         <v>294</v>
       </c>
@@ -5366,15 +5377,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="70"/>
       <c r="B20" s="71"/>
       <c r="C20" s="71"/>
       <c r="D20" s="71"/>
       <c r="E20" s="72"/>
     </row>
-    <row r="21" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="107" t="s">
+    <row r="21" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="117" t="s">
         <v>296</v>
       </c>
       <c r="B21" s="68" t="s">
@@ -5386,8 +5397,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="108"/>
+    <row r="22" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="118"/>
       <c r="B22" s="68" t="s">
         <v>287</v>
       </c>
@@ -5397,8 +5408,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="117"/>
+    <row r="23" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="127"/>
       <c r="B23" s="68" t="s">
         <v>288</v>
       </c>
@@ -5408,8 +5419,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="117"/>
+    <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="127"/>
       <c r="B24" s="68" t="s">
         <v>289</v>
       </c>
@@ -5419,25 +5430,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="117"/>
+    <row r="25" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="127"/>
       <c r="B25" s="68" t="s">
         <v>285</v>
       </c>
       <c r="C25" s="68"/>
-      <c r="D25" s="103"/>
+      <c r="D25" s="100"/>
       <c r="E25" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="118"/>
+    <row r="26" spans="1:5" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="128"/>
       <c r="B26" s="73" t="s">
         <v>286</v>
       </c>
       <c r="C26" s="73"/>
       <c r="D26" s="73"/>
-      <c r="E26" s="104" t="s">
+      <c r="E26" s="101" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5461,14 +5472,14 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5485,8 +5496,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107" t="s">
+    <row r="2" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="117" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="60" t="s">
@@ -5499,8 +5510,8 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="108"/>
+    <row r="3" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="118"/>
       <c r="B3" s="60" t="s">
         <v>80</v>
       </c>
@@ -5511,8 +5522,8 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="108"/>
+    <row r="4" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="118"/>
       <c r="B4" s="60" t="s">
         <v>94</v>
       </c>
@@ -5523,8 +5534,8 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="108"/>
+    <row r="5" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="118"/>
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
@@ -5535,8 +5546,8 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="108"/>
+    <row r="6" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="118"/>
       <c r="B6" s="60" t="s">
         <v>95</v>
       </c>
@@ -5547,8 +5558,8 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="108"/>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="118"/>
       <c r="B7" s="60" t="s">
         <v>83</v>
       </c>
@@ -5559,8 +5570,8 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="108"/>
+    <row r="8" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="118"/>
       <c r="B8" s="60" t="s">
         <v>164</v>
       </c>
@@ -5571,8 +5582,8 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="108"/>
+    <row r="9" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="118"/>
       <c r="B9" s="60" t="s">
         <v>82</v>
       </c>
@@ -5583,8 +5594,8 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="108"/>
+    <row r="10" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="118"/>
       <c r="B10" s="60" t="s">
         <v>84</v>
       </c>
@@ -5595,8 +5606,8 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="108"/>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="118"/>
       <c r="B11" s="60" t="s">
         <v>165</v>
       </c>
@@ -5607,8 +5618,8 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="108"/>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="118"/>
       <c r="B12" s="60" t="s">
         <v>166</v>
       </c>
@@ -5619,8 +5630,8 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="108"/>
+    <row r="13" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="118"/>
       <c r="B13" s="60" t="s">
         <v>85</v>
       </c>
@@ -5631,8 +5642,8 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="108"/>
+    <row r="14" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="118"/>
       <c r="B14" s="60" t="s">
         <v>167</v>
       </c>
@@ -5643,8 +5654,8 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="108"/>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="118"/>
       <c r="B15" s="60" t="s">
         <v>87</v>
       </c>
@@ -5655,8 +5666,8 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="108"/>
+    <row r="16" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="118"/>
       <c r="B16" s="60" t="s">
         <v>88</v>
       </c>
@@ -5667,8 +5678,8 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="108"/>
+    <row r="17" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="118"/>
       <c r="B17" s="60" t="s">
         <v>91</v>
       </c>
@@ -5679,8 +5690,8 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="108"/>
+    <row r="18" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="118"/>
       <c r="B18" s="60" t="s">
         <v>90</v>
       </c>
@@ -5691,8 +5702,8 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="108"/>
+    <row r="19" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="118"/>
       <c r="B19" s="60" t="s">
         <v>89</v>
       </c>
@@ -5703,8 +5714,8 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="108"/>
+    <row r="20" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="118"/>
       <c r="B20" s="60" t="s">
         <v>92</v>
       </c>
@@ -5715,8 +5726,8 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="113"/>
+    <row r="21" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="123"/>
       <c r="B21" s="60" t="s">
         <v>93</v>
       </c>
@@ -5727,7 +5738,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
       <c r="B22" s="31"/>
       <c r="C22" s="32"/>
@@ -5735,8 +5746,8 @@
       <c r="E22" s="34"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="122" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="132" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="36" t="s">
@@ -5749,8 +5760,8 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="117"/>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="127"/>
       <c r="B24" s="15" t="s">
         <v>144</v>
       </c>
@@ -5761,8 +5772,8 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="117"/>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="127"/>
       <c r="B25" s="15" t="s">
         <v>143</v>
       </c>
@@ -5773,8 +5784,8 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="117"/>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="127"/>
       <c r="B26" s="15" t="s">
         <v>142</v>
       </c>
@@ -5785,8 +5796,8 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="117"/>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="127"/>
       <c r="B27" s="61" t="s">
         <v>141</v>
       </c>
@@ -5797,8 +5808,8 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="117"/>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="127"/>
       <c r="B28" s="15" t="s">
         <v>154</v>
       </c>
@@ -5809,8 +5820,8 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="117"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="127"/>
       <c r="B29" s="15" t="s">
         <v>145</v>
       </c>
@@ -5821,8 +5832,8 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="117"/>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="127"/>
       <c r="B30" s="15" t="s">
         <v>146</v>
       </c>
@@ -5833,8 +5844,8 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="117"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="127"/>
       <c r="B31" s="2" t="s">
         <v>134</v>
       </c>
@@ -5845,8 +5856,8 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="117"/>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="127"/>
       <c r="B32" s="15" t="s">
         <v>147</v>
       </c>
@@ -5857,8 +5868,8 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="117"/>
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="127"/>
       <c r="B33" s="61" t="s">
         <v>148</v>
       </c>
@@ -5869,8 +5880,8 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="117"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="127"/>
       <c r="B34" s="36" t="s">
         <v>135</v>
       </c>
@@ -5881,8 +5892,8 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="117"/>
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="127"/>
       <c r="B35" s="62" t="s">
         <v>149</v>
       </c>
@@ -5893,8 +5904,8 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="117"/>
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="127"/>
       <c r="B36" s="61" t="s">
         <v>150</v>
       </c>
@@ -5905,8 +5916,8 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="117"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="127"/>
       <c r="B37" s="39" t="s">
         <v>136</v>
       </c>
@@ -5917,8 +5928,8 @@
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="117"/>
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="127"/>
       <c r="B38" s="61" t="s">
         <v>151</v>
       </c>
@@ -5929,8 +5940,8 @@
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="117"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="127"/>
       <c r="B39" s="36" t="s">
         <v>137</v>
       </c>
@@ -5941,8 +5952,8 @@
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="117"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="127"/>
       <c r="B40" s="36" t="s">
         <v>138</v>
       </c>
@@ -5953,8 +5964,8 @@
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="117"/>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="127"/>
       <c r="B41" s="61" t="s">
         <v>153</v>
       </c>
@@ -5965,8 +5976,8 @@
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="117"/>
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="127"/>
       <c r="B42" s="61" t="s">
         <v>152</v>
       </c>
@@ -5977,8 +5988,8 @@
       </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="123"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="133"/>
       <c r="B43" s="36" t="s">
         <v>139</v>
       </c>
@@ -5989,7 +6000,7 @@
       </c>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
       <c r="B44" s="35"/>
       <c r="C44" s="32"/>
@@ -5997,8 +6008,8 @@
       <c r="E44" s="34"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="107" t="s">
+    <row r="45" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="117" t="s">
         <v>297</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -6011,8 +6022,8 @@
       </c>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="118"/>
+    <row r="46" spans="1:6" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="128"/>
       <c r="B46" s="4" t="s">
         <v>18</v>
       </c>
@@ -6023,14 +6034,14 @@
       </c>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -6057,14 +6068,14 @@
       <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6081,8 +6092,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="107" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="117" t="s">
         <v>299</v>
       </c>
       <c r="B2" s="36" t="s">
@@ -6095,8 +6106,8 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="117"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="127"/>
       <c r="B3" s="36" t="s">
         <v>132</v>
       </c>
@@ -6107,8 +6118,8 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="117"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="127"/>
       <c r="B4" s="36" t="s">
         <v>38</v>
       </c>
@@ -6119,8 +6130,8 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="117"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="127"/>
       <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
@@ -6131,8 +6142,8 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="117"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="127"/>
       <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
@@ -6143,8 +6154,8 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="117"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="127"/>
       <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
@@ -6155,8 +6166,8 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="117"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="127"/>
       <c r="B8" s="36" t="s">
         <v>41</v>
       </c>
@@ -6167,8 +6178,8 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="117"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="127"/>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
@@ -6179,8 +6190,8 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="117"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="127"/>
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
@@ -6191,8 +6202,8 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="117"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="127"/>
       <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
@@ -6203,8 +6214,8 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="117"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="127"/>
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
@@ -6215,8 +6226,8 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="117"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="127"/>
       <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
@@ -6227,8 +6238,8 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="117"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="127"/>
       <c r="B14" s="36" t="s">
         <v>47</v>
       </c>
@@ -6239,8 +6250,8 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="117"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="127"/>
       <c r="B15" s="36" t="s">
         <v>48</v>
       </c>
@@ -6251,8 +6262,8 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="117"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="127"/>
       <c r="B16" s="39" t="s">
         <v>49</v>
       </c>
@@ -6263,8 +6274,8 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="117"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="127"/>
       <c r="B17" s="36" t="s">
         <v>50</v>
       </c>
@@ -6275,8 +6286,8 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="117"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="127"/>
       <c r="B18" s="39" t="s">
         <v>51</v>
       </c>
@@ -6287,8 +6298,8 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="117"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="127"/>
       <c r="B19" s="36" t="s">
         <v>53</v>
       </c>
@@ -6299,8 +6310,8 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="117"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="127"/>
       <c r="B20" s="36" t="s">
         <v>54</v>
       </c>
@@ -6311,8 +6322,8 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="117"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="127"/>
       <c r="B21" s="36" t="s">
         <v>55</v>
       </c>
@@ -6323,8 +6334,8 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="117"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="127"/>
       <c r="B22" s="36" t="s">
         <v>56</v>
       </c>
@@ -6335,8 +6346,8 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="117"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="127"/>
       <c r="B23" s="36" t="s">
         <v>57</v>
       </c>
@@ -6347,8 +6358,8 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="123"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="133"/>
       <c r="B24" s="36" t="s">
         <v>58</v>
       </c>
@@ -6359,7 +6370,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="47"/>
       <c r="B25" s="25"/>
       <c r="C25" s="26"/>
@@ -6367,8 +6378,8 @@
       <c r="E25" s="27"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="107" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="117" t="s">
         <v>298</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -6380,8 +6391,8 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="117"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="127"/>
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
@@ -6392,8 +6403,8 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="117"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="127"/>
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
@@ -6404,8 +6415,8 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="117"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="127"/>
       <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
@@ -6416,8 +6427,8 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="117"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="127"/>
       <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
@@ -6428,8 +6439,8 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="117"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="127"/>
       <c r="B31" s="2" t="s">
         <v>23</v>
       </c>
@@ -6440,8 +6451,8 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="117"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="127"/>
       <c r="B32" s="2" t="s">
         <v>24</v>
       </c>
@@ -6452,8 +6463,8 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="117"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="127"/>
       <c r="B33" s="2" t="s">
         <v>25</v>
       </c>
@@ -6464,8 +6475,8 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="117"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="127"/>
       <c r="B34" s="24" t="s">
         <v>26</v>
       </c>
@@ -6476,8 +6487,8 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="117"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="127"/>
       <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
@@ -6488,8 +6499,8 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="117"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="127"/>
       <c r="B36" s="2" t="s">
         <v>28</v>
       </c>
@@ -6500,8 +6511,8 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="123"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="133"/>
       <c r="B37" s="2" t="s">
         <v>59</v>
       </c>
@@ -6512,16 +6523,16 @@
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="105"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="102"/>
       <c r="B38" s="25"/>
       <c r="C38" s="26"/>
       <c r="D38" s="25"/>
       <c r="E38" s="27"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="127" t="s">
+    <row r="39" spans="1:8" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="137" t="s">
         <v>302</v>
       </c>
       <c r="B39" s="15" t="s">
@@ -6534,31 +6545,31 @@
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="128"/>
+    <row r="40" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="138"/>
       <c r="B40" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="C40" s="106"/>
+      <c r="C40" s="103"/>
       <c r="D40" s="39"/>
       <c r="E40" s="85" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="128"/>
+    <row r="41" spans="1:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="138"/>
       <c r="B41" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="C41" s="106"/>
+      <c r="C41" s="103"/>
       <c r="D41" s="39"/>
       <c r="E41" s="85" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="48"/>
       <c r="B42" s="25"/>
       <c r="C42" s="26"/>
@@ -6566,8 +6577,8 @@
       <c r="E42" s="27"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="124" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="134" t="s">
         <v>300</v>
       </c>
       <c r="B43" s="68" t="s">
@@ -6579,8 +6590,8 @@
       <c r="D43" s="2"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="125"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="135"/>
       <c r="B44" s="15" t="s">
         <v>20</v>
       </c>
@@ -6590,8 +6601,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="125"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="135"/>
       <c r="B45" s="15" t="s">
         <v>21</v>
       </c>
@@ -6602,8 +6613,8 @@
       <c r="E45" s="3"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="126"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="136"/>
       <c r="B46" s="15" t="s">
         <v>22</v>
       </c>
@@ -6613,15 +6624,15 @@
       <c r="D46" s="2"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="46"/>
       <c r="B47" s="28"/>
       <c r="C47" s="26"/>
       <c r="D47" s="25"/>
       <c r="E47" s="27"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="107" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="117" t="s">
         <v>301</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -6633,8 +6644,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="117"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="127"/>
       <c r="B49" s="2" t="s">
         <v>34</v>
       </c>
@@ -6644,8 +6655,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="118"/>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="128"/>
       <c r="B50" s="4" t="s">
         <v>35</v>
       </c>
@@ -6655,14 +6666,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -6690,14 +6701,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6714,8 +6725,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="108" t="s">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="118" t="s">
         <v>308</v>
       </c>
       <c r="B2" s="61" t="s">
@@ -6728,8 +6739,8 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="108"/>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="118"/>
       <c r="B3" s="61" t="s">
         <v>310</v>
       </c>
@@ -6740,8 +6751,8 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="108"/>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="118"/>
       <c r="B4" s="61" t="s">
         <v>311</v>
       </c>
@@ -6752,8 +6763,8 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="113"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="123"/>
       <c r="B5" s="61" t="s">
         <v>312</v>
       </c>
@@ -6764,7 +6775,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="25"/>
       <c r="C6" s="26"/>
@@ -6772,8 +6783,8 @@
       <c r="E6" s="27"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="108" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="118" t="s">
         <v>334</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -6786,8 +6797,8 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="117"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="127"/>
       <c r="B8" s="2" t="s">
         <v>169</v>
       </c>
@@ -6798,8 +6809,8 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="117"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="127"/>
       <c r="B9" s="2" t="s">
         <v>172</v>
       </c>
@@ -6810,8 +6821,8 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="117"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="127"/>
       <c r="B10" s="2" t="s">
         <v>170</v>
       </c>
@@ -6822,8 +6833,8 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="117"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="127"/>
       <c r="B11" s="2" t="s">
         <v>168</v>
       </c>
@@ -6834,8 +6845,8 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="117"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="127"/>
       <c r="B12" s="24" t="s">
         <v>171</v>
       </c>
@@ -6846,7 +6857,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
       <c r="B13" s="25"/>
       <c r="C13" s="26"/>
@@ -6854,8 +6865,8 @@
       <c r="E13" s="27"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="133" t="s">
+    <row r="14" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="104" t="s">
         <v>306</v>
       </c>
       <c r="B14" s="73" t="s">
@@ -6867,14 +6878,14 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -6895,17 +6906,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77982FF-C4D2-41E8-A83F-1D743BC8CBAF}">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -6922,8 +6933,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="100" t="s">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="97" t="s">
         <v>315</v>
       </c>
       <c r="B2" s="60" t="s">
@@ -6935,15 +6946,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="69"/>
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
       <c r="E3" s="53"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="114" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="124" t="s">
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -6955,8 +6966,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="115"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="125"/>
       <c r="B5" s="49" t="s">
         <v>64</v>
       </c>
@@ -6966,8 +6977,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="115"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="125"/>
       <c r="B6" s="49" t="s">
         <v>193</v>
       </c>
@@ -6977,8 +6988,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="115"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="125"/>
       <c r="B7" s="58" t="s">
         <v>183</v>
       </c>
@@ -6988,8 +6999,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="115"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="125"/>
       <c r="B8" s="58" t="s">
         <v>77</v>
       </c>
@@ -6999,8 +7010,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="115"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="125"/>
       <c r="B9" s="58" t="s">
         <v>78</v>
       </c>
@@ -7010,8 +7021,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="115"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="125"/>
       <c r="B10" s="58" t="s">
         <v>79</v>
       </c>
@@ -7021,8 +7032,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="116"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="126"/>
       <c r="B11" s="51" t="s">
         <v>97</v>
       </c>
@@ -7032,15 +7043,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="52"/>
       <c r="B12" s="52"/>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
       <c r="E12" s="53"/>
     </row>
-    <row r="13" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="122" t="s">
+    <row r="13" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="132" t="s">
         <v>314</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -7052,8 +7063,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="117"/>
+    <row r="14" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="127"/>
       <c r="B14" s="15" t="s">
         <v>122</v>
       </c>
@@ -7063,8 +7074,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="117"/>
+    <row r="15" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="127"/>
       <c r="B15" s="15" t="s">
         <v>121</v>
       </c>
@@ -7074,8 +7085,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="117"/>
+    <row r="16" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="127"/>
       <c r="B16" s="15" t="s">
         <v>120</v>
       </c>
@@ -7085,8 +7096,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="117"/>
+    <row r="17" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="127"/>
       <c r="B17" s="15" t="s">
         <v>119</v>
       </c>
@@ -7096,8 +7107,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="117"/>
+    <row r="18" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="127"/>
       <c r="B18" s="15" t="s">
         <v>118</v>
       </c>
@@ -7107,8 +7118,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="117"/>
+    <row r="19" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="127"/>
       <c r="B19" s="15" t="s">
         <v>117</v>
       </c>
@@ -7118,8 +7129,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="117"/>
+    <row r="20" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="127"/>
       <c r="B20" s="15" t="s">
         <v>116</v>
       </c>
@@ -7129,8 +7140,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="117"/>
+    <row r="21" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="127"/>
       <c r="B21" s="15" t="s">
         <v>123</v>
       </c>
@@ -7140,8 +7151,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="117"/>
+    <row r="22" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="127"/>
       <c r="B22" s="15" t="s">
         <v>124</v>
       </c>
@@ -7151,8 +7162,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="117"/>
+    <row r="23" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="127"/>
       <c r="B23" s="15" t="s">
         <v>125</v>
       </c>
@@ -7162,8 +7173,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="117"/>
+    <row r="24" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="127"/>
       <c r="B24" s="15" t="s">
         <v>126</v>
       </c>
@@ -7173,8 +7184,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="117"/>
+    <row r="25" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="127"/>
       <c r="B25" s="15" t="s">
         <v>127</v>
       </c>
@@ -7184,8 +7195,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="117"/>
+    <row r="26" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="127"/>
       <c r="B26" s="15" t="s">
         <v>174</v>
       </c>
@@ -7195,8 +7206,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="117"/>
+    <row r="27" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="127"/>
       <c r="B27" s="15" t="s">
         <v>175</v>
       </c>
@@ -7206,8 +7217,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="117"/>
+    <row r="28" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="127"/>
       <c r="B28" s="15" t="s">
         <v>176</v>
       </c>
@@ -7217,8 +7228,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="117"/>
+    <row r="29" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="127"/>
       <c r="B29" s="15" t="s">
         <v>177</v>
       </c>
@@ -7228,8 +7239,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="117"/>
+    <row r="30" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="127"/>
       <c r="B30" s="15" t="s">
         <v>129</v>
       </c>
@@ -7239,8 +7250,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="117"/>
+    <row r="31" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="127"/>
       <c r="B31" s="15" t="s">
         <v>130</v>
       </c>
@@ -7250,8 +7261,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="117"/>
+    <row r="32" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="127"/>
       <c r="B32" s="15" t="s">
         <v>131</v>
       </c>
@@ -7261,8 +7272,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="117"/>
+    <row r="33" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="127"/>
       <c r="B33" s="15" t="s">
         <v>128</v>
       </c>
@@ -7272,15 +7283,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="117"/>
+    <row r="34" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="127"/>
       <c r="B34" s="15"/>
       <c r="C34" s="45"/>
       <c r="D34" s="45"/>
       <c r="E34" s="29"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="117"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="127"/>
       <c r="B35" s="2" t="s">
         <v>106</v>
       </c>
@@ -7290,8 +7301,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="117"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="127"/>
       <c r="B36" s="2" t="s">
         <v>105</v>
       </c>
@@ -7301,8 +7312,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="117"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="127"/>
       <c r="B37" s="2" t="s">
         <v>104</v>
       </c>
@@ -7312,8 +7323,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="117"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="127"/>
       <c r="B38" s="2" t="s">
         <v>103</v>
       </c>
@@ -7323,8 +7334,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="117"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="127"/>
       <c r="B39" s="2" t="s">
         <v>102</v>
       </c>
@@ -7334,8 +7345,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="117"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="127"/>
       <c r="B40" s="2" t="s">
         <v>101</v>
       </c>
@@ -7345,8 +7356,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="117"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="127"/>
       <c r="B41" s="2" t="s">
         <v>100</v>
       </c>
@@ -7356,8 +7367,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="117"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="127"/>
       <c r="B42" s="2" t="s">
         <v>107</v>
       </c>
@@ -7367,8 +7378,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="117"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="127"/>
       <c r="B43" s="2" t="s">
         <v>108</v>
       </c>
@@ -7378,8 +7389,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="117"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="127"/>
       <c r="B44" s="2" t="s">
         <v>109</v>
       </c>
@@ -7389,8 +7400,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="117"/>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="127"/>
       <c r="B45" s="2" t="s">
         <v>110</v>
       </c>
@@ -7400,8 +7411,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="117"/>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="127"/>
       <c r="B46" s="2" t="s">
         <v>111</v>
       </c>
@@ -7411,8 +7422,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="117"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="127"/>
       <c r="B47" s="2" t="s">
         <v>178</v>
       </c>
@@ -7422,8 +7433,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="117"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="127"/>
       <c r="B48" s="2" t="s">
         <v>179</v>
       </c>
@@ -7433,8 +7444,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="117"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="127"/>
       <c r="B49" s="2" t="s">
         <v>180</v>
       </c>
@@ -7444,8 +7455,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="117"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="127"/>
       <c r="B50" s="2" t="s">
         <v>181</v>
       </c>
@@ -7455,8 +7466,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="117"/>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="127"/>
       <c r="B51" s="24" t="s">
         <v>112</v>
       </c>
@@ -7466,8 +7477,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="117"/>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="127"/>
       <c r="B52" s="2" t="s">
         <v>113</v>
       </c>
@@ -7477,8 +7488,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="117"/>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="127"/>
       <c r="B53" s="2" t="s">
         <v>114</v>
       </c>
@@ -7488,8 +7499,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="117"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="127"/>
       <c r="B54" s="2" t="s">
         <v>115</v>
       </c>
@@ -7499,15 +7510,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="69"/>
       <c r="B55" s="52"/>
       <c r="C55" s="52"/>
       <c r="D55" s="52"/>
       <c r="E55" s="53"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="122" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="132" t="s">
         <v>62</v>
       </c>
       <c r="B56" s="15" t="s">
@@ -7519,8 +7530,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="117"/>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="127"/>
       <c r="B57" s="15" t="s">
         <v>75</v>
       </c>
@@ -7530,8 +7541,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="123"/>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="133"/>
       <c r="B58" s="15" t="s">
         <v>74</v>
       </c>
@@ -7541,15 +7552,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="69"/>
       <c r="B59" s="52"/>
       <c r="C59" s="52"/>
       <c r="D59" s="52"/>
       <c r="E59" s="52"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="114" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="124" t="s">
         <v>65</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -7561,8 +7572,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="115"/>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="125"/>
       <c r="B61" s="2" t="s">
         <v>67</v>
       </c>
@@ -7572,8 +7583,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="115"/>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="125"/>
       <c r="B62" s="2" t="s">
         <v>70</v>
       </c>
@@ -7583,8 +7594,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="115"/>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="125"/>
       <c r="B63" s="2" t="s">
         <v>68</v>
       </c>
@@ -7594,8 +7605,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="115"/>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="125"/>
       <c r="B64" s="2" t="s">
         <v>69</v>
       </c>
@@ -7605,8 +7616,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="115"/>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="125"/>
       <c r="B65" s="54" t="s">
         <v>71</v>
       </c>
@@ -7616,8 +7627,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="115"/>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="125"/>
       <c r="B66" s="54" t="s">
         <v>72</v>
       </c>
@@ -7627,8 +7638,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="115"/>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="125"/>
       <c r="B67" s="54" t="s">
         <v>73</v>
       </c>
@@ -7638,8 +7649,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="115"/>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="125"/>
       <c r="B68" s="57" t="s">
         <v>316</v>
       </c>
@@ -7649,8 +7660,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="116"/>
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="126"/>
       <c r="B69" s="57" t="s">
         <v>317</v>
       </c>
@@ -7660,15 +7671,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="52"/>
       <c r="B70" s="52"/>
       <c r="C70" s="52"/>
       <c r="D70" s="52"/>
       <c r="E70" s="52"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="135" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="139" t="s">
         <v>353</v>
       </c>
       <c r="B71" s="61" t="s">
@@ -7680,8 +7691,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="136"/>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="140"/>
       <c r="B72" s="61" t="s">
         <v>355</v>
       </c>
@@ -7691,8 +7702,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="136"/>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="140"/>
       <c r="B73" s="61" t="s">
         <v>354</v>
       </c>
@@ -7702,8 +7713,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="136"/>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="140"/>
       <c r="B74" s="61" t="s">
         <v>357</v>
       </c>
@@ -7713,8 +7724,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="136"/>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="140"/>
       <c r="B75" s="61" t="s">
         <v>358</v>
       </c>
@@ -7724,8 +7735,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="136"/>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="140"/>
       <c r="B76" s="61" t="s">
         <v>359</v>
       </c>
@@ -7735,15 +7746,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="134"/>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="105"/>
       <c r="B77" s="52"/>
       <c r="C77" s="52"/>
       <c r="D77" s="52"/>
-      <c r="E77" s="149"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="135" t="s">
+      <c r="E77" s="116"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="139" t="s">
         <v>318</v>
       </c>
       <c r="B78" s="61" t="s">
@@ -7755,8 +7766,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="136"/>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="140"/>
       <c r="B79" s="61" t="s">
         <v>320</v>
       </c>
@@ -7766,8 +7777,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="136"/>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="140"/>
       <c r="B80" s="61" t="s">
         <v>321</v>
       </c>
@@ -7777,8 +7788,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="137"/>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="141"/>
       <c r="B81" s="61" t="s">
         <v>322</v>
       </c>
@@ -7788,15 +7799,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="134"/>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="105"/>
       <c r="B82" s="52"/>
       <c r="C82" s="52"/>
       <c r="D82" s="52"/>
       <c r="E82" s="52"/>
     </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="122" t="s">
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="132" t="s">
         <v>313</v>
       </c>
       <c r="B83" s="15" t="s">
@@ -7808,8 +7819,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="118"/>
+    <row r="84" spans="1:5" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="128"/>
       <c r="B84" s="66" t="s">
         <v>22</v>
       </c>
@@ -7842,13 +7853,13 @@
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" customWidth="1"/>
-    <col min="2" max="2" width="84.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="84.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -7865,8 +7876,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="129" t="s">
         <v>217</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -7879,8 +7890,8 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="120"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="130"/>
       <c r="B3" s="2" t="s">
         <v>219</v>
       </c>
@@ -7891,8 +7902,8 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="120"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="130"/>
       <c r="B4" s="2" t="s">
         <v>220</v>
       </c>
@@ -7903,8 +7914,8 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="120"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="130"/>
       <c r="B5" s="2" t="s">
         <v>221</v>
       </c>
@@ -7915,8 +7926,8 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="120"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="130"/>
       <c r="B6" s="2" t="s">
         <v>222</v>
       </c>
@@ -7927,8 +7938,8 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="120"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="130"/>
       <c r="B7" s="2" t="s">
         <v>225</v>
       </c>
@@ -7939,8 +7950,8 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="120"/>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="130"/>
       <c r="B8" s="15" t="s">
         <v>224</v>
       </c>
@@ -7951,8 +7962,8 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="120"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="130"/>
       <c r="B9" s="2" t="s">
         <v>223</v>
       </c>
@@ -7963,8 +7974,8 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="120"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="130"/>
       <c r="B10" s="24" t="s">
         <v>226</v>
       </c>
@@ -7975,7 +7986,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="74"/>
       <c r="B11" s="74"/>
       <c r="C11" s="74"/>
@@ -7983,8 +7994,8 @@
       <c r="E11" s="76"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="108" t="s">
+    <row r="12" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="118" t="s">
         <v>211</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -7997,8 +8008,8 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="108"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="118"/>
       <c r="B13" s="2" t="s">
         <v>191</v>
       </c>
@@ -8009,8 +8020,8 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="108"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="118"/>
       <c r="B14" s="2" t="s">
         <v>227</v>
       </c>
@@ -8021,8 +8032,8 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="108"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="118"/>
       <c r="B15" s="15" t="s">
         <v>228</v>
       </c>
@@ -8033,8 +8044,8 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="108"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="118"/>
       <c r="B16" s="2" t="s">
         <v>229</v>
       </c>
@@ -8045,8 +8056,8 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="113"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="123"/>
       <c r="B17" s="24" t="s">
         <v>230</v>
       </c>
@@ -8057,7 +8068,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="74"/>
       <c r="B18" s="74"/>
       <c r="C18" s="74"/>
@@ -8065,8 +8076,8 @@
       <c r="E18" s="76"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="119" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="129" t="s">
         <v>323</v>
       </c>
       <c r="B19" s="54" t="s">
@@ -8079,8 +8090,8 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="120"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="130"/>
       <c r="B20" s="54" t="s">
         <v>187</v>
       </c>
@@ -8091,8 +8102,8 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="120"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="130"/>
       <c r="B21" s="54" t="s">
         <v>188</v>
       </c>
@@ -8103,8 +8114,8 @@
       <c r="E21" s="3"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="121"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="131"/>
       <c r="B22" s="54" t="s">
         <v>189</v>
       </c>
@@ -8115,7 +8126,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="77"/>
       <c r="B23" s="74"/>
       <c r="C23" s="74"/>
@@ -8123,8 +8134,8 @@
       <c r="E23" s="76"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="119" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="129" t="s">
         <v>324</v>
       </c>
       <c r="B24" s="57" t="s">
@@ -8136,8 +8147,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="116"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="126"/>
       <c r="B25" s="57" t="s">
         <v>205</v>
       </c>
@@ -8147,15 +8158,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="138"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="106"/>
       <c r="B26" s="74"/>
       <c r="C26" s="74"/>
       <c r="D26" s="74"/>
       <c r="E26" s="74"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="120" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="130" t="s">
         <v>325</v>
       </c>
       <c r="B27" s="57" t="s">
@@ -8167,8 +8178,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="115"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="125"/>
       <c r="B28" s="57" t="s">
         <v>212</v>
       </c>
@@ -8178,8 +8189,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="115"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="125"/>
       <c r="B29" s="57" t="s">
         <v>206</v>
       </c>
@@ -8189,8 +8200,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="116"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="126"/>
       <c r="B30" s="57" t="s">
         <v>216</v>
       </c>
@@ -8200,15 +8211,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="75"/>
       <c r="B31" s="75"/>
       <c r="C31" s="75"/>
       <c r="D31" s="75"/>
       <c r="E31" s="76"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="114" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="124" t="s">
         <v>60</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -8220,8 +8231,8 @@
       <c r="D32" s="2"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="115"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="125"/>
       <c r="B33" s="2" t="s">
         <v>184</v>
       </c>
@@ -8231,8 +8242,8 @@
       <c r="D33" s="2"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="115"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="125"/>
       <c r="B34" s="2" t="s">
         <v>194</v>
       </c>
@@ -8242,8 +8253,8 @@
       <c r="D34" s="2"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="115"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="125"/>
       <c r="B35" s="2" t="s">
         <v>195</v>
       </c>
@@ -8253,8 +8264,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="115"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="125"/>
       <c r="B36" s="2" t="s">
         <v>196</v>
       </c>
@@ -8264,8 +8275,8 @@
       <c r="D36" s="2"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="115"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="125"/>
       <c r="B37" s="2" t="s">
         <v>197</v>
       </c>
@@ -8275,8 +8286,8 @@
       <c r="D37" s="2"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="115"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="125"/>
       <c r="B38" s="2" t="s">
         <v>198</v>
       </c>
@@ -8286,8 +8297,8 @@
       <c r="D38" s="2"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="115"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="125"/>
       <c r="B39" s="2" t="s">
         <v>199</v>
       </c>
@@ -8297,8 +8308,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="115"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="125"/>
       <c r="B40" s="2" t="s">
         <v>200</v>
       </c>
@@ -8308,8 +8319,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="115"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="125"/>
       <c r="B41" s="2" t="s">
         <v>204</v>
       </c>
@@ -8319,8 +8330,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="115"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="125"/>
       <c r="B42" s="2" t="s">
         <v>202</v>
       </c>
@@ -8330,8 +8341,8 @@
       <c r="D42" s="2"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="115"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="125"/>
       <c r="B43" s="2" t="s">
         <v>203</v>
       </c>
@@ -8341,8 +8352,8 @@
       <c r="D43" s="2"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="116"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="126"/>
       <c r="B44" s="2" t="s">
         <v>185</v>
       </c>
@@ -8352,15 +8363,15 @@
       <c r="D44" s="2"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="75"/>
       <c r="B45" s="75"/>
       <c r="C45" s="75"/>
       <c r="D45" s="75"/>
       <c r="E45" s="76"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="119" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="129" t="s">
         <v>346</v>
       </c>
       <c r="B46" s="54" t="s">
@@ -8372,8 +8383,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="120"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="130"/>
       <c r="B47" s="54" t="s">
         <v>348</v>
       </c>
@@ -8383,8 +8394,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="120"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="130"/>
       <c r="B48" s="54" t="s">
         <v>349</v>
       </c>
@@ -8394,8 +8405,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="120"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="130"/>
       <c r="B49" s="54" t="s">
         <v>350</v>
       </c>
@@ -8405,8 +8416,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="120"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="130"/>
       <c r="B50" s="54" t="s">
         <v>351</v>
       </c>
@@ -8416,18 +8427,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="150"/>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="142"/>
       <c r="B51" s="4" t="s">
         <v>352</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="104" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E51" s="101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -8453,17 +8464,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A365AE-7930-4274-837C-B5D83DFDF1FE}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.21875" customWidth="1"/>
-    <col min="2" max="2" width="63.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="69.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
@@ -8480,8 +8489,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="107" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="117" t="s">
         <v>332</v>
       </c>
       <c r="B2" s="57" t="s">
@@ -8493,8 +8502,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="108"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="118"/>
       <c r="B3" s="57" t="s">
         <v>231</v>
       </c>
@@ -8504,8 +8513,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="108"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="118"/>
       <c r="B4" s="57" t="s">
         <v>207</v>
       </c>
@@ -8515,8 +8524,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="113"/>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="123"/>
       <c r="B5" s="57" t="s">
         <v>213</v>
       </c>
@@ -8526,345 +8535,345 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="86"/>
       <c r="B6" s="86"/>
       <c r="C6" s="86"/>
       <c r="D6" s="86"/>
       <c r="E6" s="86"/>
     </row>
-    <row r="7" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="108" t="s">
+    <row r="7" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="118" t="s">
         <v>333</v>
       </c>
       <c r="B7" s="57" t="s">
         <v>338</v>
       </c>
-      <c r="C7" s="55" t="s">
-        <v>9</v>
-      </c>
+      <c r="C7" s="55"/>
       <c r="D7" s="79"/>
-      <c r="E7" s="65"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="108"/>
+      <c r="E7" s="65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="118"/>
       <c r="B8" s="57" t="s">
         <v>339</v>
       </c>
-      <c r="C8" s="55" t="s">
-        <v>9</v>
-      </c>
+      <c r="C8" s="55"/>
       <c r="D8" s="79"/>
-      <c r="E8" s="65"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="108"/>
+      <c r="E8" s="65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="118"/>
       <c r="B9" s="57" t="s">
         <v>341</v>
       </c>
-      <c r="C9" s="55" t="s">
-        <v>9</v>
-      </c>
+      <c r="C9" s="55"/>
       <c r="D9" s="79"/>
-      <c r="E9" s="65"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="108"/>
+      <c r="E9" s="65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="118"/>
       <c r="B10" s="57" t="s">
         <v>342</v>
       </c>
-      <c r="C10" s="55" t="s">
-        <v>9</v>
-      </c>
+      <c r="C10" s="55"/>
       <c r="D10" s="79"/>
-      <c r="E10" s="65"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="113"/>
+      <c r="E10" s="65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="123"/>
       <c r="B11" s="57" t="s">
         <v>340</v>
       </c>
-      <c r="C11" s="55" t="s">
-        <v>9</v>
-      </c>
+      <c r="C11" s="55"/>
       <c r="D11" s="79"/>
-      <c r="E11" s="65"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="86"/>
       <c r="B12" s="86"/>
       <c r="C12" s="87"/>
       <c r="D12" s="86"/>
-      <c r="E12" s="88"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="130" t="s">
+      <c r="E12" s="147"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="143" t="s">
         <v>326</v>
       </c>
       <c r="B13" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="C13" s="55" t="s">
-        <v>9</v>
-      </c>
+      <c r="C13" s="55"/>
       <c r="D13" s="79"/>
-      <c r="E13" s="83"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="131"/>
+      <c r="E13" s="56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="144"/>
       <c r="B14" s="79" t="s">
         <v>236</v>
       </c>
-      <c r="C14" s="55" t="s">
-        <v>9</v>
-      </c>
+      <c r="C14" s="55"/>
       <c r="D14" s="79"/>
-      <c r="E14" s="83"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="131"/>
+      <c r="E14" s="56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="144"/>
       <c r="B15" s="79" t="s">
         <v>237</v>
       </c>
-      <c r="C15" s="55" t="s">
-        <v>9</v>
-      </c>
+      <c r="C15" s="55"/>
       <c r="D15" s="79"/>
-      <c r="E15" s="83"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="131"/>
+      <c r="E15" s="56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="144"/>
       <c r="B16" s="79" t="s">
         <v>238</v>
       </c>
-      <c r="C16" s="55" t="s">
-        <v>9</v>
-      </c>
+      <c r="C16" s="55"/>
       <c r="D16" s="79"/>
-      <c r="E16" s="83"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="131"/>
+      <c r="E16" s="56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="144"/>
       <c r="B17" s="79" t="s">
         <v>239</v>
       </c>
-      <c r="C17" s="55" t="s">
-        <v>9</v>
-      </c>
+      <c r="C17" s="55"/>
       <c r="D17" s="79"/>
-      <c r="E17" s="83"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="86"/>
       <c r="B18" s="86"/>
       <c r="C18" s="86"/>
       <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="119" t="s">
+      <c r="E18" s="87"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="129" t="s">
         <v>328</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>9</v>
-      </c>
+      <c r="C19" s="23"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="115"/>
+      <c r="E19" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="125"/>
       <c r="B20" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>9</v>
-      </c>
+      <c r="C20" s="23"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="116"/>
+      <c r="E20" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="126"/>
       <c r="B21" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>9</v>
-      </c>
+      <c r="C21" s="23"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="86"/>
       <c r="B22" s="86"/>
       <c r="C22" s="86"/>
       <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="124" t="s">
+      <c r="E22" s="87"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="134" t="s">
         <v>329</v>
       </c>
       <c r="B23" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="C23" s="59" t="s">
-        <v>9</v>
-      </c>
+      <c r="C23" s="59"/>
       <c r="D23" s="54"/>
-      <c r="E23" s="83"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="125"/>
+      <c r="E23" s="56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="135"/>
       <c r="B24" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="C24" s="59" t="s">
-        <v>9</v>
-      </c>
+      <c r="C24" s="59"/>
       <c r="D24" s="54"/>
-      <c r="E24" s="83"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="126"/>
+      <c r="E24" s="56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="136"/>
       <c r="B25" s="79" t="s">
         <v>234</v>
       </c>
-      <c r="C25" s="59" t="s">
-        <v>9</v>
-      </c>
+      <c r="C25" s="59"/>
       <c r="D25" s="79"/>
-      <c r="E25" s="83"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="84"/>
       <c r="B26" s="84"/>
       <c r="C26" s="84"/>
       <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="124" t="s">
+      <c r="E26" s="148"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="134" t="s">
         <v>331</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>9</v>
-      </c>
+      <c r="C27" s="23"/>
       <c r="D27" s="36"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="125"/>
+      <c r="E27" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="135"/>
       <c r="B28" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C28" s="23" t="s">
-        <v>9</v>
-      </c>
+      <c r="C28" s="23"/>
       <c r="D28" s="36"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="125"/>
+      <c r="E28" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="135"/>
       <c r="B29" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>9</v>
-      </c>
+      <c r="C29" s="23"/>
       <c r="D29" s="36"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="126"/>
+      <c r="E29" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="136"/>
       <c r="B30" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>9</v>
-      </c>
+      <c r="C30" s="23"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="94"/>
+      <c r="E30" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="92"/>
       <c r="B31" s="86"/>
-      <c r="C31" s="95"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="97"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="124" t="s">
+      <c r="C31" s="93"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="149"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="134" t="s">
         <v>327</v>
       </c>
       <c r="B32" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>9</v>
-      </c>
+      <c r="C32" s="23"/>
       <c r="D32" s="36"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="125"/>
+      <c r="E32" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="135"/>
       <c r="B33" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="C33" s="23" t="s">
-        <v>9</v>
-      </c>
+      <c r="C33" s="23"/>
       <c r="D33" s="39"/>
-      <c r="E33" s="93"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="125"/>
+      <c r="E33" s="150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="135"/>
       <c r="B34" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="C34" s="23" t="s">
-        <v>9</v>
-      </c>
+      <c r="C34" s="23"/>
       <c r="D34" s="39"/>
-      <c r="E34" s="93"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="125"/>
+      <c r="E34" s="150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="135"/>
       <c r="B35" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="C35" s="23" t="s">
-        <v>9</v>
-      </c>
+      <c r="C35" s="23"/>
       <c r="D35" s="39"/>
-      <c r="E35" s="93"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="125"/>
+      <c r="E35" s="150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="135"/>
       <c r="B36" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="C36" s="23" t="s">
-        <v>9</v>
-      </c>
+      <c r="C36" s="23"/>
       <c r="D36" s="39"/>
-      <c r="E36" s="93"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="129"/>
+      <c r="E36" s="150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="145"/>
       <c r="B37" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C37" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="139"/>
-      <c r="E37" s="140"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="151" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8889,31 +8898,31 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="90" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="130" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="143" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="79" t="s">
@@ -8923,8 +8932,8 @@
       <c r="D2" s="79"/>
       <c r="E2" s="83"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="131"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="144"/>
       <c r="B3" s="79" t="s">
         <v>250</v>
       </c>
@@ -8932,8 +8941,8 @@
       <c r="D3" s="79"/>
       <c r="E3" s="83"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="131"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="144"/>
       <c r="B4" s="79" t="s">
         <v>343</v>
       </c>
@@ -8941,8 +8950,8 @@
       <c r="D4" s="79"/>
       <c r="E4" s="83"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="131"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="144"/>
       <c r="B5" s="79" t="s">
         <v>344</v>
       </c>
@@ -8950,8 +8959,8 @@
       <c r="D5" s="79"/>
       <c r="E5" s="83"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="131"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="144"/>
       <c r="B6" s="79" t="s">
         <v>345</v>
       </c>
@@ -8959,8 +8968,8 @@
       <c r="D6" s="79"/>
       <c r="E6" s="83"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="132"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="146"/>
       <c r="B7" s="79" t="s">
         <v>251</v>
       </c>
@@ -8968,15 +8977,15 @@
       <c r="D7" s="79"/>
       <c r="E7" s="83"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="92"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-    </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="99" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="96" t="s">
         <v>336</v>
       </c>
       <c r="B9" s="79"/>
@@ -8984,15 +8993,15 @@
       <c r="D9" s="79"/>
       <c r="E9" s="83"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="92"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-    </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="99" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="96" t="s">
         <v>335</v>
       </c>
       <c r="B11" s="79"/>
@@ -9000,15 +9009,15 @@
       <c r="D11" s="79"/>
       <c r="E11" s="83"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="92"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-    </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="98" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="91"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="95" t="s">
         <v>252</v>
       </c>
       <c r="B13" s="79"/>
@@ -9016,7 +9025,7 @@
       <c r="D13" s="79"/>
       <c r="E13" s="83"/>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>

--- a/Documents/Scrum/Sprint_backlog.xlsx
+++ b/Documents/Scrum/Sprint_backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9912FB6-ADBB-4FD8-A96B-C031F53FE404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A647276A-F374-4F43-9051-24044AA33742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="7" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
+    <workbookView xWindow="-9876" yWindow="2328" windowWidth="17280" windowHeight="9060" firstSheet="7" activeTab="9" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint_0." sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="384">
   <si>
     <t>STORY</t>
   </si>
@@ -621,9 +621,6 @@
   </si>
   <si>
     <t>Insérer dans table réservation ajouter id matériel</t>
-  </si>
-  <si>
-    <t>Manuel d'installation</t>
   </si>
   <si>
     <r>
@@ -2536,9 +2533,6 @@
   </si>
   <si>
     <t>Agrandir la fenêtre session</t>
-  </si>
-  <si>
-    <t>Disponibilité calendrier</t>
   </si>
   <si>
     <t>Système organnisation de projet</t>
@@ -3203,6 +3197,89 @@
   </si>
   <si>
     <t>Créer une table "Tag"</t>
+  </si>
+  <si>
+    <t>Créer un paragarphe Introduction</t>
+  </si>
+  <si>
+    <t>Manuel d'installation
+WavCom</t>
+  </si>
+  <si>
+    <t>Créer un paragraphe présentation WavCom</t>
+  </si>
+  <si>
+    <t>Créer un paragraphe gestion centralisée</t>
+  </si>
+  <si>
+    <t>Créer un paragraphe Environnement</t>
+  </si>
+  <si>
+    <t>Créer un paragraphe Connexion phpMyAdmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Créer un paragraphe création de la base </t>
+  </si>
+  <si>
+    <t>Créer un paragraphe création de la base de données</t>
+  </si>
+  <si>
+    <t>Créer un paragraphe création des tables</t>
+  </si>
+  <si>
+    <t>Créer un paragraphe insertion des données</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Créer un paragraphe création de l'architecture </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Créer un paragraphe installation de l'application </t>
+  </si>
+  <si>
+    <t>Manuel d'installation
+WavMap</t>
+  </si>
+  <si>
+    <t>Créer un paragraphe présentation WavMap</t>
+  </si>
+  <si>
+    <t>Fonctionnalité envoi de documents (Contrats, Devis, Factures) de Waview au Client</t>
+  </si>
+  <si>
+    <t>Trier dans l'ordre les tags actifs</t>
+  </si>
+  <si>
+    <t>Enlever les redondances dans les tags actifs</t>
+  </si>
+  <si>
+    <t>Transformer les données longitude et latiture avec 
+un "." et pas de ","</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faire la mise en forme pour la description et sélection des tags </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter dans la sélection des tags s'il y a un clique sur la validation du tag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enlever les " " dans l'en-tête </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afficher la carte uniqument avec des lieux </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en page de la description + ajouter photos  dans la balise du lieux </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En cas d'ouverture d'une description de la balise des 
+lieux faire automatiquement la fermeture de l'autre </t>
+  </si>
+  <si>
+    <t>Vérifier toutes les fonctionnalités WavMap</t>
+  </si>
+  <si>
+    <t>Vérifier toutes les focntionnalités 
+de WavCom</t>
   </si>
 </sst>
 </file>
@@ -3310,7 +3387,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3416,6 +3493,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEFC6FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3770,7 +3853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3998,12 +4081,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4048,12 +4125,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4144,20 +4233,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4493,13 +4586,13 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="80.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="80.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -4516,12 +4609,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="122" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -4530,8 +4623,8 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="121"/>
+    <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="123"/>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
@@ -4542,8 +4635,8 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="121"/>
+    <row r="4" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="123"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
@@ -4554,10 +4647,10 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="121"/>
+    <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="123"/>
       <c r="B5" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4566,10 +4659,10 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="121"/>
+    <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="123"/>
       <c r="B6" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -4578,10 +4671,10 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="121"/>
+    <row r="7" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="123"/>
       <c r="B7" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -4590,10 +4683,10 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="121"/>
+    <row r="8" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="123"/>
       <c r="B8" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4602,17 +4695,17 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="122"/>
+    <row r="9" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="124"/>
       <c r="B9" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="16"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="63"/>
       <c r="B10" s="64"/>
       <c r="C10" s="63"/>
@@ -4620,12 +4713,12 @@
       <c r="E10" s="63"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="118" t="s">
-        <v>263</v>
+    <row r="11" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="120" t="s">
+        <v>261</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -4634,10 +4727,10 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="118"/>
+    <row r="12" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="120"/>
       <c r="B12" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -4646,10 +4739,10 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="118"/>
+    <row r="13" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="120"/>
       <c r="B13" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -4658,10 +4751,10 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="118"/>
+    <row r="14" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="120"/>
       <c r="B14" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -4670,10 +4763,10 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="118"/>
+    <row r="15" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="120"/>
       <c r="B15" s="15" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4682,10 +4775,10 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="118"/>
+    <row r="16" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="120"/>
       <c r="B16" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4694,10 +4787,10 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="118"/>
+    <row r="17" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="120"/>
       <c r="B17" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -4706,10 +4799,10 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="118"/>
+    <row r="18" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="120"/>
       <c r="B18" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -4718,10 +4811,10 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="118"/>
+    <row r="19" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="120"/>
       <c r="B19" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -4730,10 +4823,10 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="118"/>
+    <row r="20" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="120"/>
       <c r="B20" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -4742,20 +4835,20 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="63"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="99"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="97"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="117" t="s">
-        <v>274</v>
+    <row r="22" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="119" t="s">
+        <v>272</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -4764,10 +4857,10 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="118"/>
+    <row r="23" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="120"/>
       <c r="B23" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4776,10 +4869,10 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="118"/>
+    <row r="24" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="120"/>
       <c r="B24" s="15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4788,10 +4881,10 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="118"/>
+    <row r="25" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="120"/>
       <c r="B25" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -4800,10 +4893,10 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="118"/>
+    <row r="26" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="120"/>
       <c r="B26" s="15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -4812,10 +4905,10 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="123"/>
+    <row r="27" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="125"/>
       <c r="B27" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -4824,20 +4917,20 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="63"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="99"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="97"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="117" t="s">
-        <v>253</v>
+    <row r="29" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="119" t="s">
+        <v>251</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -4845,10 +4938,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="118"/>
+    <row r="30" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="120"/>
       <c r="B30" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -4856,10 +4949,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="118"/>
+    <row r="31" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="120"/>
       <c r="B31" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -4868,10 +4961,10 @@
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="118"/>
+    <row r="32" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="120"/>
       <c r="B32" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -4880,8 +4973,8 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="118"/>
+    <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="120"/>
       <c r="B33" s="2" t="s">
         <v>13</v>
       </c>
@@ -4891,8 +4984,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="118"/>
+    <row r="34" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="120"/>
       <c r="B34" s="2" t="s">
         <v>14</v>
       </c>
@@ -4902,8 +4995,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="118"/>
+    <row r="35" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="120"/>
       <c r="B35" s="2" t="s">
         <v>15</v>
       </c>
@@ -4913,10 +5006,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="118"/>
+    <row r="36" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="120"/>
       <c r="B36" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C36" s="54"/>
       <c r="D36" s="54"/>
@@ -4924,10 +5017,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="118"/>
+    <row r="37" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="120"/>
       <c r="B37" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C37" s="54"/>
       <c r="D37" s="54"/>
@@ -4935,10 +5028,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="119"/>
+    <row r="38" spans="1:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="121"/>
       <c r="B38" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -4960,169 +5053,362 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4275C1D2-30DB-4753-AC86-1CDFAF13FAD3}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="108" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="124" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="2"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="131" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>358</v>
+      </c>
       <c r="C2" s="45" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="125"/>
-      <c r="B3" s="36"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="127"/>
+      <c r="B3" s="36" t="s">
+        <v>360</v>
+      </c>
       <c r="C3" s="45" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="36"/>
       <c r="E3" s="78"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="126"/>
-      <c r="B4" s="2"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="127"/>
+      <c r="B4" s="36" t="s">
+        <v>361</v>
+      </c>
       <c r="C4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="111"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="114"/>
-    </row>
-    <row r="6" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="117" t="s">
-        <v>337</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="36"/>
+      <c r="E4" s="78"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="127"/>
+      <c r="B5" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="78"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="127"/>
+      <c r="B6" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="78"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="127"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="133"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="111"/>
-      <c r="B9" s="112"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="114"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="143"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="83"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="144"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="83"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="146"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="83"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="111"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="114"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="96"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="83"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="115"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="83"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="111"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="114"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="95"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="83"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
+      <c r="B7" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="78"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="127"/>
+      <c r="B8" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="78"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="127"/>
+      <c r="B9" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="78"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="127"/>
+      <c r="B10" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="78"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="127"/>
+      <c r="B11" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="78"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="127"/>
+      <c r="B12" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="78"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="109"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="112"/>
+    </row>
+    <row r="14" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="119" t="s">
+        <v>335</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="129"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="135"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="109"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="112"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="141" t="s">
+        <v>334</v>
+      </c>
+      <c r="B18" s="79"/>
+      <c r="C18" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="79"/>
+      <c r="E18" s="83"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="143"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="79"/>
+      <c r="E19" s="83"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="109"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="112"/>
+    </row>
+    <row r="21" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="145" t="s">
+        <v>333</v>
+      </c>
+      <c r="B21" s="79"/>
+      <c r="C21" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="79"/>
+      <c r="E21" s="83"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="148"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="83"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="109"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="112"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="145" t="s">
+        <v>382</v>
+      </c>
+      <c r="B24" s="79" t="s">
+        <v>373</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="79"/>
+      <c r="E24" s="83"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="146"/>
+      <c r="B25" s="79" t="s">
+        <v>374</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="79"/>
+      <c r="E25" s="83"/>
+    </row>
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="146"/>
+      <c r="B26" s="155" t="s">
+        <v>375</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="79"/>
+      <c r="E26" s="83"/>
+    </row>
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="146"/>
+      <c r="B27" s="155" t="s">
+        <v>376</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="79"/>
+      <c r="E27" s="83"/>
+    </row>
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="146"/>
+      <c r="B28" s="155" t="s">
+        <v>377</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="79"/>
+      <c r="E28" s="83"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="146"/>
+      <c r="B29" s="155" t="s">
+        <v>378</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="79"/>
+      <c r="E29" s="83"/>
+    </row>
+    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="146"/>
+      <c r="B30" s="155" t="s">
+        <v>380</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="79"/>
+      <c r="E30" s="83"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="146"/>
+      <c r="B31" s="155" t="s">
+        <v>379</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="79"/>
+      <c r="E31" s="83"/>
+    </row>
+    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="148"/>
+      <c r="B32" s="155" t="s">
+        <v>381</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="79"/>
+      <c r="E32" s="83"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A10:A12"/>
+  <mergeCells count="5">
+    <mergeCell ref="A24:A32"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5136,7 +5422,7 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5151,14 +5437,14 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5175,12 +5461,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="124" t="s">
+    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="126" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -5189,10 +5475,10 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="125"/>
+    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="127"/>
       <c r="B3" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -5201,10 +5487,10 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="125"/>
+    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="127"/>
       <c r="B4" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -5213,8 +5499,8 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="125"/>
+    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="127"/>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -5224,10 +5510,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="125"/>
+    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="127"/>
       <c r="B6" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -5236,8 +5522,8 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="125"/>
+    <row r="7" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="127"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -5247,10 +5533,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="125"/>
+    <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="127"/>
       <c r="B8" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -5258,10 +5544,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="125"/>
+    <row r="9" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="127"/>
       <c r="B9" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -5269,8 +5555,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="125"/>
+    <row r="10" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="127"/>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -5280,10 +5566,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="125"/>
+    <row r="11" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="127"/>
       <c r="B11" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -5291,10 +5577,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="125"/>
+    <row r="12" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="127"/>
       <c r="B12" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5302,10 +5588,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="126"/>
+    <row r="13" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="128"/>
       <c r="B13" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -5313,19 +5599,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="70"/>
       <c r="B14" s="71"/>
       <c r="C14" s="71"/>
       <c r="D14" s="71"/>
       <c r="E14" s="72"/>
     </row>
-    <row r="15" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="129" t="s">
-        <v>284</v>
+    <row r="15" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="131" t="s">
+        <v>282</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
@@ -5333,10 +5619,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="130"/>
+    <row r="16" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="132"/>
       <c r="B16" s="36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
@@ -5344,10 +5630,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="130"/>
+    <row r="17" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="132"/>
       <c r="B17" s="36" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
@@ -5355,10 +5641,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
+    <row r="18" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="132"/>
       <c r="B18" s="36" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
@@ -5366,10 +5652,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="131"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="133"/>
       <c r="B19" s="15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -5377,19 +5663,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="70"/>
       <c r="B20" s="71"/>
       <c r="C20" s="71"/>
       <c r="D20" s="71"/>
       <c r="E20" s="72"/>
     </row>
-    <row r="21" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="117" t="s">
-        <v>296</v>
+    <row r="21" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="119" t="s">
+        <v>294</v>
       </c>
       <c r="B21" s="68" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C21" s="68"/>
       <c r="D21" s="68"/>
@@ -5397,10 +5683,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="118"/>
+    <row r="22" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="120"/>
       <c r="B22" s="68" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C22" s="68"/>
       <c r="D22" s="68"/>
@@ -5408,10 +5694,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="127"/>
+    <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="129"/>
       <c r="B23" s="68" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C23" s="68"/>
       <c r="D23" s="68"/>
@@ -5419,10 +5705,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="127"/>
+    <row r="24" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="129"/>
       <c r="B24" s="68" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C24" s="68"/>
       <c r="D24" s="68"/>
@@ -5430,25 +5716,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="127"/>
+    <row r="25" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="129"/>
       <c r="B25" s="68" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C25" s="68"/>
-      <c r="D25" s="100"/>
+      <c r="D25" s="98"/>
       <c r="E25" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="128"/>
+    <row r="26" spans="1:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="130"/>
       <c r="B26" s="73" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C26" s="73"/>
       <c r="D26" s="73"/>
-      <c r="E26" s="101" t="s">
+      <c r="E26" s="99" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5472,14 +5758,14 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5496,8 +5782,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="117" t="s">
+    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="119" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="60" t="s">
@@ -5510,8 +5796,8 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118"/>
+    <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="120"/>
       <c r="B3" s="60" t="s">
         <v>80</v>
       </c>
@@ -5522,8 +5808,8 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118"/>
+    <row r="4" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="120"/>
       <c r="B4" s="60" t="s">
         <v>94</v>
       </c>
@@ -5534,8 +5820,8 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118"/>
+    <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="120"/>
       <c r="B5" s="60" t="s">
         <v>81</v>
       </c>
@@ -5546,8 +5832,8 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118"/>
+    <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="120"/>
       <c r="B6" s="60" t="s">
         <v>95</v>
       </c>
@@ -5558,8 +5844,8 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="118"/>
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="120"/>
       <c r="B7" s="60" t="s">
         <v>83</v>
       </c>
@@ -5570,10 +5856,10 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="118"/>
+    <row r="8" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="120"/>
       <c r="B8" s="60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="2"/>
@@ -5582,8 +5868,8 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="118"/>
+    <row r="9" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="120"/>
       <c r="B9" s="60" t="s">
         <v>82</v>
       </c>
@@ -5594,8 +5880,8 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="118"/>
+    <row r="10" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="120"/>
       <c r="B10" s="60" t="s">
         <v>84</v>
       </c>
@@ -5606,10 +5892,10 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="118"/>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="120"/>
       <c r="B11" s="60" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="2"/>
@@ -5618,10 +5904,10 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="118"/>
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="120"/>
       <c r="B12" s="60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="2"/>
@@ -5630,8 +5916,8 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="118"/>
+    <row r="13" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="120"/>
       <c r="B13" s="60" t="s">
         <v>85</v>
       </c>
@@ -5642,10 +5928,10 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="118"/>
+    <row r="14" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="120"/>
       <c r="B14" s="60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="2"/>
@@ -5654,8 +5940,8 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="118"/>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="120"/>
       <c r="B15" s="60" t="s">
         <v>87</v>
       </c>
@@ -5666,8 +5952,8 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="118"/>
+    <row r="16" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="120"/>
       <c r="B16" s="60" t="s">
         <v>88</v>
       </c>
@@ -5678,8 +5964,8 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="118"/>
+    <row r="17" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="120"/>
       <c r="B17" s="60" t="s">
         <v>91</v>
       </c>
@@ -5690,8 +5976,8 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="118"/>
+    <row r="18" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="120"/>
       <c r="B18" s="60" t="s">
         <v>90</v>
       </c>
@@ -5702,8 +5988,8 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="118"/>
+    <row r="19" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="120"/>
       <c r="B19" s="60" t="s">
         <v>89</v>
       </c>
@@ -5714,8 +6000,8 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="118"/>
+    <row r="20" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="120"/>
       <c r="B20" s="60" t="s">
         <v>92</v>
       </c>
@@ -5726,8 +6012,8 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="123"/>
+    <row r="21" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="125"/>
       <c r="B21" s="60" t="s">
         <v>93</v>
       </c>
@@ -5738,7 +6024,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="30"/>
       <c r="B22" s="31"/>
       <c r="C22" s="32"/>
@@ -5746,261 +6032,261 @@
       <c r="E22" s="34"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="132" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="134" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="2"/>
       <c r="E23" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="127"/>
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="129"/>
       <c r="B24" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="2"/>
       <c r="E24" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="127"/>
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="129"/>
       <c r="B25" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="2"/>
       <c r="E25" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="127"/>
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="129"/>
       <c r="B26" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="2"/>
       <c r="E26" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="129"/>
+      <c r="B27" s="61" t="s">
         <v>140</v>
-      </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="127"/>
-      <c r="B27" s="61" t="s">
-        <v>141</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="2"/>
       <c r="E27" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="127"/>
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="129"/>
       <c r="B28" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="2"/>
       <c r="E28" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="127"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="129"/>
       <c r="B29" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="2"/>
       <c r="E29" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="127"/>
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="129"/>
       <c r="B30" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="2"/>
       <c r="E30" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="127"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="129"/>
       <c r="B31" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="2"/>
       <c r="E31" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="127"/>
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="129"/>
       <c r="B32" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="2"/>
       <c r="E32" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="127"/>
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="129"/>
       <c r="B33" s="61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="2"/>
       <c r="E33" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="127"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="129"/>
       <c r="B34" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="2"/>
       <c r="E34" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="127"/>
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="129"/>
       <c r="B35" s="62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="2"/>
       <c r="E35" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="127"/>
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="129"/>
       <c r="B36" s="61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="2"/>
       <c r="E36" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="127"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="129"/>
       <c r="B37" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="2"/>
       <c r="E37" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="127"/>
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="129"/>
       <c r="B38" s="61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="2"/>
       <c r="E38" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="127"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="129"/>
       <c r="B39" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="2"/>
       <c r="E39" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="127"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="129"/>
       <c r="B40" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C40" s="23"/>
       <c r="D40" s="2"/>
       <c r="E40" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="127"/>
+    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="129"/>
       <c r="B41" s="61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C41" s="23"/>
       <c r="D41" s="2"/>
       <c r="E41" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="127"/>
+    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="129"/>
       <c r="B42" s="61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C42" s="23"/>
       <c r="D42" s="2"/>
       <c r="E42" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="133"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="135"/>
       <c r="B43" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="2"/>
       <c r="E43" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="35"/>
       <c r="B44" s="35"/>
       <c r="C44" s="32"/>
@@ -6008,9 +6294,9 @@
       <c r="E44" s="34"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="117" t="s">
-        <v>297</v>
+    <row r="45" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="119" t="s">
+        <v>295</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>96</v>
@@ -6022,8 +6308,8 @@
       </c>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="128"/>
+    <row r="46" spans="1:6" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="130"/>
       <c r="B46" s="4" t="s">
         <v>18</v>
       </c>
@@ -6034,14 +6320,14 @@
       </c>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -6068,14 +6354,14 @@
       <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6092,9 +6378,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="117" t="s">
-        <v>299</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="119" t="s">
+        <v>297</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>52</v>
@@ -6106,10 +6392,10 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="127"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="129"/>
       <c r="B3" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="38"/>
@@ -6118,8 +6404,8 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="127"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="129"/>
       <c r="B4" s="36" t="s">
         <v>38</v>
       </c>
@@ -6130,8 +6416,8 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="127"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="129"/>
       <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
@@ -6142,8 +6428,8 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="127"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="129"/>
       <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
@@ -6154,8 +6440,8 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="127"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="129"/>
       <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
@@ -6166,8 +6452,8 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="127"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="129"/>
       <c r="B8" s="36" t="s">
         <v>41</v>
       </c>
@@ -6178,8 +6464,8 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="127"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="129"/>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
@@ -6190,8 +6476,8 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="127"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="129"/>
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
@@ -6202,8 +6488,8 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="127"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="129"/>
       <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
@@ -6214,8 +6500,8 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="127"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="129"/>
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
@@ -6226,8 +6512,8 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="127"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="129"/>
       <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
@@ -6238,8 +6524,8 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="127"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="129"/>
       <c r="B14" s="36" t="s">
         <v>47</v>
       </c>
@@ -6250,8 +6536,8 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="127"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="129"/>
       <c r="B15" s="36" t="s">
         <v>48</v>
       </c>
@@ -6262,8 +6548,8 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="127"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="129"/>
       <c r="B16" s="39" t="s">
         <v>49</v>
       </c>
@@ -6274,8 +6560,8 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="127"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="129"/>
       <c r="B17" s="36" t="s">
         <v>50</v>
       </c>
@@ -6286,8 +6572,8 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="127"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="129"/>
       <c r="B18" s="39" t="s">
         <v>51</v>
       </c>
@@ -6298,8 +6584,8 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="127"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="129"/>
       <c r="B19" s="36" t="s">
         <v>53</v>
       </c>
@@ -6310,8 +6596,8 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="127"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="129"/>
       <c r="B20" s="36" t="s">
         <v>54</v>
       </c>
@@ -6322,8 +6608,8 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="127"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="129"/>
       <c r="B21" s="36" t="s">
         <v>55</v>
       </c>
@@ -6334,8 +6620,8 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="127"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="129"/>
       <c r="B22" s="36" t="s">
         <v>56</v>
       </c>
@@ -6346,8 +6632,8 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="127"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="129"/>
       <c r="B23" s="36" t="s">
         <v>57</v>
       </c>
@@ -6358,8 +6644,8 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="133"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="135"/>
       <c r="B24" s="36" t="s">
         <v>58</v>
       </c>
@@ -6370,7 +6656,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="47"/>
       <c r="B25" s="25"/>
       <c r="C25" s="26"/>
@@ -6378,9 +6664,9 @@
       <c r="E25" s="27"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="117" t="s">
-        <v>298</v>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="119" t="s">
+        <v>296</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>32</v>
@@ -6391,8 +6677,8 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="127"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="129"/>
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
@@ -6403,8 +6689,8 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="127"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="129"/>
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
@@ -6415,8 +6701,8 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="127"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="129"/>
       <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
@@ -6427,8 +6713,8 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="127"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="129"/>
       <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
@@ -6439,8 +6725,8 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="127"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="129"/>
       <c r="B31" s="2" t="s">
         <v>23</v>
       </c>
@@ -6451,8 +6737,8 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="127"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="129"/>
       <c r="B32" s="2" t="s">
         <v>24</v>
       </c>
@@ -6463,8 +6749,8 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="127"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="129"/>
       <c r="B33" s="2" t="s">
         <v>25</v>
       </c>
@@ -6475,8 +6761,8 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="127"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="129"/>
       <c r="B34" s="24" t="s">
         <v>26</v>
       </c>
@@ -6487,8 +6773,8 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="127"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="129"/>
       <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
@@ -6499,8 +6785,8 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="127"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="129"/>
       <c r="B36" s="2" t="s">
         <v>28</v>
       </c>
@@ -6511,8 +6797,8 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="133"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="135"/>
       <c r="B37" s="2" t="s">
         <v>59</v>
       </c>
@@ -6523,20 +6809,20 @@
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="102"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="100"/>
       <c r="B38" s="25"/>
       <c r="C38" s="26"/>
       <c r="D38" s="25"/>
       <c r="E38" s="27"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="137" t="s">
+    <row r="39" spans="1:8" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="139" t="s">
+        <v>300</v>
+      </c>
+      <c r="B39" s="15" t="s">
         <v>302</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>304</v>
       </c>
       <c r="C39" s="37"/>
       <c r="D39" s="36"/>
@@ -6545,31 +6831,31 @@
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="138"/>
+    <row r="40" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="140"/>
       <c r="B40" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="C40" s="103"/>
+        <v>301</v>
+      </c>
+      <c r="C40" s="101"/>
       <c r="D40" s="39"/>
       <c r="E40" s="85" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="138"/>
+    <row r="41" spans="1:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="140"/>
       <c r="B41" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="C41" s="103"/>
+        <v>303</v>
+      </c>
+      <c r="C41" s="101"/>
       <c r="D41" s="39"/>
       <c r="E41" s="85" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="48"/>
       <c r="B42" s="25"/>
       <c r="C42" s="26"/>
@@ -6577,9 +6863,9 @@
       <c r="E42" s="27"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="134" t="s">
-        <v>300</v>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="136" t="s">
+        <v>298</v>
       </c>
       <c r="B43" s="68" t="s">
         <v>19</v>
@@ -6590,8 +6876,8 @@
       <c r="D43" s="2"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="135"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="137"/>
       <c r="B44" s="15" t="s">
         <v>20</v>
       </c>
@@ -6601,8 +6887,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="135"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="137"/>
       <c r="B45" s="15" t="s">
         <v>21</v>
       </c>
@@ -6613,8 +6899,8 @@
       <c r="E45" s="3"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="136"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="138"/>
       <c r="B46" s="15" t="s">
         <v>22</v>
       </c>
@@ -6624,16 +6910,16 @@
       <c r="D46" s="2"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="46"/>
       <c r="B47" s="28"/>
       <c r="C47" s="26"/>
       <c r="D47" s="25"/>
       <c r="E47" s="27"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="117" t="s">
-        <v>301</v>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="119" t="s">
+        <v>299</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>33</v>
@@ -6644,8 +6930,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="127"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="129"/>
       <c r="B49" s="2" t="s">
         <v>34</v>
       </c>
@@ -6655,8 +6941,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="128"/>
+    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="130"/>
       <c r="B50" s="4" t="s">
         <v>35</v>
       </c>
@@ -6666,14 +6952,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -6701,14 +6987,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6725,12 +7011,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="118" t="s">
-        <v>308</v>
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="120" t="s">
+        <v>306</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="38"/>
@@ -6739,10 +7025,10 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="118"/>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="120"/>
       <c r="B3" s="61" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="38"/>
@@ -6751,10 +7037,10 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="118"/>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="120"/>
       <c r="B4" s="61" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="38"/>
@@ -6763,10 +7049,10 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="123"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="125"/>
       <c r="B5" s="61" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="38"/>
@@ -6775,7 +7061,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="47"/>
       <c r="B6" s="25"/>
       <c r="C6" s="26"/>
@@ -6783,12 +7069,12 @@
       <c r="E6" s="27"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="118" t="s">
-        <v>334</v>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="120" t="s">
+        <v>332</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -6797,10 +7083,10 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="127"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="129"/>
       <c r="B8" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -6809,10 +7095,10 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="127"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="129"/>
       <c r="B9" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -6821,10 +7107,10 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="127"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="129"/>
       <c r="B10" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -6833,10 +7119,10 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="127"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="129"/>
       <c r="B11" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -6845,10 +7131,10 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="127"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="129"/>
       <c r="B12" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -6857,7 +7143,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="48"/>
       <c r="B13" s="25"/>
       <c r="C13" s="26"/>
@@ -6865,12 +7151,12 @@
       <c r="E13" s="27"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="104" t="s">
-        <v>306</v>
+    <row r="14" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="102" t="s">
+        <v>304</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C14" s="67"/>
       <c r="D14" s="67" t="s">
@@ -6878,14 +7164,14 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -6910,13 +7196,13 @@
       <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -6933,12 +7219,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
-        <v>315</v>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="95" t="s">
+        <v>313</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="2"/>
@@ -6946,15 +7232,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="69"/>
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
       <c r="E3" s="53"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="124" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="126" t="s">
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -6966,8 +7252,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="125"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="127"/>
       <c r="B5" s="49" t="s">
         <v>64</v>
       </c>
@@ -6977,10 +7263,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="125"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="127"/>
       <c r="B6" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C6" s="45"/>
       <c r="D6" s="50"/>
@@ -6988,10 +7274,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="125"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="127"/>
       <c r="B7" s="58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="50"/>
@@ -6999,8 +7285,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="125"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="127"/>
       <c r="B8" s="58" t="s">
         <v>77</v>
       </c>
@@ -7010,8 +7296,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="125"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="127"/>
       <c r="B9" s="58" t="s">
         <v>78</v>
       </c>
@@ -7021,8 +7307,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="125"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="127"/>
       <c r="B10" s="58" t="s">
         <v>79</v>
       </c>
@@ -7032,8 +7318,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="126"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="128"/>
       <c r="B11" s="51" t="s">
         <v>97</v>
       </c>
@@ -7043,16 +7329,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="52"/>
       <c r="B12" s="52"/>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
       <c r="E12" s="53"/>
     </row>
-    <row r="13" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="132" t="s">
-        <v>314</v>
+    <row r="13" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="134" t="s">
+        <v>312</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>63</v>
@@ -7063,10 +7349,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="127"/>
+    <row r="14" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="129"/>
       <c r="B14" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
@@ -7074,10 +7360,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="127"/>
+    <row r="15" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="129"/>
       <c r="B15" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
@@ -7085,10 +7371,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="127"/>
+    <row r="16" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="129"/>
       <c r="B16" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" s="45"/>
       <c r="D16" s="45"/>
@@ -7096,10 +7382,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="127"/>
+    <row r="17" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="129"/>
       <c r="B17" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="45"/>
       <c r="D17" s="45"/>
@@ -7107,10 +7393,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="127"/>
+    <row r="18" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="129"/>
       <c r="B18" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
@@ -7118,10 +7404,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="127"/>
+    <row r="19" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="129"/>
       <c r="B19" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" s="45"/>
       <c r="D19" s="45"/>
@@ -7129,10 +7415,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="127"/>
+    <row r="20" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="129"/>
       <c r="B20" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
@@ -7140,10 +7426,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="127"/>
+    <row r="21" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="129"/>
       <c r="B21" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="45"/>
@@ -7151,10 +7437,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="127"/>
+    <row r="22" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="129"/>
       <c r="B22" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C22" s="45"/>
       <c r="D22" s="45"/>
@@ -7162,10 +7448,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="127"/>
+    <row r="23" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="129"/>
       <c r="B23" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C23" s="45"/>
       <c r="D23" s="45"/>
@@ -7173,10 +7459,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="127"/>
+    <row r="24" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="129"/>
       <c r="B24" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C24" s="45"/>
       <c r="D24" s="45"/>
@@ -7184,10 +7470,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="127"/>
+    <row r="25" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="129"/>
       <c r="B25" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C25" s="45"/>
       <c r="D25" s="45"/>
@@ -7195,10 +7481,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="127"/>
+    <row r="26" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="129"/>
       <c r="B26" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="45"/>
       <c r="D26" s="45"/>
@@ -7206,10 +7492,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="127"/>
+    <row r="27" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="129"/>
       <c r="B27" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C27" s="45"/>
       <c r="D27" s="45"/>
@@ -7217,10 +7503,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="127"/>
+    <row r="28" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="129"/>
       <c r="B28" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C28" s="45"/>
       <c r="D28" s="45"/>
@@ -7228,10 +7514,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="127"/>
+    <row r="29" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="129"/>
       <c r="B29" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C29" s="45"/>
       <c r="D29" s="45"/>
@@ -7239,10 +7525,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="127"/>
+    <row r="30" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="129"/>
       <c r="B30" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C30" s="45"/>
       <c r="D30" s="45"/>
@@ -7250,10 +7536,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="127"/>
+    <row r="31" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="129"/>
       <c r="B31" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
@@ -7261,10 +7547,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="127"/>
+    <row r="32" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="129"/>
       <c r="B32" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C32" s="45"/>
       <c r="D32" s="45"/>
@@ -7272,10 +7558,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="127"/>
+    <row r="33" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="129"/>
       <c r="B33" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C33" s="45"/>
       <c r="D33" s="45"/>
@@ -7283,17 +7569,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="127"/>
+    <row r="34" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="129"/>
       <c r="B34" s="15"/>
       <c r="C34" s="45"/>
       <c r="D34" s="45"/>
       <c r="E34" s="29"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="127"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="129"/>
       <c r="B35" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C35" s="45"/>
       <c r="D35" s="45"/>
@@ -7301,10 +7587,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="127"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="129"/>
       <c r="B36" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C36" s="45"/>
       <c r="D36" s="45"/>
@@ -7312,10 +7598,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="127"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="129"/>
       <c r="B37" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C37" s="45"/>
       <c r="D37" s="45"/>
@@ -7323,10 +7609,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="127"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="129"/>
       <c r="B38" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C38" s="45"/>
       <c r="D38" s="45"/>
@@ -7334,10 +7620,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="127"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="129"/>
       <c r="B39" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C39" s="45"/>
       <c r="D39" s="45"/>
@@ -7345,10 +7631,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="127"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="129"/>
       <c r="B40" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C40" s="45"/>
       <c r="D40" s="45"/>
@@ -7356,10 +7642,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="127"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="129"/>
       <c r="B41" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C41" s="45"/>
       <c r="D41" s="45"/>
@@ -7367,10 +7653,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="127"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="129"/>
       <c r="B42" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C42" s="45"/>
       <c r="D42" s="45"/>
@@ -7378,10 +7664,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="127"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="129"/>
       <c r="B43" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C43" s="45"/>
       <c r="D43" s="45"/>
@@ -7389,10 +7675,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="127"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="129"/>
       <c r="B44" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="45"/>
       <c r="D44" s="45"/>
@@ -7400,10 +7686,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="127"/>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="129"/>
       <c r="B45" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C45" s="45"/>
       <c r="D45" s="45"/>
@@ -7411,10 +7697,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="127"/>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="129"/>
       <c r="B46" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C46" s="45"/>
       <c r="D46" s="45"/>
@@ -7422,10 +7708,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="127"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="129"/>
       <c r="B47" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C47" s="45"/>
       <c r="D47" s="45"/>
@@ -7433,10 +7719,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="127"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="129"/>
       <c r="B48" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C48" s="45"/>
       <c r="D48" s="45"/>
@@ -7444,10 +7730,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="127"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="129"/>
       <c r="B49" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C49" s="45"/>
       <c r="D49" s="45"/>
@@ -7455,10 +7741,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="127"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="129"/>
       <c r="B50" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C50" s="45"/>
       <c r="D50" s="45"/>
@@ -7466,10 +7752,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="127"/>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="129"/>
       <c r="B51" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C51" s="45"/>
       <c r="D51" s="45"/>
@@ -7477,10 +7763,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="127"/>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="129"/>
       <c r="B52" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C52" s="45"/>
       <c r="D52" s="45"/>
@@ -7488,10 +7774,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="127"/>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="129"/>
       <c r="B53" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C53" s="45"/>
       <c r="D53" s="45"/>
@@ -7499,10 +7785,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="127"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="129"/>
       <c r="B54" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C54" s="45"/>
       <c r="D54" s="45"/>
@@ -7510,15 +7796,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="69"/>
       <c r="B55" s="52"/>
       <c r="C55" s="52"/>
       <c r="D55" s="52"/>
       <c r="E55" s="53"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="132" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="134" t="s">
         <v>62</v>
       </c>
       <c r="B56" s="15" t="s">
@@ -7530,8 +7816,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="127"/>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="129"/>
       <c r="B57" s="15" t="s">
         <v>75</v>
       </c>
@@ -7541,8 +7827,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="133"/>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="135"/>
       <c r="B58" s="15" t="s">
         <v>74</v>
       </c>
@@ -7552,15 +7838,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="69"/>
       <c r="B59" s="52"/>
       <c r="C59" s="52"/>
       <c r="D59" s="52"/>
       <c r="E59" s="52"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="124" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="126" t="s">
         <v>65</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -7572,8 +7858,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="125"/>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="127"/>
       <c r="B61" s="2" t="s">
         <v>67</v>
       </c>
@@ -7583,8 +7869,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="125"/>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="127"/>
       <c r="B62" s="2" t="s">
         <v>70</v>
       </c>
@@ -7594,8 +7880,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="125"/>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="127"/>
       <c r="B63" s="2" t="s">
         <v>68</v>
       </c>
@@ -7605,8 +7891,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="125"/>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="127"/>
       <c r="B64" s="2" t="s">
         <v>69</v>
       </c>
@@ -7616,8 +7902,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="125"/>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="127"/>
       <c r="B65" s="54" t="s">
         <v>71</v>
       </c>
@@ -7627,8 +7913,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="125"/>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="127"/>
       <c r="B66" s="54" t="s">
         <v>72</v>
       </c>
@@ -7638,8 +7924,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="125"/>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="127"/>
       <c r="B67" s="54" t="s">
         <v>73</v>
       </c>
@@ -7649,10 +7935,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="125"/>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="127"/>
       <c r="B68" s="57" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C68" s="23"/>
       <c r="D68" s="55"/>
@@ -7660,10 +7946,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="126"/>
+    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="128"/>
       <c r="B69" s="57" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C69" s="23"/>
       <c r="D69" s="55"/>
@@ -7671,19 +7957,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="52"/>
       <c r="B70" s="52"/>
       <c r="C70" s="52"/>
       <c r="D70" s="52"/>
       <c r="E70" s="52"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="139" t="s">
-        <v>353</v>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="141" t="s">
+        <v>351</v>
       </c>
       <c r="B71" s="61" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C71" s="61"/>
       <c r="D71" s="61"/>
@@ -7691,10 +7977,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="140"/>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="142"/>
       <c r="B72" s="61" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C72" s="61"/>
       <c r="D72" s="61"/>
@@ -7702,10 +7988,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="140"/>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="142"/>
       <c r="B73" s="61" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C73" s="61"/>
       <c r="D73" s="61"/>
@@ -7713,10 +7999,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="140"/>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="142"/>
       <c r="B74" s="61" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C74" s="61"/>
       <c r="D74" s="61"/>
@@ -7724,10 +8010,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="140"/>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="142"/>
       <c r="B75" s="61" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C75" s="61"/>
       <c r="D75" s="61"/>
@@ -7735,10 +8021,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="140"/>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="142"/>
       <c r="B76" s="61" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C76" s="61"/>
       <c r="D76" s="61"/>
@@ -7746,19 +8032,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="105"/>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="103"/>
       <c r="B77" s="52"/>
       <c r="C77" s="52"/>
       <c r="D77" s="52"/>
-      <c r="E77" s="116"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="139" t="s">
-        <v>318</v>
+      <c r="E77" s="113"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="141" t="s">
+        <v>316</v>
       </c>
       <c r="B78" s="61" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C78" s="61"/>
       <c r="D78" s="61"/>
@@ -7766,10 +8052,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="140"/>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="142"/>
       <c r="B79" s="61" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C79" s="61"/>
       <c r="D79" s="61"/>
@@ -7777,10 +8063,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="140"/>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="142"/>
       <c r="B80" s="61" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C80" s="61"/>
       <c r="D80" s="61"/>
@@ -7788,10 +8074,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="141"/>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="143"/>
       <c r="B81" s="61" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C81" s="61"/>
       <c r="D81" s="61"/>
@@ -7799,16 +8085,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="105"/>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="103"/>
       <c r="B82" s="52"/>
       <c r="C82" s="52"/>
       <c r="D82" s="52"/>
       <c r="E82" s="52"/>
     </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="132" t="s">
-        <v>313</v>
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="134" t="s">
+        <v>311</v>
       </c>
       <c r="B83" s="15" t="s">
         <v>21</v>
@@ -7819,8 +8105,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="128"/>
+    <row r="84" spans="1:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="130"/>
       <c r="B84" s="66" t="s">
         <v>22</v>
       </c>
@@ -7853,13 +8139,13 @@
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="84.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="84.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -7876,12 +8162,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="131" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="2"/>
@@ -7890,10 +8176,10 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="130"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="132"/>
       <c r="B3" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C3" s="45"/>
       <c r="D3" s="2"/>
@@ -7902,10 +8188,10 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="130"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="132"/>
       <c r="B4" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C4" s="45"/>
       <c r="D4" s="2"/>
@@ -7914,10 +8200,10 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="130"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="132"/>
       <c r="B5" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C5" s="45"/>
       <c r="D5" s="2"/>
@@ -7926,10 +8212,10 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="130"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="132"/>
       <c r="B6" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C6" s="45"/>
       <c r="D6" s="2"/>
@@ -7938,10 +8224,10 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="130"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="132"/>
       <c r="B7" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="2"/>
@@ -7950,10 +8236,10 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="130"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="132"/>
       <c r="B8" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C8" s="45"/>
       <c r="D8" s="2"/>
@@ -7962,10 +8248,10 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="130"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="132"/>
       <c r="B9" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C9" s="45"/>
       <c r="D9" s="2"/>
@@ -7974,10 +8260,10 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="132"/>
       <c r="B10" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C10" s="45"/>
       <c r="D10" s="2"/>
@@ -7986,7 +8272,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="74"/>
       <c r="B11" s="74"/>
       <c r="C11" s="74"/>
@@ -7994,12 +8280,12 @@
       <c r="E11" s="76"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="118" t="s">
-        <v>211</v>
+    <row r="12" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="120" t="s">
+        <v>210</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C12" s="45"/>
       <c r="D12" s="79"/>
@@ -8008,10 +8294,10 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="118"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="120"/>
       <c r="B13" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C13" s="45"/>
       <c r="D13" s="79"/>
@@ -8020,10 +8306,10 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="118"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="120"/>
       <c r="B14" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="79"/>
@@ -8032,10 +8318,10 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="118"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="120"/>
       <c r="B15" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C15" s="45"/>
       <c r="D15" s="79"/>
@@ -8044,10 +8330,10 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="118"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="120"/>
       <c r="B16" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C16" s="45"/>
       <c r="D16" s="79"/>
@@ -8056,10 +8342,10 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="123"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="125"/>
       <c r="B17" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C17" s="45"/>
       <c r="D17" s="79"/>
@@ -8068,7 +8354,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="74"/>
       <c r="B18" s="74"/>
       <c r="C18" s="74"/>
@@ -8076,12 +8362,12 @@
       <c r="E18" s="76"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="129" t="s">
-        <v>323</v>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="131" t="s">
+        <v>321</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="2"/>
@@ -8090,10 +8376,10 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="132"/>
       <c r="B20" s="54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C20" s="59"/>
       <c r="D20" s="2"/>
@@ -8102,10 +8388,10 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="132"/>
       <c r="B21" s="54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C21" s="59" t="s">
         <v>9</v>
@@ -8114,10 +8400,10 @@
       <c r="E21" s="3"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="131"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="133"/>
       <c r="B22" s="54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C22" s="59" t="s">
         <v>9</v>
@@ -8126,7 +8412,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="77"/>
       <c r="B23" s="74"/>
       <c r="C23" s="74"/>
@@ -8134,12 +8420,12 @@
       <c r="E23" s="76"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="129" t="s">
-        <v>324</v>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="131" t="s">
+        <v>322</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C24" s="59"/>
       <c r="D24" s="2"/>
@@ -8147,10 +8433,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="126"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="128"/>
       <c r="B25" s="57" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C25" s="59"/>
       <c r="D25" s="2"/>
@@ -8158,19 +8444,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="106"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="104"/>
       <c r="B26" s="74"/>
       <c r="C26" s="74"/>
       <c r="D26" s="74"/>
       <c r="E26" s="74"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="130" t="s">
-        <v>325</v>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="132" t="s">
+        <v>323</v>
       </c>
       <c r="B27" s="57" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C27" s="59"/>
       <c r="D27" s="2"/>
@@ -8178,10 +8464,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="125"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="127"/>
       <c r="B28" s="57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C28" s="59"/>
       <c r="D28" s="2"/>
@@ -8189,10 +8475,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="125"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="127"/>
       <c r="B29" s="57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C29" s="59"/>
       <c r="D29" s="2"/>
@@ -8200,10 +8486,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="126"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="128"/>
       <c r="B30" s="57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C30" s="59"/>
       <c r="D30" s="2"/>
@@ -8211,19 +8497,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="75"/>
       <c r="B31" s="75"/>
       <c r="C31" s="75"/>
       <c r="D31" s="75"/>
       <c r="E31" s="76"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="124" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="126" t="s">
         <v>60</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>9</v>
@@ -8231,10 +8517,10 @@
       <c r="D32" s="2"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="125"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="127"/>
       <c r="B33" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C33" s="23" t="s">
         <v>9</v>
@@ -8242,10 +8528,10 @@
       <c r="D33" s="2"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="125"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="127"/>
       <c r="B34" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>9</v>
@@ -8253,10 +8539,10 @@
       <c r="D34" s="2"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="125"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="127"/>
       <c r="B35" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="2"/>
@@ -8264,10 +8550,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="125"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="127"/>
       <c r="B36" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>9</v>
@@ -8275,10 +8561,10 @@
       <c r="D36" s="2"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="125"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="127"/>
       <c r="B37" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C37" s="23" t="s">
         <v>9</v>
@@ -8286,10 +8572,10 @@
       <c r="D37" s="2"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="125"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="127"/>
       <c r="B38" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C38" s="23" t="s">
         <v>9</v>
@@ -8297,10 +8583,10 @@
       <c r="D38" s="2"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="125"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="127"/>
       <c r="B39" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="2"/>
@@ -8308,10 +8594,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="125"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="127"/>
       <c r="B40" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C40" s="23"/>
       <c r="D40" s="2"/>
@@ -8319,10 +8605,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="125"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="127"/>
       <c r="B41" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C41" s="23"/>
       <c r="D41" s="2"/>
@@ -8330,10 +8616,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="125"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="127"/>
       <c r="B42" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C42" s="23" t="s">
         <v>9</v>
@@ -8341,10 +8627,10 @@
       <c r="D42" s="2"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="125"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="127"/>
       <c r="B43" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C43" s="23" t="s">
         <v>9</v>
@@ -8352,10 +8638,10 @@
       <c r="D43" s="2"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="126"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="128"/>
       <c r="B44" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C44" s="23" t="s">
         <v>9</v>
@@ -8363,19 +8649,19 @@
       <c r="D44" s="2"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="75"/>
       <c r="B45" s="75"/>
       <c r="C45" s="75"/>
       <c r="D45" s="75"/>
       <c r="E45" s="76"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="129" t="s">
-        <v>346</v>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="131" t="s">
+        <v>344</v>
       </c>
       <c r="B46" s="54" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C46" s="59"/>
       <c r="D46" s="54"/>
@@ -8383,10 +8669,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="130"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="132"/>
       <c r="B47" s="54" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C47" s="59"/>
       <c r="D47" s="54"/>
@@ -8394,10 +8680,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="130"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="132"/>
       <c r="B48" s="54" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="54"/>
@@ -8405,10 +8691,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="130"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="132"/>
       <c r="B49" s="54" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="54"/>
@@ -8416,10 +8702,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="130"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="132"/>
       <c r="B50" s="54" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="54"/>
@@ -8427,18 +8713,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="142"/>
+    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="144"/>
       <c r="B51" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="101" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -8464,15 +8750,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A365AE-7930-4274-837C-B5D83DFDF1FE}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="69.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="69.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
@@ -8489,12 +8775,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="117" t="s">
-        <v>332</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="119" t="s">
+        <v>330</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="2"/>
@@ -8502,10 +8788,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="118"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="120"/>
       <c r="B3" s="57" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C3" s="45"/>
       <c r="D3" s="2"/>
@@ -8513,10 +8799,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="118"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="120"/>
       <c r="B4" s="57" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C4" s="45"/>
       <c r="D4" s="36"/>
@@ -8524,10 +8810,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="123"/>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="125"/>
       <c r="B5" s="57" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C5" s="45"/>
       <c r="D5" s="79"/>
@@ -8535,19 +8821,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="86"/>
       <c r="B6" s="86"/>
       <c r="C6" s="86"/>
       <c r="D6" s="86"/>
       <c r="E6" s="86"/>
     </row>
-    <row r="7" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="118" t="s">
-        <v>333</v>
+    <row r="7" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="120" t="s">
+        <v>331</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C7" s="55"/>
       <c r="D7" s="79"/>
@@ -8555,10 +8841,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="118"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="120"/>
       <c r="B8" s="57" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C8" s="55"/>
       <c r="D8" s="79"/>
@@ -8566,10 +8852,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="118"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="120"/>
       <c r="B9" s="57" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C9" s="55"/>
       <c r="D9" s="79"/>
@@ -8577,10 +8863,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="118"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="120"/>
       <c r="B10" s="57" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C10" s="55"/>
       <c r="D10" s="79"/>
@@ -8588,10 +8874,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="123"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="125"/>
       <c r="B11" s="57" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C11" s="55"/>
       <c r="D11" s="79"/>
@@ -8599,19 +8885,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="86"/>
       <c r="B12" s="86"/>
       <c r="C12" s="87"/>
       <c r="D12" s="86"/>
-      <c r="E12" s="147"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="143" t="s">
-        <v>326</v>
+      <c r="E12" s="114"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="145" t="s">
+        <v>324</v>
       </c>
       <c r="B13" s="79" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C13" s="55"/>
       <c r="D13" s="79"/>
@@ -8619,10 +8905,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="144"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="146"/>
       <c r="B14" s="79" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="79"/>
@@ -8630,10 +8916,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="144"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="146"/>
       <c r="B15" s="79" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C15" s="55"/>
       <c r="D15" s="79"/>
@@ -8641,10 +8927,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="144"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="146"/>
       <c r="B16" s="79" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C16" s="55"/>
       <c r="D16" s="79"/>
@@ -8652,10 +8938,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="144"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="146"/>
       <c r="B17" s="79" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="55"/>
       <c r="D17" s="79"/>
@@ -8663,19 +8949,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="86"/>
       <c r="B18" s="86"/>
       <c r="C18" s="86"/>
       <c r="D18" s="86"/>
       <c r="E18" s="87"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="129" t="s">
-        <v>328</v>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="131" t="s">
+        <v>326</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="2"/>
@@ -8683,10 +8969,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="125"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="127"/>
       <c r="B20" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="2"/>
@@ -8694,10 +8980,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="126"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="128"/>
       <c r="B21" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="2"/>
@@ -8705,19 +8991,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="86"/>
       <c r="B22" s="86"/>
       <c r="C22" s="86"/>
       <c r="D22" s="86"/>
       <c r="E22" s="87"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="134" t="s">
-        <v>329</v>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="136" t="s">
+        <v>327</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C23" s="59"/>
       <c r="D23" s="54"/>
@@ -8725,10 +9011,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="135"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="137"/>
       <c r="B24" s="54" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C24" s="59"/>
       <c r="D24" s="54"/>
@@ -8736,10 +9022,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="136"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="138"/>
       <c r="B25" s="79" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C25" s="59"/>
       <c r="D25" s="79"/>
@@ -8747,19 +9033,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="84"/>
       <c r="B26" s="84"/>
       <c r="C26" s="84"/>
       <c r="D26" s="84"/>
-      <c r="E26" s="148"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="134" t="s">
-        <v>331</v>
+      <c r="E26" s="115"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="136" t="s">
+        <v>329</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="36"/>
@@ -8767,10 +9053,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="135"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="137"/>
       <c r="B28" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="36"/>
@@ -8778,10 +9064,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="135"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="137"/>
       <c r="B29" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="36"/>
@@ -8789,10 +9075,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="136"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="138"/>
       <c r="B30" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="36"/>
@@ -8800,19 +9086,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="92"/>
       <c r="B31" s="86"/>
       <c r="C31" s="93"/>
       <c r="D31" s="94"/>
-      <c r="E31" s="149"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="134" t="s">
-        <v>327</v>
+      <c r="E31" s="116"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="136" t="s">
+        <v>325</v>
       </c>
       <c r="B32" s="54" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="36"/>
@@ -8820,58 +9106,58 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="135"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="137"/>
       <c r="B33" s="54" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="39"/>
-      <c r="E33" s="150" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="135"/>
+      <c r="E33" s="117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="137"/>
       <c r="B34" s="54" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="39"/>
-      <c r="E34" s="150" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="135"/>
+      <c r="E34" s="117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="137"/>
       <c r="B35" s="54" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="39"/>
-      <c r="E35" s="150" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="135"/>
+      <c r="E35" s="117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="137"/>
       <c r="B36" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="39"/>
-      <c r="E36" s="150" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="145"/>
+      <c r="E36" s="117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="147"/>
       <c r="B37" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C37" s="67"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="151" t="s">
+      <c r="D37" s="105"/>
+      <c r="E37" s="118" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8892,19 +9178,19 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8D2795-3703-4799-82AD-D959B47FB411}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="58.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
@@ -8921,120 +9207,248 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="145" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C2" s="55"/>
       <c r="D2" s="79"/>
       <c r="E2" s="83"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="144"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="146"/>
       <c r="B3" s="79" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C3" s="55"/>
       <c r="D3" s="79"/>
       <c r="E3" s="83"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="144"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="146"/>
       <c r="B4" s="79" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C4" s="55"/>
       <c r="D4" s="79"/>
       <c r="E4" s="83"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="144"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="146"/>
       <c r="B5" s="79" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C5" s="55"/>
       <c r="D5" s="79"/>
       <c r="E5" s="83"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="144"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="146"/>
       <c r="B6" s="79" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C6" s="55"/>
       <c r="D6" s="79"/>
       <c r="E6" s="83"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="146"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="148"/>
       <c r="B7" s="79" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C7" s="55"/>
       <c r="D7" s="79"/>
       <c r="E7" s="83"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="91"/>
       <c r="B8" s="91"/>
       <c r="C8" s="91"/>
       <c r="D8" s="91"/>
       <c r="E8" s="91"/>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="96" t="s">
-        <v>336</v>
-      </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="79"/>
+    <row r="9" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="156" t="s">
+        <v>383</v>
+      </c>
+      <c r="B9" s="149"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="149"/>
       <c r="E9" s="83"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="91"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="96" t="s">
-        <v>335</v>
-      </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="83"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="91"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="95" t="s">
-        <v>252</v>
-      </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="79"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="157"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="83"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="151"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="145" t="s">
+        <v>370</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="149"/>
+      <c r="E12" s="83"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="146"/>
+      <c r="B13" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="149"/>
       <c r="E13" s="83"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="146"/>
+      <c r="B14" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="149"/>
+      <c r="E14" s="83"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="146"/>
+      <c r="B15" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="149"/>
+      <c r="E15" s="83"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="146"/>
+      <c r="B16" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="149"/>
+      <c r="E16" s="83"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="146"/>
+      <c r="B17" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="149"/>
+      <c r="E17" s="83"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="146"/>
+      <c r="B18" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="149"/>
+      <c r="E18" s="83"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="146"/>
+      <c r="B19" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="149"/>
+      <c r="E19" s="83"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="146"/>
+      <c r="B20" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="149"/>
+      <c r="E20" s="83"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="146"/>
+      <c r="B21" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="149"/>
+      <c r="E21" s="83"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="148"/>
+      <c r="B22" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="149"/>
+      <c r="E22" s="83"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="150"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+    </row>
+    <row r="24" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="141" t="s">
+        <v>372</v>
+      </c>
+      <c r="B24" s="79"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="152"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="41" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A12:A22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Scrum/Sprint_backlog.xlsx
+++ b/Documents/Scrum/Sprint_backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A647276A-F374-4F43-9051-24044AA33742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14267F72-A852-452F-BBB5-B61D40EB0ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9876" yWindow="2328" windowWidth="17280" windowHeight="9060" firstSheet="7" activeTab="9" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="10" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint_0." sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="450">
   <si>
     <t>STORY</t>
   </si>
@@ -3119,17 +3119,7 @@
 à Visual Studio</t>
   </si>
   <si>
-    <t>Fonctionnalité
-réserver matériel</t>
-  </si>
-  <si>
     <t>Fonctionnalité chat WavCom</t>
-  </si>
-  <si>
-    <t>Liaison calendrier 
-disponibiltés Waview 
-avec leur calendrier 
-personnel</t>
   </si>
   <si>
     <t>Mettre en place AJAX pour utilisation des requêtes dans JavaScript</t>
@@ -3271,15 +3261,221 @@
     <t xml:space="preserve">Mise en page de la description + ajouter photos  dans la balise du lieux </t>
   </si>
   <si>
-    <t xml:space="preserve">En cas d'ouverture d'une description de la balise des 
-lieux faire automatiquement la fermeture de l'autre </t>
-  </si>
-  <si>
     <t>Vérifier toutes les fonctionnalités WavMap</t>
   </si>
   <si>
     <t>Vérifier toutes les focntionnalités 
 de WavCom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter des commentaires dans le code </t>
+  </si>
+  <si>
+    <t>Améliorer le visuel de la barre de recherche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trouver quelque chose pour enlever les accent de la barre de recherche </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour la balise du lieu faire une mise en page pour la partie description + ajouter des photos </t>
+  </si>
+  <si>
+    <t>Pour tags favoris faire dynamiquement avec la BDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter le lien pour mot de passe oublié </t>
+  </si>
+  <si>
+    <t>Gestion de matériel : est-ce que l'Id est importamnt ?</t>
+  </si>
+  <si>
+    <t>Quand on fait l'ouverture de fenêtre et on met le thème 
+en clair / foncé -&gt; il y a la couleur inverse qui reste</t>
+  </si>
+  <si>
+    <t>Trouver une solution pour le crash appli si surcharge (ouverture de 3 chats)</t>
+  </si>
+  <si>
+    <t>Tableau de bord : problème de visualisation du texte dans activité
+Activité -&gt; Activités et a mettre en gras vu que Clients et Projets sont en gras</t>
+  </si>
+  <si>
+    <t>Créer fonction WavChatPDO</t>
+  </si>
+  <si>
+    <t>WavChatPDO : créer méthode GetUnreadMessageCount ()</t>
+  </si>
+  <si>
+    <t>WavChatPDO : créer méthode List&lt;unreadMessages&gt;GetUnread()</t>
+  </si>
+  <si>
+    <t>WavChatPDO : créer méthode List&lt;wavMessage&gt;GetMessageForChat()</t>
+  </si>
+  <si>
+    <t>WavChatPDO : créer méthode List&lt;wavMessage&gt;GetNewMessage()</t>
+  </si>
+  <si>
+    <t>WavChatPDO : créer méthode WavMessage GetMessageById()</t>
+  </si>
+  <si>
+    <t>WavChatPDO : créer méthode WavMessage sendMessage()</t>
+  </si>
+  <si>
+    <t>WavChatPDO : créer méthode WavMessage sendHiddenMessage()</t>
+  </si>
+  <si>
+    <t>Créer fonction WavMessage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WavMessage : créer méthode id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WavMessage : créer méthode GroupId</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WavMessage : créer méthode SenderId</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WavMessage : créer méthode DeliveryTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WavMessage : créer méthode content</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WavMessage : créer méthode Prénom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WavMessage : créer méthode WavMessage()</t>
+  </si>
+  <si>
+    <t>Créer fonction unreadMessage</t>
+  </si>
+  <si>
+    <t>unreadMessages : créer méthode client_Id</t>
+  </si>
+  <si>
+    <t>unreadMessages : créer méthode total</t>
+  </si>
+  <si>
+    <t>unreadMessages : créer méthode unreadMessages()</t>
+  </si>
+  <si>
+    <t>Chats : attention le bas du chat est coupé, mais le bouton "Envoyer" reste accessible</t>
+  </si>
+  <si>
+    <t>Créer méthode UpdateMateriel()</t>
+  </si>
+  <si>
+    <t>Créer méthode FrmWaviewGestionStock _Load ()</t>
+  </si>
+  <si>
+    <t>Créer méthode FrmWaviewGestionStock ()</t>
+  </si>
+  <si>
+    <t>Créer méthode UpdateCategories()</t>
+  </si>
+  <si>
+    <t>Créer méthode ShowMateriel()</t>
+  </si>
+  <si>
+    <t>Créer méthode lnMateriel_SelectedIndexChanged()</t>
+  </si>
+  <si>
+    <t>Créer méthode cmbFiltre_SelectedIndexChanged()</t>
+  </si>
+  <si>
+    <t>Créer méthode btnAjouter_Click()</t>
+  </si>
+  <si>
+    <t>Créer méthode ChangeFields()</t>
+  </si>
+  <si>
+    <t>Créer méthode btnSavesNew_Click()</t>
+  </si>
+  <si>
+    <t>Créer méthode btnSupprimer_Click()</t>
+  </si>
+  <si>
+    <t>Fonctionnalité
+gestion stock matériel</t>
+  </si>
+  <si>
+    <t>Créer méthode : FrmMaterielTournage()</t>
+  </si>
+  <si>
+    <t>Créer méthode : FrmMaterielTournage_Load()</t>
+  </si>
+  <si>
+    <t>Créer méthode : UpdateCategories(List&lt;CategoriesMateriel&gt;categorie)</t>
+  </si>
+  <si>
+    <t>Créer méthode : UpdateTournageDates(List&lt;Tournage&gt;tournage)</t>
+  </si>
+  <si>
+    <t>Créer méthode : cmbDate_SelectedIndexChanged()</t>
+  </si>
+  <si>
+    <t>Créer méthode : UpdateMaterielPris(List&lt;Materiel&gt;materiel)</t>
+  </si>
+  <si>
+    <t>Créer méthode : UpdateMaterielDispo(List&lt;Materiel&gt;materiel)</t>
+  </si>
+  <si>
+    <t>Créer méthode : lbSelected_SelectedIndexChanged()</t>
+  </si>
+  <si>
+    <t>Créer méthode : lbDisponible_SelectedIndexChanged()</t>
+  </si>
+  <si>
+    <t>Créer méthode : UpdateAvaibleAmout()</t>
+  </si>
+  <si>
+    <t>Créer méthode : btnRemove_Click ()</t>
+  </si>
+  <si>
+    <t>Créer méthode : btnAction_Click()</t>
+  </si>
+  <si>
+    <t>Créer méthode : cmbFiltreDisponible_SelectedIndexChanged()</t>
+  </si>
+  <si>
+    <t>Créer méthode : cmbFiltreSelect_SelectedIndexChanged()</t>
+  </si>
+  <si>
+    <t>Créer méthode : btnPrint_Click()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonctionnalité WavCom réserver matériel  tournage </t>
+  </si>
+  <si>
+    <t>Créer une méthode ActivityTimer_Tick()</t>
+  </si>
+  <si>
+    <t>Créer une méthode MessageTimer_Tick()</t>
+  </si>
+  <si>
+    <t>Créer une méthode UpdateCalendar()</t>
+  </si>
+  <si>
+    <t>Créer une méthode FormatDate()</t>
+  </si>
+  <si>
+    <t>Créer une méthode GetDayNameFrench()</t>
+  </si>
+  <si>
+    <t>Créer une méthode btnToday_Click()</t>
+  </si>
+  <si>
+    <t>Créer une méthode btnPreviusWeek_Click()</t>
+  </si>
+  <si>
+    <t>Créer une méthode btnNextWeek_Click()</t>
+  </si>
+  <si>
+    <t>Fonctionnalité WavCom  calendrier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En cas d'ouverture d'une description de la balise des lieux faire automatiquement la fermeture de l'autre </t>
   </si>
 </sst>
 </file>
@@ -3387,18 +3583,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3456,12 +3646,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3502,8 +3686,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -3849,11 +4063,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3878,68 +4114,59 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3956,25 +4183,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -3984,10 +4211,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -4015,10 +4242,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4031,61 +4258,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4094,7 +4318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4103,38 +4327,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4143,102 +4367,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4246,12 +4377,164 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4593,19 +4876,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4613,12 +4896,12 @@
       <c r="A2" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>157</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1"/>
@@ -4630,7 +4913,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="1"/>
@@ -4642,7 +4925,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="1"/>
@@ -4654,7 +4937,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="1"/>
@@ -4666,7 +4949,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1"/>
@@ -4678,7 +4961,7 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="1"/>
@@ -4690,7 +4973,7 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="1"/>
@@ -4702,15 +4985,15 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="16"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="63"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4722,7 +5005,7 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="1"/>
@@ -4734,195 +5017,195 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="120"/>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="12" t="s">
         <v>263</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="120"/>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="12" t="s">
         <v>265</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="120"/>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="12" t="s">
         <v>266</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="120"/>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="12" t="s">
         <v>267</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="120"/>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="12" t="s">
         <v>268</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="120"/>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="12" t="s">
         <v>269</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="120"/>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="12" t="s">
         <v>270</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="120"/>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="12" t="s">
         <v>271</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="63"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="97"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="91"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="119" t="s">
         <v>272</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="12" t="s">
         <v>273</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="120"/>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="12" t="s">
         <v>274</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="120"/>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="12" t="s">
         <v>275</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="120"/>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="12" t="s">
         <v>276</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="120"/>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="12" t="s">
         <v>277</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="125"/>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="12" t="s">
         <v>278</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="63"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="97"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="91"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4934,7 +5217,7 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4945,7 +5228,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4956,7 +5239,7 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H31" s="1"/>
@@ -4968,7 +5251,7 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H32" s="1"/>
@@ -4980,7 +5263,7 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4991,7 +5274,7 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5002,29 +5285,29 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="120"/>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="65" t="s">
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="120"/>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="65" t="s">
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="62" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5035,7 +5318,7 @@
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="41" t="s">
+      <c r="E38" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5053,362 +5336,802 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4275C1D2-30DB-4753-AC86-1CDFAF13FAD3}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="102" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="131" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>9</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="C2" s="42"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
+      <c r="E2" s="26" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="127"/>
-      <c r="B3" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="78"/>
+      <c r="B3" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="26" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="127"/>
-      <c r="B4" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="78"/>
+      <c r="B4" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="26" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="127"/>
-      <c r="B5" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="78"/>
+      <c r="B5" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="26" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="127"/>
-      <c r="B6" s="36" t="s">
-        <v>363</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="78"/>
+      <c r="B6" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="26" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="127"/>
-      <c r="B7" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="78"/>
+      <c r="B7" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="26" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="127"/>
-      <c r="B8" s="36" t="s">
-        <v>364</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="78"/>
+      <c r="B8" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="26" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="127"/>
-      <c r="B9" s="36" t="s">
-        <v>366</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="78"/>
+      <c r="B9" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="26" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="127"/>
-      <c r="B10" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="78"/>
+      <c r="B10" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="26" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="127"/>
-      <c r="B11" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="78"/>
+      <c r="B11" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="26" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="127"/>
-      <c r="B12" s="36" t="s">
-        <v>369</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="78"/>
+      <c r="B12" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="26" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="109"/>
-      <c r="B13" s="110"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="112"/>
-    </row>
-    <row r="14" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="103"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="106"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="119" t="s">
-        <v>335</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="23"/>
+        <v>448</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="129"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="45"/>
+      <c r="B15" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="C15" s="42"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="135"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="16"/>
+      <c r="E15" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="129"/>
+      <c r="B16" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="109"/>
-      <c r="B17" s="110"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="112"/>
+      <c r="A17" s="129"/>
+      <c r="B17" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="141" t="s">
-        <v>334</v>
-      </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="79"/>
-      <c r="E18" s="83"/>
+      <c r="A18" s="129"/>
+      <c r="B18" s="54" t="s">
+        <v>444</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="143"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="83"/>
+      <c r="A19" s="129"/>
+      <c r="B19" s="54" t="s">
+        <v>445</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="109"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="112"/>
-    </row>
-    <row r="21" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="145" t="s">
+      <c r="A20" s="129"/>
+      <c r="B20" s="54" t="s">
+        <v>446</v>
+      </c>
+      <c r="C20" s="42"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="129"/>
+      <c r="B21" s="54" t="s">
+        <v>447</v>
+      </c>
+      <c r="C21" s="42"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="103"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="106"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="141" t="s">
         <v>333</v>
       </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="83"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="148"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="83"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="109"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="112"/>
+      <c r="B23" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="C23" s="52"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="53" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="145" t="s">
+      <c r="A24" s="142"/>
+      <c r="B24" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="C24" s="52"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="142"/>
+      <c r="B25" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="C25" s="52"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="142"/>
+      <c r="B26" s="73" t="s">
+        <v>394</v>
+      </c>
+      <c r="C26" s="52"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="142"/>
+      <c r="B27" s="73" t="s">
+        <v>395</v>
+      </c>
+      <c r="C27" s="52"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="142"/>
+      <c r="B28" s="73" t="s">
+        <v>396</v>
+      </c>
+      <c r="C28" s="52"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="142"/>
+      <c r="B29" s="73" t="s">
+        <v>397</v>
+      </c>
+      <c r="C29" s="52"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="142"/>
+      <c r="B30" s="73" t="s">
+        <v>398</v>
+      </c>
+      <c r="C30" s="52"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="142"/>
+      <c r="B31" s="73" t="s">
+        <v>399</v>
+      </c>
+      <c r="C31" s="52"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="142"/>
+      <c r="B32" s="73" t="s">
+        <v>400</v>
+      </c>
+      <c r="C32" s="52"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="142"/>
+      <c r="B33" s="73" t="s">
+        <v>401</v>
+      </c>
+      <c r="C33" s="52"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="142"/>
+      <c r="B34" s="73" t="s">
+        <v>402</v>
+      </c>
+      <c r="C34" s="52"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="142"/>
+      <c r="B35" s="73" t="s">
+        <v>403</v>
+      </c>
+      <c r="C35" s="52"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="142"/>
+      <c r="B36" s="73" t="s">
+        <v>404</v>
+      </c>
+      <c r="C36" s="52"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="142"/>
+      <c r="B37" s="73" t="s">
+        <v>405</v>
+      </c>
+      <c r="C37" s="52"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="142"/>
+      <c r="B38" s="73" t="s">
+        <v>406</v>
+      </c>
+      <c r="C38" s="52"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="142"/>
+      <c r="B39" s="73" t="s">
+        <v>407</v>
+      </c>
+      <c r="C39" s="52"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="142"/>
+      <c r="B40" s="73" t="s">
+        <v>408</v>
+      </c>
+      <c r="C40" s="52"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="142"/>
+      <c r="B41" s="73" t="s">
+        <v>409</v>
+      </c>
+      <c r="C41" s="52"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="143"/>
+      <c r="B42" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="C42" s="52"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="103"/>
+      <c r="B43" s="155"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="106"/>
+    </row>
+    <row r="44" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="145" t="s">
+        <v>423</v>
+      </c>
+      <c r="B44" s="73" t="s">
+        <v>414</v>
+      </c>
+      <c r="C44" s="52"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="146"/>
+      <c r="B45" s="73" t="s">
+        <v>413</v>
+      </c>
+      <c r="C45" s="52"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="146"/>
+      <c r="B46" s="73" t="s">
+        <v>412</v>
+      </c>
+      <c r="C46" s="52"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="146"/>
+      <c r="B47" s="73" t="s">
+        <v>415</v>
+      </c>
+      <c r="C47" s="52"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="146"/>
+      <c r="B48" s="73" t="s">
+        <v>416</v>
+      </c>
+      <c r="C48" s="52"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="146"/>
+      <c r="B49" s="73" t="s">
+        <v>417</v>
+      </c>
+      <c r="C49" s="52"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="146"/>
+      <c r="B50" s="73" t="s">
+        <v>418</v>
+      </c>
+      <c r="C50" s="52"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="146"/>
+      <c r="B51" s="73" t="s">
+        <v>419</v>
+      </c>
+      <c r="C51" s="52"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="146"/>
+      <c r="B52" s="73" t="s">
+        <v>420</v>
+      </c>
+      <c r="C52" s="52"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="146"/>
+      <c r="B53" s="73" t="s">
+        <v>421</v>
+      </c>
+      <c r="C53" s="52"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="148"/>
+      <c r="B54" s="73" t="s">
+        <v>422</v>
+      </c>
+      <c r="C54" s="52"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="103"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="106"/>
+    </row>
+    <row r="56" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="145" t="s">
+        <v>379</v>
+      </c>
+      <c r="B56" s="73" t="s">
+        <v>371</v>
+      </c>
+      <c r="C56" s="52"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="146"/>
+      <c r="B57" s="73" t="s">
+        <v>372</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="73"/>
+      <c r="E57" s="77"/>
+    </row>
+    <row r="58" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="146"/>
+      <c r="B58" s="118" t="s">
+        <v>373</v>
+      </c>
+      <c r="C58" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="73"/>
+      <c r="E58" s="77"/>
+    </row>
+    <row r="59" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="146"/>
+      <c r="B59" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="C59" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="73"/>
+      <c r="E59" s="77"/>
+    </row>
+    <row r="60" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="146"/>
+      <c r="B60" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="C60" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="73"/>
+      <c r="E60" s="77"/>
+    </row>
+    <row r="61" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="146"/>
+      <c r="B61" s="118" t="s">
+        <v>376</v>
+      </c>
+      <c r="C61" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="73"/>
+      <c r="E61" s="77"/>
+    </row>
+    <row r="62" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="146"/>
+      <c r="B62" s="118" t="s">
+        <v>378</v>
+      </c>
+      <c r="C62" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="73"/>
+      <c r="E62" s="77"/>
+    </row>
+    <row r="63" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="146"/>
+      <c r="B63" s="118" t="s">
+        <v>377</v>
+      </c>
+      <c r="C63" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="73"/>
+      <c r="E63" s="77"/>
+    </row>
+    <row r="64" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="146"/>
+      <c r="B64" s="118" t="s">
         <v>382</v>
       </c>
-      <c r="B24" s="79" t="s">
-        <v>373</v>
-      </c>
-      <c r="C24" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="83"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="146"/>
-      <c r="B25" s="79" t="s">
-        <v>374</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="79"/>
-      <c r="E25" s="83"/>
-    </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="146"/>
-      <c r="B26" s="155" t="s">
-        <v>375</v>
-      </c>
-      <c r="C26" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="79"/>
-      <c r="E26" s="83"/>
-    </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="146"/>
-      <c r="B27" s="155" t="s">
-        <v>376</v>
-      </c>
-      <c r="C27" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="83"/>
-    </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="146"/>
-      <c r="B28" s="155" t="s">
-        <v>377</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="79"/>
-      <c r="E28" s="83"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="146"/>
-      <c r="B29" s="155" t="s">
-        <v>378</v>
-      </c>
-      <c r="C29" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="79"/>
-      <c r="E29" s="83"/>
-    </row>
-    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="146"/>
-      <c r="B30" s="155" t="s">
-        <v>380</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="79"/>
-      <c r="E30" s="83"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="146"/>
-      <c r="B31" s="155" t="s">
-        <v>379</v>
-      </c>
-      <c r="C31" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="79"/>
-      <c r="E31" s="83"/>
-    </row>
-    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="148"/>
-      <c r="B32" s="155" t="s">
+      <c r="C64" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="73"/>
+      <c r="E64" s="77"/>
+    </row>
+    <row r="65" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="146"/>
+      <c r="B65" s="118" t="s">
+        <v>383</v>
+      </c>
+      <c r="C65" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="73"/>
+      <c r="E65" s="77"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="146"/>
+      <c r="B66" s="118" t="s">
+        <v>384</v>
+      </c>
+      <c r="C66" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="73"/>
+      <c r="E66" s="77"/>
+    </row>
+    <row r="67" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="146"/>
+      <c r="B67" s="118" t="s">
+        <v>385</v>
+      </c>
+      <c r="C67" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="73"/>
+      <c r="E67" s="77"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="146"/>
+      <c r="B68" s="118" t="s">
+        <v>449</v>
+      </c>
+      <c r="C68" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="73"/>
+      <c r="E68" s="77"/>
+    </row>
+    <row r="69" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="146"/>
+      <c r="B69" s="118" t="s">
+        <v>386</v>
+      </c>
+      <c r="C69" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="73"/>
+      <c r="E69" s="77"/>
+    </row>
+    <row r="70" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="148"/>
+      <c r="B70" s="118" t="s">
         <v>381</v>
       </c>
-      <c r="C32" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="79"/>
-      <c r="E32" s="83"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="5"/>
+      <c r="C70" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="73"/>
+      <c r="E70" s="77"/>
+    </row>
+    <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="117"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A24:A32"/>
     <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A23:A42"/>
+    <mergeCell ref="A44:A54"/>
+    <mergeCell ref="A56:A70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5416,14 +6139,167 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8E88E9-D7E4-4380-9767-FF6AF9F97B48}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="43.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="160" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="160" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="160" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="161" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="131"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="127"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="127"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="127"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="127"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="127"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="127"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="127"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="127"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="127"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="127"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="162"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="164"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="156"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="72"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="156"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="72"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="157"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="158"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5434,7 +6310,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A20" sqref="A20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5445,19 +6321,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="175" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5465,36 +6341,36 @@
       <c r="A2" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>279</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="127"/>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>162</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="127"/>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>280</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="1"/>
@@ -5506,18 +6382,18 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="127"/>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>161</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="1"/>
@@ -5529,29 +6405,29 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="127"/>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>156</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="127"/>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>281</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5562,179 +6438,179 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="127"/>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="12" t="s">
         <v>155</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="127"/>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="12" t="s">
         <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="128"/>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="12" t="s">
         <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
+      <c r="A14" s="176"/>
+      <c r="B14" s="177"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="178"/>
     </row>
     <row r="15" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="131" t="s">
         <v>282</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="16" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="132"/>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="16" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="132"/>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="16" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="132"/>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="16" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="133"/>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="12" t="s">
         <v>292</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="70"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
+      <c r="A20" s="176"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="178"/>
     </row>
     <row r="21" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="119" t="s">
         <v>294</v>
       </c>
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="16" t="s">
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="120"/>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="65" t="s">
         <v>285</v>
       </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="16" t="s">
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="129"/>
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="65" t="s">
         <v>286</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="16" t="s">
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="129"/>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="65" t="s">
         <v>287</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="16" t="s">
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="129"/>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="65" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="16" t="s">
+      <c r="C25" s="65"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="130"/>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="67" t="s">
         <v>284</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="99" t="s">
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="93" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5766,19 +6642,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5786,346 +6662,346 @@
       <c r="A2" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="120"/>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="23"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="120"/>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="23"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="120"/>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="120"/>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="120"/>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="120"/>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="120"/>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="120"/>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="120"/>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="120"/>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="120"/>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="120"/>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="120"/>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="120"/>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="23"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="120"/>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="120"/>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="23"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="120"/>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="23"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="120"/>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="23"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="125"/>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="23"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="23"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="13" t="s">
         <v>139</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="129"/>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="13" t="s">
         <v>139</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="129"/>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="23"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="13" t="s">
         <v>139</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="129"/>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="23"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="13" t="s">
         <v>139</v>
       </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="129"/>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="13" t="s">
         <v>139</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="129"/>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C28" s="23"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="13" t="s">
         <v>139</v>
       </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="129"/>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="23"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="13" t="s">
         <v>139</v>
       </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="129"/>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="23"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="13" t="s">
         <v>139</v>
       </c>
       <c r="F30" s="1"/>
@@ -6135,163 +7011,163 @@
       <c r="B31" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="13" t="s">
         <v>139</v>
       </c>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="129"/>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="23"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="13" t="s">
         <v>139</v>
       </c>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="129"/>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="C33" s="23"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="13" t="s">
         <v>139</v>
       </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="129"/>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="23"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="13" t="s">
         <v>139</v>
       </c>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="129"/>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="C35" s="23"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="13" t="s">
         <v>139</v>
       </c>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="129"/>
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="23"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="13" t="s">
         <v>139</v>
       </c>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="129"/>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="C37" s="23"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="13" t="s">
         <v>139</v>
       </c>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="129"/>
-      <c r="B38" s="61" t="s">
+      <c r="B38" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="23"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="13" t="s">
         <v>139</v>
       </c>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="129"/>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="C39" s="23"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="13" t="s">
         <v>139</v>
       </c>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="129"/>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="C40" s="23"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="13" t="s">
         <v>139</v>
       </c>
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="129"/>
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="C41" s="23"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="13" t="s">
         <v>139</v>
       </c>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="129"/>
-      <c r="B42" s="61" t="s">
+      <c r="B42" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="23"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="13" t="s">
         <v>139</v>
       </c>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="135"/>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="C43" s="23"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="13" t="s">
         <v>139</v>
       </c>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="34"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="31"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6301,9 +7177,9 @@
       <c r="B45" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="23"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="26" t="s">
         <v>9</v>
       </c>
       <c r="F45" s="1"/>
@@ -6313,9 +7189,9 @@
       <c r="B46" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="67"/>
+      <c r="C46" s="64"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="41" t="s">
+      <c r="E46" s="38" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="1"/>
@@ -6350,7 +7226,7 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
@@ -6362,19 +7238,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6382,36 +7258,36 @@
       <c r="A2" s="119" t="s">
         <v>297</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="40" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="129"/>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="40" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="129"/>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="40" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="1"/>
@@ -6421,9 +7297,9 @@
       <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="40" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="1"/>
@@ -6433,9 +7309,9 @@
       <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="40" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1"/>
@@ -6445,21 +7321,21 @@
       <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="40" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="129"/>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="40" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="1"/>
@@ -6469,9 +7345,9 @@
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="40" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="1"/>
@@ -6481,9 +7357,9 @@
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="40" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="1"/>
@@ -6493,9 +7369,9 @@
       <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="40" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="1"/>
@@ -6505,9 +7381,9 @@
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="40" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="1"/>
@@ -6517,151 +7393,151 @@
       <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="40" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="129"/>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="40" t="s">
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="129"/>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="40" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="129"/>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="40" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="129"/>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="40" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="129"/>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="40" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="129"/>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="40" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="129"/>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="40" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="129"/>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="40" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="129"/>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="40" t="s">
+      <c r="C22" s="34"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="129"/>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="40" t="s">
+      <c r="C23" s="34"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="135"/>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="40" t="s">
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="27"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -6672,7 +7548,7 @@
         <v>32</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="1"/>
@@ -6684,7 +7560,7 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="1"/>
@@ -6696,7 +7572,7 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="1"/>
@@ -6708,7 +7584,7 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="1"/>
@@ -6720,7 +7596,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="1"/>
@@ -6732,7 +7608,7 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="1"/>
@@ -6744,7 +7620,7 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="1"/>
@@ -6756,19 +7632,19 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="129"/>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="1"/>
@@ -6780,7 +7656,7 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="1"/>
@@ -6792,7 +7668,7 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="1"/>
@@ -6804,73 +7680,73 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="100"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="27"/>
+      <c r="A38" s="94"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="24"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:8" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="139" t="s">
         <v>300</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="85" t="s">
+      <c r="C39" s="34"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="79" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="140"/>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="C40" s="101"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="85" t="s">
+      <c r="C40" s="95"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="79" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="140"/>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="C41" s="101"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="85" t="s">
+      <c r="C41" s="95"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="79" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="48"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="27"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="24"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="136" t="s">
         <v>298</v>
       </c>
-      <c r="B43" s="68" t="s">
+      <c r="B43" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2"/>
@@ -6878,21 +7754,21 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="137"/>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="23"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="29" t="s">
+      <c r="E44" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="137"/>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2"/>
@@ -6901,21 +7777,21 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="138"/>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="46"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="27"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="24"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="119" t="s">
@@ -6924,9 +7800,9 @@
       <c r="B48" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="23"/>
+      <c r="C48" s="20"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="29" t="s">
+      <c r="E48" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6937,7 +7813,7 @@
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="29" t="s">
+      <c r="E49" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6948,7 +7824,7 @@
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="41" t="s">
+      <c r="E50" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6995,19 +7871,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="167" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7015,62 +7891,62 @@
       <c r="A2" s="120" t="s">
         <v>306</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="58" t="s">
         <v>307</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="40" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="120"/>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="58" t="s">
         <v>308</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="40" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="120"/>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="58" t="s">
         <v>309</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="40" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="125"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="58" t="s">
         <v>310</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="40" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="27"/>
+      <c r="A6" s="168"/>
+      <c r="B6" s="169"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="171"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="119" t="s">
         <v>332</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -7078,7 +7954,7 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="1"/>
@@ -7090,7 +7966,7 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="1"/>
@@ -7102,7 +7978,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="1"/>
@@ -7114,7 +7990,7 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="1"/>
@@ -7126,40 +8002,40 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="129"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="135"/>
+      <c r="B12" s="21" t="s">
         <v>170</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="27"/>
+      <c r="A13" s="172"/>
+      <c r="B13" s="169"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="171"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="96" t="s">
         <v>304</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="67" t="s">
         <v>305</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67" t="s">
+      <c r="C14" s="64"/>
+      <c r="D14" s="64" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="5"/>
@@ -7203,41 +8079,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="89" t="s">
         <v>313</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="57" t="s">
         <v>305</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="126" t="s">
@@ -7246,95 +8122,95 @@
       <c r="B4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="29" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="127"/>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="29" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="127"/>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="29" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="127"/>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="29" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="127"/>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="29" t="s">
+      <c r="C8" s="42"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="127"/>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="29" t="s">
+      <c r="C9" s="42"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="127"/>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="29" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="128"/>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="29" t="s">
+      <c r="C11" s="42"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
     </row>
     <row r="13" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="134" t="s">
@@ -7343,247 +8219,247 @@
       <c r="B13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="29" t="s">
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="129"/>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="29" t="s">
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="129"/>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="29" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="129"/>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="29" t="s">
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="129"/>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="29" t="s">
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="129"/>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="29" t="s">
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="129"/>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="29" t="s">
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="129"/>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="29" t="s">
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="129"/>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="29" t="s">
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="129"/>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="29" t="s">
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="129"/>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="29" t="s">
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="129"/>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="29" t="s">
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="129"/>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="29" t="s">
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="129"/>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="29" t="s">
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="129"/>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="29" t="s">
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="129"/>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="29" t="s">
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="129"/>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="29" t="s">
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="129"/>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="29" t="s">
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="129"/>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="29" t="s">
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="129"/>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="29" t="s">
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="129"/>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="29" t="s">
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="129"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="29"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="26"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="129"/>
       <c r="B35" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="29" t="s">
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7592,9 +8468,9 @@
       <c r="B36" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="29" t="s">
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7603,9 +8479,9 @@
       <c r="B37" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="29" t="s">
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7614,9 +8490,9 @@
       <c r="B38" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="29" t="s">
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7625,9 +8501,9 @@
       <c r="B39" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="29" t="s">
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7636,9 +8512,9 @@
       <c r="B40" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="29" t="s">
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7647,9 +8523,9 @@
       <c r="B41" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="29" t="s">
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7658,9 +8534,9 @@
       <c r="B42" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="29" t="s">
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7669,9 +8545,9 @@
       <c r="B43" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="29" t="s">
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7680,9 +8556,9 @@
       <c r="B44" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="29" t="s">
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7691,9 +8567,9 @@
       <c r="B45" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="29" t="s">
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7702,9 +8578,9 @@
       <c r="B46" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="29" t="s">
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7713,9 +8589,9 @@
       <c r="B47" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="29" t="s">
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7724,9 +8600,9 @@
       <c r="B48" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="29" t="s">
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7735,9 +8611,9 @@
       <c r="B49" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="29" t="s">
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7746,20 +8622,20 @@
       <c r="B50" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="29" t="s">
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="129"/>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="29" t="s">
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7768,9 +8644,9 @@
       <c r="B52" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="29" t="s">
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7779,9 +8655,9 @@
       <c r="B53" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="29" t="s">
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7790,60 +8666,60 @@
       <c r="B54" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="29" t="s">
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="69"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="53"/>
+      <c r="A55" s="66"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="50"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="29" t="s">
+      <c r="C56" s="20"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="129"/>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="29" t="s">
+      <c r="C57" s="20"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="135"/>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="23"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="29" t="s">
+      <c r="C58" s="20"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="69"/>
-      <c r="B59" s="52"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="52"/>
+      <c r="A59" s="66"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="126" t="s">
@@ -7852,9 +8728,9 @@
       <c r="B60" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="29" t="s">
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7863,9 +8739,9 @@
       <c r="B61" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="23"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="29" t="s">
+      <c r="C61" s="20"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7874,9 +8750,9 @@
       <c r="B62" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="23"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="29" t="s">
+      <c r="C62" s="20"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7885,9 +8761,9 @@
       <c r="B63" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="23"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="29" t="s">
+      <c r="C63" s="20"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7896,223 +8772,223 @@
       <c r="B64" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C64" s="23"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="29" t="s">
+      <c r="C64" s="20"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="127"/>
-      <c r="B65" s="54" t="s">
+      <c r="B65" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="23"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="29" t="s">
+      <c r="C65" s="20"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="127"/>
-      <c r="B66" s="54" t="s">
+      <c r="B66" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="29" t="s">
+      <c r="C66" s="20"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="127"/>
-      <c r="B67" s="54" t="s">
+      <c r="B67" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="23"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="56" t="s">
+      <c r="C67" s="20"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="53" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="127"/>
-      <c r="B68" s="57" t="s">
+      <c r="B68" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="C68" s="23"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="65" t="s">
+      <c r="C68" s="20"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="128"/>
-      <c r="B69" s="57" t="s">
+      <c r="B69" s="54" t="s">
         <v>315</v>
       </c>
-      <c r="C69" s="23"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="65" t="s">
+      <c r="C69" s="20"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="52"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="52"/>
+      <c r="A70" s="49"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="141" t="s">
-        <v>351</v>
-      </c>
-      <c r="B71" s="61" t="s">
-        <v>354</v>
-      </c>
-      <c r="C71" s="61"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="B71" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="C71" s="58"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="142"/>
-      <c r="B72" s="61" t="s">
-        <v>353</v>
-      </c>
-      <c r="C72" s="61"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="65" t="s">
+      <c r="B72" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="C72" s="58"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="142"/>
-      <c r="B73" s="61" t="s">
-        <v>352</v>
-      </c>
-      <c r="C73" s="61"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="65" t="s">
+      <c r="B73" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="C73" s="58"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="142"/>
-      <c r="B74" s="61" t="s">
-        <v>355</v>
-      </c>
-      <c r="C74" s="61"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="65" t="s">
+      <c r="B74" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="C74" s="58"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="142"/>
-      <c r="B75" s="61" t="s">
-        <v>356</v>
-      </c>
-      <c r="C75" s="61"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="65" t="s">
+      <c r="B75" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="C75" s="58"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="142"/>
-      <c r="B76" s="61" t="s">
-        <v>357</v>
-      </c>
-      <c r="C76" s="61"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="65" t="s">
+      <c r="B76" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="C76" s="58"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="103"/>
-      <c r="B77" s="52"/>
-      <c r="C77" s="52"/>
-      <c r="D77" s="52"/>
-      <c r="E77" s="113"/>
+      <c r="A77" s="97"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="107"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="B78" s="61" t="s">
+      <c r="B78" s="58" t="s">
         <v>317</v>
       </c>
-      <c r="C78" s="61"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="65" t="s">
+      <c r="C78" s="58"/>
+      <c r="D78" s="58"/>
+      <c r="E78" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="142"/>
-      <c r="B79" s="61" t="s">
+      <c r="B79" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="C79" s="61"/>
-      <c r="D79" s="61"/>
-      <c r="E79" s="65" t="s">
+      <c r="C79" s="58"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="142"/>
-      <c r="B80" s="61" t="s">
+      <c r="B80" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="C80" s="61"/>
-      <c r="D80" s="61"/>
-      <c r="E80" s="65" t="s">
+      <c r="C80" s="58"/>
+      <c r="D80" s="58"/>
+      <c r="E80" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="143"/>
-      <c r="B81" s="61" t="s">
+      <c r="B81" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="C81" s="61"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="65" t="s">
+      <c r="C81" s="58"/>
+      <c r="D81" s="58"/>
+      <c r="E81" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="103"/>
-      <c r="B82" s="52"/>
-      <c r="C82" s="52"/>
-      <c r="D82" s="52"/>
-      <c r="E82" s="52"/>
+      <c r="A82" s="97"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="49"/>
+      <c r="D82" s="49"/>
+      <c r="E82" s="49"/>
     </row>
     <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="134" t="s">
         <v>311</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="23"/>
+      <c r="C83" s="20"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="29" t="s">
+      <c r="E83" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="130"/>
-      <c r="B84" s="66" t="s">
+      <c r="B84" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C84" s="67"/>
+      <c r="C84" s="64"/>
       <c r="D84" s="4"/>
-      <c r="E84" s="41" t="s">
+      <c r="E84" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8146,19 +9022,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8169,9 +9045,9 @@
       <c r="B2" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="45"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1"/>
@@ -8181,9 +9057,9 @@
       <c r="B3" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="1"/>
@@ -8193,9 +9069,9 @@
       <c r="B4" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="45"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="1"/>
@@ -8205,9 +9081,9 @@
       <c r="B5" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C5" s="45"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="1"/>
@@ -8217,9 +9093,9 @@
       <c r="B6" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="45"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1"/>
@@ -8229,21 +9105,21 @@
       <c r="B7" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C7" s="45"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="132"/>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="1"/>
@@ -8253,31 +9129,31 @@
       <c r="B9" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="45"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="132"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="C10" s="45"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="76"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="70"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -8287,9 +9163,9 @@
       <c r="B12" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="85" t="s">
+      <c r="C12" s="42"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="79" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="1"/>
@@ -8299,9 +9175,9 @@
       <c r="B13" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="85" t="s">
+      <c r="C13" s="42"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="79" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="1"/>
@@ -8311,21 +9187,21 @@
       <c r="B14" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="85" t="s">
+      <c r="C14" s="42"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="79" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="120"/>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="85" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="79" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="1"/>
@@ -8335,65 +9211,65 @@
       <c r="B16" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="85" t="s">
+      <c r="C16" s="42"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="79" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="125"/>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="85" t="s">
+      <c r="C17" s="42"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="79" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="76"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="70"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="131" t="s">
         <v>321</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="C19" s="59"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="132"/>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="59"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="132"/>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="56" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2"/>
@@ -8402,10 +9278,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="133"/>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="56" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2"/>
@@ -8413,96 +9289,96 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="77"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="76"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="131" t="s">
         <v>322</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="C24" s="59"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="128"/>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="C25" s="59"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="104"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
+      <c r="A26" s="98"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="132" t="s">
         <v>323</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="C27" s="59"/>
+      <c r="C27" s="56"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="127"/>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="C28" s="59"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="127"/>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="C29" s="59"/>
+      <c r="C29" s="56"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="29" t="s">
+      <c r="E29" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="128"/>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="C30" s="59"/>
+      <c r="C30" s="56"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="75"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="76"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="70"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="126" t="s">
@@ -8511,7 +9387,7 @@
       <c r="B32" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2"/>
@@ -8522,7 +9398,7 @@
       <c r="B33" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2"/>
@@ -8533,7 +9409,7 @@
       <c r="B34" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2"/>
@@ -8544,9 +9420,9 @@
       <c r="B35" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C35" s="23"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8555,7 +9431,7 @@
       <c r="B36" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2"/>
@@ -8566,7 +9442,7 @@
       <c r="B37" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2"/>
@@ -8577,7 +9453,7 @@
       <c r="B38" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2"/>
@@ -8588,9 +9464,9 @@
       <c r="B39" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C39" s="23"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8599,9 +9475,9 @@
       <c r="B40" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C40" s="23"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="29" t="s">
+      <c r="E40" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8610,9 +9486,9 @@
       <c r="B41" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C41" s="23"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8621,7 +9497,7 @@
       <c r="B42" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2"/>
@@ -8632,7 +9508,7 @@
       <c r="B43" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2"/>
@@ -8643,84 +9519,84 @@
       <c r="B44" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="75"/>
-      <c r="B45" s="75"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="76"/>
+      <c r="A45" s="69"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="70"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="131" t="s">
-        <v>344</v>
-      </c>
-      <c r="B46" s="54" t="s">
-        <v>345</v>
-      </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="65" t="s">
+        <v>342</v>
+      </c>
+      <c r="B46" s="51" t="s">
+        <v>343</v>
+      </c>
+      <c r="C46" s="56"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="132"/>
-      <c r="B47" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="C47" s="59"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="65" t="s">
+      <c r="B47" s="51" t="s">
+        <v>344</v>
+      </c>
+      <c r="C47" s="56"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="132"/>
-      <c r="B48" s="54" t="s">
-        <v>347</v>
-      </c>
-      <c r="C48" s="59"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="65" t="s">
+      <c r="B48" s="51" t="s">
+        <v>345</v>
+      </c>
+      <c r="C48" s="56"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="132"/>
-      <c r="B49" s="54" t="s">
-        <v>348</v>
-      </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="65" t="s">
+      <c r="B49" s="51" t="s">
+        <v>346</v>
+      </c>
+      <c r="C49" s="56"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="132"/>
-      <c r="B50" s="54" t="s">
-        <v>349</v>
-      </c>
-      <c r="C50" s="59"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="65" t="s">
+      <c r="B50" s="51" t="s">
+        <v>347</v>
+      </c>
+      <c r="C50" s="56"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="144"/>
       <c r="B51" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="99" t="s">
+      <c r="E51" s="93" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8750,7 +9626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A365AE-7930-4274-837C-B5D83DFDF1FE}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8759,19 +9635,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="76" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8779,182 +9655,182 @@
       <c r="A2" s="119" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="C2" s="45"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="120"/>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="120"/>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="16" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="125"/>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="16" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="86"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="120" t="s">
         <v>331</v>
       </c>
-      <c r="B7" s="57" t="s">
-        <v>336</v>
-      </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="65" t="s">
+      <c r="B7" s="54" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="120"/>
-      <c r="B8" s="57" t="s">
-        <v>337</v>
-      </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="65" t="s">
+      <c r="B8" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="120"/>
-      <c r="B9" s="57" t="s">
-        <v>339</v>
-      </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="65" t="s">
+      <c r="B9" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="120"/>
-      <c r="B10" s="57" t="s">
-        <v>340</v>
-      </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="65" t="s">
+      <c r="B10" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" s="52"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="125"/>
-      <c r="B11" s="57" t="s">
-        <v>338</v>
-      </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="65" t="s">
+      <c r="B11" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="C11" s="52"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="86"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="114"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="108"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="145" t="s">
         <v>324</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="73" t="s">
         <v>239</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="56" t="s">
+      <c r="C13" s="52"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="53" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="146"/>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="73" t="s">
         <v>235</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="56" t="s">
+      <c r="C14" s="52"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="53" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="146"/>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="73" t="s">
         <v>236</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="56" t="s">
+      <c r="C15" s="52"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="53" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="146"/>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="73" t="s">
         <v>237</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="56" t="s">
+      <c r="C16" s="52"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="53" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="146"/>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="73" t="s">
         <v>238</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="56" t="s">
+      <c r="C17" s="52"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="53" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="86"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="87"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="81"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="131" t="s">
@@ -8963,9 +9839,9 @@
       <c r="B19" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C19" s="23"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8974,9 +9850,9 @@
       <c r="B20" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C20" s="23"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8985,60 +9861,60 @@
       <c r="B21" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C21" s="23"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="86"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="87"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="81"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="136" t="s">
         <v>327</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="56" t="s">
+      <c r="C23" s="56"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="53" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="137"/>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="56" t="s">
+      <c r="C24" s="56"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="53" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="138"/>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="73" t="s">
         <v>233</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="56" t="s">
+      <c r="C25" s="56"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="53" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="84"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="115"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="109"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="136" t="s">
@@ -9047,9 +9923,9 @@
       <c r="B27" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="29" t="s">
+      <c r="C27" s="20"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9058,9 +9934,9 @@
       <c r="B28" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="29" t="s">
+      <c r="C28" s="20"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9069,84 +9945,84 @@
       <c r="B29" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="29" t="s">
+      <c r="C29" s="20"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="138"/>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="29" t="s">
+      <c r="C30" s="20"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="92"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="116"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="110"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="136" t="s">
         <v>325</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="29" t="s">
+      <c r="C32" s="20"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="137"/>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="117" t="s">
+      <c r="C33" s="20"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="111" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="137"/>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="117" t="s">
+      <c r="C34" s="20"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="111" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="137"/>
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="117" t="s">
+      <c r="C35" s="20"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="111" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="137"/>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="117" t="s">
+      <c r="C36" s="20"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="111" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9155,9 +10031,9 @@
       <c r="B37" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C37" s="67"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="118" t="s">
+      <c r="C37" s="64"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="112" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9178,32 +10054,32 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8D2795-3703-4799-82AD-D959B47FB411}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A10"/>
+      <selection activeCell="A43" sqref="A43:A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.33203125" customWidth="1"/>
-    <col min="2" max="2" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="84" t="s">
         <v>4</v>
       </c>
     </row>
@@ -9211,245 +10087,636 @@
       <c r="A2" s="145" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="73" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="83"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="53" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="146"/>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="73" t="s">
         <v>249</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="83"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="53" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="146"/>
-      <c r="B4" s="79" t="s">
-        <v>341</v>
-      </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="83"/>
+      <c r="B4" s="73" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="53" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="146"/>
-      <c r="B5" s="79" t="s">
-        <v>342</v>
-      </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="83"/>
+      <c r="B5" s="73" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="53" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="146"/>
-      <c r="B6" s="79" t="s">
-        <v>343</v>
-      </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="83"/>
+      <c r="B6" s="73" t="s">
+        <v>341</v>
+      </c>
+      <c r="C6" s="52"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="53" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="148"/>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="83"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="53" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="91"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-    </row>
-    <row r="9" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="156" t="s">
-        <v>383</v>
-      </c>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="83"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="157"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="83"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="151"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="150" t="s">
+        <v>380</v>
+      </c>
+      <c r="B9" s="113" t="s">
+        <v>387</v>
+      </c>
+      <c r="C9" s="154"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="152"/>
+      <c r="B10" s="153" t="s">
+        <v>411</v>
+      </c>
+      <c r="C10" s="154"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="152"/>
+      <c r="B11" s="153" t="s">
+        <v>388</v>
+      </c>
+      <c r="C11" s="154"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="53" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="145" t="s">
-        <v>370</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="149"/>
-      <c r="E12" s="83"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="146"/>
-      <c r="B13" s="36" t="s">
-        <v>371</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="149"/>
-      <c r="E13" s="83"/>
+      <c r="A12" s="152"/>
+      <c r="B12" s="153" t="s">
+        <v>389</v>
+      </c>
+      <c r="C12" s="154"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="151"/>
+      <c r="B13" s="118" t="s">
+        <v>390</v>
+      </c>
+      <c r="C13" s="154"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="53" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="146"/>
-      <c r="B14" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="C14" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="149"/>
-      <c r="E14" s="83"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="146"/>
-      <c r="B15" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="149"/>
-      <c r="E15" s="83"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+    </row>
+    <row r="15" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="145" t="s">
+        <v>368</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="53" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="146"/>
-      <c r="B16" s="36" t="s">
-        <v>363</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="149"/>
-      <c r="E16" s="83"/>
+      <c r="B16" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="C16" s="52"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="53" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="146"/>
-      <c r="B17" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="149"/>
-      <c r="E17" s="83"/>
+      <c r="B17" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="C17" s="52"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="53" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="146"/>
-      <c r="B18" s="36" t="s">
-        <v>364</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="149"/>
-      <c r="E18" s="83"/>
+      <c r="B18" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="C18" s="52"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="53" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="146"/>
-      <c r="B19" s="36" t="s">
-        <v>366</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="149"/>
-      <c r="E19" s="83"/>
+      <c r="B19" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="C19" s="52"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="53" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="146"/>
-      <c r="B20" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="149"/>
-      <c r="E20" s="83"/>
+      <c r="B20" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="53" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="146"/>
-      <c r="B21" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="149"/>
-      <c r="E21" s="83"/>
+      <c r="B21" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="C21" s="52"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="53" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="148"/>
-      <c r="B22" s="36" t="s">
-        <v>369</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="149"/>
-      <c r="E22" s="83"/>
+      <c r="A22" s="146"/>
+      <c r="B22" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="C22" s="52"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="53" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="150"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-    </row>
-    <row r="24" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="141" t="s">
-        <v>372</v>
-      </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="152"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="41" t="s">
+      <c r="A23" s="146"/>
+      <c r="B23" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="C23" s="52"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="146"/>
+      <c r="B24" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="C24" s="52"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="148"/>
+      <c r="B25" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="C25" s="52"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="114"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="145" t="s">
+        <v>439</v>
+      </c>
+      <c r="B27" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="C27" s="52"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="146"/>
+      <c r="B28" s="73" t="s">
+        <v>425</v>
+      </c>
+      <c r="C28" s="52"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="146"/>
+      <c r="B29" s="73" t="s">
+        <v>426</v>
+      </c>
+      <c r="C29" s="52"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="146"/>
+      <c r="B30" s="73" t="s">
+        <v>427</v>
+      </c>
+      <c r="C30" s="52"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="146"/>
+      <c r="B31" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="C31" s="52"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="146"/>
+      <c r="B32" s="73" t="s">
+        <v>429</v>
+      </c>
+      <c r="C32" s="52"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="146"/>
+      <c r="B33" s="73" t="s">
+        <v>430</v>
+      </c>
+      <c r="C33" s="52"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="146"/>
+      <c r="B34" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="C34" s="52"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="146"/>
+      <c r="B35" s="73" t="s">
+        <v>432</v>
+      </c>
+      <c r="C35" s="52"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="146"/>
+      <c r="B36" s="73" t="s">
+        <v>433</v>
+      </c>
+      <c r="C36" s="52"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="146"/>
+      <c r="B37" s="73" t="s">
+        <v>434</v>
+      </c>
+      <c r="C37" s="52"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="146"/>
+      <c r="B38" s="73" t="s">
+        <v>435</v>
+      </c>
+      <c r="C38" s="52"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="146"/>
+      <c r="B39" s="73" t="s">
+        <v>436</v>
+      </c>
+      <c r="C39" s="52"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="146"/>
+      <c r="B40" s="73" t="s">
+        <v>437</v>
+      </c>
+      <c r="C40" s="52"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="148"/>
+      <c r="B41" s="73" t="s">
+        <v>438</v>
+      </c>
+      <c r="C41" s="52"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="114"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="114"/>
+    </row>
+    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="141" t="s">
+        <v>370</v>
+      </c>
+      <c r="B43" s="73"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="142"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="142"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="142"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="142"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="142"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="142"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="142"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="142"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="142"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="142"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="142"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="142"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="142"/>
+      <c r="B56" s="73"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="142"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="142"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="73"/>
+      <c r="E58" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="142"/>
+      <c r="B59" s="73"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="142"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="142"/>
+      <c r="B61" s="73"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="149"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="117"/>
+      <c r="D62" s="116"/>
+      <c r="E62" s="38" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A12:A22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A15:A25"/>
+    <mergeCell ref="A43:A62"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A27:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/Scrum/Sprint_backlog.xlsx
+++ b/Documents/Scrum/Sprint_backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14267F72-A852-452F-BBB5-B61D40EB0ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0700E0C2-4AEC-4C9C-B9D3-4B1D12997FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="10" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" firstSheet="6" activeTab="9" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint_0." sheetId="4" r:id="rId1"/>
@@ -4377,108 +4377,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4535,6 +4433,108 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4893,7 +4893,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="148" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -4907,7 +4907,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="123"/>
+      <c r="A3" s="149"/>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
@@ -4919,7 +4919,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="123"/>
+      <c r="A4" s="149"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
@@ -4931,7 +4931,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="123"/>
+      <c r="A5" s="149"/>
       <c r="B5" s="2" t="s">
         <v>259</v>
       </c>
@@ -4943,7 +4943,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="123"/>
+      <c r="A6" s="149"/>
       <c r="B6" s="2" t="s">
         <v>260</v>
       </c>
@@ -4955,7 +4955,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="123"/>
+      <c r="A7" s="149"/>
       <c r="B7" s="2" t="s">
         <v>257</v>
       </c>
@@ -4967,7 +4967,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="123"/>
+      <c r="A8" s="149"/>
       <c r="B8" s="2" t="s">
         <v>256</v>
       </c>
@@ -4979,7 +4979,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="124"/>
+      <c r="A9" s="150"/>
       <c r="B9" s="2" t="s">
         <v>258</v>
       </c>
@@ -4997,7 +4997,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="146" t="s">
         <v>261</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -5011,7 +5011,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="120"/>
+      <c r="A12" s="146"/>
       <c r="B12" s="2" t="s">
         <v>264</v>
       </c>
@@ -5023,7 +5023,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="120"/>
+      <c r="A13" s="146"/>
       <c r="B13" s="12" t="s">
         <v>263</v>
       </c>
@@ -5035,7 +5035,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="120"/>
+      <c r="A14" s="146"/>
       <c r="B14" s="12" t="s">
         <v>265</v>
       </c>
@@ -5047,7 +5047,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="120"/>
+      <c r="A15" s="146"/>
       <c r="B15" s="12" t="s">
         <v>266</v>
       </c>
@@ -5059,7 +5059,7 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="120"/>
+      <c r="A16" s="146"/>
       <c r="B16" s="12" t="s">
         <v>267</v>
       </c>
@@ -5071,7 +5071,7 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="120"/>
+      <c r="A17" s="146"/>
       <c r="B17" s="12" t="s">
         <v>268</v>
       </c>
@@ -5083,7 +5083,7 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="120"/>
+      <c r="A18" s="146"/>
       <c r="B18" s="12" t="s">
         <v>269</v>
       </c>
@@ -5095,7 +5095,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="120"/>
+      <c r="A19" s="146"/>
       <c r="B19" s="12" t="s">
         <v>270</v>
       </c>
@@ -5107,7 +5107,7 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="120"/>
+      <c r="A20" s="146"/>
       <c r="B20" s="12" t="s">
         <v>271</v>
       </c>
@@ -5127,7 +5127,7 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="119" t="s">
+      <c r="A22" s="145" t="s">
         <v>272</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -5141,7 +5141,7 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="120"/>
+      <c r="A23" s="146"/>
       <c r="B23" s="12" t="s">
         <v>274</v>
       </c>
@@ -5153,7 +5153,7 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="120"/>
+      <c r="A24" s="146"/>
       <c r="B24" s="12" t="s">
         <v>275</v>
       </c>
@@ -5165,7 +5165,7 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="120"/>
+      <c r="A25" s="146"/>
       <c r="B25" s="12" t="s">
         <v>276</v>
       </c>
@@ -5177,7 +5177,7 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="120"/>
+      <c r="A26" s="146"/>
       <c r="B26" s="12" t="s">
         <v>277</v>
       </c>
@@ -5189,7 +5189,7 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="125"/>
+      <c r="A27" s="151"/>
       <c r="B27" s="12" t="s">
         <v>278</v>
       </c>
@@ -5209,7 +5209,7 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="119" t="s">
+      <c r="A29" s="145" t="s">
         <v>251</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -5222,7 +5222,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="120"/>
+      <c r="A30" s="146"/>
       <c r="B30" s="2" t="s">
         <v>253</v>
       </c>
@@ -5233,7 +5233,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="120"/>
+      <c r="A31" s="146"/>
       <c r="B31" s="2" t="s">
         <v>254</v>
       </c>
@@ -5245,7 +5245,7 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="120"/>
+      <c r="A32" s="146"/>
       <c r="B32" s="2" t="s">
         <v>255</v>
       </c>
@@ -5257,7 +5257,7 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="120"/>
+      <c r="A33" s="146"/>
       <c r="B33" s="2" t="s">
         <v>13</v>
       </c>
@@ -5268,7 +5268,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="120"/>
+      <c r="A34" s="146"/>
       <c r="B34" s="2" t="s">
         <v>14</v>
       </c>
@@ -5279,7 +5279,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="120"/>
+      <c r="A35" s="146"/>
       <c r="B35" s="2" t="s">
         <v>15</v>
       </c>
@@ -5290,7 +5290,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="120"/>
+      <c r="A36" s="146"/>
       <c r="B36" s="51" t="s">
         <v>158</v>
       </c>
@@ -5301,7 +5301,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="120"/>
+      <c r="A37" s="146"/>
       <c r="B37" s="51" t="s">
         <v>159</v>
       </c>
@@ -5312,7 +5312,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="121"/>
+      <c r="A38" s="147"/>
       <c r="B38" s="4" t="s">
         <v>293</v>
       </c>
@@ -5338,8 +5338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4275C1D2-30DB-4753-AC86-1CDFAF13FAD3}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5366,7 +5366,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="157" t="s">
         <v>357</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -5379,7 +5379,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="127"/>
+      <c r="A3" s="153"/>
       <c r="B3" s="33" t="s">
         <v>358</v>
       </c>
@@ -5390,7 +5390,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="127"/>
+      <c r="A4" s="153"/>
       <c r="B4" s="33" t="s">
         <v>359</v>
       </c>
@@ -5401,7 +5401,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="127"/>
+      <c r="A5" s="153"/>
       <c r="B5" s="33" t="s">
         <v>360</v>
       </c>
@@ -5412,7 +5412,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="127"/>
+      <c r="A6" s="153"/>
       <c r="B6" s="33" t="s">
         <v>361</v>
       </c>
@@ -5423,7 +5423,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="127"/>
+      <c r="A7" s="153"/>
       <c r="B7" s="33" t="s">
         <v>363</v>
       </c>
@@ -5434,7 +5434,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="127"/>
+      <c r="A8" s="153"/>
       <c r="B8" s="33" t="s">
         <v>362</v>
       </c>
@@ -5445,7 +5445,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="127"/>
+      <c r="A9" s="153"/>
       <c r="B9" s="33" t="s">
         <v>364</v>
       </c>
@@ -5456,7 +5456,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="127"/>
+      <c r="A10" s="153"/>
       <c r="B10" s="33" t="s">
         <v>365</v>
       </c>
@@ -5467,7 +5467,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="127"/>
+      <c r="A11" s="153"/>
       <c r="B11" s="33" t="s">
         <v>366</v>
       </c>
@@ -5478,7 +5478,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="127"/>
+      <c r="A12" s="153"/>
       <c r="B12" s="33" t="s">
         <v>367</v>
       </c>
@@ -5496,7 +5496,7 @@
       <c r="E13" s="106"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="145" t="s">
         <v>448</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -5509,7 +5509,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="129"/>
+      <c r="A15" s="155"/>
       <c r="B15" s="12" t="s">
         <v>441</v>
       </c>
@@ -5520,7 +5520,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="129"/>
+      <c r="A16" s="155"/>
       <c r="B16" s="12" t="s">
         <v>442</v>
       </c>
@@ -5531,7 +5531,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="129"/>
+      <c r="A17" s="155"/>
       <c r="B17" s="12" t="s">
         <v>443</v>
       </c>
@@ -5542,7 +5542,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="129"/>
+      <c r="A18" s="155"/>
       <c r="B18" s="54" t="s">
         <v>444</v>
       </c>
@@ -5553,7 +5553,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="129"/>
+      <c r="A19" s="155"/>
       <c r="B19" s="54" t="s">
         <v>445</v>
       </c>
@@ -5564,7 +5564,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="129"/>
+      <c r="A20" s="155"/>
       <c r="B20" s="54" t="s">
         <v>446</v>
       </c>
@@ -5575,7 +5575,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="129"/>
+      <c r="A21" s="155"/>
       <c r="B21" s="54" t="s">
         <v>447</v>
       </c>
@@ -5593,7 +5593,7 @@
       <c r="E22" s="106"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="141" t="s">
+      <c r="A23" s="167" t="s">
         <v>333</v>
       </c>
       <c r="B23" s="73" t="s">
@@ -5606,7 +5606,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="142"/>
+      <c r="A24" s="168"/>
       <c r="B24" s="73" t="s">
         <v>392</v>
       </c>
@@ -5617,7 +5617,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="142"/>
+      <c r="A25" s="168"/>
       <c r="B25" s="73" t="s">
         <v>393</v>
       </c>
@@ -5628,7 +5628,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="142"/>
+      <c r="A26" s="168"/>
       <c r="B26" s="73" t="s">
         <v>394</v>
       </c>
@@ -5639,7 +5639,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="142"/>
+      <c r="A27" s="168"/>
       <c r="B27" s="73" t="s">
         <v>395</v>
       </c>
@@ -5650,7 +5650,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="142"/>
+      <c r="A28" s="168"/>
       <c r="B28" s="73" t="s">
         <v>396</v>
       </c>
@@ -5661,7 +5661,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="142"/>
+      <c r="A29" s="168"/>
       <c r="B29" s="73" t="s">
         <v>397</v>
       </c>
@@ -5672,7 +5672,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="142"/>
+      <c r="A30" s="168"/>
       <c r="B30" s="73" t="s">
         <v>398</v>
       </c>
@@ -5683,7 +5683,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="142"/>
+      <c r="A31" s="168"/>
       <c r="B31" s="73" t="s">
         <v>399</v>
       </c>
@@ -5694,7 +5694,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="142"/>
+      <c r="A32" s="168"/>
       <c r="B32" s="73" t="s">
         <v>400</v>
       </c>
@@ -5705,7 +5705,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="142"/>
+      <c r="A33" s="168"/>
       <c r="B33" s="73" t="s">
         <v>401</v>
       </c>
@@ -5716,7 +5716,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="142"/>
+      <c r="A34" s="168"/>
       <c r="B34" s="73" t="s">
         <v>402</v>
       </c>
@@ -5727,7 +5727,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="142"/>
+      <c r="A35" s="168"/>
       <c r="B35" s="73" t="s">
         <v>403</v>
       </c>
@@ -5738,7 +5738,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="142"/>
+      <c r="A36" s="168"/>
       <c r="B36" s="73" t="s">
         <v>404</v>
       </c>
@@ -5749,7 +5749,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="142"/>
+      <c r="A37" s="168"/>
       <c r="B37" s="73" t="s">
         <v>405</v>
       </c>
@@ -5760,7 +5760,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="142"/>
+      <c r="A38" s="168"/>
       <c r="B38" s="73" t="s">
         <v>406</v>
       </c>
@@ -5771,7 +5771,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="142"/>
+      <c r="A39" s="168"/>
       <c r="B39" s="73" t="s">
         <v>407</v>
       </c>
@@ -5782,7 +5782,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="142"/>
+      <c r="A40" s="168"/>
       <c r="B40" s="73" t="s">
         <v>408</v>
       </c>
@@ -5793,7 +5793,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="142"/>
+      <c r="A41" s="168"/>
       <c r="B41" s="73" t="s">
         <v>409</v>
       </c>
@@ -5804,7 +5804,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="143"/>
+      <c r="A42" s="169"/>
       <c r="B42" s="33" t="s">
         <v>410</v>
       </c>
@@ -5816,13 +5816,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="103"/>
-      <c r="B43" s="155"/>
+      <c r="B43" s="121"/>
       <c r="C43" s="105"/>
       <c r="D43" s="104"/>
       <c r="E43" s="106"/>
     </row>
     <row r="44" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="145" t="s">
+      <c r="A44" s="171" t="s">
         <v>423</v>
       </c>
       <c r="B44" s="73" t="s">
@@ -5835,7 +5835,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="146"/>
+      <c r="A45" s="172"/>
       <c r="B45" s="73" t="s">
         <v>413</v>
       </c>
@@ -5846,7 +5846,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="146"/>
+      <c r="A46" s="172"/>
       <c r="B46" s="73" t="s">
         <v>412</v>
       </c>
@@ -5857,7 +5857,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="146"/>
+      <c r="A47" s="172"/>
       <c r="B47" s="73" t="s">
         <v>415</v>
       </c>
@@ -5868,7 +5868,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="146"/>
+      <c r="A48" s="172"/>
       <c r="B48" s="73" t="s">
         <v>416</v>
       </c>
@@ -5879,7 +5879,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="146"/>
+      <c r="A49" s="172"/>
       <c r="B49" s="73" t="s">
         <v>417</v>
       </c>
@@ -5890,7 +5890,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="146"/>
+      <c r="A50" s="172"/>
       <c r="B50" s="73" t="s">
         <v>418</v>
       </c>
@@ -5901,7 +5901,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="146"/>
+      <c r="A51" s="172"/>
       <c r="B51" s="73" t="s">
         <v>419</v>
       </c>
@@ -5912,7 +5912,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="146"/>
+      <c r="A52" s="172"/>
       <c r="B52" s="73" t="s">
         <v>420</v>
       </c>
@@ -5923,7 +5923,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="146"/>
+      <c r="A53" s="172"/>
       <c r="B53" s="73" t="s">
         <v>421</v>
       </c>
@@ -5934,7 +5934,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="148"/>
+      <c r="A54" s="174"/>
       <c r="B54" s="73" t="s">
         <v>422</v>
       </c>
@@ -5952,7 +5952,7 @@
       <c r="E55" s="106"/>
     </row>
     <row r="56" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="145" t="s">
+      <c r="A56" s="171" t="s">
         <v>379</v>
       </c>
       <c r="B56" s="73" t="s">
@@ -5965,7 +5965,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="146"/>
+      <c r="A57" s="172"/>
       <c r="B57" s="73" t="s">
         <v>372</v>
       </c>
@@ -5976,7 +5976,7 @@
       <c r="E57" s="77"/>
     </row>
     <row r="58" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="146"/>
+      <c r="A58" s="172"/>
       <c r="B58" s="118" t="s">
         <v>373</v>
       </c>
@@ -5987,7 +5987,7 @@
       <c r="E58" s="77"/>
     </row>
     <row r="59" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="146"/>
+      <c r="A59" s="172"/>
       <c r="B59" s="118" t="s">
         <v>374</v>
       </c>
@@ -5998,7 +5998,7 @@
       <c r="E59" s="77"/>
     </row>
     <row r="60" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="146"/>
+      <c r="A60" s="172"/>
       <c r="B60" s="118" t="s">
         <v>375</v>
       </c>
@@ -6009,7 +6009,7 @@
       <c r="E60" s="77"/>
     </row>
     <row r="61" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="146"/>
+      <c r="A61" s="172"/>
       <c r="B61" s="118" t="s">
         <v>376</v>
       </c>
@@ -6020,7 +6020,7 @@
       <c r="E61" s="77"/>
     </row>
     <row r="62" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="146"/>
+      <c r="A62" s="172"/>
       <c r="B62" s="118" t="s">
         <v>378</v>
       </c>
@@ -6031,7 +6031,7 @@
       <c r="E62" s="77"/>
     </row>
     <row r="63" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="146"/>
+      <c r="A63" s="172"/>
       <c r="B63" s="118" t="s">
         <v>377</v>
       </c>
@@ -6042,7 +6042,7 @@
       <c r="E63" s="77"/>
     </row>
     <row r="64" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="146"/>
+      <c r="A64" s="172"/>
       <c r="B64" s="118" t="s">
         <v>382</v>
       </c>
@@ -6053,7 +6053,7 @@
       <c r="E64" s="77"/>
     </row>
     <row r="65" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="146"/>
+      <c r="A65" s="172"/>
       <c r="B65" s="118" t="s">
         <v>383</v>
       </c>
@@ -6064,7 +6064,7 @@
       <c r="E65" s="77"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="146"/>
+      <c r="A66" s="172"/>
       <c r="B66" s="118" t="s">
         <v>384</v>
       </c>
@@ -6075,7 +6075,7 @@
       <c r="E66" s="77"/>
     </row>
     <row r="67" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="146"/>
+      <c r="A67" s="172"/>
       <c r="B67" s="118" t="s">
         <v>385</v>
       </c>
@@ -6086,7 +6086,7 @@
       <c r="E67" s="77"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="146"/>
+      <c r="A68" s="172"/>
       <c r="B68" s="118" t="s">
         <v>449</v>
       </c>
@@ -6097,7 +6097,7 @@
       <c r="E68" s="77"/>
     </row>
     <row r="69" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="146"/>
+      <c r="A69" s="172"/>
       <c r="B69" s="118" t="s">
         <v>386</v>
       </c>
@@ -6108,7 +6108,7 @@
       <c r="E69" s="77"/>
     </row>
     <row r="70" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="148"/>
+      <c r="A70" s="174"/>
       <c r="B70" s="118" t="s">
         <v>381</v>
       </c>
@@ -6141,7 +6141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8E88E9-D7E4-4380-9767-FF6AF9F97B48}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
@@ -6153,24 +6153,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="160" t="s">
+      <c r="C1" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="160" t="s">
+      <c r="D1" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="161" t="s">
+      <c r="E1" s="127" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="131"/>
+      <c r="A2" s="157"/>
       <c r="B2" s="2"/>
       <c r="C2" s="42"/>
       <c r="D2" s="2"/>
@@ -6179,7 +6179,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="127"/>
+      <c r="A3" s="153"/>
       <c r="B3" s="33"/>
       <c r="C3" s="42"/>
       <c r="D3" s="33"/>
@@ -6188,7 +6188,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="127"/>
+      <c r="A4" s="153"/>
       <c r="B4" s="33"/>
       <c r="C4" s="42"/>
       <c r="D4" s="33"/>
@@ -6197,7 +6197,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="127"/>
+      <c r="A5" s="153"/>
       <c r="B5" s="33"/>
       <c r="C5" s="42"/>
       <c r="D5" s="33"/>
@@ -6206,7 +6206,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="127"/>
+      <c r="A6" s="153"/>
       <c r="B6" s="33"/>
       <c r="C6" s="42"/>
       <c r="D6" s="33"/>
@@ -6215,7 +6215,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="127"/>
+      <c r="A7" s="153"/>
       <c r="B7" s="33"/>
       <c r="C7" s="42"/>
       <c r="D7" s="33"/>
@@ -6224,7 +6224,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="127"/>
+      <c r="A8" s="153"/>
       <c r="B8" s="33"/>
       <c r="C8" s="42"/>
       <c r="D8" s="33"/>
@@ -6233,7 +6233,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="127"/>
+      <c r="A9" s="153"/>
       <c r="B9" s="33"/>
       <c r="C9" s="42"/>
       <c r="D9" s="33"/>
@@ -6242,7 +6242,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="127"/>
+      <c r="A10" s="153"/>
       <c r="B10" s="33"/>
       <c r="C10" s="42"/>
       <c r="D10" s="33"/>
@@ -6251,7 +6251,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="127"/>
+      <c r="A11" s="153"/>
       <c r="B11" s="33"/>
       <c r="C11" s="42"/>
       <c r="D11" s="33"/>
@@ -6260,7 +6260,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="127"/>
+      <c r="A12" s="153"/>
       <c r="B12" s="33"/>
       <c r="C12" s="42"/>
       <c r="D12" s="33"/>
@@ -6269,32 +6269,32 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="162"/>
+      <c r="A13" s="128"/>
       <c r="B13" s="30"/>
-      <c r="C13" s="163"/>
+      <c r="C13" s="129"/>
       <c r="D13" s="30"/>
-      <c r="E13" s="164"/>
+      <c r="E13" s="130"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="156"/>
-      <c r="B14" s="156"/>
-      <c r="C14" s="156"/>
-      <c r="D14" s="156"/>
+      <c r="A14" s="122"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
       <c r="E14" s="72"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="156"/>
-      <c r="B15" s="156"/>
-      <c r="C15" s="156"/>
-      <c r="D15" s="156"/>
+      <c r="A15" s="122"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
       <c r="E15" s="72"/>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="157"/>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="158"/>
+      <c r="A16" s="123"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6321,24 +6321,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="174" t="s">
+      <c r="C1" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="174" t="s">
+      <c r="D1" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="175" t="s">
+      <c r="E1" s="141" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="152" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -6352,7 +6352,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="127"/>
+      <c r="A3" s="153"/>
       <c r="B3" s="12" t="s">
         <v>162</v>
       </c>
@@ -6364,7 +6364,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="127"/>
+      <c r="A4" s="153"/>
       <c r="B4" s="12" t="s">
         <v>280</v>
       </c>
@@ -6376,7 +6376,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="127"/>
+      <c r="A5" s="153"/>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -6387,7 +6387,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="127"/>
+      <c r="A6" s="153"/>
       <c r="B6" s="12" t="s">
         <v>161</v>
       </c>
@@ -6399,7 +6399,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="127"/>
+      <c r="A7" s="153"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -6410,7 +6410,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="127"/>
+      <c r="A8" s="153"/>
       <c r="B8" s="12" t="s">
         <v>156</v>
       </c>
@@ -6421,7 +6421,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="127"/>
+      <c r="A9" s="153"/>
       <c r="B9" s="12" t="s">
         <v>281</v>
       </c>
@@ -6432,7 +6432,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="127"/>
+      <c r="A10" s="153"/>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -6443,7 +6443,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="127"/>
+      <c r="A11" s="153"/>
       <c r="B11" s="12" t="s">
         <v>155</v>
       </c>
@@ -6454,7 +6454,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="127"/>
+      <c r="A12" s="153"/>
       <c r="B12" s="12" t="s">
         <v>154</v>
       </c>
@@ -6465,7 +6465,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="128"/>
+      <c r="A13" s="154"/>
       <c r="B13" s="12" t="s">
         <v>160</v>
       </c>
@@ -6476,14 +6476,14 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="176"/>
-      <c r="B14" s="177"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="178"/>
+      <c r="A14" s="142"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="144"/>
     </row>
     <row r="15" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="131" t="s">
+      <c r="A15" s="157" t="s">
         <v>282</v>
       </c>
       <c r="B15" s="33" t="s">
@@ -6496,7 +6496,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="132"/>
+      <c r="A16" s="158"/>
       <c r="B16" s="33" t="s">
         <v>288</v>
       </c>
@@ -6507,7 +6507,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="132"/>
+      <c r="A17" s="158"/>
       <c r="B17" s="33" t="s">
         <v>289</v>
       </c>
@@ -6518,7 +6518,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="132"/>
+      <c r="A18" s="158"/>
       <c r="B18" s="33" t="s">
         <v>290</v>
       </c>
@@ -6529,7 +6529,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="133"/>
+      <c r="A19" s="159"/>
       <c r="B19" s="12" t="s">
         <v>292</v>
       </c>
@@ -6540,14 +6540,14 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="176"/>
-      <c r="B20" s="177"/>
-      <c r="C20" s="177"/>
-      <c r="D20" s="177"/>
-      <c r="E20" s="178"/>
+      <c r="A20" s="142"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="144"/>
     </row>
     <row r="21" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="119" t="s">
+      <c r="A21" s="145" t="s">
         <v>294</v>
       </c>
       <c r="B21" s="65" t="s">
@@ -6560,7 +6560,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="120"/>
+      <c r="A22" s="146"/>
       <c r="B22" s="65" t="s">
         <v>285</v>
       </c>
@@ -6571,7 +6571,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="129"/>
+      <c r="A23" s="155"/>
       <c r="B23" s="65" t="s">
         <v>286</v>
       </c>
@@ -6582,7 +6582,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="129"/>
+      <c r="A24" s="155"/>
       <c r="B24" s="65" t="s">
         <v>287</v>
       </c>
@@ -6593,7 +6593,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="129"/>
+      <c r="A25" s="155"/>
       <c r="B25" s="65" t="s">
         <v>283</v>
       </c>
@@ -6604,7 +6604,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="130"/>
+      <c r="A26" s="156"/>
       <c r="B26" s="67" t="s">
         <v>284</v>
       </c>
@@ -6659,7 +6659,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="145" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="57" t="s">
@@ -6673,7 +6673,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="120"/>
+      <c r="A3" s="146"/>
       <c r="B3" s="57" t="s">
         <v>80</v>
       </c>
@@ -6685,7 +6685,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120"/>
+      <c r="A4" s="146"/>
       <c r="B4" s="57" t="s">
         <v>94</v>
       </c>
@@ -6697,7 +6697,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="120"/>
+      <c r="A5" s="146"/>
       <c r="B5" s="57" t="s">
         <v>81</v>
       </c>
@@ -6709,7 +6709,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="120"/>
+      <c r="A6" s="146"/>
       <c r="B6" s="57" t="s">
         <v>95</v>
       </c>
@@ -6721,7 +6721,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="120"/>
+      <c r="A7" s="146"/>
       <c r="B7" s="57" t="s">
         <v>83</v>
       </c>
@@ -6733,7 +6733,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="120"/>
+      <c r="A8" s="146"/>
       <c r="B8" s="57" t="s">
         <v>163</v>
       </c>
@@ -6745,7 +6745,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="120"/>
+      <c r="A9" s="146"/>
       <c r="B9" s="57" t="s">
         <v>82</v>
       </c>
@@ -6757,7 +6757,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="120"/>
+      <c r="A10" s="146"/>
       <c r="B10" s="57" t="s">
         <v>84</v>
       </c>
@@ -6769,7 +6769,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="120"/>
+      <c r="A11" s="146"/>
       <c r="B11" s="57" t="s">
         <v>164</v>
       </c>
@@ -6781,7 +6781,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="120"/>
+      <c r="A12" s="146"/>
       <c r="B12" s="57" t="s">
         <v>165</v>
       </c>
@@ -6793,7 +6793,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="120"/>
+      <c r="A13" s="146"/>
       <c r="B13" s="57" t="s">
         <v>85</v>
       </c>
@@ -6805,7 +6805,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="120"/>
+      <c r="A14" s="146"/>
       <c r="B14" s="57" t="s">
         <v>166</v>
       </c>
@@ -6817,7 +6817,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="120"/>
+      <c r="A15" s="146"/>
       <c r="B15" s="57" t="s">
         <v>87</v>
       </c>
@@ -6829,7 +6829,7 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="120"/>
+      <c r="A16" s="146"/>
       <c r="B16" s="57" t="s">
         <v>88</v>
       </c>
@@ -6841,7 +6841,7 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="120"/>
+      <c r="A17" s="146"/>
       <c r="B17" s="57" t="s">
         <v>91</v>
       </c>
@@ -6853,7 +6853,7 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="120"/>
+      <c r="A18" s="146"/>
       <c r="B18" s="57" t="s">
         <v>90</v>
       </c>
@@ -6865,7 +6865,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="120"/>
+      <c r="A19" s="146"/>
       <c r="B19" s="57" t="s">
         <v>89</v>
       </c>
@@ -6877,7 +6877,7 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="120"/>
+      <c r="A20" s="146"/>
       <c r="B20" s="57" t="s">
         <v>92</v>
       </c>
@@ -6889,7 +6889,7 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="125"/>
+      <c r="A21" s="151"/>
       <c r="B21" s="57" t="s">
         <v>93</v>
       </c>
@@ -6909,7 +6909,7 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="134" t="s">
+      <c r="A23" s="160" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="33" t="s">
@@ -6923,7 +6923,7 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="129"/>
+      <c r="A24" s="155"/>
       <c r="B24" s="12" t="s">
         <v>143</v>
       </c>
@@ -6935,7 +6935,7 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="129"/>
+      <c r="A25" s="155"/>
       <c r="B25" s="12" t="s">
         <v>142</v>
       </c>
@@ -6947,7 +6947,7 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="129"/>
+      <c r="A26" s="155"/>
       <c r="B26" s="12" t="s">
         <v>141</v>
       </c>
@@ -6959,7 +6959,7 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="129"/>
+      <c r="A27" s="155"/>
       <c r="B27" s="58" t="s">
         <v>140</v>
       </c>
@@ -6971,7 +6971,7 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="129"/>
+      <c r="A28" s="155"/>
       <c r="B28" s="12" t="s">
         <v>153</v>
       </c>
@@ -6983,7 +6983,7 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="129"/>
+      <c r="A29" s="155"/>
       <c r="B29" s="12" t="s">
         <v>144</v>
       </c>
@@ -6995,7 +6995,7 @@
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="129"/>
+      <c r="A30" s="155"/>
       <c r="B30" s="12" t="s">
         <v>145</v>
       </c>
@@ -7007,7 +7007,7 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="129"/>
+      <c r="A31" s="155"/>
       <c r="B31" s="2" t="s">
         <v>133</v>
       </c>
@@ -7019,7 +7019,7 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="129"/>
+      <c r="A32" s="155"/>
       <c r="B32" s="12" t="s">
         <v>146</v>
       </c>
@@ -7031,7 +7031,7 @@
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="129"/>
+      <c r="A33" s="155"/>
       <c r="B33" s="58" t="s">
         <v>147</v>
       </c>
@@ -7043,7 +7043,7 @@
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="129"/>
+      <c r="A34" s="155"/>
       <c r="B34" s="33" t="s">
         <v>134</v>
       </c>
@@ -7055,7 +7055,7 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="129"/>
+      <c r="A35" s="155"/>
       <c r="B35" s="59" t="s">
         <v>148</v>
       </c>
@@ -7067,7 +7067,7 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="129"/>
+      <c r="A36" s="155"/>
       <c r="B36" s="58" t="s">
         <v>149</v>
       </c>
@@ -7079,7 +7079,7 @@
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="129"/>
+      <c r="A37" s="155"/>
       <c r="B37" s="36" t="s">
         <v>135</v>
       </c>
@@ -7091,7 +7091,7 @@
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="129"/>
+      <c r="A38" s="155"/>
       <c r="B38" s="58" t="s">
         <v>150</v>
       </c>
@@ -7103,7 +7103,7 @@
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="129"/>
+      <c r="A39" s="155"/>
       <c r="B39" s="33" t="s">
         <v>136</v>
       </c>
@@ -7115,7 +7115,7 @@
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="129"/>
+      <c r="A40" s="155"/>
       <c r="B40" s="33" t="s">
         <v>137</v>
       </c>
@@ -7127,7 +7127,7 @@
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="129"/>
+      <c r="A41" s="155"/>
       <c r="B41" s="58" t="s">
         <v>152</v>
       </c>
@@ -7139,7 +7139,7 @@
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="129"/>
+      <c r="A42" s="155"/>
       <c r="B42" s="58" t="s">
         <v>151</v>
       </c>
@@ -7151,7 +7151,7 @@
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="135"/>
+      <c r="A43" s="161"/>
       <c r="B43" s="33" t="s">
         <v>138</v>
       </c>
@@ -7171,7 +7171,7 @@
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="119" t="s">
+      <c r="A45" s="145" t="s">
         <v>295</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -7185,7 +7185,7 @@
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="130"/>
+      <c r="A46" s="156"/>
       <c r="B46" s="4" t="s">
         <v>18</v>
       </c>
@@ -7255,7 +7255,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="145" t="s">
         <v>297</v>
       </c>
       <c r="B2" s="33" t="s">
@@ -7269,7 +7269,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="129"/>
+      <c r="A3" s="155"/>
       <c r="B3" s="33" t="s">
         <v>131</v>
       </c>
@@ -7281,7 +7281,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="129"/>
+      <c r="A4" s="155"/>
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
@@ -7293,7 +7293,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="129"/>
+      <c r="A5" s="155"/>
       <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
@@ -7305,7 +7305,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="129"/>
+      <c r="A6" s="155"/>
       <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
@@ -7317,7 +7317,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="129"/>
+      <c r="A7" s="155"/>
       <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
@@ -7329,7 +7329,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="129"/>
+      <c r="A8" s="155"/>
       <c r="B8" s="33" t="s">
         <v>41</v>
       </c>
@@ -7341,7 +7341,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="129"/>
+      <c r="A9" s="155"/>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
@@ -7353,7 +7353,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="129"/>
+      <c r="A10" s="155"/>
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
@@ -7365,7 +7365,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="129"/>
+      <c r="A11" s="155"/>
       <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
@@ -7377,7 +7377,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="129"/>
+      <c r="A12" s="155"/>
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
@@ -7389,7 +7389,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="129"/>
+      <c r="A13" s="155"/>
       <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
@@ -7401,7 +7401,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="129"/>
+      <c r="A14" s="155"/>
       <c r="B14" s="33" t="s">
         <v>47</v>
       </c>
@@ -7413,7 +7413,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="129"/>
+      <c r="A15" s="155"/>
       <c r="B15" s="33" t="s">
         <v>48</v>
       </c>
@@ -7425,7 +7425,7 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="129"/>
+      <c r="A16" s="155"/>
       <c r="B16" s="36" t="s">
         <v>49</v>
       </c>
@@ -7437,7 +7437,7 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="129"/>
+      <c r="A17" s="155"/>
       <c r="B17" s="33" t="s">
         <v>50</v>
       </c>
@@ -7449,7 +7449,7 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="129"/>
+      <c r="A18" s="155"/>
       <c r="B18" s="36" t="s">
         <v>51</v>
       </c>
@@ -7461,7 +7461,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="129"/>
+      <c r="A19" s="155"/>
       <c r="B19" s="33" t="s">
         <v>53</v>
       </c>
@@ -7473,7 +7473,7 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="129"/>
+      <c r="A20" s="155"/>
       <c r="B20" s="33" t="s">
         <v>54</v>
       </c>
@@ -7485,7 +7485,7 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="129"/>
+      <c r="A21" s="155"/>
       <c r="B21" s="33" t="s">
         <v>55</v>
       </c>
@@ -7497,7 +7497,7 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="129"/>
+      <c r="A22" s="155"/>
       <c r="B22" s="33" t="s">
         <v>56</v>
       </c>
@@ -7509,7 +7509,7 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="129"/>
+      <c r="A23" s="155"/>
       <c r="B23" s="33" t="s">
         <v>57</v>
       </c>
@@ -7521,7 +7521,7 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="135"/>
+      <c r="A24" s="161"/>
       <c r="B24" s="33" t="s">
         <v>58</v>
       </c>
@@ -7541,7 +7541,7 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="119" t="s">
+      <c r="A26" s="145" t="s">
         <v>296</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -7554,7 +7554,7 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="129"/>
+      <c r="A27" s="155"/>
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
@@ -7566,7 +7566,7 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="129"/>
+      <c r="A28" s="155"/>
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
@@ -7578,7 +7578,7 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="129"/>
+      <c r="A29" s="155"/>
       <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
@@ -7590,7 +7590,7 @@
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="129"/>
+      <c r="A30" s="155"/>
       <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
@@ -7602,7 +7602,7 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="129"/>
+      <c r="A31" s="155"/>
       <c r="B31" s="2" t="s">
         <v>23</v>
       </c>
@@ -7614,7 +7614,7 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="129"/>
+      <c r="A32" s="155"/>
       <c r="B32" s="2" t="s">
         <v>24</v>
       </c>
@@ -7626,7 +7626,7 @@
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="129"/>
+      <c r="A33" s="155"/>
       <c r="B33" s="2" t="s">
         <v>25</v>
       </c>
@@ -7638,7 +7638,7 @@
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="129"/>
+      <c r="A34" s="155"/>
       <c r="B34" s="21" t="s">
         <v>26</v>
       </c>
@@ -7650,7 +7650,7 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="129"/>
+      <c r="A35" s="155"/>
       <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
@@ -7662,7 +7662,7 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="129"/>
+      <c r="A36" s="155"/>
       <c r="B36" s="2" t="s">
         <v>28</v>
       </c>
@@ -7674,7 +7674,7 @@
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="135"/>
+      <c r="A37" s="161"/>
       <c r="B37" s="2" t="s">
         <v>59</v>
       </c>
@@ -7694,7 +7694,7 @@
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:8" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="139" t="s">
+      <c r="A39" s="165" t="s">
         <v>300</v>
       </c>
       <c r="B39" s="12" t="s">
@@ -7708,7 +7708,7 @@
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="140"/>
+      <c r="A40" s="166"/>
       <c r="B40" s="12" t="s">
         <v>301</v>
       </c>
@@ -7720,7 +7720,7 @@
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="140"/>
+      <c r="A41" s="166"/>
       <c r="B41" s="12" t="s">
         <v>303</v>
       </c>
@@ -7740,7 +7740,7 @@
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="136" t="s">
+      <c r="A43" s="162" t="s">
         <v>298</v>
       </c>
       <c r="B43" s="65" t="s">
@@ -7753,7 +7753,7 @@
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="137"/>
+      <c r="A44" s="163"/>
       <c r="B44" s="12" t="s">
         <v>20</v>
       </c>
@@ -7764,7 +7764,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="137"/>
+      <c r="A45" s="163"/>
       <c r="B45" s="12" t="s">
         <v>21</v>
       </c>
@@ -7776,7 +7776,7 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="138"/>
+      <c r="A46" s="164"/>
       <c r="B46" s="12" t="s">
         <v>22</v>
       </c>
@@ -7794,7 +7794,7 @@
       <c r="E47" s="24"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="119" t="s">
+      <c r="A48" s="145" t="s">
         <v>299</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -7807,7 +7807,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="129"/>
+      <c r="A49" s="155"/>
       <c r="B49" s="2" t="s">
         <v>34</v>
       </c>
@@ -7818,7 +7818,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="130"/>
+      <c r="A50" s="156"/>
       <c r="B50" s="4" t="s">
         <v>35</v>
       </c>
@@ -7871,24 +7871,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="166" t="s">
+      <c r="C1" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="166" t="s">
+      <c r="D1" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="167" t="s">
+      <c r="E1" s="133" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="146" t="s">
         <v>306</v>
       </c>
       <c r="B2" s="58" t="s">
@@ -7902,7 +7902,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="120"/>
+      <c r="A3" s="146"/>
       <c r="B3" s="58" t="s">
         <v>308</v>
       </c>
@@ -7914,7 +7914,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="120"/>
+      <c r="A4" s="146"/>
       <c r="B4" s="58" t="s">
         <v>309</v>
       </c>
@@ -7926,7 +7926,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="125"/>
+      <c r="A5" s="151"/>
       <c r="B5" s="58" t="s">
         <v>310</v>
       </c>
@@ -7938,15 +7938,15 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="168"/>
-      <c r="B6" s="169"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="171"/>
+      <c r="A6" s="134"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="137"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="145" t="s">
         <v>332</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -7960,7 +7960,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="129"/>
+      <c r="A8" s="155"/>
       <c r="B8" s="2" t="s">
         <v>168</v>
       </c>
@@ -7972,7 +7972,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="129"/>
+      <c r="A9" s="155"/>
       <c r="B9" s="2" t="s">
         <v>171</v>
       </c>
@@ -7984,7 +7984,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="129"/>
+      <c r="A10" s="155"/>
       <c r="B10" s="2" t="s">
         <v>169</v>
       </c>
@@ -7996,7 +7996,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="129"/>
+      <c r="A11" s="155"/>
       <c r="B11" s="2" t="s">
         <v>167</v>
       </c>
@@ -8008,7 +8008,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="135"/>
+      <c r="A12" s="161"/>
       <c r="B12" s="21" t="s">
         <v>170</v>
       </c>
@@ -8020,11 +8020,11 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="172"/>
-      <c r="B13" s="169"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="171"/>
+      <c r="A13" s="138"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="137"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8116,7 +8116,7 @@
       <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="152" t="s">
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -8129,7 +8129,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="127"/>
+      <c r="A5" s="153"/>
       <c r="B5" s="46" t="s">
         <v>64</v>
       </c>
@@ -8140,7 +8140,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="127"/>
+      <c r="A6" s="153"/>
       <c r="B6" s="46" t="s">
         <v>192</v>
       </c>
@@ -8151,7 +8151,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="127"/>
+      <c r="A7" s="153"/>
       <c r="B7" s="55" t="s">
         <v>182</v>
       </c>
@@ -8162,7 +8162,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="127"/>
+      <c r="A8" s="153"/>
       <c r="B8" s="55" t="s">
         <v>77</v>
       </c>
@@ -8173,7 +8173,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="127"/>
+      <c r="A9" s="153"/>
       <c r="B9" s="55" t="s">
         <v>78</v>
       </c>
@@ -8184,7 +8184,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="127"/>
+      <c r="A10" s="153"/>
       <c r="B10" s="55" t="s">
         <v>79</v>
       </c>
@@ -8195,7 +8195,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="128"/>
+      <c r="A11" s="154"/>
       <c r="B11" s="48" t="s">
         <v>97</v>
       </c>
@@ -8213,7 +8213,7 @@
       <c r="E12" s="50"/>
     </row>
     <row r="13" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="134" t="s">
+      <c r="A13" s="160" t="s">
         <v>312</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -8226,7 +8226,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="129"/>
+      <c r="A14" s="155"/>
       <c r="B14" s="12" t="s">
         <v>121</v>
       </c>
@@ -8237,7 +8237,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="129"/>
+      <c r="A15" s="155"/>
       <c r="B15" s="12" t="s">
         <v>120</v>
       </c>
@@ -8248,7 +8248,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="129"/>
+      <c r="A16" s="155"/>
       <c r="B16" s="12" t="s">
         <v>119</v>
       </c>
@@ -8259,7 +8259,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="129"/>
+      <c r="A17" s="155"/>
       <c r="B17" s="12" t="s">
         <v>118</v>
       </c>
@@ -8270,7 +8270,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="129"/>
+      <c r="A18" s="155"/>
       <c r="B18" s="12" t="s">
         <v>117</v>
       </c>
@@ -8281,7 +8281,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="129"/>
+      <c r="A19" s="155"/>
       <c r="B19" s="12" t="s">
         <v>116</v>
       </c>
@@ -8292,7 +8292,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="129"/>
+      <c r="A20" s="155"/>
       <c r="B20" s="12" t="s">
         <v>115</v>
       </c>
@@ -8303,7 +8303,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="129"/>
+      <c r="A21" s="155"/>
       <c r="B21" s="12" t="s">
         <v>122</v>
       </c>
@@ -8314,7 +8314,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="129"/>
+      <c r="A22" s="155"/>
       <c r="B22" s="12" t="s">
         <v>123</v>
       </c>
@@ -8325,7 +8325,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="129"/>
+      <c r="A23" s="155"/>
       <c r="B23" s="12" t="s">
         <v>124</v>
       </c>
@@ -8336,7 +8336,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="129"/>
+      <c r="A24" s="155"/>
       <c r="B24" s="12" t="s">
         <v>125</v>
       </c>
@@ -8347,7 +8347,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="129"/>
+      <c r="A25" s="155"/>
       <c r="B25" s="12" t="s">
         <v>126</v>
       </c>
@@ -8358,7 +8358,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="129"/>
+      <c r="A26" s="155"/>
       <c r="B26" s="12" t="s">
         <v>173</v>
       </c>
@@ -8369,7 +8369,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="129"/>
+      <c r="A27" s="155"/>
       <c r="B27" s="12" t="s">
         <v>174</v>
       </c>
@@ -8380,7 +8380,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="129"/>
+      <c r="A28" s="155"/>
       <c r="B28" s="12" t="s">
         <v>175</v>
       </c>
@@ -8391,7 +8391,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="129"/>
+      <c r="A29" s="155"/>
       <c r="B29" s="12" t="s">
         <v>176</v>
       </c>
@@ -8402,7 +8402,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="129"/>
+      <c r="A30" s="155"/>
       <c r="B30" s="12" t="s">
         <v>128</v>
       </c>
@@ -8413,7 +8413,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="129"/>
+      <c r="A31" s="155"/>
       <c r="B31" s="12" t="s">
         <v>129</v>
       </c>
@@ -8424,7 +8424,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="129"/>
+      <c r="A32" s="155"/>
       <c r="B32" s="12" t="s">
         <v>130</v>
       </c>
@@ -8435,7 +8435,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="129"/>
+      <c r="A33" s="155"/>
       <c r="B33" s="12" t="s">
         <v>127</v>
       </c>
@@ -8446,14 +8446,14 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="129"/>
+      <c r="A34" s="155"/>
       <c r="B34" s="12"/>
       <c r="C34" s="42"/>
       <c r="D34" s="42"/>
       <c r="E34" s="26"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="129"/>
+      <c r="A35" s="155"/>
       <c r="B35" s="2" t="s">
         <v>105</v>
       </c>
@@ -8464,7 +8464,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="129"/>
+      <c r="A36" s="155"/>
       <c r="B36" s="2" t="s">
         <v>104</v>
       </c>
@@ -8475,7 +8475,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="129"/>
+      <c r="A37" s="155"/>
       <c r="B37" s="2" t="s">
         <v>103</v>
       </c>
@@ -8486,7 +8486,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="129"/>
+      <c r="A38" s="155"/>
       <c r="B38" s="2" t="s">
         <v>102</v>
       </c>
@@ -8497,7 +8497,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="129"/>
+      <c r="A39" s="155"/>
       <c r="B39" s="2" t="s">
         <v>101</v>
       </c>
@@ -8508,7 +8508,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="129"/>
+      <c r="A40" s="155"/>
       <c r="B40" s="2" t="s">
         <v>100</v>
       </c>
@@ -8519,7 +8519,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="129"/>
+      <c r="A41" s="155"/>
       <c r="B41" s="2" t="s">
         <v>99</v>
       </c>
@@ -8530,7 +8530,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="129"/>
+      <c r="A42" s="155"/>
       <c r="B42" s="2" t="s">
         <v>106</v>
       </c>
@@ -8541,7 +8541,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="129"/>
+      <c r="A43" s="155"/>
       <c r="B43" s="2" t="s">
         <v>107</v>
       </c>
@@ -8552,7 +8552,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="129"/>
+      <c r="A44" s="155"/>
       <c r="B44" s="2" t="s">
         <v>108</v>
       </c>
@@ -8563,7 +8563,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="129"/>
+      <c r="A45" s="155"/>
       <c r="B45" s="2" t="s">
         <v>109</v>
       </c>
@@ -8574,7 +8574,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="129"/>
+      <c r="A46" s="155"/>
       <c r="B46" s="2" t="s">
         <v>110</v>
       </c>
@@ -8585,7 +8585,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="129"/>
+      <c r="A47" s="155"/>
       <c r="B47" s="2" t="s">
         <v>177</v>
       </c>
@@ -8596,7 +8596,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="129"/>
+      <c r="A48" s="155"/>
       <c r="B48" s="2" t="s">
         <v>178</v>
       </c>
@@ -8607,7 +8607,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="129"/>
+      <c r="A49" s="155"/>
       <c r="B49" s="2" t="s">
         <v>179</v>
       </c>
@@ -8618,7 +8618,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="129"/>
+      <c r="A50" s="155"/>
       <c r="B50" s="2" t="s">
         <v>180</v>
       </c>
@@ -8629,7 +8629,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="129"/>
+      <c r="A51" s="155"/>
       <c r="B51" s="21" t="s">
         <v>111</v>
       </c>
@@ -8640,7 +8640,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="129"/>
+      <c r="A52" s="155"/>
       <c r="B52" s="2" t="s">
         <v>112</v>
       </c>
@@ -8651,7 +8651,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="129"/>
+      <c r="A53" s="155"/>
       <c r="B53" s="2" t="s">
         <v>113</v>
       </c>
@@ -8662,7 +8662,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="129"/>
+      <c r="A54" s="155"/>
       <c r="B54" s="2" t="s">
         <v>114</v>
       </c>
@@ -8680,7 +8680,7 @@
       <c r="E55" s="50"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="134" t="s">
+      <c r="A56" s="160" t="s">
         <v>62</v>
       </c>
       <c r="B56" s="12" t="s">
@@ -8693,7 +8693,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="129"/>
+      <c r="A57" s="155"/>
       <c r="B57" s="12" t="s">
         <v>75</v>
       </c>
@@ -8704,7 +8704,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="135"/>
+      <c r="A58" s="161"/>
       <c r="B58" s="12" t="s">
         <v>74</v>
       </c>
@@ -8722,7 +8722,7 @@
       <c r="E59" s="49"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="126" t="s">
+      <c r="A60" s="152" t="s">
         <v>65</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -8735,7 +8735,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="127"/>
+      <c r="A61" s="153"/>
       <c r="B61" s="2" t="s">
         <v>67</v>
       </c>
@@ -8746,7 +8746,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="127"/>
+      <c r="A62" s="153"/>
       <c r="B62" s="2" t="s">
         <v>70</v>
       </c>
@@ -8757,7 +8757,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="127"/>
+      <c r="A63" s="153"/>
       <c r="B63" s="2" t="s">
         <v>68</v>
       </c>
@@ -8768,7 +8768,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="127"/>
+      <c r="A64" s="153"/>
       <c r="B64" s="2" t="s">
         <v>69</v>
       </c>
@@ -8779,7 +8779,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="127"/>
+      <c r="A65" s="153"/>
       <c r="B65" s="51" t="s">
         <v>71</v>
       </c>
@@ -8790,7 +8790,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="127"/>
+      <c r="A66" s="153"/>
       <c r="B66" s="51" t="s">
         <v>72</v>
       </c>
@@ -8801,7 +8801,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="127"/>
+      <c r="A67" s="153"/>
       <c r="B67" s="51" t="s">
         <v>73</v>
       </c>
@@ -8812,7 +8812,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="127"/>
+      <c r="A68" s="153"/>
       <c r="B68" s="54" t="s">
         <v>314</v>
       </c>
@@ -8823,7 +8823,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="128"/>
+      <c r="A69" s="154"/>
       <c r="B69" s="54" t="s">
         <v>315</v>
       </c>
@@ -8841,7 +8841,7 @@
       <c r="E70" s="49"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="141" t="s">
+      <c r="A71" s="167" t="s">
         <v>349</v>
       </c>
       <c r="B71" s="58" t="s">
@@ -8854,7 +8854,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="142"/>
+      <c r="A72" s="168"/>
       <c r="B72" s="58" t="s">
         <v>351</v>
       </c>
@@ -8865,7 +8865,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="142"/>
+      <c r="A73" s="168"/>
       <c r="B73" s="58" t="s">
         <v>350</v>
       </c>
@@ -8876,7 +8876,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="142"/>
+      <c r="A74" s="168"/>
       <c r="B74" s="58" t="s">
         <v>353</v>
       </c>
@@ -8887,7 +8887,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="142"/>
+      <c r="A75" s="168"/>
       <c r="B75" s="58" t="s">
         <v>354</v>
       </c>
@@ -8898,7 +8898,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="142"/>
+      <c r="A76" s="168"/>
       <c r="B76" s="58" t="s">
         <v>355</v>
       </c>
@@ -8916,7 +8916,7 @@
       <c r="E77" s="107"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="141" t="s">
+      <c r="A78" s="167" t="s">
         <v>316</v>
       </c>
       <c r="B78" s="58" t="s">
@@ -8929,7 +8929,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="142"/>
+      <c r="A79" s="168"/>
       <c r="B79" s="58" t="s">
         <v>318</v>
       </c>
@@ -8940,7 +8940,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="142"/>
+      <c r="A80" s="168"/>
       <c r="B80" s="58" t="s">
         <v>319</v>
       </c>
@@ -8951,7 +8951,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="143"/>
+      <c r="A81" s="169"/>
       <c r="B81" s="58" t="s">
         <v>320</v>
       </c>
@@ -8969,7 +8969,7 @@
       <c r="E82" s="49"/>
     </row>
     <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="134" t="s">
+      <c r="A83" s="160" t="s">
         <v>311</v>
       </c>
       <c r="B83" s="12" t="s">
@@ -8982,7 +8982,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="130"/>
+      <c r="A84" s="156"/>
       <c r="B84" s="63" t="s">
         <v>22</v>
       </c>
@@ -9039,7 +9039,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="157" t="s">
         <v>216</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -9053,7 +9053,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="132"/>
+      <c r="A3" s="158"/>
       <c r="B3" s="2" t="s">
         <v>218</v>
       </c>
@@ -9065,7 +9065,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="132"/>
+      <c r="A4" s="158"/>
       <c r="B4" s="2" t="s">
         <v>219</v>
       </c>
@@ -9077,7 +9077,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="132"/>
+      <c r="A5" s="158"/>
       <c r="B5" s="2" t="s">
         <v>220</v>
       </c>
@@ -9089,7 +9089,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="132"/>
+      <c r="A6" s="158"/>
       <c r="B6" s="2" t="s">
         <v>221</v>
       </c>
@@ -9101,7 +9101,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="132"/>
+      <c r="A7" s="158"/>
       <c r="B7" s="2" t="s">
         <v>224</v>
       </c>
@@ -9113,7 +9113,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="132"/>
+      <c r="A8" s="158"/>
       <c r="B8" s="12" t="s">
         <v>223</v>
       </c>
@@ -9125,7 +9125,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="132"/>
+      <c r="A9" s="158"/>
       <c r="B9" s="2" t="s">
         <v>222</v>
       </c>
@@ -9137,7 +9137,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="132"/>
+      <c r="A10" s="158"/>
       <c r="B10" s="21" t="s">
         <v>225</v>
       </c>
@@ -9157,7 +9157,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="120" t="s">
+      <c r="A12" s="146" t="s">
         <v>210</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -9171,7 +9171,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="120"/>
+      <c r="A13" s="146"/>
       <c r="B13" s="2" t="s">
         <v>190</v>
       </c>
@@ -9183,7 +9183,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="120"/>
+      <c r="A14" s="146"/>
       <c r="B14" s="2" t="s">
         <v>226</v>
       </c>
@@ -9195,7 +9195,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="120"/>
+      <c r="A15" s="146"/>
       <c r="B15" s="12" t="s">
         <v>227</v>
       </c>
@@ -9207,7 +9207,7 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="120"/>
+      <c r="A16" s="146"/>
       <c r="B16" s="2" t="s">
         <v>228</v>
       </c>
@@ -9219,7 +9219,7 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="125"/>
+      <c r="A17" s="151"/>
       <c r="B17" s="21" t="s">
         <v>229</v>
       </c>
@@ -9239,7 +9239,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="131" t="s">
+      <c r="A19" s="157" t="s">
         <v>321</v>
       </c>
       <c r="B19" s="51" t="s">
@@ -9253,7 +9253,7 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="132"/>
+      <c r="A20" s="158"/>
       <c r="B20" s="51" t="s">
         <v>186</v>
       </c>
@@ -9265,7 +9265,7 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="132"/>
+      <c r="A21" s="158"/>
       <c r="B21" s="51" t="s">
         <v>187</v>
       </c>
@@ -9277,7 +9277,7 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="133"/>
+      <c r="A22" s="159"/>
       <c r="B22" s="51" t="s">
         <v>188</v>
       </c>
@@ -9297,7 +9297,7 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="131" t="s">
+      <c r="A24" s="157" t="s">
         <v>322</v>
       </c>
       <c r="B24" s="54" t="s">
@@ -9310,7 +9310,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="128"/>
+      <c r="A25" s="154"/>
       <c r="B25" s="54" t="s">
         <v>204</v>
       </c>
@@ -9328,7 +9328,7 @@
       <c r="E26" s="68"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="132" t="s">
+      <c r="A27" s="158" t="s">
         <v>323</v>
       </c>
       <c r="B27" s="54" t="s">
@@ -9341,7 +9341,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="127"/>
+      <c r="A28" s="153"/>
       <c r="B28" s="54" t="s">
         <v>211</v>
       </c>
@@ -9352,7 +9352,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="127"/>
+      <c r="A29" s="153"/>
       <c r="B29" s="54" t="s">
         <v>205</v>
       </c>
@@ -9363,7 +9363,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="128"/>
+      <c r="A30" s="154"/>
       <c r="B30" s="54" t="s">
         <v>215</v>
       </c>
@@ -9381,7 +9381,7 @@
       <c r="E31" s="70"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="126" t="s">
+      <c r="A32" s="152" t="s">
         <v>60</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -9394,7 +9394,7 @@
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="127"/>
+      <c r="A33" s="153"/>
       <c r="B33" s="2" t="s">
         <v>183</v>
       </c>
@@ -9405,7 +9405,7 @@
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="127"/>
+      <c r="A34" s="153"/>
       <c r="B34" s="2" t="s">
         <v>193</v>
       </c>
@@ -9416,7 +9416,7 @@
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="127"/>
+      <c r="A35" s="153"/>
       <c r="B35" s="2" t="s">
         <v>194</v>
       </c>
@@ -9427,7 +9427,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="127"/>
+      <c r="A36" s="153"/>
       <c r="B36" s="2" t="s">
         <v>195</v>
       </c>
@@ -9438,7 +9438,7 @@
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="127"/>
+      <c r="A37" s="153"/>
       <c r="B37" s="2" t="s">
         <v>196</v>
       </c>
@@ -9449,7 +9449,7 @@
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="127"/>
+      <c r="A38" s="153"/>
       <c r="B38" s="2" t="s">
         <v>197</v>
       </c>
@@ -9460,7 +9460,7 @@
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="127"/>
+      <c r="A39" s="153"/>
       <c r="B39" s="2" t="s">
         <v>198</v>
       </c>
@@ -9471,7 +9471,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="127"/>
+      <c r="A40" s="153"/>
       <c r="B40" s="2" t="s">
         <v>199</v>
       </c>
@@ -9482,7 +9482,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="127"/>
+      <c r="A41" s="153"/>
       <c r="B41" s="2" t="s">
         <v>203</v>
       </c>
@@ -9493,7 +9493,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="127"/>
+      <c r="A42" s="153"/>
       <c r="B42" s="2" t="s">
         <v>201</v>
       </c>
@@ -9504,7 +9504,7 @@
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="127"/>
+      <c r="A43" s="153"/>
       <c r="B43" s="2" t="s">
         <v>202</v>
       </c>
@@ -9515,7 +9515,7 @@
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="128"/>
+      <c r="A44" s="154"/>
       <c r="B44" s="2" t="s">
         <v>184</v>
       </c>
@@ -9533,7 +9533,7 @@
       <c r="E45" s="70"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="131" t="s">
+      <c r="A46" s="157" t="s">
         <v>342</v>
       </c>
       <c r="B46" s="51" t="s">
@@ -9546,7 +9546,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="132"/>
+      <c r="A47" s="158"/>
       <c r="B47" s="51" t="s">
         <v>344</v>
       </c>
@@ -9557,7 +9557,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="132"/>
+      <c r="A48" s="158"/>
       <c r="B48" s="51" t="s">
         <v>345</v>
       </c>
@@ -9568,7 +9568,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="132"/>
+      <c r="A49" s="158"/>
       <c r="B49" s="51" t="s">
         <v>346</v>
       </c>
@@ -9579,7 +9579,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="132"/>
+      <c r="A50" s="158"/>
       <c r="B50" s="51" t="s">
         <v>347</v>
       </c>
@@ -9590,7 +9590,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="144"/>
+      <c r="A51" s="170"/>
       <c r="B51" s="4" t="s">
         <v>348</v>
       </c>
@@ -9652,7 +9652,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="145" t="s">
         <v>330</v>
       </c>
       <c r="B2" s="54" t="s">
@@ -9665,7 +9665,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="120"/>
+      <c r="A3" s="146"/>
       <c r="B3" s="54" t="s">
         <v>230</v>
       </c>
@@ -9676,7 +9676,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="120"/>
+      <c r="A4" s="146"/>
       <c r="B4" s="54" t="s">
         <v>206</v>
       </c>
@@ -9687,7 +9687,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="125"/>
+      <c r="A5" s="151"/>
       <c r="B5" s="54" t="s">
         <v>212</v>
       </c>
@@ -9705,7 +9705,7 @@
       <c r="E6" s="80"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="146" t="s">
         <v>331</v>
       </c>
       <c r="B7" s="54" t="s">
@@ -9718,7 +9718,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="120"/>
+      <c r="A8" s="146"/>
       <c r="B8" s="54" t="s">
         <v>335</v>
       </c>
@@ -9729,7 +9729,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="120"/>
+      <c r="A9" s="146"/>
       <c r="B9" s="54" t="s">
         <v>337</v>
       </c>
@@ -9740,7 +9740,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="120"/>
+      <c r="A10" s="146"/>
       <c r="B10" s="54" t="s">
         <v>338</v>
       </c>
@@ -9751,7 +9751,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="125"/>
+      <c r="A11" s="151"/>
       <c r="B11" s="54" t="s">
         <v>336</v>
       </c>
@@ -9769,7 +9769,7 @@
       <c r="E12" s="108"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="145" t="s">
+      <c r="A13" s="171" t="s">
         <v>324</v>
       </c>
       <c r="B13" s="73" t="s">
@@ -9782,7 +9782,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="146"/>
+      <c r="A14" s="172"/>
       <c r="B14" s="73" t="s">
         <v>235</v>
       </c>
@@ -9793,7 +9793,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="146"/>
+      <c r="A15" s="172"/>
       <c r="B15" s="73" t="s">
         <v>236</v>
       </c>
@@ -9804,7 +9804,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="146"/>
+      <c r="A16" s="172"/>
       <c r="B16" s="73" t="s">
         <v>237</v>
       </c>
@@ -9815,7 +9815,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="146"/>
+      <c r="A17" s="172"/>
       <c r="B17" s="73" t="s">
         <v>238</v>
       </c>
@@ -9833,7 +9833,7 @@
       <c r="E18" s="81"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="131" t="s">
+      <c r="A19" s="157" t="s">
         <v>326</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -9846,7 +9846,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="127"/>
+      <c r="A20" s="153"/>
       <c r="B20" s="2" t="s">
         <v>208</v>
       </c>
@@ -9857,7 +9857,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="128"/>
+      <c r="A21" s="154"/>
       <c r="B21" s="2" t="s">
         <v>209</v>
       </c>
@@ -9875,7 +9875,7 @@
       <c r="E22" s="81"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="136" t="s">
+      <c r="A23" s="162" t="s">
         <v>327</v>
       </c>
       <c r="B23" s="51" t="s">
@@ -9888,7 +9888,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="137"/>
+      <c r="A24" s="163"/>
       <c r="B24" s="51" t="s">
         <v>232</v>
       </c>
@@ -9899,7 +9899,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="138"/>
+      <c r="A25" s="164"/>
       <c r="B25" s="73" t="s">
         <v>233</v>
       </c>
@@ -9917,7 +9917,7 @@
       <c r="E26" s="109"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="136" t="s">
+      <c r="A27" s="162" t="s">
         <v>329</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -9930,7 +9930,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="137"/>
+      <c r="A28" s="163"/>
       <c r="B28" s="2" t="s">
         <v>245</v>
       </c>
@@ -9941,7 +9941,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="137"/>
+      <c r="A29" s="163"/>
       <c r="B29" s="2" t="s">
         <v>246</v>
       </c>
@@ -9952,7 +9952,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="138"/>
+      <c r="A30" s="164"/>
       <c r="B30" s="12" t="s">
         <v>247</v>
       </c>
@@ -9970,7 +9970,7 @@
       <c r="E31" s="110"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="136" t="s">
+      <c r="A32" s="162" t="s">
         <v>325</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -9983,7 +9983,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="137"/>
+      <c r="A33" s="163"/>
       <c r="B33" s="51" t="s">
         <v>243</v>
       </c>
@@ -9994,7 +9994,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="137"/>
+      <c r="A34" s="163"/>
       <c r="B34" s="51" t="s">
         <v>240</v>
       </c>
@@ -10005,7 +10005,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="137"/>
+      <c r="A35" s="163"/>
       <c r="B35" s="51" t="s">
         <v>241</v>
       </c>
@@ -10016,7 +10016,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="137"/>
+      <c r="A36" s="163"/>
       <c r="B36" s="51" t="s">
         <v>244</v>
       </c>
@@ -10027,7 +10027,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="147"/>
+      <c r="A37" s="173"/>
       <c r="B37" s="4" t="s">
         <v>234</v>
       </c>
@@ -10056,7 +10056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8D2795-3703-4799-82AD-D959B47FB411}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A43" sqref="A43:A62"/>
     </sheetView>
   </sheetViews>
@@ -10084,7 +10084,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="171" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="73" t="s">
@@ -10097,7 +10097,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="146"/>
+      <c r="A3" s="172"/>
       <c r="B3" s="73" t="s">
         <v>249</v>
       </c>
@@ -10108,7 +10108,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="146"/>
+      <c r="A4" s="172"/>
       <c r="B4" s="73" t="s">
         <v>339</v>
       </c>
@@ -10119,7 +10119,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="146"/>
+      <c r="A5" s="172"/>
       <c r="B5" s="73" t="s">
         <v>340</v>
       </c>
@@ -10130,7 +10130,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="146"/>
+      <c r="A6" s="172"/>
       <c r="B6" s="73" t="s">
         <v>341</v>
       </c>
@@ -10141,7 +10141,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="148"/>
+      <c r="A7" s="174"/>
       <c r="B7" s="73" t="s">
         <v>250</v>
       </c>
@@ -10159,57 +10159,57 @@
       <c r="E8" s="85"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="150" t="s">
+      <c r="A9" s="176" t="s">
         <v>380</v>
       </c>
       <c r="B9" s="113" t="s">
         <v>387</v>
       </c>
-      <c r="C9" s="154"/>
+      <c r="C9" s="120"/>
       <c r="D9" s="113"/>
       <c r="E9" s="53" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="152"/>
-      <c r="B10" s="153" t="s">
+      <c r="A10" s="177"/>
+      <c r="B10" s="119" t="s">
         <v>411</v>
       </c>
-      <c r="C10" s="154"/>
+      <c r="C10" s="120"/>
       <c r="D10" s="113"/>
       <c r="E10" s="53" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="152"/>
-      <c r="B11" s="153" t="s">
+      <c r="A11" s="177"/>
+      <c r="B11" s="119" t="s">
         <v>388</v>
       </c>
-      <c r="C11" s="154"/>
+      <c r="C11" s="120"/>
       <c r="D11" s="113"/>
       <c r="E11" s="53" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="152"/>
-      <c r="B12" s="153" t="s">
+      <c r="A12" s="177"/>
+      <c r="B12" s="119" t="s">
         <v>389</v>
       </c>
-      <c r="C12" s="154"/>
+      <c r="C12" s="120"/>
       <c r="D12" s="113"/>
       <c r="E12" s="53" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="151"/>
+      <c r="A13" s="178"/>
       <c r="B13" s="118" t="s">
         <v>390</v>
       </c>
-      <c r="C13" s="154"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="73"/>
       <c r="E13" s="53" t="s">
         <v>139</v>
@@ -10223,7 +10223,7 @@
       <c r="E14" s="85"/>
     </row>
     <row r="15" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="145" t="s">
+      <c r="A15" s="171" t="s">
         <v>368</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -10236,7 +10236,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="146"/>
+      <c r="A16" s="172"/>
       <c r="B16" s="33" t="s">
         <v>369</v>
       </c>
@@ -10247,7 +10247,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="146"/>
+      <c r="A17" s="172"/>
       <c r="B17" s="33" t="s">
         <v>359</v>
       </c>
@@ -10258,7 +10258,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="146"/>
+      <c r="A18" s="172"/>
       <c r="B18" s="33" t="s">
         <v>360</v>
       </c>
@@ -10269,7 +10269,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="146"/>
+      <c r="A19" s="172"/>
       <c r="B19" s="33" t="s">
         <v>361</v>
       </c>
@@ -10280,7 +10280,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="146"/>
+      <c r="A20" s="172"/>
       <c r="B20" s="33" t="s">
         <v>363</v>
       </c>
@@ -10291,7 +10291,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="146"/>
+      <c r="A21" s="172"/>
       <c r="B21" s="33" t="s">
         <v>362</v>
       </c>
@@ -10302,7 +10302,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="146"/>
+      <c r="A22" s="172"/>
       <c r="B22" s="33" t="s">
         <v>364</v>
       </c>
@@ -10313,7 +10313,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="146"/>
+      <c r="A23" s="172"/>
       <c r="B23" s="33" t="s">
         <v>365</v>
       </c>
@@ -10324,7 +10324,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="146"/>
+      <c r="A24" s="172"/>
       <c r="B24" s="33" t="s">
         <v>366</v>
       </c>
@@ -10335,7 +10335,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="148"/>
+      <c r="A25" s="174"/>
       <c r="B25" s="33" t="s">
         <v>367</v>
       </c>
@@ -10353,7 +10353,7 @@
       <c r="E26" s="114"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="145" t="s">
+      <c r="A27" s="171" t="s">
         <v>439</v>
       </c>
       <c r="B27" s="73" t="s">
@@ -10366,7 +10366,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="146"/>
+      <c r="A28" s="172"/>
       <c r="B28" s="73" t="s">
         <v>425</v>
       </c>
@@ -10377,7 +10377,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="146"/>
+      <c r="A29" s="172"/>
       <c r="B29" s="73" t="s">
         <v>426</v>
       </c>
@@ -10388,7 +10388,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="146"/>
+      <c r="A30" s="172"/>
       <c r="B30" s="73" t="s">
         <v>427</v>
       </c>
@@ -10399,7 +10399,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="146"/>
+      <c r="A31" s="172"/>
       <c r="B31" s="73" t="s">
         <v>428</v>
       </c>
@@ -10410,7 +10410,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="146"/>
+      <c r="A32" s="172"/>
       <c r="B32" s="73" t="s">
         <v>429</v>
       </c>
@@ -10421,7 +10421,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="146"/>
+      <c r="A33" s="172"/>
       <c r="B33" s="73" t="s">
         <v>430</v>
       </c>
@@ -10432,7 +10432,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="146"/>
+      <c r="A34" s="172"/>
       <c r="B34" s="73" t="s">
         <v>431</v>
       </c>
@@ -10443,7 +10443,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="146"/>
+      <c r="A35" s="172"/>
       <c r="B35" s="73" t="s">
         <v>432</v>
       </c>
@@ -10454,7 +10454,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="146"/>
+      <c r="A36" s="172"/>
       <c r="B36" s="73" t="s">
         <v>433</v>
       </c>
@@ -10465,7 +10465,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="146"/>
+      <c r="A37" s="172"/>
       <c r="B37" s="73" t="s">
         <v>434</v>
       </c>
@@ -10476,7 +10476,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="146"/>
+      <c r="A38" s="172"/>
       <c r="B38" s="73" t="s">
         <v>435</v>
       </c>
@@ -10487,7 +10487,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="146"/>
+      <c r="A39" s="172"/>
       <c r="B39" s="73" t="s">
         <v>436</v>
       </c>
@@ -10498,7 +10498,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="146"/>
+      <c r="A40" s="172"/>
       <c r="B40" s="73" t="s">
         <v>437</v>
       </c>
@@ -10509,7 +10509,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="148"/>
+      <c r="A41" s="174"/>
       <c r="B41" s="73" t="s">
         <v>438</v>
       </c>
@@ -10527,7 +10527,7 @@
       <c r="E42" s="114"/>
     </row>
     <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="141" t="s">
+      <c r="A43" s="167" t="s">
         <v>370</v>
       </c>
       <c r="B43" s="73"/>
@@ -10538,7 +10538,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="142"/>
+      <c r="A44" s="168"/>
       <c r="B44" s="73"/>
       <c r="C44" s="52"/>
       <c r="D44" s="73"/>
@@ -10547,7 +10547,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="142"/>
+      <c r="A45" s="168"/>
       <c r="B45" s="73"/>
       <c r="C45" s="52"/>
       <c r="D45" s="73"/>
@@ -10556,7 +10556,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="142"/>
+      <c r="A46" s="168"/>
       <c r="B46" s="73"/>
       <c r="C46" s="52"/>
       <c r="D46" s="73"/>
@@ -10565,7 +10565,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="142"/>
+      <c r="A47" s="168"/>
       <c r="B47" s="73"/>
       <c r="C47" s="52"/>
       <c r="D47" s="73"/>
@@ -10574,7 +10574,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="142"/>
+      <c r="A48" s="168"/>
       <c r="B48" s="73"/>
       <c r="C48" s="52"/>
       <c r="D48" s="73"/>
@@ -10583,7 +10583,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="142"/>
+      <c r="A49" s="168"/>
       <c r="B49" s="73"/>
       <c r="C49" s="52"/>
       <c r="D49" s="73"/>
@@ -10592,7 +10592,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="142"/>
+      <c r="A50" s="168"/>
       <c r="B50" s="73"/>
       <c r="C50" s="52"/>
       <c r="D50" s="73"/>
@@ -10601,7 +10601,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="142"/>
+      <c r="A51" s="168"/>
       <c r="B51" s="73"/>
       <c r="C51" s="52"/>
       <c r="D51" s="73"/>
@@ -10610,7 +10610,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="142"/>
+      <c r="A52" s="168"/>
       <c r="B52" s="73"/>
       <c r="C52" s="52"/>
       <c r="D52" s="73"/>
@@ -10619,7 +10619,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="142"/>
+      <c r="A53" s="168"/>
       <c r="B53" s="73"/>
       <c r="C53" s="52"/>
       <c r="D53" s="73"/>
@@ -10628,7 +10628,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="142"/>
+      <c r="A54" s="168"/>
       <c r="B54" s="73"/>
       <c r="C54" s="52"/>
       <c r="D54" s="73"/>
@@ -10637,7 +10637,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="142"/>
+      <c r="A55" s="168"/>
       <c r="B55" s="73"/>
       <c r="C55" s="52"/>
       <c r="D55" s="73"/>
@@ -10646,7 +10646,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="142"/>
+      <c r="A56" s="168"/>
       <c r="B56" s="73"/>
       <c r="C56" s="52"/>
       <c r="D56" s="73"/>
@@ -10655,7 +10655,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="142"/>
+      <c r="A57" s="168"/>
       <c r="B57" s="73"/>
       <c r="C57" s="52"/>
       <c r="D57" s="73"/>
@@ -10664,7 +10664,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="142"/>
+      <c r="A58" s="168"/>
       <c r="B58" s="73"/>
       <c r="C58" s="52"/>
       <c r="D58" s="73"/>
@@ -10673,7 +10673,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="142"/>
+      <c r="A59" s="168"/>
       <c r="B59" s="73"/>
       <c r="C59" s="52"/>
       <c r="D59" s="73"/>
@@ -10682,7 +10682,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="142"/>
+      <c r="A60" s="168"/>
       <c r="B60" s="73"/>
       <c r="C60" s="52"/>
       <c r="D60" s="73"/>
@@ -10691,7 +10691,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="142"/>
+      <c r="A61" s="168"/>
       <c r="B61" s="73"/>
       <c r="C61" s="52"/>
       <c r="D61" s="73"/>
@@ -10700,7 +10700,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="149"/>
+      <c r="A62" s="175"/>
       <c r="B62" s="116"/>
       <c r="C62" s="117"/>
       <c r="D62" s="116"/>

--- a/Documents/Scrum/Sprint_backlog.xlsx
+++ b/Documents/Scrum/Sprint_backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ausau\Documents\GitHub\WavContact\Documents\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0700E0C2-4AEC-4C9C-B9D3-4B1D12997FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B3ED30-3035-4933-873D-FC6FD7120DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" firstSheet="6" activeTab="9" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="8" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint_0." sheetId="4" r:id="rId1"/>
@@ -3264,10 +3264,6 @@
     <t>Vérifier toutes les fonctionnalités WavMap</t>
   </si>
   <si>
-    <t>Vérifier toutes les focntionnalités 
-de WavCom</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ajouter des commentaires dans le code </t>
   </si>
   <si>
@@ -3476,6 +3472,10 @@
   </si>
   <si>
     <t xml:space="preserve">En cas d'ouverture d'une description de la balise des lieux faire automatiquement la fermeture de l'autre </t>
+  </si>
+  <si>
+    <t>Vérifier toutes les fonctionnalités 
+de WavCom</t>
   </si>
 </sst>
 </file>
@@ -4869,13 +4869,13 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="80.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="80.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="148" t="s">
         <v>12</v>
       </c>
@@ -4906,7 +4906,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="149"/>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -4918,7 +4918,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="149"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="149"/>
       <c r="B5" s="2" t="s">
         <v>259</v>
@@ -4942,7 +4942,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="149"/>
       <c r="B6" s="2" t="s">
         <v>260</v>
@@ -4954,7 +4954,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="149"/>
       <c r="B7" s="2" t="s">
         <v>257</v>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="149"/>
       <c r="B8" s="2" t="s">
         <v>256</v>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="150"/>
       <c r="B9" s="2" t="s">
         <v>258</v>
@@ -4988,7 +4988,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="60"/>
       <c r="B10" s="61"/>
       <c r="C10" s="60"/>
@@ -4996,7 +4996,7 @@
       <c r="E10" s="60"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="146" t="s">
         <v>261</v>
       </c>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="146"/>
       <c r="B12" s="2" t="s">
         <v>264</v>
@@ -5022,7 +5022,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="146"/>
       <c r="B13" s="12" t="s">
         <v>263</v>
@@ -5034,7 +5034,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="146"/>
       <c r="B14" s="12" t="s">
         <v>265</v>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="146"/>
       <c r="B15" s="12" t="s">
         <v>266</v>
@@ -5058,7 +5058,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="146"/>
       <c r="B16" s="12" t="s">
         <v>267</v>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="146"/>
       <c r="B17" s="12" t="s">
         <v>268</v>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="146"/>
       <c r="B18" s="12" t="s">
         <v>269</v>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="146"/>
       <c r="B19" s="12" t="s">
         <v>270</v>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="146"/>
       <c r="B20" s="12" t="s">
         <v>271</v>
@@ -5118,7 +5118,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="60"/>
       <c r="B21" s="90"/>
       <c r="C21" s="90"/>
@@ -5126,7 +5126,7 @@
       <c r="E21" s="91"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="145" t="s">
         <v>272</v>
       </c>
@@ -5140,7 +5140,7 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="146"/>
       <c r="B23" s="12" t="s">
         <v>274</v>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="146"/>
       <c r="B24" s="12" t="s">
         <v>275</v>
@@ -5164,7 +5164,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="146"/>
       <c r="B25" s="12" t="s">
         <v>276</v>
@@ -5176,7 +5176,7 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="146"/>
       <c r="B26" s="12" t="s">
         <v>277</v>
@@ -5188,7 +5188,7 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="151"/>
       <c r="B27" s="12" t="s">
         <v>278</v>
@@ -5200,7 +5200,7 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="60"/>
       <c r="B28" s="90"/>
       <c r="C28" s="90"/>
@@ -5208,7 +5208,7 @@
       <c r="E28" s="91"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="145" t="s">
         <v>251</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="146"/>
       <c r="B30" s="2" t="s">
         <v>253</v>
@@ -5232,7 +5232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="146"/>
       <c r="B31" s="2" t="s">
         <v>254</v>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="146"/>
       <c r="B32" s="2" t="s">
         <v>255</v>
@@ -5256,7 +5256,7 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="146"/>
       <c r="B33" s="2" t="s">
         <v>13</v>
@@ -5267,7 +5267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="146"/>
       <c r="B34" s="2" t="s">
         <v>14</v>
@@ -5278,7 +5278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="146"/>
       <c r="B35" s="2" t="s">
         <v>15</v>
@@ -5289,7 +5289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="146"/>
       <c r="B36" s="51" t="s">
         <v>158</v>
@@ -5300,7 +5300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="146"/>
       <c r="B37" s="51" t="s">
         <v>159</v>
@@ -5311,7 +5311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="147"/>
       <c r="B38" s="4" t="s">
         <v>293</v>
@@ -5338,17 +5338,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4275C1D2-30DB-4753-AC86-1CDFAF13FAD3}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="88.88671875" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="157" t="s">
         <v>357</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="153"/>
       <c r="B3" s="33" t="s">
         <v>358</v>
@@ -5389,7 +5389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="153"/>
       <c r="B4" s="33" t="s">
         <v>359</v>
@@ -5400,7 +5400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="153"/>
       <c r="B5" s="33" t="s">
         <v>360</v>
@@ -5411,7 +5411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="153"/>
       <c r="B6" s="33" t="s">
         <v>361</v>
@@ -5422,7 +5422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="153"/>
       <c r="B7" s="33" t="s">
         <v>363</v>
@@ -5433,7 +5433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="153"/>
       <c r="B8" s="33" t="s">
         <v>362</v>
@@ -5444,7 +5444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="153"/>
       <c r="B9" s="33" t="s">
         <v>364</v>
@@ -5455,7 +5455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="153"/>
       <c r="B10" s="33" t="s">
         <v>365</v>
@@ -5466,7 +5466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="153"/>
       <c r="B11" s="33" t="s">
         <v>366</v>
@@ -5477,7 +5477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="153"/>
       <c r="B12" s="33" t="s">
         <v>367</v>
@@ -5488,19 +5488,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="103"/>
       <c r="B13" s="104"/>
       <c r="C13" s="105"/>
       <c r="D13" s="104"/>
       <c r="E13" s="106"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="145" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="2"/>
@@ -5508,10 +5508,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="155"/>
       <c r="B15" s="12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="2"/>
@@ -5519,10 +5519,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="155"/>
       <c r="B16" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="51"/>
@@ -5530,10 +5530,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="155"/>
       <c r="B17" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="51"/>
@@ -5541,10 +5541,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="155"/>
       <c r="B18" s="54" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="51"/>
@@ -5552,10 +5552,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="155"/>
       <c r="B19" s="54" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C19" s="42"/>
       <c r="D19" s="51"/>
@@ -5563,10 +5563,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="155"/>
       <c r="B20" s="54" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="51"/>
@@ -5574,10 +5574,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="155"/>
       <c r="B21" s="54" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C21" s="42"/>
       <c r="D21" s="51"/>
@@ -5585,19 +5585,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="103"/>
       <c r="B22" s="104"/>
       <c r="C22" s="105"/>
       <c r="D22" s="104"/>
       <c r="E22" s="106"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="167" t="s">
         <v>333</v>
       </c>
       <c r="B23" s="73" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C23" s="52"/>
       <c r="D23" s="73"/>
@@ -5605,10 +5605,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="168"/>
       <c r="B24" s="73" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C24" s="52"/>
       <c r="D24" s="73"/>
@@ -5616,10 +5616,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="168"/>
       <c r="B25" s="73" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C25" s="52"/>
       <c r="D25" s="73"/>
@@ -5627,10 +5627,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="168"/>
       <c r="B26" s="73" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C26" s="52"/>
       <c r="D26" s="73"/>
@@ -5638,10 +5638,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="168"/>
       <c r="B27" s="73" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C27" s="52"/>
       <c r="D27" s="73"/>
@@ -5649,10 +5649,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="168"/>
       <c r="B28" s="73" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C28" s="52"/>
       <c r="D28" s="73"/>
@@ -5660,10 +5660,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="168"/>
       <c r="B29" s="73" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C29" s="52"/>
       <c r="D29" s="73"/>
@@ -5671,10 +5671,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="168"/>
       <c r="B30" s="73" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C30" s="52"/>
       <c r="D30" s="73"/>
@@ -5682,10 +5682,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="168"/>
       <c r="B31" s="73" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C31" s="52"/>
       <c r="D31" s="73"/>
@@ -5693,10 +5693,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="168"/>
       <c r="B32" s="73" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C32" s="52"/>
       <c r="D32" s="73"/>
@@ -5704,10 +5704,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="168"/>
       <c r="B33" s="73" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C33" s="52"/>
       <c r="D33" s="73"/>
@@ -5715,10 +5715,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="168"/>
       <c r="B34" s="73" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C34" s="52"/>
       <c r="D34" s="73"/>
@@ -5726,10 +5726,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="168"/>
       <c r="B35" s="73" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C35" s="52"/>
       <c r="D35" s="73"/>
@@ -5737,10 +5737,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
       <c r="B36" s="73" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C36" s="52"/>
       <c r="D36" s="73"/>
@@ -5748,10 +5748,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="168"/>
       <c r="B37" s="73" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C37" s="52"/>
       <c r="D37" s="73"/>
@@ -5759,10 +5759,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="168"/>
       <c r="B38" s="73" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C38" s="52"/>
       <c r="D38" s="73"/>
@@ -5770,10 +5770,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="168"/>
       <c r="B39" s="73" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C39" s="52"/>
       <c r="D39" s="73"/>
@@ -5781,10 +5781,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="168"/>
       <c r="B40" s="73" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C40" s="52"/>
       <c r="D40" s="73"/>
@@ -5792,10 +5792,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="168"/>
       <c r="B41" s="73" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C41" s="52"/>
       <c r="D41" s="73"/>
@@ -5803,10 +5803,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="169"/>
       <c r="B42" s="33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C42" s="52"/>
       <c r="D42" s="73"/>
@@ -5814,19 +5814,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="103"/>
       <c r="B43" s="121"/>
       <c r="C43" s="105"/>
       <c r="D43" s="104"/>
       <c r="E43" s="106"/>
     </row>
-    <row r="44" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="171" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B44" s="73" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C44" s="52"/>
       <c r="D44" s="73"/>
@@ -5834,10 +5834,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="172"/>
       <c r="B45" s="73" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C45" s="52"/>
       <c r="D45" s="73"/>
@@ -5845,10 +5845,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="172"/>
       <c r="B46" s="73" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C46" s="52"/>
       <c r="D46" s="73"/>
@@ -5856,10 +5856,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="172"/>
       <c r="B47" s="73" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C47" s="52"/>
       <c r="D47" s="73"/>
@@ -5867,10 +5867,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="172"/>
       <c r="B48" s="73" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C48" s="52"/>
       <c r="D48" s="73"/>
@@ -5878,10 +5878,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="172"/>
       <c r="B49" s="73" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C49" s="52"/>
       <c r="D49" s="73"/>
@@ -5889,10 +5889,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="172"/>
       <c r="B50" s="73" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C50" s="52"/>
       <c r="D50" s="73"/>
@@ -5900,10 +5900,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="172"/>
       <c r="B51" s="73" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C51" s="52"/>
       <c r="D51" s="73"/>
@@ -5911,10 +5911,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="172"/>
       <c r="B52" s="73" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C52" s="52"/>
       <c r="D52" s="73"/>
@@ -5922,10 +5922,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="172"/>
       <c r="B53" s="73" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C53" s="52"/>
       <c r="D53" s="73"/>
@@ -5933,10 +5933,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="174"/>
       <c r="B54" s="73" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C54" s="52"/>
       <c r="D54" s="73"/>
@@ -5944,14 +5944,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="103"/>
       <c r="B55" s="104"/>
       <c r="C55" s="105"/>
       <c r="D55" s="104"/>
       <c r="E55" s="106"/>
     </row>
-    <row r="56" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="171" t="s">
         <v>379</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="172"/>
       <c r="B57" s="73" t="s">
         <v>372</v>
@@ -5975,7 +5975,7 @@
       <c r="D57" s="73"/>
       <c r="E57" s="77"/>
     </row>
-    <row r="58" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="172"/>
       <c r="B58" s="118" t="s">
         <v>373</v>
@@ -5986,7 +5986,7 @@
       <c r="D58" s="73"/>
       <c r="E58" s="77"/>
     </row>
-    <row r="59" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="172"/>
       <c r="B59" s="118" t="s">
         <v>374</v>
@@ -5997,7 +5997,7 @@
       <c r="D59" s="73"/>
       <c r="E59" s="77"/>
     </row>
-    <row r="60" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="172"/>
       <c r="B60" s="118" t="s">
         <v>375</v>
@@ -6008,7 +6008,7 @@
       <c r="D60" s="73"/>
       <c r="E60" s="77"/>
     </row>
-    <row r="61" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="172"/>
       <c r="B61" s="118" t="s">
         <v>376</v>
@@ -6019,7 +6019,7 @@
       <c r="D61" s="73"/>
       <c r="E61" s="77"/>
     </row>
-    <row r="62" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="172"/>
       <c r="B62" s="118" t="s">
         <v>378</v>
@@ -6030,7 +6030,7 @@
       <c r="D62" s="73"/>
       <c r="E62" s="77"/>
     </row>
-    <row r="63" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="172"/>
       <c r="B63" s="118" t="s">
         <v>377</v>
@@ -6041,10 +6041,10 @@
       <c r="D63" s="73"/>
       <c r="E63" s="77"/>
     </row>
-    <row r="64" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="172"/>
       <c r="B64" s="118" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C64" s="52" t="s">
         <v>9</v>
@@ -6052,10 +6052,10 @@
       <c r="D64" s="73"/>
       <c r="E64" s="77"/>
     </row>
-    <row r="65" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="172"/>
       <c r="B65" s="118" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C65" s="52" t="s">
         <v>9</v>
@@ -6063,10 +6063,10 @@
       <c r="D65" s="73"/>
       <c r="E65" s="77"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="172"/>
       <c r="B66" s="118" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C66" s="52" t="s">
         <v>9</v>
@@ -6074,10 +6074,10 @@
       <c r="D66" s="73"/>
       <c r="E66" s="77"/>
     </row>
-    <row r="67" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="172"/>
       <c r="B67" s="118" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C67" s="52" t="s">
         <v>9</v>
@@ -6085,10 +6085,10 @@
       <c r="D67" s="73"/>
       <c r="E67" s="77"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="172"/>
       <c r="B68" s="118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C68" s="52" t="s">
         <v>9</v>
@@ -6096,10 +6096,10 @@
       <c r="D68" s="73"/>
       <c r="E68" s="77"/>
     </row>
-    <row r="69" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="172"/>
       <c r="B69" s="118" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C69" s="52" t="s">
         <v>9</v>
@@ -6107,10 +6107,10 @@
       <c r="D69" s="73"/>
       <c r="E69" s="77"/>
     </row>
-    <row r="70" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="174"/>
       <c r="B70" s="118" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C70" s="52" t="s">
         <v>9</v>
@@ -6118,7 +6118,7 @@
       <c r="D70" s="73"/>
       <c r="E70" s="77"/>
     </row>
-    <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="117"/>
@@ -6145,14 +6145,14 @@
       <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="43.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="157"/>
       <c r="B2" s="2"/>
       <c r="C2" s="42"/>
@@ -6178,7 +6178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="153"/>
       <c r="B3" s="33"/>
       <c r="C3" s="42"/>
@@ -6187,7 +6187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="153"/>
       <c r="B4" s="33"/>
       <c r="C4" s="42"/>
@@ -6196,7 +6196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="153"/>
       <c r="B5" s="33"/>
       <c r="C5" s="42"/>
@@ -6205,7 +6205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="153"/>
       <c r="B6" s="33"/>
       <c r="C6" s="42"/>
@@ -6214,7 +6214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="153"/>
       <c r="B7" s="33"/>
       <c r="C7" s="42"/>
@@ -6223,7 +6223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="153"/>
       <c r="B8" s="33"/>
       <c r="C8" s="42"/>
@@ -6232,7 +6232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="153"/>
       <c r="B9" s="33"/>
       <c r="C9" s="42"/>
@@ -6241,7 +6241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="153"/>
       <c r="B10" s="33"/>
       <c r="C10" s="42"/>
@@ -6250,7 +6250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="153"/>
       <c r="B11" s="33"/>
       <c r="C11" s="42"/>
@@ -6259,7 +6259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="153"/>
       <c r="B12" s="33"/>
       <c r="C12" s="42"/>
@@ -6268,28 +6268,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="128"/>
       <c r="B13" s="30"/>
       <c r="C13" s="129"/>
       <c r="D13" s="30"/>
       <c r="E13" s="130"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="122"/>
       <c r="B14" s="122"/>
       <c r="C14" s="122"/>
       <c r="D14" s="122"/>
       <c r="E14" s="72"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="122"/>
       <c r="B15" s="122"/>
       <c r="C15" s="122"/>
       <c r="D15" s="122"/>
       <c r="E15" s="72"/>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="123"/>
       <c r="B16" s="123"/>
       <c r="C16" s="123"/>
@@ -6313,14 +6313,14 @@
       <selection activeCell="A20" sqref="A20:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="152" t="s">
         <v>5</v>
       </c>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="153"/>
       <c r="B3" s="12" t="s">
         <v>162</v>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="153"/>
       <c r="B4" s="12" t="s">
         <v>280</v>
@@ -6375,7 +6375,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="153"/>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -6386,7 +6386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="153"/>
       <c r="B6" s="12" t="s">
         <v>161</v>
@@ -6398,7 +6398,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="153"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -6409,7 +6409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="153"/>
       <c r="B8" s="12" t="s">
         <v>156</v>
@@ -6420,7 +6420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="153"/>
       <c r="B9" s="12" t="s">
         <v>281</v>
@@ -6431,7 +6431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="153"/>
       <c r="B10" s="2" t="s">
         <v>7</v>
@@ -6442,7 +6442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="153"/>
       <c r="B11" s="12" t="s">
         <v>155</v>
@@ -6453,7 +6453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="153"/>
       <c r="B12" s="12" t="s">
         <v>154</v>
@@ -6464,7 +6464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="154"/>
       <c r="B13" s="12" t="s">
         <v>160</v>
@@ -6475,14 +6475,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="142"/>
       <c r="B14" s="143"/>
       <c r="C14" s="143"/>
       <c r="D14" s="143"/>
       <c r="E14" s="144"/>
     </row>
-    <row r="15" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="157" t="s">
         <v>282</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="158"/>
       <c r="B16" s="33" t="s">
         <v>288</v>
@@ -6506,7 +6506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="158"/>
       <c r="B17" s="33" t="s">
         <v>289</v>
@@ -6517,7 +6517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="158"/>
       <c r="B18" s="33" t="s">
         <v>290</v>
@@ -6528,7 +6528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="159"/>
       <c r="B19" s="12" t="s">
         <v>292</v>
@@ -6539,14 +6539,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="142"/>
       <c r="B20" s="143"/>
       <c r="C20" s="143"/>
       <c r="D20" s="143"/>
       <c r="E20" s="144"/>
     </row>
-    <row r="21" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="145" t="s">
         <v>294</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="146"/>
       <c r="B22" s="65" t="s">
         <v>285</v>
@@ -6570,7 +6570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="155"/>
       <c r="B23" s="65" t="s">
         <v>286</v>
@@ -6581,7 +6581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="155"/>
       <c r="B24" s="65" t="s">
         <v>287</v>
@@ -6592,7 +6592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="155"/>
       <c r="B25" s="65" t="s">
         <v>283</v>
@@ -6603,7 +6603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="156"/>
       <c r="B26" s="67" t="s">
         <v>284</v>
@@ -6634,14 +6634,14 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="145" t="s">
         <v>16</v>
       </c>
@@ -6672,7 +6672,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="146"/>
       <c r="B3" s="57" t="s">
         <v>80</v>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="146"/>
       <c r="B4" s="57" t="s">
         <v>94</v>
@@ -6696,7 +6696,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="146"/>
       <c r="B5" s="57" t="s">
         <v>81</v>
@@ -6708,7 +6708,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="146"/>
       <c r="B6" s="57" t="s">
         <v>95</v>
@@ -6720,7 +6720,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="146"/>
       <c r="B7" s="57" t="s">
         <v>83</v>
@@ -6732,7 +6732,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="146"/>
       <c r="B8" s="57" t="s">
         <v>163</v>
@@ -6744,7 +6744,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="146"/>
       <c r="B9" s="57" t="s">
         <v>82</v>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="146"/>
       <c r="B10" s="57" t="s">
         <v>84</v>
@@ -6768,7 +6768,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="146"/>
       <c r="B11" s="57" t="s">
         <v>164</v>
@@ -6780,7 +6780,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="146"/>
       <c r="B12" s="57" t="s">
         <v>165</v>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="146"/>
       <c r="B13" s="57" t="s">
         <v>85</v>
@@ -6804,7 +6804,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="146"/>
       <c r="B14" s="57" t="s">
         <v>166</v>
@@ -6816,7 +6816,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="146"/>
       <c r="B15" s="57" t="s">
         <v>87</v>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="146"/>
       <c r="B16" s="57" t="s">
         <v>88</v>
@@ -6840,7 +6840,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="146"/>
       <c r="B17" s="57" t="s">
         <v>91</v>
@@ -6852,7 +6852,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="146"/>
       <c r="B18" s="57" t="s">
         <v>90</v>
@@ -6864,7 +6864,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="146"/>
       <c r="B19" s="57" t="s">
         <v>89</v>
@@ -6876,7 +6876,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="146"/>
       <c r="B20" s="57" t="s">
         <v>92</v>
@@ -6888,7 +6888,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="151"/>
       <c r="B21" s="57" t="s">
         <v>93</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="28"/>
       <c r="C22" s="29"/>
@@ -6908,7 +6908,7 @@
       <c r="E22" s="31"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="160" t="s">
         <v>17</v>
       </c>
@@ -6922,7 +6922,7 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="155"/>
       <c r="B24" s="12" t="s">
         <v>143</v>
@@ -6934,7 +6934,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="155"/>
       <c r="B25" s="12" t="s">
         <v>142</v>
@@ -6946,7 +6946,7 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="155"/>
       <c r="B26" s="12" t="s">
         <v>141</v>
@@ -6958,7 +6958,7 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="155"/>
       <c r="B27" s="58" t="s">
         <v>140</v>
@@ -6970,7 +6970,7 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="155"/>
       <c r="B28" s="12" t="s">
         <v>153</v>
@@ -6982,7 +6982,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="155"/>
       <c r="B29" s="12" t="s">
         <v>144</v>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="155"/>
       <c r="B30" s="12" t="s">
         <v>145</v>
@@ -7006,7 +7006,7 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="155"/>
       <c r="B31" s="2" t="s">
         <v>133</v>
@@ -7018,7 +7018,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="155"/>
       <c r="B32" s="12" t="s">
         <v>146</v>
@@ -7030,7 +7030,7 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="155"/>
       <c r="B33" s="58" t="s">
         <v>147</v>
@@ -7042,7 +7042,7 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="155"/>
       <c r="B34" s="33" t="s">
         <v>134</v>
@@ -7054,7 +7054,7 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="155"/>
       <c r="B35" s="59" t="s">
         <v>148</v>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="155"/>
       <c r="B36" s="58" t="s">
         <v>149</v>
@@ -7078,7 +7078,7 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="155"/>
       <c r="B37" s="36" t="s">
         <v>135</v>
@@ -7090,7 +7090,7 @@
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="155"/>
       <c r="B38" s="58" t="s">
         <v>150</v>
@@ -7102,7 +7102,7 @@
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="155"/>
       <c r="B39" s="33" t="s">
         <v>136</v>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="155"/>
       <c r="B40" s="33" t="s">
         <v>137</v>
@@ -7126,7 +7126,7 @@
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="155"/>
       <c r="B41" s="58" t="s">
         <v>152</v>
@@ -7138,7 +7138,7 @@
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="155"/>
       <c r="B42" s="58" t="s">
         <v>151</v>
@@ -7150,7 +7150,7 @@
       </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="161"/>
       <c r="B43" s="33" t="s">
         <v>138</v>
@@ -7162,7 +7162,7 @@
       </c>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
       <c r="B44" s="32"/>
       <c r="C44" s="29"/>
@@ -7170,7 +7170,7 @@
       <c r="E44" s="31"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="145" t="s">
         <v>295</v>
       </c>
@@ -7184,7 +7184,7 @@
       </c>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="156"/>
       <c r="B46" s="4" t="s">
         <v>18</v>
@@ -7196,14 +7196,14 @@
       </c>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -7230,14 +7230,14 @@
       <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="145" t="s">
         <v>297</v>
       </c>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="155"/>
       <c r="B3" s="33" t="s">
         <v>131</v>
@@ -7280,7 +7280,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="155"/>
       <c r="B4" s="33" t="s">
         <v>38</v>
@@ -7292,7 +7292,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="155"/>
       <c r="B5" s="2" t="s">
         <v>37</v>
@@ -7304,7 +7304,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="155"/>
       <c r="B6" s="2" t="s">
         <v>39</v>
@@ -7316,7 +7316,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="155"/>
       <c r="B7" s="2" t="s">
         <v>40</v>
@@ -7328,7 +7328,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="155"/>
       <c r="B8" s="33" t="s">
         <v>41</v>
@@ -7340,7 +7340,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="155"/>
       <c r="B9" s="2" t="s">
         <v>42</v>
@@ -7352,7 +7352,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="155"/>
       <c r="B10" s="2" t="s">
         <v>43</v>
@@ -7364,7 +7364,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="155"/>
       <c r="B11" s="2" t="s">
         <v>44</v>
@@ -7376,7 +7376,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="155"/>
       <c r="B12" s="2" t="s">
         <v>45</v>
@@ -7388,7 +7388,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="155"/>
       <c r="B13" s="2" t="s">
         <v>46</v>
@@ -7400,7 +7400,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="155"/>
       <c r="B14" s="33" t="s">
         <v>47</v>
@@ -7412,7 +7412,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="155"/>
       <c r="B15" s="33" t="s">
         <v>48</v>
@@ -7424,7 +7424,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="155"/>
       <c r="B16" s="36" t="s">
         <v>49</v>
@@ -7436,7 +7436,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="155"/>
       <c r="B17" s="33" t="s">
         <v>50</v>
@@ -7448,7 +7448,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="155"/>
       <c r="B18" s="36" t="s">
         <v>51</v>
@@ -7460,7 +7460,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="155"/>
       <c r="B19" s="33" t="s">
         <v>53</v>
@@ -7472,7 +7472,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="155"/>
       <c r="B20" s="33" t="s">
         <v>54</v>
@@ -7484,7 +7484,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="155"/>
       <c r="B21" s="33" t="s">
         <v>55</v>
@@ -7496,7 +7496,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="155"/>
       <c r="B22" s="33" t="s">
         <v>56</v>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="155"/>
       <c r="B23" s="33" t="s">
         <v>57</v>
@@ -7520,7 +7520,7 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="161"/>
       <c r="B24" s="33" t="s">
         <v>58</v>
@@ -7532,7 +7532,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
@@ -7540,7 +7540,7 @@
       <c r="E25" s="24"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="145" t="s">
         <v>296</v>
       </c>
@@ -7553,7 +7553,7 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="155"/>
       <c r="B27" s="2" t="s">
         <v>31</v>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="155"/>
       <c r="B28" s="2" t="s">
         <v>30</v>
@@ -7577,7 +7577,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="155"/>
       <c r="B29" s="2" t="s">
         <v>29</v>
@@ -7589,7 +7589,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="155"/>
       <c r="B30" s="2" t="s">
         <v>36</v>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="155"/>
       <c r="B31" s="2" t="s">
         <v>23</v>
@@ -7613,7 +7613,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="155"/>
       <c r="B32" s="2" t="s">
         <v>24</v>
@@ -7625,7 +7625,7 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="155"/>
       <c r="B33" s="2" t="s">
         <v>25</v>
@@ -7637,7 +7637,7 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="155"/>
       <c r="B34" s="21" t="s">
         <v>26</v>
@@ -7649,7 +7649,7 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="155"/>
       <c r="B35" s="2" t="s">
         <v>27</v>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="155"/>
       <c r="B36" s="2" t="s">
         <v>28</v>
@@ -7673,7 +7673,7 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="161"/>
       <c r="B37" s="2" t="s">
         <v>59</v>
@@ -7685,7 +7685,7 @@
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="94"/>
       <c r="B38" s="22"/>
       <c r="C38" s="23"/>
@@ -7693,7 +7693,7 @@
       <c r="E38" s="24"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="165" t="s">
         <v>300</v>
       </c>
@@ -7707,7 +7707,7 @@
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="166"/>
       <c r="B40" s="12" t="s">
         <v>301</v>
@@ -7719,7 +7719,7 @@
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="166"/>
       <c r="B41" s="12" t="s">
         <v>303</v>
@@ -7731,7 +7731,7 @@
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
       <c r="B42" s="22"/>
       <c r="C42" s="23"/>
@@ -7739,7 +7739,7 @@
       <c r="E42" s="24"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="162" t="s">
         <v>298</v>
       </c>
@@ -7752,7 +7752,7 @@
       <c r="D43" s="2"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="163"/>
       <c r="B44" s="12" t="s">
         <v>20</v>
@@ -7763,7 +7763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="163"/>
       <c r="B45" s="12" t="s">
         <v>21</v>
@@ -7775,7 +7775,7 @@
       <c r="E45" s="3"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="164"/>
       <c r="B46" s="12" t="s">
         <v>22</v>
@@ -7786,14 +7786,14 @@
       <c r="D46" s="2"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="43"/>
       <c r="B47" s="25"/>
       <c r="C47" s="23"/>
       <c r="D47" s="22"/>
       <c r="E47" s="24"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="145" t="s">
         <v>299</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="155"/>
       <c r="B49" s="2" t="s">
         <v>34</v>
@@ -7817,7 +7817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="156"/>
       <c r="B50" s="4" t="s">
         <v>35</v>
@@ -7828,14 +7828,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -7863,14 +7863,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="131" t="s">
         <v>0</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="146" t="s">
         <v>306</v>
       </c>
@@ -7901,7 +7901,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="146"/>
       <c r="B3" s="58" t="s">
         <v>308</v>
@@ -7913,7 +7913,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="146"/>
       <c r="B4" s="58" t="s">
         <v>309</v>
@@ -7925,7 +7925,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="151"/>
       <c r="B5" s="58" t="s">
         <v>310</v>
@@ -7937,7 +7937,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="134"/>
       <c r="B6" s="135"/>
       <c r="C6" s="136"/>
@@ -7945,7 +7945,7 @@
       <c r="E6" s="137"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="145" t="s">
         <v>332</v>
       </c>
@@ -7959,7 +7959,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="155"/>
       <c r="B8" s="2" t="s">
         <v>168</v>
@@ -7971,7 +7971,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="155"/>
       <c r="B9" s="2" t="s">
         <v>171</v>
@@ -7983,7 +7983,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="155"/>
       <c r="B10" s="2" t="s">
         <v>169</v>
@@ -7995,7 +7995,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="155"/>
       <c r="B11" s="2" t="s">
         <v>167</v>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="161"/>
       <c r="B12" s="21" t="s">
         <v>170</v>
@@ -8019,7 +8019,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="138"/>
       <c r="B13" s="135"/>
       <c r="C13" s="136"/>
@@ -8027,7 +8027,7 @@
       <c r="E13" s="137"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="96" t="s">
         <v>304</v>
       </c>
@@ -8040,14 +8040,14 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -8072,13 +8072,13 @@
       <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="89" t="s">
         <v>313</v>
       </c>
@@ -8108,14 +8108,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="66"/>
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
       <c r="D3" s="49"/>
       <c r="E3" s="50"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="152" t="s">
         <v>60</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="153"/>
       <c r="B5" s="46" t="s">
         <v>64</v>
@@ -8139,7 +8139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="153"/>
       <c r="B6" s="46" t="s">
         <v>192</v>
@@ -8150,7 +8150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="153"/>
       <c r="B7" s="55" t="s">
         <v>182</v>
@@ -8161,7 +8161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="153"/>
       <c r="B8" s="55" t="s">
         <v>77</v>
@@ -8172,7 +8172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="153"/>
       <c r="B9" s="55" t="s">
         <v>78</v>
@@ -8183,7 +8183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="153"/>
       <c r="B10" s="55" t="s">
         <v>79</v>
@@ -8194,7 +8194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="154"/>
       <c r="B11" s="48" t="s">
         <v>97</v>
@@ -8205,14 +8205,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="49"/>
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
       <c r="D12" s="49"/>
       <c r="E12" s="50"/>
     </row>
-    <row r="13" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="160" t="s">
         <v>312</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="155"/>
       <c r="B14" s="12" t="s">
         <v>121</v>
@@ -8236,7 +8236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="155"/>
       <c r="B15" s="12" t="s">
         <v>120</v>
@@ -8247,7 +8247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="155"/>
       <c r="B16" s="12" t="s">
         <v>119</v>
@@ -8258,7 +8258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="155"/>
       <c r="B17" s="12" t="s">
         <v>118</v>
@@ -8269,7 +8269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="155"/>
       <c r="B18" s="12" t="s">
         <v>117</v>
@@ -8280,7 +8280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="155"/>
       <c r="B19" s="12" t="s">
         <v>116</v>
@@ -8291,7 +8291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="155"/>
       <c r="B20" s="12" t="s">
         <v>115</v>
@@ -8302,7 +8302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="155"/>
       <c r="B21" s="12" t="s">
         <v>122</v>
@@ -8313,7 +8313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="155"/>
       <c r="B22" s="12" t="s">
         <v>123</v>
@@ -8324,7 +8324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="155"/>
       <c r="B23" s="12" t="s">
         <v>124</v>
@@ -8335,7 +8335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="155"/>
       <c r="B24" s="12" t="s">
         <v>125</v>
@@ -8346,7 +8346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="155"/>
       <c r="B25" s="12" t="s">
         <v>126</v>
@@ -8357,7 +8357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="155"/>
       <c r="B26" s="12" t="s">
         <v>173</v>
@@ -8368,7 +8368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="155"/>
       <c r="B27" s="12" t="s">
         <v>174</v>
@@ -8379,7 +8379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="155"/>
       <c r="B28" s="12" t="s">
         <v>175</v>
@@ -8390,7 +8390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="155"/>
       <c r="B29" s="12" t="s">
         <v>176</v>
@@ -8401,7 +8401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="155"/>
       <c r="B30" s="12" t="s">
         <v>128</v>
@@ -8412,7 +8412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="155"/>
       <c r="B31" s="12" t="s">
         <v>129</v>
@@ -8423,7 +8423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="155"/>
       <c r="B32" s="12" t="s">
         <v>130</v>
@@ -8434,7 +8434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="155"/>
       <c r="B33" s="12" t="s">
         <v>127</v>
@@ -8445,14 +8445,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="155"/>
       <c r="B34" s="12"/>
       <c r="C34" s="42"/>
       <c r="D34" s="42"/>
       <c r="E34" s="26"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="155"/>
       <c r="B35" s="2" t="s">
         <v>105</v>
@@ -8463,7 +8463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="155"/>
       <c r="B36" s="2" t="s">
         <v>104</v>
@@ -8474,7 +8474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="155"/>
       <c r="B37" s="2" t="s">
         <v>103</v>
@@ -8485,7 +8485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="155"/>
       <c r="B38" s="2" t="s">
         <v>102</v>
@@ -8496,7 +8496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="155"/>
       <c r="B39" s="2" t="s">
         <v>101</v>
@@ -8507,7 +8507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="155"/>
       <c r="B40" s="2" t="s">
         <v>100</v>
@@ -8518,7 +8518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="155"/>
       <c r="B41" s="2" t="s">
         <v>99</v>
@@ -8529,7 +8529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="155"/>
       <c r="B42" s="2" t="s">
         <v>106</v>
@@ -8540,7 +8540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="155"/>
       <c r="B43" s="2" t="s">
         <v>107</v>
@@ -8551,7 +8551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="155"/>
       <c r="B44" s="2" t="s">
         <v>108</v>
@@ -8562,7 +8562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="155"/>
       <c r="B45" s="2" t="s">
         <v>109</v>
@@ -8573,7 +8573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="155"/>
       <c r="B46" s="2" t="s">
         <v>110</v>
@@ -8584,7 +8584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="155"/>
       <c r="B47" s="2" t="s">
         <v>177</v>
@@ -8595,7 +8595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="155"/>
       <c r="B48" s="2" t="s">
         <v>178</v>
@@ -8606,7 +8606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="155"/>
       <c r="B49" s="2" t="s">
         <v>179</v>
@@ -8617,7 +8617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="155"/>
       <c r="B50" s="2" t="s">
         <v>180</v>
@@ -8628,7 +8628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="155"/>
       <c r="B51" s="21" t="s">
         <v>111</v>
@@ -8639,7 +8639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="155"/>
       <c r="B52" s="2" t="s">
         <v>112</v>
@@ -8650,7 +8650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="155"/>
       <c r="B53" s="2" t="s">
         <v>113</v>
@@ -8661,7 +8661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="155"/>
       <c r="B54" s="2" t="s">
         <v>114</v>
@@ -8672,14 +8672,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="66"/>
       <c r="B55" s="49"/>
       <c r="C55" s="49"/>
       <c r="D55" s="49"/>
       <c r="E55" s="50"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="160" t="s">
         <v>62</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="155"/>
       <c r="B57" s="12" t="s">
         <v>75</v>
@@ -8703,7 +8703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="161"/>
       <c r="B58" s="12" t="s">
         <v>74</v>
@@ -8714,14 +8714,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="66"/>
       <c r="B59" s="49"/>
       <c r="C59" s="49"/>
       <c r="D59" s="49"/>
       <c r="E59" s="49"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="152" t="s">
         <v>65</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="153"/>
       <c r="B61" s="2" t="s">
         <v>67</v>
@@ -8745,7 +8745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="153"/>
       <c r="B62" s="2" t="s">
         <v>70</v>
@@ -8756,7 +8756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="153"/>
       <c r="B63" s="2" t="s">
         <v>68</v>
@@ -8767,7 +8767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="153"/>
       <c r="B64" s="2" t="s">
         <v>69</v>
@@ -8778,7 +8778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="153"/>
       <c r="B65" s="51" t="s">
         <v>71</v>
@@ -8789,7 +8789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="153"/>
       <c r="B66" s="51" t="s">
         <v>72</v>
@@ -8800,7 +8800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="153"/>
       <c r="B67" s="51" t="s">
         <v>73</v>
@@ -8811,7 +8811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="153"/>
       <c r="B68" s="54" t="s">
         <v>314</v>
@@ -8822,7 +8822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="154"/>
       <c r="B69" s="54" t="s">
         <v>315</v>
@@ -8833,14 +8833,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="49"/>
       <c r="B70" s="49"/>
       <c r="C70" s="49"/>
       <c r="D70" s="49"/>
       <c r="E70" s="49"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="167" t="s">
         <v>349</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="168"/>
       <c r="B72" s="58" t="s">
         <v>351</v>
@@ -8864,7 +8864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="168"/>
       <c r="B73" s="58" t="s">
         <v>350</v>
@@ -8875,7 +8875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="168"/>
       <c r="B74" s="58" t="s">
         <v>353</v>
@@ -8886,7 +8886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="168"/>
       <c r="B75" s="58" t="s">
         <v>354</v>
@@ -8897,7 +8897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="168"/>
       <c r="B76" s="58" t="s">
         <v>355</v>
@@ -8908,14 +8908,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="97"/>
       <c r="B77" s="49"/>
       <c r="C77" s="49"/>
       <c r="D77" s="49"/>
       <c r="E77" s="107"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="167" t="s">
         <v>316</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="168"/>
       <c r="B79" s="58" t="s">
         <v>318</v>
@@ -8939,7 +8939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="168"/>
       <c r="B80" s="58" t="s">
         <v>319</v>
@@ -8950,7 +8950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="169"/>
       <c r="B81" s="58" t="s">
         <v>320</v>
@@ -8961,14 +8961,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="97"/>
       <c r="B82" s="49"/>
       <c r="C82" s="49"/>
       <c r="D82" s="49"/>
       <c r="E82" s="49"/>
     </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="160" t="s">
         <v>311</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="156"/>
       <c r="B84" s="63" t="s">
         <v>22</v>
@@ -9015,13 +9015,13 @@
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="84.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="84.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="157" t="s">
         <v>216</v>
       </c>
@@ -9052,7 +9052,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="158"/>
       <c r="B3" s="2" t="s">
         <v>218</v>
@@ -9064,7 +9064,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="158"/>
       <c r="B4" s="2" t="s">
         <v>219</v>
@@ -9076,7 +9076,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="158"/>
       <c r="B5" s="2" t="s">
         <v>220</v>
@@ -9088,7 +9088,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="158"/>
       <c r="B6" s="2" t="s">
         <v>221</v>
@@ -9100,7 +9100,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="158"/>
       <c r="B7" s="2" t="s">
         <v>224</v>
@@ -9112,7 +9112,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="158"/>
       <c r="B8" s="12" t="s">
         <v>223</v>
@@ -9124,7 +9124,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="158"/>
       <c r="B9" s="2" t="s">
         <v>222</v>
@@ -9136,7 +9136,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="158"/>
       <c r="B10" s="21" t="s">
         <v>225</v>
@@ -9148,7 +9148,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="68"/>
       <c r="B11" s="68"/>
       <c r="C11" s="68"/>
@@ -9156,7 +9156,7 @@
       <c r="E11" s="70"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="146" t="s">
         <v>210</v>
       </c>
@@ -9170,7 +9170,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="146"/>
       <c r="B13" s="2" t="s">
         <v>190</v>
@@ -9182,7 +9182,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="146"/>
       <c r="B14" s="2" t="s">
         <v>226</v>
@@ -9194,7 +9194,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="146"/>
       <c r="B15" s="12" t="s">
         <v>227</v>
@@ -9206,7 +9206,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="146"/>
       <c r="B16" s="2" t="s">
         <v>228</v>
@@ -9218,7 +9218,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="151"/>
       <c r="B17" s="21" t="s">
         <v>229</v>
@@ -9230,7 +9230,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="68"/>
       <c r="B18" s="68"/>
       <c r="C18" s="68"/>
@@ -9238,7 +9238,7 @@
       <c r="E18" s="70"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="157" t="s">
         <v>321</v>
       </c>
@@ -9252,7 +9252,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="158"/>
       <c r="B20" s="51" t="s">
         <v>186</v>
@@ -9264,7 +9264,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="158"/>
       <c r="B21" s="51" t="s">
         <v>187</v>
@@ -9276,7 +9276,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="159"/>
       <c r="B22" s="51" t="s">
         <v>188</v>
@@ -9288,7 +9288,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="71"/>
       <c r="B23" s="68"/>
       <c r="C23" s="68"/>
@@ -9296,7 +9296,7 @@
       <c r="E23" s="70"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="157" t="s">
         <v>322</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="154"/>
       <c r="B25" s="54" t="s">
         <v>204</v>
@@ -9320,14 +9320,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="98"/>
       <c r="B26" s="68"/>
       <c r="C26" s="68"/>
       <c r="D26" s="68"/>
       <c r="E26" s="68"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="158" t="s">
         <v>323</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="153"/>
       <c r="B28" s="54" t="s">
         <v>211</v>
@@ -9351,7 +9351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="153"/>
       <c r="B29" s="54" t="s">
         <v>205</v>
@@ -9362,7 +9362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="154"/>
       <c r="B30" s="54" t="s">
         <v>215</v>
@@ -9373,14 +9373,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="69"/>
       <c r="B31" s="69"/>
       <c r="C31" s="69"/>
       <c r="D31" s="69"/>
       <c r="E31" s="70"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="152" t="s">
         <v>60</v>
       </c>
@@ -9393,7 +9393,7 @@
       <c r="D32" s="2"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="153"/>
       <c r="B33" s="2" t="s">
         <v>183</v>
@@ -9404,7 +9404,7 @@
       <c r="D33" s="2"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="153"/>
       <c r="B34" s="2" t="s">
         <v>193</v>
@@ -9415,7 +9415,7 @@
       <c r="D34" s="2"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="153"/>
       <c r="B35" s="2" t="s">
         <v>194</v>
@@ -9426,7 +9426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="153"/>
       <c r="B36" s="2" t="s">
         <v>195</v>
@@ -9437,7 +9437,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="153"/>
       <c r="B37" s="2" t="s">
         <v>196</v>
@@ -9448,7 +9448,7 @@
       <c r="D37" s="2"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="153"/>
       <c r="B38" s="2" t="s">
         <v>197</v>
@@ -9459,7 +9459,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="153"/>
       <c r="B39" s="2" t="s">
         <v>198</v>
@@ -9470,7 +9470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="153"/>
       <c r="B40" s="2" t="s">
         <v>199</v>
@@ -9481,7 +9481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="153"/>
       <c r="B41" s="2" t="s">
         <v>203</v>
@@ -9492,7 +9492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="153"/>
       <c r="B42" s="2" t="s">
         <v>201</v>
@@ -9503,7 +9503,7 @@
       <c r="D42" s="2"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="153"/>
       <c r="B43" s="2" t="s">
         <v>202</v>
@@ -9514,7 +9514,7 @@
       <c r="D43" s="2"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="154"/>
       <c r="B44" s="2" t="s">
         <v>184</v>
@@ -9525,14 +9525,14 @@
       <c r="D44" s="2"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="69"/>
       <c r="B45" s="69"/>
       <c r="C45" s="69"/>
       <c r="D45" s="69"/>
       <c r="E45" s="70"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="157" t="s">
         <v>342</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="158"/>
       <c r="B47" s="51" t="s">
         <v>344</v>
@@ -9556,7 +9556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="158"/>
       <c r="B48" s="51" t="s">
         <v>345</v>
@@ -9567,7 +9567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="158"/>
       <c r="B49" s="51" t="s">
         <v>346</v>
@@ -9578,7 +9578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="158"/>
       <c r="B50" s="51" t="s">
         <v>347</v>
@@ -9589,7 +9589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="170"/>
       <c r="B51" s="4" t="s">
         <v>348</v>
@@ -9600,7 +9600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -9628,13 +9628,13 @@
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="69.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="69.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="145" t="s">
         <v>330</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="146"/>
       <c r="B3" s="54" t="s">
         <v>230</v>
@@ -9675,7 +9675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="146"/>
       <c r="B4" s="54" t="s">
         <v>206</v>
@@ -9686,7 +9686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="151"/>
       <c r="B5" s="54" t="s">
         <v>212</v>
@@ -9697,14 +9697,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="80"/>
       <c r="B6" s="80"/>
       <c r="C6" s="80"/>
       <c r="D6" s="80"/>
       <c r="E6" s="80"/>
     </row>
-    <row r="7" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="146" t="s">
         <v>331</v>
       </c>
@@ -9717,7 +9717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="146"/>
       <c r="B8" s="54" t="s">
         <v>335</v>
@@ -9728,7 +9728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="146"/>
       <c r="B9" s="54" t="s">
         <v>337</v>
@@ -9739,7 +9739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="146"/>
       <c r="B10" s="54" t="s">
         <v>338</v>
@@ -9750,7 +9750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="151"/>
       <c r="B11" s="54" t="s">
         <v>336</v>
@@ -9761,14 +9761,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="80"/>
       <c r="B12" s="80"/>
       <c r="C12" s="81"/>
       <c r="D12" s="80"/>
       <c r="E12" s="108"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="171" t="s">
         <v>324</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="172"/>
       <c r="B14" s="73" t="s">
         <v>235</v>
@@ -9792,7 +9792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="172"/>
       <c r="B15" s="73" t="s">
         <v>236</v>
@@ -9803,7 +9803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="172"/>
       <c r="B16" s="73" t="s">
         <v>237</v>
@@ -9814,7 +9814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="172"/>
       <c r="B17" s="73" t="s">
         <v>238</v>
@@ -9825,14 +9825,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="80"/>
       <c r="B18" s="80"/>
       <c r="C18" s="80"/>
       <c r="D18" s="80"/>
       <c r="E18" s="81"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="157" t="s">
         <v>326</v>
       </c>
@@ -9845,7 +9845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="153"/>
       <c r="B20" s="2" t="s">
         <v>208</v>
@@ -9856,7 +9856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="154"/>
       <c r="B21" s="2" t="s">
         <v>209</v>
@@ -9867,14 +9867,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="80"/>
       <c r="B22" s="80"/>
       <c r="C22" s="80"/>
       <c r="D22" s="80"/>
       <c r="E22" s="81"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="162" t="s">
         <v>327</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="163"/>
       <c r="B24" s="51" t="s">
         <v>232</v>
@@ -9898,7 +9898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="164"/>
       <c r="B25" s="73" t="s">
         <v>233</v>
@@ -9909,14 +9909,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="78"/>
       <c r="B26" s="78"/>
       <c r="C26" s="78"/>
       <c r="D26" s="78"/>
       <c r="E26" s="109"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="162" t="s">
         <v>329</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="163"/>
       <c r="B28" s="2" t="s">
         <v>245</v>
@@ -9940,7 +9940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="163"/>
       <c r="B29" s="2" t="s">
         <v>246</v>
@@ -9951,7 +9951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="164"/>
       <c r="B30" s="12" t="s">
         <v>247</v>
@@ -9962,14 +9962,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="86"/>
       <c r="B31" s="80"/>
       <c r="C31" s="87"/>
       <c r="D31" s="88"/>
       <c r="E31" s="110"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="162" t="s">
         <v>325</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="163"/>
       <c r="B33" s="51" t="s">
         <v>243</v>
@@ -9993,7 +9993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="163"/>
       <c r="B34" s="51" t="s">
         <v>240</v>
@@ -10004,7 +10004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="163"/>
       <c r="B35" s="51" t="s">
         <v>241</v>
@@ -10015,7 +10015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="163"/>
       <c r="B36" s="51" t="s">
         <v>244</v>
@@ -10026,7 +10026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="173"/>
       <c r="B37" s="4" t="s">
         <v>234</v>
@@ -10056,17 +10056,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8D2795-3703-4799-82AD-D959B47FB411}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:A62"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B62" sqref="B43:B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" customWidth="1"/>
-    <col min="2" max="2" width="69.5546875" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="69.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="171" t="s">
         <v>76</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="172"/>
       <c r="B3" s="73" t="s">
         <v>249</v>
@@ -10107,7 +10107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="172"/>
       <c r="B4" s="73" t="s">
         <v>339</v>
@@ -10118,7 +10118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="172"/>
       <c r="B5" s="73" t="s">
         <v>340</v>
@@ -10129,7 +10129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="172"/>
       <c r="B6" s="73" t="s">
         <v>341</v>
@@ -10140,7 +10140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="174"/>
       <c r="B7" s="73" t="s">
         <v>250</v>
@@ -10151,19 +10151,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="85"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
       <c r="D8" s="85"/>
       <c r="E8" s="85"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="176" t="s">
-        <v>380</v>
+        <v>449</v>
       </c>
       <c r="B9" s="113" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C9" s="120"/>
       <c r="D9" s="113"/>
@@ -10171,10 +10171,10 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="177"/>
       <c r="B10" s="119" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C10" s="120"/>
       <c r="D10" s="113"/>
@@ -10182,10 +10182,10 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="177"/>
       <c r="B11" s="119" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C11" s="120"/>
       <c r="D11" s="113"/>
@@ -10193,10 +10193,10 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="177"/>
       <c r="B12" s="119" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C12" s="120"/>
       <c r="D12" s="113"/>
@@ -10204,10 +10204,10 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="178"/>
       <c r="B13" s="118" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C13" s="120"/>
       <c r="D13" s="73"/>
@@ -10215,14 +10215,14 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="115"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
       <c r="D14" s="85"/>
       <c r="E14" s="85"/>
     </row>
-    <row r="15" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="171" t="s">
         <v>368</v>
       </c>
@@ -10235,7 +10235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="172"/>
       <c r="B16" s="33" t="s">
         <v>369</v>
@@ -10246,7 +10246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="172"/>
       <c r="B17" s="33" t="s">
         <v>359</v>
@@ -10257,7 +10257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="172"/>
       <c r="B18" s="33" t="s">
         <v>360</v>
@@ -10268,7 +10268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="172"/>
       <c r="B19" s="33" t="s">
         <v>361</v>
@@ -10279,7 +10279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="172"/>
       <c r="B20" s="33" t="s">
         <v>363</v>
@@ -10290,7 +10290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="172"/>
       <c r="B21" s="33" t="s">
         <v>362</v>
@@ -10301,7 +10301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="172"/>
       <c r="B22" s="33" t="s">
         <v>364</v>
@@ -10312,7 +10312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="172"/>
       <c r="B23" s="33" t="s">
         <v>365</v>
@@ -10323,7 +10323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="172"/>
       <c r="B24" s="33" t="s">
         <v>366</v>
@@ -10334,7 +10334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="174"/>
       <c r="B25" s="33" t="s">
         <v>367</v>
@@ -10345,19 +10345,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="114"/>
       <c r="B26" s="114"/>
       <c r="C26" s="114"/>
       <c r="D26" s="114"/>
       <c r="E26" s="114"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="171" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B27" s="73" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C27" s="52"/>
       <c r="D27" s="113"/>
@@ -10365,10 +10365,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="172"/>
       <c r="B28" s="73" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C28" s="52"/>
       <c r="D28" s="113"/>
@@ -10376,10 +10376,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="172"/>
       <c r="B29" s="73" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C29" s="52"/>
       <c r="D29" s="113"/>
@@ -10387,10 +10387,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="172"/>
       <c r="B30" s="73" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C30" s="52"/>
       <c r="D30" s="113"/>
@@ -10398,10 +10398,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="172"/>
       <c r="B31" s="73" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C31" s="52"/>
       <c r="D31" s="113"/>
@@ -10409,10 +10409,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="172"/>
       <c r="B32" s="73" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C32" s="52"/>
       <c r="D32" s="113"/>
@@ -10420,10 +10420,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="172"/>
       <c r="B33" s="73" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C33" s="52"/>
       <c r="D33" s="113"/>
@@ -10431,10 +10431,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="172"/>
       <c r="B34" s="73" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C34" s="52"/>
       <c r="D34" s="113"/>
@@ -10442,10 +10442,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="172"/>
       <c r="B35" s="73" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C35" s="52"/>
       <c r="D35" s="113"/>
@@ -10453,10 +10453,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="172"/>
       <c r="B36" s="73" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C36" s="52"/>
       <c r="D36" s="113"/>
@@ -10464,10 +10464,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="172"/>
       <c r="B37" s="73" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C37" s="52"/>
       <c r="D37" s="113"/>
@@ -10475,10 +10475,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="172"/>
       <c r="B38" s="73" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C38" s="52"/>
       <c r="D38" s="113"/>
@@ -10486,10 +10486,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="172"/>
       <c r="B39" s="73" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C39" s="52"/>
       <c r="D39" s="113"/>
@@ -10497,10 +10497,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="172"/>
       <c r="B40" s="73" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C40" s="52"/>
       <c r="D40" s="113"/>
@@ -10508,10 +10508,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="174"/>
       <c r="B41" s="73" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C41" s="52"/>
       <c r="D41" s="113"/>
@@ -10519,14 +10519,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="114"/>
       <c r="B42" s="85"/>
       <c r="C42" s="85"/>
       <c r="D42" s="85"/>
       <c r="E42" s="114"/>
     </row>
-    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="167" t="s">
         <v>370</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="168"/>
       <c r="B44" s="73"/>
       <c r="C44" s="52"/>
@@ -10546,7 +10546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="168"/>
       <c r="B45" s="73"/>
       <c r="C45" s="52"/>
@@ -10555,7 +10555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="168"/>
       <c r="B46" s="73"/>
       <c r="C46" s="52"/>
@@ -10564,7 +10564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="168"/>
       <c r="B47" s="73"/>
       <c r="C47" s="52"/>
@@ -10573,7 +10573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="168"/>
       <c r="B48" s="73"/>
       <c r="C48" s="52"/>
@@ -10582,7 +10582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="168"/>
       <c r="B49" s="73"/>
       <c r="C49" s="52"/>
@@ -10591,7 +10591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="168"/>
       <c r="B50" s="73"/>
       <c r="C50" s="52"/>
@@ -10600,7 +10600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="168"/>
       <c r="B51" s="73"/>
       <c r="C51" s="52"/>
@@ -10609,7 +10609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="168"/>
       <c r="B52" s="73"/>
       <c r="C52" s="52"/>
@@ -10618,7 +10618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="168"/>
       <c r="B53" s="73"/>
       <c r="C53" s="52"/>
@@ -10627,7 +10627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="168"/>
       <c r="B54" s="73"/>
       <c r="C54" s="52"/>
@@ -10636,7 +10636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="168"/>
       <c r="B55" s="73"/>
       <c r="C55" s="52"/>
@@ -10645,7 +10645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="168"/>
       <c r="B56" s="73"/>
       <c r="C56" s="52"/>
@@ -10654,7 +10654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="168"/>
       <c r="B57" s="73"/>
       <c r="C57" s="52"/>
@@ -10663,7 +10663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="168"/>
       <c r="B58" s="73"/>
       <c r="C58" s="52"/>
@@ -10672,7 +10672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="168"/>
       <c r="B59" s="73"/>
       <c r="C59" s="52"/>
@@ -10681,7 +10681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="168"/>
       <c r="B60" s="73"/>
       <c r="C60" s="52"/>
@@ -10690,7 +10690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="168"/>
       <c r="B61" s="73"/>
       <c r="C61" s="52"/>
@@ -10699,7 +10699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="175"/>
       <c r="B62" s="116"/>
       <c r="C62" s="117"/>

--- a/Documents/Scrum/Sprint_backlog.xlsx
+++ b/Documents/Scrum/Sprint_backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ausau\Documents\GitHub\WavContact\Documents\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B3ED30-3035-4933-873D-FC6FD7120DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EDCF68-4090-4071-BC0B-60773A643B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="8" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="8" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint_0." sheetId="4" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="Sprint_7." sheetId="8" r:id="rId8"/>
     <sheet name="Sprint_8." sheetId="9" r:id="rId9"/>
     <sheet name="Sprint_9." sheetId="10" r:id="rId10"/>
-    <sheet name="Sprint_10." sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="467">
   <si>
     <t>STORY</t>
   </si>
@@ -3476,6 +3475,57 @@
   <si>
     <t>Vérifier toutes les fonctionnalités 
 de WavCom</t>
+  </si>
+  <si>
+    <t>Créer la classse WavFTP</t>
+  </si>
+  <si>
+    <t>Créer la méthode  List&lt;WavFile&gt; listFiles()</t>
+  </si>
+  <si>
+    <t>Créer la méthode OpenProjectFolder(Project project)</t>
+  </si>
+  <si>
+    <t>Créer la méthode CreateProjectDirectory(Project project)</t>
+  </si>
+  <si>
+    <t>Créer la méthode UploadFile(string filePath, Project project)</t>
+  </si>
+  <si>
+    <t>Créer la méthode DownloadFile(WavFile fileToDownload, Project project)</t>
+  </si>
+  <si>
+    <t>Créer la méthode DeleteFile(WavFile fileToDelete, Project project)</t>
+  </si>
+  <si>
+    <t>Créer la méthode WavFile(string name, string remotePath, string localPath)</t>
+  </si>
+  <si>
+    <t>Créer la classe WavFile</t>
+  </si>
+  <si>
+    <t>Validation activités client sur WavCom</t>
+  </si>
+  <si>
+    <t>Créer la méthode AjoutActiviteCustom(User u, Project p, string activite)</t>
+  </si>
+  <si>
+    <t>Créer la classe WavActivity</t>
+  </si>
+  <si>
+    <t>Créer la méthode CreationProjet(User u, Project p)</t>
+  </si>
+  <si>
+    <t>Créer la méthode AjoutDocument(User u, Project p, string d)</t>
+  </si>
+  <si>
+    <t>Créer la méthode SuppressionDocument(User u, Project p, string d)</t>
+  </si>
+  <si>
+    <t>Créer la méthode ModificationDocument(User u, Project p, string d)</t>
+  </si>
+  <si>
+    <t>Créer la méthode List&lt;Activity&gt; GetActivities(Project p)</t>
   </si>
 </sst>
 </file>
@@ -3583,7 +3633,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3688,12 +3738,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3717,7 +3761,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -4063,33 +4107,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -4268,7 +4290,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4384,9 +4405,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4396,43 +4414,29 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4869,13 +4873,13 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="80.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="80.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4892,8 +4896,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="138" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -4906,8 +4910,8 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="149"/>
+    <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="139"/>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
@@ -4918,8 +4922,8 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="149"/>
+    <row r="4" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="139"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
@@ -4930,8 +4934,8 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="149"/>
+    <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="139"/>
       <c r="B5" s="2" t="s">
         <v>259</v>
       </c>
@@ -4942,8 +4946,8 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="149"/>
+    <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="139"/>
       <c r="B6" s="2" t="s">
         <v>260</v>
       </c>
@@ -4954,8 +4958,8 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="149"/>
+    <row r="7" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="139"/>
       <c r="B7" s="2" t="s">
         <v>257</v>
       </c>
@@ -4966,8 +4970,8 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="149"/>
+    <row r="8" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="139"/>
       <c r="B8" s="2" t="s">
         <v>256</v>
       </c>
@@ -4978,8 +4982,8 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="150"/>
+    <row r="9" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="140"/>
       <c r="B9" s="2" t="s">
         <v>258</v>
       </c>
@@ -4988,7 +4992,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="60"/>
       <c r="B10" s="61"/>
       <c r="C10" s="60"/>
@@ -4996,8 +5000,8 @@
       <c r="E10" s="60"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="146" t="s">
+    <row r="11" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="136" t="s">
         <v>261</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -5010,8 +5014,8 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="146"/>
+    <row r="12" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="136"/>
       <c r="B12" s="2" t="s">
         <v>264</v>
       </c>
@@ -5022,8 +5026,8 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="146"/>
+    <row r="13" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="136"/>
       <c r="B13" s="12" t="s">
         <v>263</v>
       </c>
@@ -5034,8 +5038,8 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="146"/>
+    <row r="14" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="136"/>
       <c r="B14" s="12" t="s">
         <v>265</v>
       </c>
@@ -5046,8 +5050,8 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="146"/>
+    <row r="15" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="136"/>
       <c r="B15" s="12" t="s">
         <v>266</v>
       </c>
@@ -5058,8 +5062,8 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="146"/>
+    <row r="16" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="136"/>
       <c r="B16" s="12" t="s">
         <v>267</v>
       </c>
@@ -5070,8 +5074,8 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="146"/>
+    <row r="17" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="136"/>
       <c r="B17" s="12" t="s">
         <v>268</v>
       </c>
@@ -5082,8 +5086,8 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="146"/>
+    <row r="18" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="136"/>
       <c r="B18" s="12" t="s">
         <v>269</v>
       </c>
@@ -5094,8 +5098,8 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="146"/>
+    <row r="19" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="136"/>
       <c r="B19" s="12" t="s">
         <v>270</v>
       </c>
@@ -5106,8 +5110,8 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="146"/>
+    <row r="20" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="136"/>
       <c r="B20" s="12" t="s">
         <v>271</v>
       </c>
@@ -5118,16 +5122,16 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="60"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="91"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="90"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="145" t="s">
+    <row r="22" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="135" t="s">
         <v>272</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -5140,8 +5144,8 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="146"/>
+    <row r="23" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="136"/>
       <c r="B23" s="12" t="s">
         <v>274</v>
       </c>
@@ -5152,8 +5156,8 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="146"/>
+    <row r="24" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="136"/>
       <c r="B24" s="12" t="s">
         <v>275</v>
       </c>
@@ -5164,8 +5168,8 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="146"/>
+    <row r="25" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="136"/>
       <c r="B25" s="12" t="s">
         <v>276</v>
       </c>
@@ -5176,8 +5180,8 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="146"/>
+    <row r="26" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="136"/>
       <c r="B26" s="12" t="s">
         <v>277</v>
       </c>
@@ -5188,8 +5192,8 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="151"/>
+    <row r="27" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="141"/>
       <c r="B27" s="12" t="s">
         <v>278</v>
       </c>
@@ -5200,16 +5204,16 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="60"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="91"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="90"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="145" t="s">
+    <row r="29" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="135" t="s">
         <v>251</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -5221,8 +5225,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="146"/>
+    <row r="30" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="136"/>
       <c r="B30" s="2" t="s">
         <v>253</v>
       </c>
@@ -5232,8 +5236,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="146"/>
+    <row r="31" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="136"/>
       <c r="B31" s="2" t="s">
         <v>254</v>
       </c>
@@ -5244,8 +5248,8 @@
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="146"/>
+    <row r="32" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="136"/>
       <c r="B32" s="2" t="s">
         <v>255</v>
       </c>
@@ -5256,8 +5260,8 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="146"/>
+    <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="136"/>
       <c r="B33" s="2" t="s">
         <v>13</v>
       </c>
@@ -5267,8 +5271,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="146"/>
+    <row r="34" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="136"/>
       <c r="B34" s="2" t="s">
         <v>14</v>
       </c>
@@ -5278,8 +5282,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="146"/>
+    <row r="35" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="136"/>
       <c r="B35" s="2" t="s">
         <v>15</v>
       </c>
@@ -5289,8 +5293,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="146"/>
+    <row r="36" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="136"/>
       <c r="B36" s="51" t="s">
         <v>158</v>
       </c>
@@ -5300,8 +5304,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="146"/>
+    <row r="37" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="136"/>
       <c r="B37" s="51" t="s">
         <v>159</v>
       </c>
@@ -5311,8 +5315,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="147"/>
+    <row r="38" spans="1:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="137"/>
       <c r="B38" s="4" t="s">
         <v>293</v>
       </c>
@@ -5338,35 +5342,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4275C1D2-30DB-4753-AC86-1CDFAF13FAD3}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="88.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="101" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="157" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="147" t="s">
         <v>357</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -5378,8 +5382,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="153"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="143"/>
       <c r="B3" s="33" t="s">
         <v>358</v>
       </c>
@@ -5389,8 +5393,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="153"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="143"/>
       <c r="B4" s="33" t="s">
         <v>359</v>
       </c>
@@ -5400,8 +5404,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="153"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="143"/>
       <c r="B5" s="33" t="s">
         <v>360</v>
       </c>
@@ -5411,8 +5415,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="153"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="143"/>
       <c r="B6" s="33" t="s">
         <v>361</v>
       </c>
@@ -5422,8 +5426,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="153"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="143"/>
       <c r="B7" s="33" t="s">
         <v>363</v>
       </c>
@@ -5433,8 +5437,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="153"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="143"/>
       <c r="B8" s="33" t="s">
         <v>362</v>
       </c>
@@ -5444,8 +5448,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="153"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="143"/>
       <c r="B9" s="33" t="s">
         <v>364</v>
       </c>
@@ -5455,8 +5459,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="153"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="143"/>
       <c r="B10" s="33" t="s">
         <v>365</v>
       </c>
@@ -5466,8 +5470,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="153"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="143"/>
       <c r="B11" s="33" t="s">
         <v>366</v>
       </c>
@@ -5477,8 +5481,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="153"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="143"/>
       <c r="B12" s="33" t="s">
         <v>367</v>
       </c>
@@ -5488,15 +5492,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="103"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="106"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="145" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="102"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="105"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="135" t="s">
         <v>447</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -5508,8 +5512,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="155"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="145"/>
       <c r="B15" s="12" t="s">
         <v>440</v>
       </c>
@@ -5519,8 +5523,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="155"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="145"/>
       <c r="B16" s="12" t="s">
         <v>441</v>
       </c>
@@ -5530,8 +5534,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="155"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="145"/>
       <c r="B17" s="12" t="s">
         <v>442</v>
       </c>
@@ -5541,8 +5545,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="155"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="145"/>
       <c r="B18" s="54" t="s">
         <v>443</v>
       </c>
@@ -5552,8 +5556,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="155"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="145"/>
       <c r="B19" s="54" t="s">
         <v>444</v>
       </c>
@@ -5563,8 +5567,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="155"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="145"/>
       <c r="B20" s="54" t="s">
         <v>445</v>
       </c>
@@ -5574,8 +5578,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="155"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="145"/>
       <c r="B21" s="54" t="s">
         <v>446</v>
       </c>
@@ -5585,543 +5589,543 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="103"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="106"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="167" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="102"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="105"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="157" t="s">
         <v>333</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="72" t="s">
         <v>390</v>
       </c>
       <c r="C23" s="52"/>
-      <c r="D23" s="73"/>
+      <c r="D23" s="72"/>
       <c r="E23" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="168"/>
-      <c r="B24" s="73" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="158"/>
+      <c r="B24" s="72" t="s">
         <v>391</v>
       </c>
       <c r="C24" s="52"/>
-      <c r="D24" s="73"/>
+      <c r="D24" s="72"/>
       <c r="E24" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="168"/>
-      <c r="B25" s="73" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="158"/>
+      <c r="B25" s="72" t="s">
         <v>392</v>
       </c>
       <c r="C25" s="52"/>
-      <c r="D25" s="73"/>
+      <c r="D25" s="72"/>
       <c r="E25" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="168"/>
-      <c r="B26" s="73" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="158"/>
+      <c r="B26" s="72" t="s">
         <v>393</v>
       </c>
       <c r="C26" s="52"/>
-      <c r="D26" s="73"/>
+      <c r="D26" s="72"/>
       <c r="E26" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="168"/>
-      <c r="B27" s="73" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="158"/>
+      <c r="B27" s="72" t="s">
         <v>394</v>
       </c>
       <c r="C27" s="52"/>
-      <c r="D27" s="73"/>
+      <c r="D27" s="72"/>
       <c r="E27" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="168"/>
-      <c r="B28" s="73" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="158"/>
+      <c r="B28" s="72" t="s">
         <v>395</v>
       </c>
       <c r="C28" s="52"/>
-      <c r="D28" s="73"/>
+      <c r="D28" s="72"/>
       <c r="E28" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="168"/>
-      <c r="B29" s="73" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="158"/>
+      <c r="B29" s="72" t="s">
         <v>396</v>
       </c>
       <c r="C29" s="52"/>
-      <c r="D29" s="73"/>
+      <c r="D29" s="72"/>
       <c r="E29" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="168"/>
-      <c r="B30" s="73" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="158"/>
+      <c r="B30" s="72" t="s">
         <v>397</v>
       </c>
       <c r="C30" s="52"/>
-      <c r="D30" s="73"/>
+      <c r="D30" s="72"/>
       <c r="E30" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="168"/>
-      <c r="B31" s="73" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="158"/>
+      <c r="B31" s="72" t="s">
         <v>398</v>
       </c>
       <c r="C31" s="52"/>
-      <c r="D31" s="73"/>
+      <c r="D31" s="72"/>
       <c r="E31" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="168"/>
-      <c r="B32" s="73" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="158"/>
+      <c r="B32" s="72" t="s">
         <v>399</v>
       </c>
       <c r="C32" s="52"/>
-      <c r="D32" s="73"/>
+      <c r="D32" s="72"/>
       <c r="E32" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="168"/>
-      <c r="B33" s="73" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="158"/>
+      <c r="B33" s="72" t="s">
         <v>400</v>
       </c>
       <c r="C33" s="52"/>
-      <c r="D33" s="73"/>
+      <c r="D33" s="72"/>
       <c r="E33" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="168"/>
-      <c r="B34" s="73" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="158"/>
+      <c r="B34" s="72" t="s">
         <v>401</v>
       </c>
       <c r="C34" s="52"/>
-      <c r="D34" s="73"/>
+      <c r="D34" s="72"/>
       <c r="E34" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="168"/>
-      <c r="B35" s="73" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="158"/>
+      <c r="B35" s="72" t="s">
         <v>402</v>
       </c>
       <c r="C35" s="52"/>
-      <c r="D35" s="73"/>
+      <c r="D35" s="72"/>
       <c r="E35" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="168"/>
-      <c r="B36" s="73" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="158"/>
+      <c r="B36" s="72" t="s">
         <v>403</v>
       </c>
       <c r="C36" s="52"/>
-      <c r="D36" s="73"/>
+      <c r="D36" s="72"/>
       <c r="E36" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="168"/>
-      <c r="B37" s="73" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="158"/>
+      <c r="B37" s="72" t="s">
         <v>404</v>
       </c>
       <c r="C37" s="52"/>
-      <c r="D37" s="73"/>
+      <c r="D37" s="72"/>
       <c r="E37" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="168"/>
-      <c r="B38" s="73" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="158"/>
+      <c r="B38" s="72" t="s">
         <v>405</v>
       </c>
       <c r="C38" s="52"/>
-      <c r="D38" s="73"/>
+      <c r="D38" s="72"/>
       <c r="E38" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="168"/>
-      <c r="B39" s="73" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="158"/>
+      <c r="B39" s="72" t="s">
         <v>406</v>
       </c>
       <c r="C39" s="52"/>
-      <c r="D39" s="73"/>
+      <c r="D39" s="72"/>
       <c r="E39" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="168"/>
-      <c r="B40" s="73" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="158"/>
+      <c r="B40" s="72" t="s">
         <v>407</v>
       </c>
       <c r="C40" s="52"/>
-      <c r="D40" s="73"/>
+      <c r="D40" s="72"/>
       <c r="E40" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="168"/>
-      <c r="B41" s="73" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="158"/>
+      <c r="B41" s="72" t="s">
         <v>408</v>
       </c>
       <c r="C41" s="52"/>
-      <c r="D41" s="73"/>
+      <c r="D41" s="72"/>
       <c r="E41" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="169"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="159"/>
       <c r="B42" s="33" t="s">
         <v>409</v>
       </c>
       <c r="C42" s="52"/>
-      <c r="D42" s="73"/>
+      <c r="D42" s="72"/>
       <c r="E42" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="103"/>
-      <c r="B43" s="121"/>
-      <c r="C43" s="105"/>
-      <c r="D43" s="104"/>
-      <c r="E43" s="106"/>
-    </row>
-    <row r="44" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="171" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="102"/>
+      <c r="B43" s="120"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="105"/>
+    </row>
+    <row r="44" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="161" t="s">
         <v>422</v>
       </c>
-      <c r="B44" s="73" t="s">
+      <c r="B44" s="72" t="s">
         <v>413</v>
       </c>
       <c r="C44" s="52"/>
-      <c r="D44" s="73"/>
+      <c r="D44" s="72"/>
       <c r="E44" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="172"/>
-      <c r="B45" s="73" t="s">
+    <row r="45" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="162"/>
+      <c r="B45" s="72" t="s">
         <v>412</v>
       </c>
       <c r="C45" s="52"/>
-      <c r="D45" s="73"/>
+      <c r="D45" s="72"/>
       <c r="E45" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="172"/>
-      <c r="B46" s="73" t="s">
+    <row r="46" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="162"/>
+      <c r="B46" s="72" t="s">
         <v>411</v>
       </c>
       <c r="C46" s="52"/>
-      <c r="D46" s="73"/>
+      <c r="D46" s="72"/>
       <c r="E46" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="172"/>
-      <c r="B47" s="73" t="s">
+    <row r="47" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="162"/>
+      <c r="B47" s="72" t="s">
         <v>414</v>
       </c>
       <c r="C47" s="52"/>
-      <c r="D47" s="73"/>
+      <c r="D47" s="72"/>
       <c r="E47" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="172"/>
-      <c r="B48" s="73" t="s">
+    <row r="48" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="162"/>
+      <c r="B48" s="72" t="s">
         <v>415</v>
       </c>
       <c r="C48" s="52"/>
-      <c r="D48" s="73"/>
+      <c r="D48" s="72"/>
       <c r="E48" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="172"/>
-      <c r="B49" s="73" t="s">
+    <row r="49" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="162"/>
+      <c r="B49" s="72" t="s">
         <v>416</v>
       </c>
       <c r="C49" s="52"/>
-      <c r="D49" s="73"/>
+      <c r="D49" s="72"/>
       <c r="E49" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="172"/>
-      <c r="B50" s="73" t="s">
+    <row r="50" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="162"/>
+      <c r="B50" s="72" t="s">
         <v>417</v>
       </c>
       <c r="C50" s="52"/>
-      <c r="D50" s="73"/>
+      <c r="D50" s="72"/>
       <c r="E50" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="172"/>
-      <c r="B51" s="73" t="s">
+    <row r="51" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="162"/>
+      <c r="B51" s="72" t="s">
         <v>418</v>
       </c>
       <c r="C51" s="52"/>
-      <c r="D51" s="73"/>
+      <c r="D51" s="72"/>
       <c r="E51" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="172"/>
-      <c r="B52" s="73" t="s">
+    <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="162"/>
+      <c r="B52" s="72" t="s">
         <v>419</v>
       </c>
       <c r="C52" s="52"/>
-      <c r="D52" s="73"/>
+      <c r="D52" s="72"/>
       <c r="E52" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="172"/>
-      <c r="B53" s="73" t="s">
+    <row r="53" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="162"/>
+      <c r="B53" s="72" t="s">
         <v>420</v>
       </c>
       <c r="C53" s="52"/>
-      <c r="D53" s="73"/>
+      <c r="D53" s="72"/>
       <c r="E53" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="174"/>
-      <c r="B54" s="73" t="s">
+    <row r="54" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="164"/>
+      <c r="B54" s="72" t="s">
         <v>421</v>
       </c>
       <c r="C54" s="52"/>
-      <c r="D54" s="73"/>
+      <c r="D54" s="72"/>
       <c r="E54" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="103"/>
-      <c r="B55" s="104"/>
-      <c r="C55" s="105"/>
-      <c r="D55" s="104"/>
-      <c r="E55" s="106"/>
-    </row>
-    <row r="56" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="171" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="102"/>
+      <c r="B55" s="103"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="103"/>
+      <c r="E55" s="105"/>
+    </row>
+    <row r="56" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="161" t="s">
         <v>379</v>
       </c>
-      <c r="B56" s="73" t="s">
+      <c r="B56" s="72" t="s">
         <v>371</v>
       </c>
       <c r="C56" s="52"/>
-      <c r="D56" s="73"/>
+      <c r="D56" s="72"/>
       <c r="E56" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="172"/>
-      <c r="B57" s="73" t="s">
+    <row r="57" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="162"/>
+      <c r="B57" s="72" t="s">
         <v>372</v>
       </c>
       <c r="C57" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="73"/>
-      <c r="E57" s="77"/>
-    </row>
-    <row r="58" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="172"/>
-      <c r="B58" s="118" t="s">
+      <c r="D57" s="72"/>
+      <c r="E57" s="76"/>
+    </row>
+    <row r="58" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="162"/>
+      <c r="B58" s="117" t="s">
         <v>373</v>
       </c>
       <c r="C58" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="73"/>
-      <c r="E58" s="77"/>
-    </row>
-    <row r="59" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="172"/>
-      <c r="B59" s="118" t="s">
+      <c r="D58" s="72"/>
+      <c r="E58" s="76"/>
+    </row>
+    <row r="59" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="162"/>
+      <c r="B59" s="117" t="s">
         <v>374</v>
       </c>
       <c r="C59" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="73"/>
-      <c r="E59" s="77"/>
-    </row>
-    <row r="60" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="172"/>
-      <c r="B60" s="118" t="s">
+      <c r="D59" s="72"/>
+      <c r="E59" s="76"/>
+    </row>
+    <row r="60" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="162"/>
+      <c r="B60" s="117" t="s">
         <v>375</v>
       </c>
       <c r="C60" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="73"/>
-      <c r="E60" s="77"/>
-    </row>
-    <row r="61" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="172"/>
-      <c r="B61" s="118" t="s">
+      <c r="D60" s="72"/>
+      <c r="E60" s="76"/>
+    </row>
+    <row r="61" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="162"/>
+      <c r="B61" s="117" t="s">
         <v>376</v>
       </c>
       <c r="C61" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="73"/>
-      <c r="E61" s="77"/>
-    </row>
-    <row r="62" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="172"/>
-      <c r="B62" s="118" t="s">
+      <c r="D61" s="72"/>
+      <c r="E61" s="76"/>
+    </row>
+    <row r="62" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="162"/>
+      <c r="B62" s="117" t="s">
         <v>378</v>
       </c>
       <c r="C62" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D62" s="73"/>
-      <c r="E62" s="77"/>
-    </row>
-    <row r="63" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="172"/>
-      <c r="B63" s="118" t="s">
+      <c r="D62" s="72"/>
+      <c r="E62" s="76"/>
+    </row>
+    <row r="63" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="162"/>
+      <c r="B63" s="117" t="s">
         <v>377</v>
       </c>
       <c r="C63" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="73"/>
-      <c r="E63" s="77"/>
-    </row>
-    <row r="64" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="172"/>
-      <c r="B64" s="118" t="s">
+      <c r="D63" s="72"/>
+      <c r="E63" s="76"/>
+    </row>
+    <row r="64" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="162"/>
+      <c r="B64" s="117" t="s">
         <v>381</v>
       </c>
       <c r="C64" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="73"/>
-      <c r="E64" s="77"/>
-    </row>
-    <row r="65" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="172"/>
-      <c r="B65" s="118" t="s">
+      <c r="D64" s="72"/>
+      <c r="E64" s="76"/>
+    </row>
+    <row r="65" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="162"/>
+      <c r="B65" s="117" t="s">
         <v>382</v>
       </c>
       <c r="C65" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="73"/>
-      <c r="E65" s="77"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="172"/>
-      <c r="B66" s="118" t="s">
+      <c r="D65" s="72"/>
+      <c r="E65" s="76"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="162"/>
+      <c r="B66" s="117" t="s">
         <v>383</v>
       </c>
       <c r="C66" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="73"/>
-      <c r="E66" s="77"/>
-    </row>
-    <row r="67" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="172"/>
-      <c r="B67" s="118" t="s">
+      <c r="D66" s="72"/>
+      <c r="E66" s="76"/>
+    </row>
+    <row r="67" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="162"/>
+      <c r="B67" s="117" t="s">
         <v>384</v>
       </c>
       <c r="C67" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="73"/>
-      <c r="E67" s="77"/>
-    </row>
-    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="172"/>
-      <c r="B68" s="118" t="s">
+      <c r="D67" s="72"/>
+      <c r="E67" s="76"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="162"/>
+      <c r="B68" s="117" t="s">
         <v>448</v>
       </c>
       <c r="C68" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="73"/>
-      <c r="E68" s="77"/>
-    </row>
-    <row r="69" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="172"/>
-      <c r="B69" s="118" t="s">
+      <c r="D68" s="72"/>
+      <c r="E68" s="76"/>
+    </row>
+    <row r="69" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="162"/>
+      <c r="B69" s="117" t="s">
         <v>385</v>
       </c>
       <c r="C69" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="73"/>
-      <c r="E69" s="77"/>
-    </row>
-    <row r="70" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="174"/>
-      <c r="B70" s="118" t="s">
+      <c r="D69" s="72"/>
+      <c r="E69" s="76"/>
+    </row>
+    <row r="70" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="164"/>
+      <c r="B70" s="117" t="s">
         <v>380</v>
       </c>
       <c r="C70" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="73"/>
-      <c r="E70" s="77"/>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D70" s="72"/>
+      <c r="E70" s="76"/>
+    </row>
+    <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="117"/>
+      <c r="C71" s="116"/>
       <c r="D71" s="4"/>
       <c r="E71" s="5"/>
     </row>
@@ -6132,173 +6136,6 @@
     <mergeCell ref="A23:A42"/>
     <mergeCell ref="A44:A54"/>
     <mergeCell ref="A56:A70"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8E88E9-D7E4-4380-9767-FF6AF9F97B48}">
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="126" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="126" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="127" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="157"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="153"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="153"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="153"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="153"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="153"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="153"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="153"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="153"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="153"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="153"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="128"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="130"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="122"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="72"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="122"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="72"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="123"/>
-      <c r="B16" s="123"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6313,32 +6150,32 @@
       <selection activeCell="A20" sqref="A20:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="140" t="s">
+      <c r="C1" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="140" t="s">
+      <c r="D1" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="141" t="s">
+      <c r="E1" s="131" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="142" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -6351,8 +6188,8 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="153"/>
+    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="143"/>
       <c r="B3" s="12" t="s">
         <v>162</v>
       </c>
@@ -6363,8 +6200,8 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="153"/>
+    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="143"/>
       <c r="B4" s="12" t="s">
         <v>280</v>
       </c>
@@ -6375,8 +6212,8 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="153"/>
+    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="143"/>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -6386,8 +6223,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="153"/>
+    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="143"/>
       <c r="B6" s="12" t="s">
         <v>161</v>
       </c>
@@ -6398,8 +6235,8 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="153"/>
+    <row r="7" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="143"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -6409,8 +6246,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="153"/>
+    <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="143"/>
       <c r="B8" s="12" t="s">
         <v>156</v>
       </c>
@@ -6420,8 +6257,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="153"/>
+    <row r="9" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="143"/>
       <c r="B9" s="12" t="s">
         <v>281</v>
       </c>
@@ -6431,8 +6268,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="153"/>
+    <row r="10" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="143"/>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -6442,8 +6279,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="153"/>
+    <row r="11" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="143"/>
       <c r="B11" s="12" t="s">
         <v>155</v>
       </c>
@@ -6453,8 +6290,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="153"/>
+    <row r="12" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="143"/>
       <c r="B12" s="12" t="s">
         <v>154</v>
       </c>
@@ -6464,8 +6301,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="154"/>
+    <row r="13" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="144"/>
       <c r="B13" s="12" t="s">
         <v>160</v>
       </c>
@@ -6475,15 +6312,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="142"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="144"/>
-    </row>
-    <row r="15" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="157" t="s">
+    <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="132"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="134"/>
+    </row>
+    <row r="15" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="147" t="s">
         <v>282</v>
       </c>
       <c r="B15" s="33" t="s">
@@ -6495,8 +6332,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="158"/>
+    <row r="16" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="148"/>
       <c r="B16" s="33" t="s">
         <v>288</v>
       </c>
@@ -6506,8 +6343,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="158"/>
+    <row r="17" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="148"/>
       <c r="B17" s="33" t="s">
         <v>289</v>
       </c>
@@ -6517,8 +6354,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="158"/>
+    <row r="18" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="148"/>
       <c r="B18" s="33" t="s">
         <v>290</v>
       </c>
@@ -6528,8 +6365,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="159"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="149"/>
       <c r="B19" s="12" t="s">
         <v>292</v>
       </c>
@@ -6539,15 +6376,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="142"/>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="144"/>
-    </row>
-    <row r="21" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="145" t="s">
+    <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="132"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="134"/>
+    </row>
+    <row r="21" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="135" t="s">
         <v>294</v>
       </c>
       <c r="B21" s="65" t="s">
@@ -6559,8 +6396,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="146"/>
+    <row r="22" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="136"/>
       <c r="B22" s="65" t="s">
         <v>285</v>
       </c>
@@ -6570,8 +6407,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="155"/>
+    <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="145"/>
       <c r="B23" s="65" t="s">
         <v>286</v>
       </c>
@@ -6581,8 +6418,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="155"/>
+    <row r="24" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="145"/>
       <c r="B24" s="65" t="s">
         <v>287</v>
       </c>
@@ -6592,25 +6429,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="155"/>
+    <row r="25" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="145"/>
       <c r="B25" s="65" t="s">
         <v>283</v>
       </c>
       <c r="C25" s="65"/>
-      <c r="D25" s="92"/>
+      <c r="D25" s="91"/>
       <c r="E25" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="156"/>
+    <row r="26" spans="1:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="146"/>
       <c r="B26" s="67" t="s">
         <v>284</v>
       </c>
       <c r="C26" s="67"/>
       <c r="D26" s="67"/>
-      <c r="E26" s="93" t="s">
+      <c r="E26" s="92" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6634,14 +6471,14 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6658,8 +6495,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="145" t="s">
+    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="135" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="57" t="s">
@@ -6672,8 +6509,8 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="146"/>
+    <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="136"/>
       <c r="B3" s="57" t="s">
         <v>80</v>
       </c>
@@ -6684,8 +6521,8 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="146"/>
+    <row r="4" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="136"/>
       <c r="B4" s="57" t="s">
         <v>94</v>
       </c>
@@ -6696,8 +6533,8 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="146"/>
+    <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="136"/>
       <c r="B5" s="57" t="s">
         <v>81</v>
       </c>
@@ -6708,8 +6545,8 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="146"/>
+    <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="136"/>
       <c r="B6" s="57" t="s">
         <v>95</v>
       </c>
@@ -6720,8 +6557,8 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="146"/>
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="136"/>
       <c r="B7" s="57" t="s">
         <v>83</v>
       </c>
@@ -6732,8 +6569,8 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="146"/>
+    <row r="8" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="136"/>
       <c r="B8" s="57" t="s">
         <v>163</v>
       </c>
@@ -6744,8 +6581,8 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="146"/>
+    <row r="9" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="136"/>
       <c r="B9" s="57" t="s">
         <v>82</v>
       </c>
@@ -6756,8 +6593,8 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="146"/>
+    <row r="10" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="136"/>
       <c r="B10" s="57" t="s">
         <v>84</v>
       </c>
@@ -6768,8 +6605,8 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="146"/>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="136"/>
       <c r="B11" s="57" t="s">
         <v>164</v>
       </c>
@@ -6780,8 +6617,8 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="146"/>
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="136"/>
       <c r="B12" s="57" t="s">
         <v>165</v>
       </c>
@@ -6792,8 +6629,8 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="146"/>
+    <row r="13" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="136"/>
       <c r="B13" s="57" t="s">
         <v>85</v>
       </c>
@@ -6804,8 +6641,8 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="146"/>
+    <row r="14" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="136"/>
       <c r="B14" s="57" t="s">
         <v>166</v>
       </c>
@@ -6816,8 +6653,8 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="146"/>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="136"/>
       <c r="B15" s="57" t="s">
         <v>87</v>
       </c>
@@ -6828,8 +6665,8 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="146"/>
+    <row r="16" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="136"/>
       <c r="B16" s="57" t="s">
         <v>88</v>
       </c>
@@ -6840,8 +6677,8 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="146"/>
+    <row r="17" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="136"/>
       <c r="B17" s="57" t="s">
         <v>91</v>
       </c>
@@ -6852,8 +6689,8 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="146"/>
+    <row r="18" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="136"/>
       <c r="B18" s="57" t="s">
         <v>90</v>
       </c>
@@ -6864,8 +6701,8 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="146"/>
+    <row r="19" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="136"/>
       <c r="B19" s="57" t="s">
         <v>89</v>
       </c>
@@ -6876,8 +6713,8 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="146"/>
+    <row r="20" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="136"/>
       <c r="B20" s="57" t="s">
         <v>92</v>
       </c>
@@ -6888,8 +6725,8 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="151"/>
+    <row r="21" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="141"/>
       <c r="B21" s="57" t="s">
         <v>93</v>
       </c>
@@ -6900,7 +6737,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="27"/>
       <c r="B22" s="28"/>
       <c r="C22" s="29"/>
@@ -6908,8 +6745,8 @@
       <c r="E22" s="31"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="160" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="150" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="33" t="s">
@@ -6922,8 +6759,8 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="155"/>
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="145"/>
       <c r="B24" s="12" t="s">
         <v>143</v>
       </c>
@@ -6934,8 +6771,8 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="155"/>
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="145"/>
       <c r="B25" s="12" t="s">
         <v>142</v>
       </c>
@@ -6946,8 +6783,8 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="155"/>
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="145"/>
       <c r="B26" s="12" t="s">
         <v>141</v>
       </c>
@@ -6958,8 +6795,8 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="155"/>
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="145"/>
       <c r="B27" s="58" t="s">
         <v>140</v>
       </c>
@@ -6970,8 +6807,8 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="155"/>
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="145"/>
       <c r="B28" s="12" t="s">
         <v>153</v>
       </c>
@@ -6982,8 +6819,8 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="155"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="145"/>
       <c r="B29" s="12" t="s">
         <v>144</v>
       </c>
@@ -6994,8 +6831,8 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="155"/>
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="145"/>
       <c r="B30" s="12" t="s">
         <v>145</v>
       </c>
@@ -7006,8 +6843,8 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="155"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="145"/>
       <c r="B31" s="2" t="s">
         <v>133</v>
       </c>
@@ -7018,8 +6855,8 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="155"/>
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="145"/>
       <c r="B32" s="12" t="s">
         <v>146</v>
       </c>
@@ -7030,8 +6867,8 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="155"/>
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="145"/>
       <c r="B33" s="58" t="s">
         <v>147</v>
       </c>
@@ -7042,8 +6879,8 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="155"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="145"/>
       <c r="B34" s="33" t="s">
         <v>134</v>
       </c>
@@ -7054,8 +6891,8 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="155"/>
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="145"/>
       <c r="B35" s="59" t="s">
         <v>148</v>
       </c>
@@ -7066,8 +6903,8 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="155"/>
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="145"/>
       <c r="B36" s="58" t="s">
         <v>149</v>
       </c>
@@ -7078,8 +6915,8 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="155"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="145"/>
       <c r="B37" s="36" t="s">
         <v>135</v>
       </c>
@@ -7090,8 +6927,8 @@
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="155"/>
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="145"/>
       <c r="B38" s="58" t="s">
         <v>150</v>
       </c>
@@ -7102,8 +6939,8 @@
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="155"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="145"/>
       <c r="B39" s="33" t="s">
         <v>136</v>
       </c>
@@ -7114,8 +6951,8 @@
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="155"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="145"/>
       <c r="B40" s="33" t="s">
         <v>137</v>
       </c>
@@ -7126,8 +6963,8 @@
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="155"/>
+    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="145"/>
       <c r="B41" s="58" t="s">
         <v>152</v>
       </c>
@@ -7138,8 +6975,8 @@
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="155"/>
+    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="145"/>
       <c r="B42" s="58" t="s">
         <v>151</v>
       </c>
@@ -7150,8 +6987,8 @@
       </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="161"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="151"/>
       <c r="B43" s="33" t="s">
         <v>138</v>
       </c>
@@ -7162,7 +6999,7 @@
       </c>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="32"/>
       <c r="B44" s="32"/>
       <c r="C44" s="29"/>
@@ -7170,8 +7007,8 @@
       <c r="E44" s="31"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="145" t="s">
+    <row r="45" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="135" t="s">
         <v>295</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -7184,8 +7021,8 @@
       </c>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="156"/>
+    <row r="46" spans="1:6" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="146"/>
       <c r="B46" s="4" t="s">
         <v>18</v>
       </c>
@@ -7196,14 +7033,14 @@
       </c>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -7230,14 +7067,14 @@
       <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -7254,8 +7091,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="145" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="135" t="s">
         <v>297</v>
       </c>
       <c r="B2" s="33" t="s">
@@ -7268,8 +7105,8 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="155"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="145"/>
       <c r="B3" s="33" t="s">
         <v>131</v>
       </c>
@@ -7280,8 +7117,8 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="155"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="145"/>
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
@@ -7292,8 +7129,8 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="155"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="145"/>
       <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
@@ -7304,8 +7141,8 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="155"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="145"/>
       <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
@@ -7316,8 +7153,8 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="155"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="145"/>
       <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
@@ -7328,8 +7165,8 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="155"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="145"/>
       <c r="B8" s="33" t="s">
         <v>41</v>
       </c>
@@ -7340,8 +7177,8 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="155"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="145"/>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
@@ -7352,8 +7189,8 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="155"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="145"/>
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
@@ -7364,8 +7201,8 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="145"/>
       <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
@@ -7376,8 +7213,8 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="155"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="145"/>
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
@@ -7388,8 +7225,8 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="155"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="145"/>
       <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
@@ -7400,8 +7237,8 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="155"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="145"/>
       <c r="B14" s="33" t="s">
         <v>47</v>
       </c>
@@ -7412,8 +7249,8 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="155"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="145"/>
       <c r="B15" s="33" t="s">
         <v>48</v>
       </c>
@@ -7424,8 +7261,8 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="155"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="145"/>
       <c r="B16" s="36" t="s">
         <v>49</v>
       </c>
@@ -7436,8 +7273,8 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="155"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="145"/>
       <c r="B17" s="33" t="s">
         <v>50</v>
       </c>
@@ -7448,8 +7285,8 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="155"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="145"/>
       <c r="B18" s="36" t="s">
         <v>51</v>
       </c>
@@ -7460,8 +7297,8 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="155"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="145"/>
       <c r="B19" s="33" t="s">
         <v>53</v>
       </c>
@@ -7472,8 +7309,8 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="155"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="145"/>
       <c r="B20" s="33" t="s">
         <v>54</v>
       </c>
@@ -7484,8 +7321,8 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="155"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="145"/>
       <c r="B21" s="33" t="s">
         <v>55</v>
       </c>
@@ -7496,8 +7333,8 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="155"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="145"/>
       <c r="B22" s="33" t="s">
         <v>56</v>
       </c>
@@ -7508,8 +7345,8 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="155"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="145"/>
       <c r="B23" s="33" t="s">
         <v>57</v>
       </c>
@@ -7520,8 +7357,8 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="161"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="151"/>
       <c r="B24" s="33" t="s">
         <v>58</v>
       </c>
@@ -7532,7 +7369,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="44"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
@@ -7540,8 +7377,8 @@
       <c r="E25" s="24"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="145" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="135" t="s">
         <v>296</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -7553,8 +7390,8 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="155"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="145"/>
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
@@ -7565,8 +7402,8 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="155"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="145"/>
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
@@ -7577,8 +7414,8 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="155"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="145"/>
       <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
@@ -7589,8 +7426,8 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="155"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="145"/>
       <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
@@ -7601,8 +7438,8 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="155"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="145"/>
       <c r="B31" s="2" t="s">
         <v>23</v>
       </c>
@@ -7613,8 +7450,8 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="155"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="145"/>
       <c r="B32" s="2" t="s">
         <v>24</v>
       </c>
@@ -7625,8 +7462,8 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="155"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="145"/>
       <c r="B33" s="2" t="s">
         <v>25</v>
       </c>
@@ -7637,8 +7474,8 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="155"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="145"/>
       <c r="B34" s="21" t="s">
         <v>26</v>
       </c>
@@ -7649,8 +7486,8 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="155"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="145"/>
       <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
@@ -7661,8 +7498,8 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="155"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="145"/>
       <c r="B36" s="2" t="s">
         <v>28</v>
       </c>
@@ -7673,8 +7510,8 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="161"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="151"/>
       <c r="B37" s="2" t="s">
         <v>59</v>
       </c>
@@ -7685,16 +7522,16 @@
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="94"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="93"/>
       <c r="B38" s="22"/>
       <c r="C38" s="23"/>
       <c r="D38" s="22"/>
       <c r="E38" s="24"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="165" t="s">
+    <row r="39" spans="1:8" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="155" t="s">
         <v>300</v>
       </c>
       <c r="B39" s="12" t="s">
@@ -7702,36 +7539,36 @@
       </c>
       <c r="C39" s="34"/>
       <c r="D39" s="33"/>
-      <c r="E39" s="79" t="s">
+      <c r="E39" s="78" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="166"/>
+    <row r="40" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="156"/>
       <c r="B40" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="C40" s="95"/>
+      <c r="C40" s="94"/>
       <c r="D40" s="36"/>
-      <c r="E40" s="79" t="s">
+      <c r="E40" s="78" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="166"/>
+    <row r="41" spans="1:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="156"/>
       <c r="B41" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="C41" s="95"/>
+      <c r="C41" s="94"/>
       <c r="D41" s="36"/>
-      <c r="E41" s="79" t="s">
+      <c r="E41" s="78" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="45"/>
       <c r="B42" s="22"/>
       <c r="C42" s="23"/>
@@ -7739,8 +7576,8 @@
       <c r="E42" s="24"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="162" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="152" t="s">
         <v>298</v>
       </c>
       <c r="B43" s="65" t="s">
@@ -7752,8 +7589,8 @@
       <c r="D43" s="2"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="163"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="153"/>
       <c r="B44" s="12" t="s">
         <v>20</v>
       </c>
@@ -7763,8 +7600,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="163"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="153"/>
       <c r="B45" s="12" t="s">
         <v>21</v>
       </c>
@@ -7775,8 +7612,8 @@
       <c r="E45" s="3"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="164"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="154"/>
       <c r="B46" s="12" t="s">
         <v>22</v>
       </c>
@@ -7786,15 +7623,15 @@
       <c r="D46" s="2"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="43"/>
       <c r="B47" s="25"/>
       <c r="C47" s="23"/>
       <c r="D47" s="22"/>
       <c r="E47" s="24"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="145" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="135" t="s">
         <v>299</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -7806,8 +7643,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="155"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="145"/>
       <c r="B49" s="2" t="s">
         <v>34</v>
       </c>
@@ -7817,8 +7654,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="156"/>
+    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="146"/>
       <c r="B50" s="4" t="s">
         <v>35</v>
       </c>
@@ -7828,14 +7665,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -7863,32 +7700,32 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="132" t="s">
+      <c r="C1" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="132" t="s">
+      <c r="D1" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="133" t="s">
+      <c r="E1" s="123" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="146" t="s">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="136" t="s">
         <v>306</v>
       </c>
       <c r="B2" s="58" t="s">
@@ -7901,8 +7738,8 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="146"/>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="136"/>
       <c r="B3" s="58" t="s">
         <v>308</v>
       </c>
@@ -7913,8 +7750,8 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="146"/>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="136"/>
       <c r="B4" s="58" t="s">
         <v>309</v>
       </c>
@@ -7925,8 +7762,8 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="151"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="141"/>
       <c r="B5" s="58" t="s">
         <v>310</v>
       </c>
@@ -7937,16 +7774,16 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="134"/>
-      <c r="B6" s="135"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="137"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="124"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="127"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="145" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="135" t="s">
         <v>332</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -7959,8 +7796,8 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="155"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="145"/>
       <c r="B8" s="2" t="s">
         <v>168</v>
       </c>
@@ -7971,8 +7808,8 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="155"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="145"/>
       <c r="B9" s="2" t="s">
         <v>171</v>
       </c>
@@ -7983,8 +7820,8 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="155"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="145"/>
       <c r="B10" s="2" t="s">
         <v>169</v>
       </c>
@@ -7995,8 +7832,8 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="145"/>
       <c r="B11" s="2" t="s">
         <v>167</v>
       </c>
@@ -8007,8 +7844,8 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="161"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="151"/>
       <c r="B12" s="21" t="s">
         <v>170</v>
       </c>
@@ -8019,16 +7856,16 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="138"/>
-      <c r="B13" s="135"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="137"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="128"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="127"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="96" t="s">
+    <row r="14" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="95" t="s">
         <v>304</v>
       </c>
       <c r="B14" s="67" t="s">
@@ -8040,14 +7877,14 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -8072,13 +7909,13 @@
       <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -8095,8 +7932,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="88" t="s">
         <v>313</v>
       </c>
       <c r="B2" s="57" t="s">
@@ -8108,15 +7945,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
       <c r="D3" s="49"/>
       <c r="E3" s="50"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="152" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="142" t="s">
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -8128,8 +7965,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="153"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="143"/>
       <c r="B5" s="46" t="s">
         <v>64</v>
       </c>
@@ -8139,8 +7976,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="153"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="143"/>
       <c r="B6" s="46" t="s">
         <v>192</v>
       </c>
@@ -8150,8 +7987,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="153"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="143"/>
       <c r="B7" s="55" t="s">
         <v>182</v>
       </c>
@@ -8161,8 +7998,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="153"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="143"/>
       <c r="B8" s="55" t="s">
         <v>77</v>
       </c>
@@ -8172,8 +8009,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="153"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="143"/>
       <c r="B9" s="55" t="s">
         <v>78</v>
       </c>
@@ -8183,8 +8020,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="153"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="143"/>
       <c r="B10" s="55" t="s">
         <v>79</v>
       </c>
@@ -8194,8 +8031,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="154"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="144"/>
       <c r="B11" s="48" t="s">
         <v>97</v>
       </c>
@@ -8205,15 +8042,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="49"/>
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
       <c r="D12" s="49"/>
       <c r="E12" s="50"/>
     </row>
-    <row r="13" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="160" t="s">
+    <row r="13" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="150" t="s">
         <v>312</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -8225,8 +8062,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="155"/>
+    <row r="14" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="145"/>
       <c r="B14" s="12" t="s">
         <v>121</v>
       </c>
@@ -8236,8 +8073,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="155"/>
+    <row r="15" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="145"/>
       <c r="B15" s="12" t="s">
         <v>120</v>
       </c>
@@ -8247,8 +8084,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="155"/>
+    <row r="16" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="145"/>
       <c r="B16" s="12" t="s">
         <v>119</v>
       </c>
@@ -8258,8 +8095,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="155"/>
+    <row r="17" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="145"/>
       <c r="B17" s="12" t="s">
         <v>118</v>
       </c>
@@ -8269,8 +8106,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="155"/>
+    <row r="18" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="145"/>
       <c r="B18" s="12" t="s">
         <v>117</v>
       </c>
@@ -8280,8 +8117,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="155"/>
+    <row r="19" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="145"/>
       <c r="B19" s="12" t="s">
         <v>116</v>
       </c>
@@ -8291,8 +8128,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="155"/>
+    <row r="20" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="145"/>
       <c r="B20" s="12" t="s">
         <v>115</v>
       </c>
@@ -8302,8 +8139,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="155"/>
+    <row r="21" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="145"/>
       <c r="B21" s="12" t="s">
         <v>122</v>
       </c>
@@ -8313,8 +8150,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="155"/>
+    <row r="22" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="145"/>
       <c r="B22" s="12" t="s">
         <v>123</v>
       </c>
@@ -8324,8 +8161,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="155"/>
+    <row r="23" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="145"/>
       <c r="B23" s="12" t="s">
         <v>124</v>
       </c>
@@ -8335,8 +8172,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="155"/>
+    <row r="24" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="145"/>
       <c r="B24" s="12" t="s">
         <v>125</v>
       </c>
@@ -8346,8 +8183,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="155"/>
+    <row r="25" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="145"/>
       <c r="B25" s="12" t="s">
         <v>126</v>
       </c>
@@ -8357,8 +8194,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="155"/>
+    <row r="26" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="145"/>
       <c r="B26" s="12" t="s">
         <v>173</v>
       </c>
@@ -8368,8 +8205,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="155"/>
+    <row r="27" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="145"/>
       <c r="B27" s="12" t="s">
         <v>174</v>
       </c>
@@ -8379,8 +8216,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="155"/>
+    <row r="28" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="145"/>
       <c r="B28" s="12" t="s">
         <v>175</v>
       </c>
@@ -8390,8 +8227,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="155"/>
+    <row r="29" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="145"/>
       <c r="B29" s="12" t="s">
         <v>176</v>
       </c>
@@ -8401,8 +8238,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="155"/>
+    <row r="30" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="145"/>
       <c r="B30" s="12" t="s">
         <v>128</v>
       </c>
@@ -8412,8 +8249,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="155"/>
+    <row r="31" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="145"/>
       <c r="B31" s="12" t="s">
         <v>129</v>
       </c>
@@ -8423,8 +8260,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="155"/>
+    <row r="32" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="145"/>
       <c r="B32" s="12" t="s">
         <v>130</v>
       </c>
@@ -8434,8 +8271,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="155"/>
+    <row r="33" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="145"/>
       <c r="B33" s="12" t="s">
         <v>127</v>
       </c>
@@ -8445,15 +8282,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="155"/>
+    <row r="34" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="145"/>
       <c r="B34" s="12"/>
       <c r="C34" s="42"/>
       <c r="D34" s="42"/>
       <c r="E34" s="26"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="155"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="145"/>
       <c r="B35" s="2" t="s">
         <v>105</v>
       </c>
@@ -8463,8 +8300,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="155"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="145"/>
       <c r="B36" s="2" t="s">
         <v>104</v>
       </c>
@@ -8474,8 +8311,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="155"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="145"/>
       <c r="B37" s="2" t="s">
         <v>103</v>
       </c>
@@ -8485,8 +8322,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="155"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="145"/>
       <c r="B38" s="2" t="s">
         <v>102</v>
       </c>
@@ -8496,8 +8333,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="155"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="145"/>
       <c r="B39" s="2" t="s">
         <v>101</v>
       </c>
@@ -8507,8 +8344,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="155"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="145"/>
       <c r="B40" s="2" t="s">
         <v>100</v>
       </c>
@@ -8518,8 +8355,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="155"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="145"/>
       <c r="B41" s="2" t="s">
         <v>99</v>
       </c>
@@ -8529,8 +8366,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="155"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="145"/>
       <c r="B42" s="2" t="s">
         <v>106</v>
       </c>
@@ -8540,8 +8377,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="155"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="145"/>
       <c r="B43" s="2" t="s">
         <v>107</v>
       </c>
@@ -8551,8 +8388,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="155"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="145"/>
       <c r="B44" s="2" t="s">
         <v>108</v>
       </c>
@@ -8562,8 +8399,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="155"/>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="145"/>
       <c r="B45" s="2" t="s">
         <v>109</v>
       </c>
@@ -8573,8 +8410,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="155"/>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="145"/>
       <c r="B46" s="2" t="s">
         <v>110</v>
       </c>
@@ -8584,8 +8421,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="155"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="145"/>
       <c r="B47" s="2" t="s">
         <v>177</v>
       </c>
@@ -8595,8 +8432,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="155"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="145"/>
       <c r="B48" s="2" t="s">
         <v>178</v>
       </c>
@@ -8606,8 +8443,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="155"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="145"/>
       <c r="B49" s="2" t="s">
         <v>179</v>
       </c>
@@ -8617,8 +8454,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="155"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="145"/>
       <c r="B50" s="2" t="s">
         <v>180</v>
       </c>
@@ -8628,8 +8465,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="155"/>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="145"/>
       <c r="B51" s="21" t="s">
         <v>111</v>
       </c>
@@ -8639,8 +8476,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="155"/>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="145"/>
       <c r="B52" s="2" t="s">
         <v>112</v>
       </c>
@@ -8650,8 +8487,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="155"/>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="145"/>
       <c r="B53" s="2" t="s">
         <v>113</v>
       </c>
@@ -8661,8 +8498,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="155"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="145"/>
       <c r="B54" s="2" t="s">
         <v>114</v>
       </c>
@@ -8672,15 +8509,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="66"/>
       <c r="B55" s="49"/>
       <c r="C55" s="49"/>
       <c r="D55" s="49"/>
       <c r="E55" s="50"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="160" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="150" t="s">
         <v>62</v>
       </c>
       <c r="B56" s="12" t="s">
@@ -8692,8 +8529,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="155"/>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="145"/>
       <c r="B57" s="12" t="s">
         <v>75</v>
       </c>
@@ -8703,8 +8540,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="161"/>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="151"/>
       <c r="B58" s="12" t="s">
         <v>74</v>
       </c>
@@ -8714,15 +8551,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="66"/>
       <c r="B59" s="49"/>
       <c r="C59" s="49"/>
       <c r="D59" s="49"/>
       <c r="E59" s="49"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="152" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="142" t="s">
         <v>65</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -8734,8 +8571,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="153"/>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="143"/>
       <c r="B61" s="2" t="s">
         <v>67</v>
       </c>
@@ -8745,8 +8582,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="153"/>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="143"/>
       <c r="B62" s="2" t="s">
         <v>70</v>
       </c>
@@ -8756,8 +8593,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="153"/>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="143"/>
       <c r="B63" s="2" t="s">
         <v>68</v>
       </c>
@@ -8767,8 +8604,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="153"/>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="143"/>
       <c r="B64" s="2" t="s">
         <v>69</v>
       </c>
@@ -8778,8 +8615,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="153"/>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="143"/>
       <c r="B65" s="51" t="s">
         <v>71</v>
       </c>
@@ -8789,8 +8626,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="153"/>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="143"/>
       <c r="B66" s="51" t="s">
         <v>72</v>
       </c>
@@ -8800,8 +8637,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="153"/>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="143"/>
       <c r="B67" s="51" t="s">
         <v>73</v>
       </c>
@@ -8811,8 +8648,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="153"/>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="143"/>
       <c r="B68" s="54" t="s">
         <v>314</v>
       </c>
@@ -8822,8 +8659,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="154"/>
+    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="144"/>
       <c r="B69" s="54" t="s">
         <v>315</v>
       </c>
@@ -8833,15 +8670,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="49"/>
       <c r="B70" s="49"/>
       <c r="C70" s="49"/>
       <c r="D70" s="49"/>
       <c r="E70" s="49"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="167" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="157" t="s">
         <v>349</v>
       </c>
       <c r="B71" s="58" t="s">
@@ -8853,8 +8690,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="168"/>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="158"/>
       <c r="B72" s="58" t="s">
         <v>351</v>
       </c>
@@ -8864,8 +8701,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="168"/>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="158"/>
       <c r="B73" s="58" t="s">
         <v>350</v>
       </c>
@@ -8875,8 +8712,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="168"/>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="158"/>
       <c r="B74" s="58" t="s">
         <v>353</v>
       </c>
@@ -8886,8 +8723,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="168"/>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="158"/>
       <c r="B75" s="58" t="s">
         <v>354</v>
       </c>
@@ -8897,8 +8734,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="168"/>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="158"/>
       <c r="B76" s="58" t="s">
         <v>355</v>
       </c>
@@ -8908,15 +8745,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="97"/>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="96"/>
       <c r="B77" s="49"/>
       <c r="C77" s="49"/>
       <c r="D77" s="49"/>
-      <c r="E77" s="107"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="167" t="s">
+      <c r="E77" s="106"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="157" t="s">
         <v>316</v>
       </c>
       <c r="B78" s="58" t="s">
@@ -8928,8 +8765,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="168"/>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="158"/>
       <c r="B79" s="58" t="s">
         <v>318</v>
       </c>
@@ -8939,8 +8776,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="168"/>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="158"/>
       <c r="B80" s="58" t="s">
         <v>319</v>
       </c>
@@ -8950,8 +8787,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="169"/>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="159"/>
       <c r="B81" s="58" t="s">
         <v>320</v>
       </c>
@@ -8961,15 +8798,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="97"/>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="96"/>
       <c r="B82" s="49"/>
       <c r="C82" s="49"/>
       <c r="D82" s="49"/>
       <c r="E82" s="49"/>
     </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="160" t="s">
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="150" t="s">
         <v>311</v>
       </c>
       <c r="B83" s="12" t="s">
@@ -8981,8 +8818,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="156"/>
+    <row r="84" spans="1:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="146"/>
       <c r="B84" s="63" t="s">
         <v>22</v>
       </c>
@@ -9015,13 +8852,13 @@
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="84.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="84.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -9038,8 +8875,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="157" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="147" t="s">
         <v>216</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -9052,8 +8889,8 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="158"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="148"/>
       <c r="B3" s="2" t="s">
         <v>218</v>
       </c>
@@ -9064,8 +8901,8 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="158"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="148"/>
       <c r="B4" s="2" t="s">
         <v>219</v>
       </c>
@@ -9076,8 +8913,8 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="158"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="148"/>
       <c r="B5" s="2" t="s">
         <v>220</v>
       </c>
@@ -9088,8 +8925,8 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="158"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="148"/>
       <c r="B6" s="2" t="s">
         <v>221</v>
       </c>
@@ -9100,8 +8937,8 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="158"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="148"/>
       <c r="B7" s="2" t="s">
         <v>224</v>
       </c>
@@ -9112,8 +8949,8 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="158"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="148"/>
       <c r="B8" s="12" t="s">
         <v>223</v>
       </c>
@@ -9124,8 +8961,8 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="158"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="148"/>
       <c r="B9" s="2" t="s">
         <v>222</v>
       </c>
@@ -9136,8 +8973,8 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="158"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="148"/>
       <c r="B10" s="21" t="s">
         <v>225</v>
       </c>
@@ -9148,7 +8985,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="68"/>
       <c r="B11" s="68"/>
       <c r="C11" s="68"/>
@@ -9156,81 +8993,81 @@
       <c r="E11" s="70"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="146" t="s">
+    <row r="12" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="136" t="s">
         <v>210</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C12" s="42"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="79" t="s">
+      <c r="D12" s="72"/>
+      <c r="E12" s="78" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="146"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="136"/>
       <c r="B13" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C13" s="42"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="79" t="s">
+      <c r="D13" s="72"/>
+      <c r="E13" s="78" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="146"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="136"/>
       <c r="B14" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C14" s="42"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="79" t="s">
+      <c r="D14" s="72"/>
+      <c r="E14" s="78" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="146"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="136"/>
       <c r="B15" s="12" t="s">
         <v>227</v>
       </c>
       <c r="C15" s="42"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="79" t="s">
+      <c r="D15" s="72"/>
+      <c r="E15" s="78" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="146"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="136"/>
       <c r="B16" s="2" t="s">
         <v>228</v>
       </c>
       <c r="C16" s="42"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="79" t="s">
+      <c r="D16" s="72"/>
+      <c r="E16" s="78" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="151"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="141"/>
       <c r="B17" s="21" t="s">
         <v>229</v>
       </c>
       <c r="C17" s="42"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="79" t="s">
+      <c r="D17" s="72"/>
+      <c r="E17" s="78" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="68"/>
       <c r="B18" s="68"/>
       <c r="C18" s="68"/>
@@ -9238,8 +9075,8 @@
       <c r="E18" s="70"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="157" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="147" t="s">
         <v>321</v>
       </c>
       <c r="B19" s="51" t="s">
@@ -9252,8 +9089,8 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="158"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="148"/>
       <c r="B20" s="51" t="s">
         <v>186</v>
       </c>
@@ -9264,8 +9101,8 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="158"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="148"/>
       <c r="B21" s="51" t="s">
         <v>187</v>
       </c>
@@ -9276,8 +9113,8 @@
       <c r="E21" s="3"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="159"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="149"/>
       <c r="B22" s="51" t="s">
         <v>188</v>
       </c>
@@ -9288,7 +9125,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="71"/>
       <c r="B23" s="68"/>
       <c r="C23" s="68"/>
@@ -9296,8 +9133,8 @@
       <c r="E23" s="70"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="157" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="147" t="s">
         <v>322</v>
       </c>
       <c r="B24" s="54" t="s">
@@ -9309,8 +9146,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="154"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="144"/>
       <c r="B25" s="54" t="s">
         <v>204</v>
       </c>
@@ -9320,15 +9157,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="98"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="97"/>
       <c r="B26" s="68"/>
       <c r="C26" s="68"/>
       <c r="D26" s="68"/>
       <c r="E26" s="68"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="158" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="148" t="s">
         <v>323</v>
       </c>
       <c r="B27" s="54" t="s">
@@ -9340,8 +9177,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="153"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="143"/>
       <c r="B28" s="54" t="s">
         <v>211</v>
       </c>
@@ -9351,8 +9188,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="153"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="143"/>
       <c r="B29" s="54" t="s">
         <v>205</v>
       </c>
@@ -9362,8 +9199,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="154"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="144"/>
       <c r="B30" s="54" t="s">
         <v>215</v>
       </c>
@@ -9373,15 +9210,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="69"/>
       <c r="B31" s="69"/>
       <c r="C31" s="69"/>
       <c r="D31" s="69"/>
       <c r="E31" s="70"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="152" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="142" t="s">
         <v>60</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -9393,8 +9230,8 @@
       <c r="D32" s="2"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="153"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="143"/>
       <c r="B33" s="2" t="s">
         <v>183</v>
       </c>
@@ -9404,8 +9241,8 @@
       <c r="D33" s="2"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="153"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="143"/>
       <c r="B34" s="2" t="s">
         <v>193</v>
       </c>
@@ -9415,8 +9252,8 @@
       <c r="D34" s="2"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="153"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="143"/>
       <c r="B35" s="2" t="s">
         <v>194</v>
       </c>
@@ -9426,8 +9263,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="153"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="143"/>
       <c r="B36" s="2" t="s">
         <v>195</v>
       </c>
@@ -9437,8 +9274,8 @@
       <c r="D36" s="2"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="153"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="143"/>
       <c r="B37" s="2" t="s">
         <v>196</v>
       </c>
@@ -9448,8 +9285,8 @@
       <c r="D37" s="2"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="153"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="143"/>
       <c r="B38" s="2" t="s">
         <v>197</v>
       </c>
@@ -9459,8 +9296,8 @@
       <c r="D38" s="2"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="153"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="143"/>
       <c r="B39" s="2" t="s">
         <v>198</v>
       </c>
@@ -9470,8 +9307,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="153"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="143"/>
       <c r="B40" s="2" t="s">
         <v>199</v>
       </c>
@@ -9481,8 +9318,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="153"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="143"/>
       <c r="B41" s="2" t="s">
         <v>203</v>
       </c>
@@ -9492,8 +9329,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="153"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="143"/>
       <c r="B42" s="2" t="s">
         <v>201</v>
       </c>
@@ -9503,8 +9340,8 @@
       <c r="D42" s="2"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="153"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="143"/>
       <c r="B43" s="2" t="s">
         <v>202</v>
       </c>
@@ -9514,8 +9351,8 @@
       <c r="D43" s="2"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="154"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="144"/>
       <c r="B44" s="2" t="s">
         <v>184</v>
       </c>
@@ -9525,15 +9362,15 @@
       <c r="D44" s="2"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="69"/>
       <c r="B45" s="69"/>
       <c r="C45" s="69"/>
       <c r="D45" s="69"/>
       <c r="E45" s="70"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="157" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="147" t="s">
         <v>342</v>
       </c>
       <c r="B46" s="51" t="s">
@@ -9545,8 +9382,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="158"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="148"/>
       <c r="B47" s="51" t="s">
         <v>344</v>
       </c>
@@ -9556,8 +9393,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="158"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="148"/>
       <c r="B48" s="51" t="s">
         <v>345</v>
       </c>
@@ -9567,8 +9404,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="158"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="148"/>
       <c r="B49" s="51" t="s">
         <v>346</v>
       </c>
@@ -9578,8 +9415,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="158"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="148"/>
       <c r="B50" s="51" t="s">
         <v>347</v>
       </c>
@@ -9589,18 +9426,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="170"/>
+    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="160"/>
       <c r="B51" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="93" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -9628,31 +9465,31 @@
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="69.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="69.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="75" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="145" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="135" t="s">
         <v>330</v>
       </c>
       <c r="B2" s="54" t="s">
@@ -9664,8 +9501,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="146"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="136"/>
       <c r="B3" s="54" t="s">
         <v>230</v>
       </c>
@@ -9675,8 +9512,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="146"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="136"/>
       <c r="B4" s="54" t="s">
         <v>206</v>
       </c>
@@ -9686,154 +9523,154 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="151"/>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="141"/>
       <c r="B5" s="54" t="s">
         <v>212</v>
       </c>
       <c r="C5" s="42"/>
-      <c r="D5" s="73"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="80"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="146" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="136" t="s">
         <v>331</v>
       </c>
       <c r="B7" s="54" t="s">
         <v>334</v>
       </c>
       <c r="C7" s="52"/>
-      <c r="D7" s="73"/>
+      <c r="D7" s="72"/>
       <c r="E7" s="62" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="146"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="136"/>
       <c r="B8" s="54" t="s">
         <v>335</v>
       </c>
       <c r="C8" s="52"/>
-      <c r="D8" s="73"/>
+      <c r="D8" s="72"/>
       <c r="E8" s="62" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="146"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="136"/>
       <c r="B9" s="54" t="s">
         <v>337</v>
       </c>
       <c r="C9" s="52"/>
-      <c r="D9" s="73"/>
+      <c r="D9" s="72"/>
       <c r="E9" s="62" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="146"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="136"/>
       <c r="B10" s="54" t="s">
         <v>338</v>
       </c>
       <c r="C10" s="52"/>
-      <c r="D10" s="73"/>
+      <c r="D10" s="72"/>
       <c r="E10" s="62" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="151"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="141"/>
       <c r="B11" s="54" t="s">
         <v>336</v>
       </c>
       <c r="C11" s="52"/>
-      <c r="D11" s="73"/>
+      <c r="D11" s="72"/>
       <c r="E11" s="62" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="80"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="108"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="171" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="79"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="107"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="161" t="s">
         <v>324</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="72" t="s">
         <v>239</v>
       </c>
       <c r="C13" s="52"/>
-      <c r="D13" s="73"/>
+      <c r="D13" s="72"/>
       <c r="E13" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="172"/>
-      <c r="B14" s="73" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="162"/>
+      <c r="B14" s="72" t="s">
         <v>235</v>
       </c>
       <c r="C14" s="52"/>
-      <c r="D14" s="73"/>
+      <c r="D14" s="72"/>
       <c r="E14" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="172"/>
-      <c r="B15" s="73" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="162"/>
+      <c r="B15" s="72" t="s">
         <v>236</v>
       </c>
       <c r="C15" s="52"/>
-      <c r="D15" s="73"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="172"/>
-      <c r="B16" s="73" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="162"/>
+      <c r="B16" s="72" t="s">
         <v>237</v>
       </c>
       <c r="C16" s="52"/>
-      <c r="D16" s="73"/>
+      <c r="D16" s="72"/>
       <c r="E16" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="172"/>
-      <c r="B17" s="73" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="162"/>
+      <c r="B17" s="72" t="s">
         <v>238</v>
       </c>
       <c r="C17" s="52"/>
-      <c r="D17" s="73"/>
+      <c r="D17" s="72"/>
       <c r="E17" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="157" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="79"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="147" t="s">
         <v>326</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -9845,8 +9682,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="153"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="143"/>
       <c r="B20" s="2" t="s">
         <v>208</v>
       </c>
@@ -9856,8 +9693,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="154"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="144"/>
       <c r="B21" s="2" t="s">
         <v>209</v>
       </c>
@@ -9867,15 +9704,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="81"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="162" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="79"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="152" t="s">
         <v>327</v>
       </c>
       <c r="B23" s="51" t="s">
@@ -9887,8 +9724,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="163"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="153"/>
       <c r="B24" s="51" t="s">
         <v>232</v>
       </c>
@@ -9898,26 +9735,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="164"/>
-      <c r="B25" s="73" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="154"/>
+      <c r="B25" s="72" t="s">
         <v>233</v>
       </c>
       <c r="C25" s="56"/>
-      <c r="D25" s="73"/>
+      <c r="D25" s="72"/>
       <c r="E25" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="78"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="109"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="162" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="77"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="108"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="152" t="s">
         <v>329</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -9929,8 +9766,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="163"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="153"/>
       <c r="B28" s="2" t="s">
         <v>245</v>
       </c>
@@ -9940,8 +9777,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="163"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="153"/>
       <c r="B29" s="2" t="s">
         <v>246</v>
       </c>
@@ -9951,8 +9788,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="164"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="154"/>
       <c r="B30" s="12" t="s">
         <v>247</v>
       </c>
@@ -9962,15 +9799,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="86"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="110"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="162" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="85"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="109"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="152" t="s">
         <v>325</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -9982,58 +9819,58 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="163"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="153"/>
       <c r="B33" s="51" t="s">
         <v>243</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="111" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="163"/>
+      <c r="E33" s="110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="153"/>
       <c r="B34" s="51" t="s">
         <v>240</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="36"/>
-      <c r="E34" s="111" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="163"/>
+      <c r="E34" s="110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="153"/>
       <c r="B35" s="51" t="s">
         <v>241</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="36"/>
-      <c r="E35" s="111" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="163"/>
+      <c r="E35" s="110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="153"/>
       <c r="B36" s="51" t="s">
         <v>244</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="36"/>
-      <c r="E36" s="111" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="173"/>
+      <c r="E36" s="110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="163"/>
       <c r="B37" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C37" s="64"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="112" t="s">
+      <c r="D37" s="98"/>
+      <c r="E37" s="111" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10054,667 +9891,673 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8D2795-3703-4799-82AD-D959B47FB411}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B62" sqref="B43:B62"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53:E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="2" width="69.5703125" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="69.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="83" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="171" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="161" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="72" t="s">
         <v>248</v>
       </c>
       <c r="C2" s="52"/>
-      <c r="D2" s="73"/>
+      <c r="D2" s="72"/>
       <c r="E2" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="172"/>
-      <c r="B3" s="73" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="162"/>
+      <c r="B3" s="72" t="s">
         <v>249</v>
       </c>
       <c r="C3" s="52"/>
-      <c r="D3" s="73"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="172"/>
-      <c r="B4" s="73" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="162"/>
+      <c r="B4" s="72" t="s">
         <v>339</v>
       </c>
       <c r="C4" s="52"/>
-      <c r="D4" s="73"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="172"/>
-      <c r="B5" s="73" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="162"/>
+      <c r="B5" s="72" t="s">
         <v>340</v>
       </c>
       <c r="C5" s="52"/>
-      <c r="D5" s="73"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="172"/>
-      <c r="B6" s="73" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="162"/>
+      <c r="B6" s="72" t="s">
         <v>341</v>
       </c>
       <c r="C6" s="52"/>
-      <c r="D6" s="73"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="174"/>
-      <c r="B7" s="73" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="164"/>
+      <c r="B7" s="72" t="s">
         <v>250</v>
       </c>
       <c r="C7" s="52"/>
-      <c r="D7" s="73"/>
+      <c r="D7" s="72"/>
       <c r="E7" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="85"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="176" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="84"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="166" t="s">
         <v>449</v>
       </c>
-      <c r="B9" s="113" t="s">
+      <c r="B9" s="112" t="s">
         <v>386</v>
       </c>
-      <c r="C9" s="120"/>
-      <c r="D9" s="113"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="112"/>
       <c r="E9" s="53" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="177"/>
-      <c r="B10" s="119" t="s">
+    <row r="10" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="167"/>
+      <c r="B10" s="118" t="s">
         <v>410</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="113"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="112"/>
       <c r="E10" s="53" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="177"/>
-      <c r="B11" s="119" t="s">
+    <row r="11" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="167"/>
+      <c r="B11" s="118" t="s">
         <v>387</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="113"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="112"/>
       <c r="E11" s="53" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="177"/>
-      <c r="B12" s="119" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="167"/>
+      <c r="B12" s="118" t="s">
         <v>388</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="113"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="53" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="178"/>
-      <c r="B13" s="118" t="s">
+    <row r="13" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="168"/>
+      <c r="B13" s="117" t="s">
         <v>389</v>
       </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="73"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="72"/>
       <c r="E13" s="53" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="115"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="171" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="114"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+    </row>
+    <row r="15" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="161" t="s">
         <v>368</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>356</v>
       </c>
       <c r="C15" s="52"/>
-      <c r="D15" s="113"/>
+      <c r="D15" s="112"/>
       <c r="E15" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="172"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="162"/>
       <c r="B16" s="33" t="s">
         <v>369</v>
       </c>
       <c r="C16" s="52"/>
-      <c r="D16" s="113"/>
+      <c r="D16" s="112"/>
       <c r="E16" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="172"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="162"/>
       <c r="B17" s="33" t="s">
         <v>359</v>
       </c>
       <c r="C17" s="52"/>
-      <c r="D17" s="113"/>
+      <c r="D17" s="112"/>
       <c r="E17" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="172"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="162"/>
       <c r="B18" s="33" t="s">
         <v>360</v>
       </c>
       <c r="C18" s="52"/>
-      <c r="D18" s="113"/>
+      <c r="D18" s="112"/>
       <c r="E18" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="172"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="162"/>
       <c r="B19" s="33" t="s">
         <v>361</v>
       </c>
       <c r="C19" s="52"/>
-      <c r="D19" s="113"/>
+      <c r="D19" s="112"/>
       <c r="E19" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="172"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="162"/>
       <c r="B20" s="33" t="s">
         <v>363</v>
       </c>
       <c r="C20" s="52"/>
-      <c r="D20" s="113"/>
+      <c r="D20" s="112"/>
       <c r="E20" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="172"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="162"/>
       <c r="B21" s="33" t="s">
         <v>362</v>
       </c>
       <c r="C21" s="52"/>
-      <c r="D21" s="113"/>
+      <c r="D21" s="112"/>
       <c r="E21" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="172"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="162"/>
       <c r="B22" s="33" t="s">
         <v>364</v>
       </c>
       <c r="C22" s="52"/>
-      <c r="D22" s="113"/>
+      <c r="D22" s="112"/>
       <c r="E22" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="172"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="162"/>
       <c r="B23" s="33" t="s">
         <v>365</v>
       </c>
       <c r="C23" s="52"/>
-      <c r="D23" s="113"/>
+      <c r="D23" s="112"/>
       <c r="E23" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="172"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="162"/>
       <c r="B24" s="33" t="s">
         <v>366</v>
       </c>
       <c r="C24" s="52"/>
-      <c r="D24" s="113"/>
+      <c r="D24" s="112"/>
       <c r="E24" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="174"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="164"/>
       <c r="B25" s="33" t="s">
         <v>367</v>
       </c>
       <c r="C25" s="52"/>
-      <c r="D25" s="113"/>
+      <c r="D25" s="112"/>
       <c r="E25" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="114"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="171" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="113"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="161" t="s">
         <v>438</v>
       </c>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="72" t="s">
         <v>423</v>
       </c>
       <c r="C27" s="52"/>
-      <c r="D27" s="113"/>
+      <c r="D27" s="112"/>
       <c r="E27" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="172"/>
-      <c r="B28" s="73" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="162"/>
+      <c r="B28" s="72" t="s">
         <v>424</v>
       </c>
       <c r="C28" s="52"/>
-      <c r="D28" s="113"/>
+      <c r="D28" s="112"/>
       <c r="E28" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="172"/>
-      <c r="B29" s="73" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="162"/>
+      <c r="B29" s="72" t="s">
         <v>425</v>
       </c>
       <c r="C29" s="52"/>
-      <c r="D29" s="113"/>
+      <c r="D29" s="112"/>
       <c r="E29" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="172"/>
-      <c r="B30" s="73" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="162"/>
+      <c r="B30" s="72" t="s">
         <v>426</v>
       </c>
       <c r="C30" s="52"/>
-      <c r="D30" s="113"/>
+      <c r="D30" s="112"/>
       <c r="E30" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="172"/>
-      <c r="B31" s="73" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="162"/>
+      <c r="B31" s="72" t="s">
         <v>427</v>
       </c>
       <c r="C31" s="52"/>
-      <c r="D31" s="113"/>
+      <c r="D31" s="112"/>
       <c r="E31" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="172"/>
-      <c r="B32" s="73" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="162"/>
+      <c r="B32" s="72" t="s">
         <v>428</v>
       </c>
       <c r="C32" s="52"/>
-      <c r="D32" s="113"/>
+      <c r="D32" s="112"/>
       <c r="E32" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="172"/>
-      <c r="B33" s="73" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="162"/>
+      <c r="B33" s="72" t="s">
         <v>429</v>
       </c>
       <c r="C33" s="52"/>
-      <c r="D33" s="113"/>
+      <c r="D33" s="112"/>
       <c r="E33" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="172"/>
-      <c r="B34" s="73" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="162"/>
+      <c r="B34" s="72" t="s">
         <v>430</v>
       </c>
       <c r="C34" s="52"/>
-      <c r="D34" s="113"/>
+      <c r="D34" s="112"/>
       <c r="E34" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="172"/>
-      <c r="B35" s="73" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="162"/>
+      <c r="B35" s="72" t="s">
         <v>431</v>
       </c>
       <c r="C35" s="52"/>
-      <c r="D35" s="113"/>
+      <c r="D35" s="112"/>
       <c r="E35" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="172"/>
-      <c r="B36" s="73" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="162"/>
+      <c r="B36" s="72" t="s">
         <v>432</v>
       </c>
       <c r="C36" s="52"/>
-      <c r="D36" s="113"/>
+      <c r="D36" s="112"/>
       <c r="E36" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="172"/>
-      <c r="B37" s="73" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="162"/>
+      <c r="B37" s="72" t="s">
         <v>433</v>
       </c>
       <c r="C37" s="52"/>
-      <c r="D37" s="113"/>
+      <c r="D37" s="112"/>
       <c r="E37" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="172"/>
-      <c r="B38" s="73" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="162"/>
+      <c r="B38" s="72" t="s">
         <v>434</v>
       </c>
       <c r="C38" s="52"/>
-      <c r="D38" s="113"/>
+      <c r="D38" s="112"/>
       <c r="E38" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="172"/>
-      <c r="B39" s="73" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="162"/>
+      <c r="B39" s="72" t="s">
         <v>435</v>
       </c>
       <c r="C39" s="52"/>
-      <c r="D39" s="113"/>
+      <c r="D39" s="112"/>
       <c r="E39" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="172"/>
-      <c r="B40" s="73" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="162"/>
+      <c r="B40" s="72" t="s">
         <v>436</v>
       </c>
       <c r="C40" s="52"/>
-      <c r="D40" s="113"/>
+      <c r="D40" s="112"/>
       <c r="E40" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="174"/>
-      <c r="B41" s="73" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="164"/>
+      <c r="B41" s="72" t="s">
         <v>437</v>
       </c>
       <c r="C41" s="52"/>
-      <c r="D41" s="113"/>
+      <c r="D41" s="112"/>
       <c r="E41" s="26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="114"/>
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="114"/>
-    </row>
-    <row r="43" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="167" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="113"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="113"/>
+    </row>
+    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="157" t="s">
         <v>370</v>
       </c>
-      <c r="B43" s="73"/>
+      <c r="B43" s="72" t="s">
+        <v>450</v>
+      </c>
       <c r="C43" s="52"/>
-      <c r="D43" s="73"/>
+      <c r="D43" s="72"/>
       <c r="E43" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="168"/>
-      <c r="B44" s="73"/>
+    <row r="44" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="158"/>
+      <c r="B44" s="72" t="s">
+        <v>451</v>
+      </c>
       <c r="C44" s="52"/>
-      <c r="D44" s="73"/>
+      <c r="D44" s="72"/>
       <c r="E44" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="168"/>
-      <c r="B45" s="73"/>
+    <row r="45" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="158"/>
+      <c r="B45" s="72" t="s">
+        <v>452</v>
+      </c>
       <c r="C45" s="52"/>
-      <c r="D45" s="73"/>
+      <c r="D45" s="72"/>
       <c r="E45" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="168"/>
-      <c r="B46" s="73"/>
+    <row r="46" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="158"/>
+      <c r="B46" s="72" t="s">
+        <v>453</v>
+      </c>
       <c r="C46" s="52"/>
-      <c r="D46" s="73"/>
+      <c r="D46" s="72"/>
       <c r="E46" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="168"/>
-      <c r="B47" s="73"/>
+    <row r="47" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="158"/>
+      <c r="B47" s="72" t="s">
+        <v>454</v>
+      </c>
       <c r="C47" s="52"/>
-      <c r="D47" s="73"/>
+      <c r="D47" s="72"/>
       <c r="E47" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="168"/>
-      <c r="B48" s="73"/>
+    <row r="48" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="158"/>
+      <c r="B48" s="72" t="s">
+        <v>455</v>
+      </c>
       <c r="C48" s="52"/>
-      <c r="D48" s="73"/>
+      <c r="D48" s="72"/>
       <c r="E48" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="168"/>
-      <c r="B49" s="73"/>
+    <row r="49" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="158"/>
+      <c r="B49" s="72" t="s">
+        <v>456</v>
+      </c>
       <c r="C49" s="52"/>
-      <c r="D49" s="73"/>
+      <c r="D49" s="72"/>
       <c r="E49" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="168"/>
-      <c r="B50" s="73"/>
+    <row r="50" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="158"/>
+      <c r="B50" s="72" t="s">
+        <v>458</v>
+      </c>
       <c r="C50" s="52"/>
-      <c r="D50" s="73"/>
+      <c r="D50" s="72"/>
       <c r="E50" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="168"/>
-      <c r="B51" s="73"/>
+    <row r="51" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="159"/>
+      <c r="B51" s="72" t="s">
+        <v>457</v>
+      </c>
       <c r="C51" s="52"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="168"/>
-      <c r="B52" s="73"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="168"/>
-      <c r="B53" s="73"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="113"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="113"/>
+    </row>
+    <row r="53" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="157" t="s">
+        <v>459</v>
+      </c>
+      <c r="B53" s="72" t="s">
+        <v>461</v>
+      </c>
       <c r="C53" s="52"/>
-      <c r="D53" s="73"/>
+      <c r="D53" s="72"/>
       <c r="E53" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="168"/>
-      <c r="B54" s="73"/>
+    <row r="54" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="158"/>
+      <c r="B54" s="72" t="s">
+        <v>460</v>
+      </c>
       <c r="C54" s="52"/>
-      <c r="D54" s="73"/>
+      <c r="D54" s="72"/>
       <c r="E54" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="168"/>
-      <c r="B55" s="73"/>
+    <row r="55" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="158"/>
+      <c r="B55" s="72" t="s">
+        <v>462</v>
+      </c>
       <c r="C55" s="52"/>
-      <c r="D55" s="73"/>
+      <c r="D55" s="72"/>
       <c r="E55" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="168"/>
-      <c r="B56" s="73"/>
+    <row r="56" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="158"/>
+      <c r="B56" s="72" t="s">
+        <v>463</v>
+      </c>
       <c r="C56" s="52"/>
-      <c r="D56" s="73"/>
+      <c r="D56" s="72"/>
       <c r="E56" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="168"/>
-      <c r="B57" s="73"/>
+    <row r="57" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="158"/>
+      <c r="B57" s="72" t="s">
+        <v>464</v>
+      </c>
       <c r="C57" s="52"/>
-      <c r="D57" s="73"/>
+      <c r="D57" s="72"/>
       <c r="E57" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="168"/>
-      <c r="B58" s="73"/>
+    <row r="58" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="158"/>
+      <c r="B58" s="72" t="s">
+        <v>465</v>
+      </c>
       <c r="C58" s="52"/>
-      <c r="D58" s="73"/>
+      <c r="D58" s="72"/>
       <c r="E58" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="168"/>
-      <c r="B59" s="73"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="168"/>
-      <c r="B60" s="73"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="168"/>
-      <c r="B61" s="73"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="175"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="117"/>
-      <c r="D62" s="116"/>
-      <c r="E62" s="38" t="s">
+    <row r="59" spans="1:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="165"/>
+      <c r="B59" s="115" t="s">
+        <v>466</v>
+      </c>
+      <c r="C59" s="116"/>
+      <c r="D59" s="115"/>
+      <c r="E59" s="38" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A15:A25"/>
-    <mergeCell ref="A43:A62"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A27:A41"/>
+    <mergeCell ref="A43:A51"/>
+    <mergeCell ref="A53:A59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Documents/Scrum/Sprint_backlog.xlsx
+++ b/Documents/Scrum/Sprint_backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EDCF68-4090-4071-BC0B-60773A643B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C20C1C7-1C58-4452-9B70-43812C465A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="8" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="9" xr2:uid="{BBA08FA1-3D47-4FFE-8A0F-E0679BA05BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint_0." sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="466">
   <si>
     <t>STORY</t>
   </si>
@@ -3241,10 +3241,6 @@
     <t>Enlever les redondances dans les tags actifs</t>
   </si>
   <si>
-    <t>Transformer les données longitude et latiture avec 
-un "." et pas de ","</t>
-  </si>
-  <si>
     <t xml:space="preserve">Faire la mise en forme pour la description et sélection des tags </t>
   </si>
   <si>
@@ -3254,9 +3250,6 @@
     <t xml:space="preserve">Enlever les " " dans l'en-tête </t>
   </si>
   <si>
-    <t xml:space="preserve">Afficher la carte uniqument avec des lieux </t>
-  </si>
-  <si>
     <t xml:space="preserve">Mise en page de la description + ajouter photos  dans la balise du lieux </t>
   </si>
   <si>
@@ -3276,9 +3269,6 @@
   </si>
   <si>
     <t>Pour tags favoris faire dynamiquement avec la BDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajouter le lien pour mot de passe oublié </t>
   </si>
   <si>
     <t>Gestion de matériel : est-ce que l'Id est importamnt ?</t>
@@ -3526,6 +3516,12 @@
   </si>
   <si>
     <t>Créer la méthode List&lt;Activity&gt; GetActivities(Project p)</t>
+  </si>
+  <si>
+    <t>Transformer les données longitude et latitude avec un "." et pas de ","</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afficher la carte uniquement avec des lieux </t>
   </si>
 </sst>
 </file>
@@ -4111,7 +4107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -4300,7 +4296,6 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4527,9 +4522,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4537,6 +4529,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4873,13 +4868,13 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="80.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.6328125" customWidth="1"/>
+    <col min="2" max="2" width="80.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4896,8 +4891,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="138" t="s">
+    <row r="2" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="137" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -4910,8 +4905,8 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="139"/>
+    <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="138"/>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
@@ -4922,8 +4917,8 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="139"/>
+    <row r="4" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="138"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
@@ -4934,8 +4929,8 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="139"/>
+    <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="138"/>
       <c r="B5" s="2" t="s">
         <v>259</v>
       </c>
@@ -4946,8 +4941,8 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="139"/>
+    <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="138"/>
       <c r="B6" s="2" t="s">
         <v>260</v>
       </c>
@@ -4958,8 +4953,8 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="139"/>
+    <row r="7" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="138"/>
       <c r="B7" s="2" t="s">
         <v>257</v>
       </c>
@@ -4970,8 +4965,8 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="139"/>
+    <row r="8" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="138"/>
       <c r="B8" s="2" t="s">
         <v>256</v>
       </c>
@@ -4982,8 +4977,8 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="140"/>
+    <row r="9" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="139"/>
       <c r="B9" s="2" t="s">
         <v>258</v>
       </c>
@@ -4992,7 +4987,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="60"/>
       <c r="B10" s="61"/>
       <c r="C10" s="60"/>
@@ -5000,8 +4995,8 @@
       <c r="E10" s="60"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="136" t="s">
+    <row r="11" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="135" t="s">
         <v>261</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -5014,8 +5009,8 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="136"/>
+    <row r="12" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="135"/>
       <c r="B12" s="2" t="s">
         <v>264</v>
       </c>
@@ -5026,8 +5021,8 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="136"/>
+    <row r="13" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="135"/>
       <c r="B13" s="12" t="s">
         <v>263</v>
       </c>
@@ -5038,8 +5033,8 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="136"/>
+    <row r="14" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="135"/>
       <c r="B14" s="12" t="s">
         <v>265</v>
       </c>
@@ -5050,8 +5045,8 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="136"/>
+    <row r="15" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="135"/>
       <c r="B15" s="12" t="s">
         <v>266</v>
       </c>
@@ -5062,8 +5057,8 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="136"/>
+    <row r="16" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="135"/>
       <c r="B16" s="12" t="s">
         <v>267</v>
       </c>
@@ -5074,8 +5069,8 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="136"/>
+    <row r="17" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="135"/>
       <c r="B17" s="12" t="s">
         <v>268</v>
       </c>
@@ -5086,8 +5081,8 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="136"/>
+    <row r="18" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="135"/>
       <c r="B18" s="12" t="s">
         <v>269</v>
       </c>
@@ -5098,8 +5093,8 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="136"/>
+    <row r="19" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="135"/>
       <c r="B19" s="12" t="s">
         <v>270</v>
       </c>
@@ -5110,8 +5105,8 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="136"/>
+    <row r="20" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="135"/>
       <c r="B20" s="12" t="s">
         <v>271</v>
       </c>
@@ -5122,16 +5117,16 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="60"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="90"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="89"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="135" t="s">
+    <row r="22" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="134" t="s">
         <v>272</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -5144,8 +5139,8 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="136"/>
+    <row r="23" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="135"/>
       <c r="B23" s="12" t="s">
         <v>274</v>
       </c>
@@ -5156,8 +5151,8 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="136"/>
+    <row r="24" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="135"/>
       <c r="B24" s="12" t="s">
         <v>275</v>
       </c>
@@ -5168,8 +5163,8 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="136"/>
+    <row r="25" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="135"/>
       <c r="B25" s="12" t="s">
         <v>276</v>
       </c>
@@ -5180,8 +5175,8 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="136"/>
+    <row r="26" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="135"/>
       <c r="B26" s="12" t="s">
         <v>277</v>
       </c>
@@ -5192,8 +5187,8 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="141"/>
+    <row r="27" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="140"/>
       <c r="B27" s="12" t="s">
         <v>278</v>
       </c>
@@ -5204,16 +5199,16 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="60"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="90"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="89"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="135" t="s">
+    <row r="29" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="134" t="s">
         <v>251</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -5225,8 +5220,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="136"/>
+    <row r="30" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="135"/>
       <c r="B30" s="2" t="s">
         <v>253</v>
       </c>
@@ -5236,8 +5231,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="136"/>
+    <row r="31" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="135"/>
       <c r="B31" s="2" t="s">
         <v>254</v>
       </c>
@@ -5248,8 +5243,8 @@
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="136"/>
+    <row r="32" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="135"/>
       <c r="B32" s="2" t="s">
         <v>255</v>
       </c>
@@ -5260,8 +5255,8 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="136"/>
+    <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="135"/>
       <c r="B33" s="2" t="s">
         <v>13</v>
       </c>
@@ -5271,8 +5266,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="136"/>
+    <row r="34" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="135"/>
       <c r="B34" s="2" t="s">
         <v>14</v>
       </c>
@@ -5282,8 +5277,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="136"/>
+    <row r="35" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="135"/>
       <c r="B35" s="2" t="s">
         <v>15</v>
       </c>
@@ -5293,8 +5288,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="136"/>
+    <row r="36" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="135"/>
       <c r="B36" s="51" t="s">
         <v>158</v>
       </c>
@@ -5304,8 +5299,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="136"/>
+    <row r="37" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="135"/>
       <c r="B37" s="51" t="s">
         <v>159</v>
       </c>
@@ -5315,8 +5310,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="137"/>
+    <row r="38" spans="1:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="136"/>
       <c r="B38" s="4" t="s">
         <v>293</v>
       </c>
@@ -5340,37 +5335,37 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4275C1D2-30DB-4753-AC86-1CDFAF13FAD3}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="88.88671875" customWidth="1"/>
+    <col min="1" max="1" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="100" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="147" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="146" t="s">
         <v>357</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -5382,8 +5377,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="143"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="142"/>
       <c r="B3" s="33" t="s">
         <v>358</v>
       </c>
@@ -5393,8 +5388,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="143"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="142"/>
       <c r="B4" s="33" t="s">
         <v>359</v>
       </c>
@@ -5404,8 +5399,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="143"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="142"/>
       <c r="B5" s="33" t="s">
         <v>360</v>
       </c>
@@ -5415,8 +5410,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="143"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="142"/>
       <c r="B6" s="33" t="s">
         <v>361</v>
       </c>
@@ -5426,8 +5421,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="143"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="142"/>
       <c r="B7" s="33" t="s">
         <v>363</v>
       </c>
@@ -5437,8 +5432,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="143"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="142"/>
       <c r="B8" s="33" t="s">
         <v>362</v>
       </c>
@@ -5448,8 +5443,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="143"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="142"/>
       <c r="B9" s="33" t="s">
         <v>364</v>
       </c>
@@ -5459,8 +5454,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="143"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="142"/>
       <c r="B10" s="33" t="s">
         <v>365</v>
       </c>
@@ -5470,8 +5465,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="143"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="142"/>
       <c r="B11" s="33" t="s">
         <v>366</v>
       </c>
@@ -5481,8 +5476,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="143"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="142"/>
       <c r="B12" s="33" t="s">
         <v>367</v>
       </c>
@@ -5492,19 +5487,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="102"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="105"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="135" t="s">
-        <v>447</v>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="101"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="104"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="134" t="s">
+        <v>444</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="2"/>
@@ -5512,10 +5507,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="145"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="144"/>
       <c r="B15" s="12" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="2"/>
@@ -5523,10 +5518,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="145"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="144"/>
       <c r="B16" s="12" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="51"/>
@@ -5534,10 +5529,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="145"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="144"/>
       <c r="B17" s="12" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="51"/>
@@ -5545,10 +5540,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="145"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="144"/>
       <c r="B18" s="54" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="51"/>
@@ -5556,10 +5551,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="145"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="144"/>
       <c r="B19" s="54" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C19" s="42"/>
       <c r="D19" s="51"/>
@@ -5567,10 +5562,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="145"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="144"/>
       <c r="B20" s="54" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="51"/>
@@ -5578,10 +5573,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="145"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="144"/>
       <c r="B21" s="54" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C21" s="42"/>
       <c r="D21" s="51"/>
@@ -5589,19 +5584,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="102"/>
-      <c r="B22" s="103"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="105"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="157" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="101"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="104"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="156" t="s">
         <v>333</v>
       </c>
       <c r="B23" s="72" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C23" s="52"/>
       <c r="D23" s="72"/>
@@ -5609,10 +5604,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="158"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="157"/>
       <c r="B24" s="72" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C24" s="52"/>
       <c r="D24" s="72"/>
@@ -5620,10 +5615,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="158"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="157"/>
       <c r="B25" s="72" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C25" s="52"/>
       <c r="D25" s="72"/>
@@ -5631,10 +5626,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="158"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="157"/>
       <c r="B26" s="72" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C26" s="52"/>
       <c r="D26" s="72"/>
@@ -5642,10 +5637,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="158"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="157"/>
       <c r="B27" s="72" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C27" s="52"/>
       <c r="D27" s="72"/>
@@ -5653,10 +5648,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="158"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="157"/>
       <c r="B28" s="72" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C28" s="52"/>
       <c r="D28" s="72"/>
@@ -5664,10 +5659,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="158"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="157"/>
       <c r="B29" s="72" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C29" s="52"/>
       <c r="D29" s="72"/>
@@ -5675,10 +5670,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="158"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="157"/>
       <c r="B30" s="72" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C30" s="52"/>
       <c r="D30" s="72"/>
@@ -5686,10 +5681,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="158"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="157"/>
       <c r="B31" s="72" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C31" s="52"/>
       <c r="D31" s="72"/>
@@ -5697,10 +5692,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="158"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="157"/>
       <c r="B32" s="72" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C32" s="52"/>
       <c r="D32" s="72"/>
@@ -5708,10 +5703,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="158"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="157"/>
       <c r="B33" s="72" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C33" s="52"/>
       <c r="D33" s="72"/>
@@ -5719,10 +5714,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="158"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="157"/>
       <c r="B34" s="72" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C34" s="52"/>
       <c r="D34" s="72"/>
@@ -5730,10 +5725,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="158"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="157"/>
       <c r="B35" s="72" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C35" s="52"/>
       <c r="D35" s="72"/>
@@ -5741,10 +5736,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="158"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="157"/>
       <c r="B36" s="72" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C36" s="52"/>
       <c r="D36" s="72"/>
@@ -5752,10 +5747,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="158"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="157"/>
       <c r="B37" s="72" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C37" s="52"/>
       <c r="D37" s="72"/>
@@ -5763,10 +5758,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="158"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="157"/>
       <c r="B38" s="72" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C38" s="52"/>
       <c r="D38" s="72"/>
@@ -5774,10 +5769,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="158"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="157"/>
       <c r="B39" s="72" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C39" s="52"/>
       <c r="D39" s="72"/>
@@ -5785,10 +5780,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="158"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="157"/>
       <c r="B40" s="72" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C40" s="52"/>
       <c r="D40" s="72"/>
@@ -5796,10 +5791,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="158"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="157"/>
       <c r="B41" s="72" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C41" s="52"/>
       <c r="D41" s="72"/>
@@ -5807,10 +5802,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="159"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="158"/>
       <c r="B42" s="33" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C42" s="52"/>
       <c r="D42" s="72"/>
@@ -5818,19 +5813,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="102"/>
-      <c r="B43" s="120"/>
-      <c r="C43" s="104"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="105"/>
-    </row>
-    <row r="44" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="161" t="s">
-        <v>422</v>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="101"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="104"/>
+    </row>
+    <row r="44" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="160" t="s">
+        <v>419</v>
       </c>
       <c r="B44" s="72" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C44" s="52"/>
       <c r="D44" s="72"/>
@@ -5838,10 +5833,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="162"/>
+    <row r="45" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="161"/>
       <c r="B45" s="72" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C45" s="52"/>
       <c r="D45" s="72"/>
@@ -5849,10 +5844,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="162"/>
+    <row r="46" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="161"/>
       <c r="B46" s="72" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C46" s="52"/>
       <c r="D46" s="72"/>
@@ -5860,10 +5855,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="162"/>
+    <row r="47" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="161"/>
       <c r="B47" s="72" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C47" s="52"/>
       <c r="D47" s="72"/>
@@ -5871,10 +5866,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="162"/>
+    <row r="48" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="161"/>
       <c r="B48" s="72" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C48" s="52"/>
       <c r="D48" s="72"/>
@@ -5882,10 +5877,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="162"/>
+    <row r="49" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="161"/>
       <c r="B49" s="72" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C49" s="52"/>
       <c r="D49" s="72"/>
@@ -5893,10 +5888,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="162"/>
+    <row r="50" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="161"/>
       <c r="B50" s="72" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C50" s="52"/>
       <c r="D50" s="72"/>
@@ -5904,10 +5899,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="162"/>
+    <row r="51" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="161"/>
       <c r="B51" s="72" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C51" s="52"/>
       <c r="D51" s="72"/>
@@ -5915,10 +5910,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="162"/>
+    <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="161"/>
       <c r="B52" s="72" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C52" s="52"/>
       <c r="D52" s="72"/>
@@ -5926,10 +5921,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="162"/>
+    <row r="53" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="161"/>
       <c r="B53" s="72" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C53" s="52"/>
       <c r="D53" s="72"/>
@@ -5937,10 +5932,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="164"/>
+    <row r="54" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="163"/>
       <c r="B54" s="72" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C54" s="52"/>
       <c r="D54" s="72"/>
@@ -5948,16 +5943,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="102"/>
-      <c r="B55" s="103"/>
-      <c r="C55" s="104"/>
-      <c r="D55" s="103"/>
-      <c r="E55" s="105"/>
-    </row>
-    <row r="56" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="161" t="s">
-        <v>379</v>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="101"/>
+      <c r="B55" s="102"/>
+      <c r="C55" s="103"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="104"/>
+    </row>
+    <row r="56" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="160" t="s">
+        <v>377</v>
       </c>
       <c r="B56" s="72" t="s">
         <v>371</v>
@@ -5968,166 +5963,155 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="162"/>
+    <row r="57" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="161"/>
       <c r="B57" s="72" t="s">
         <v>372</v>
       </c>
-      <c r="C57" s="52" t="s">
-        <v>9</v>
-      </c>
+      <c r="C57" s="52"/>
       <c r="D57" s="72"/>
-      <c r="E57" s="76"/>
-    </row>
-    <row r="58" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="162"/>
-      <c r="B58" s="117" t="s">
+      <c r="E57" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="161"/>
+      <c r="B58" s="116" t="s">
+        <v>464</v>
+      </c>
+      <c r="C58" s="52"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="161"/>
+      <c r="B59" s="116" t="s">
         <v>373</v>
       </c>
-      <c r="C58" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="72"/>
-      <c r="E58" s="76"/>
-    </row>
-    <row r="59" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="162"/>
-      <c r="B59" s="117" t="s">
+      <c r="C59" s="52"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="161"/>
+      <c r="B60" s="116" t="s">
         <v>374</v>
       </c>
-      <c r="C59" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="72"/>
-      <c r="E59" s="76"/>
-    </row>
-    <row r="60" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="162"/>
-      <c r="B60" s="117" t="s">
+      <c r="C60" s="52"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="161"/>
+      <c r="B61" s="116" t="s">
         <v>375</v>
       </c>
-      <c r="C60" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="72"/>
-      <c r="E60" s="76"/>
-    </row>
-    <row r="61" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="162"/>
-      <c r="B61" s="117" t="s">
+      <c r="C61" s="52"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="161"/>
+      <c r="B62" s="116" t="s">
         <v>376</v>
       </c>
-      <c r="C61" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="72"/>
-      <c r="E61" s="76"/>
-    </row>
-    <row r="62" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="162"/>
-      <c r="B62" s="117" t="s">
+      <c r="C62" s="52"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="161"/>
+      <c r="B63" s="116" t="s">
+        <v>465</v>
+      </c>
+      <c r="C63" s="52"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="161"/>
+      <c r="B64" s="116" t="s">
+        <v>379</v>
+      </c>
+      <c r="C64" s="52"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="161"/>
+      <c r="B65" s="116" t="s">
+        <v>380</v>
+      </c>
+      <c r="C65" s="52"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="161"/>
+      <c r="B66" s="116" t="s">
+        <v>381</v>
+      </c>
+      <c r="C66" s="52"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="161"/>
+      <c r="B67" s="116" t="s">
+        <v>382</v>
+      </c>
+      <c r="C67" s="52"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="161"/>
+      <c r="B68" s="116" t="s">
+        <v>445</v>
+      </c>
+      <c r="C68" s="52"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="163"/>
+      <c r="B69" s="116" t="s">
         <v>378</v>
       </c>
-      <c r="C62" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="72"/>
-      <c r="E62" s="76"/>
-    </row>
-    <row r="63" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="162"/>
-      <c r="B63" s="117" t="s">
-        <v>377</v>
-      </c>
-      <c r="C63" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="72"/>
-      <c r="E63" s="76"/>
-    </row>
-    <row r="64" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="162"/>
-      <c r="B64" s="117" t="s">
-        <v>381</v>
-      </c>
-      <c r="C64" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="72"/>
-      <c r="E64" s="76"/>
-    </row>
-    <row r="65" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="162"/>
-      <c r="B65" s="117" t="s">
-        <v>382</v>
-      </c>
-      <c r="C65" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="72"/>
-      <c r="E65" s="76"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="162"/>
-      <c r="B66" s="117" t="s">
-        <v>383</v>
-      </c>
-      <c r="C66" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="72"/>
-      <c r="E66" s="76"/>
-    </row>
-    <row r="67" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="162"/>
-      <c r="B67" s="117" t="s">
-        <v>384</v>
-      </c>
-      <c r="C67" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="72"/>
-      <c r="E67" s="76"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="162"/>
-      <c r="B68" s="117" t="s">
-        <v>448</v>
-      </c>
-      <c r="C68" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="72"/>
-      <c r="E68" s="76"/>
-    </row>
-    <row r="69" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="162"/>
-      <c r="B69" s="117" t="s">
-        <v>385</v>
-      </c>
-      <c r="C69" s="52" t="s">
-        <v>9</v>
-      </c>
+      <c r="C69" s="52"/>
       <c r="D69" s="72"/>
-      <c r="E69" s="76"/>
-    </row>
-    <row r="70" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="164"/>
-      <c r="B70" s="117" t="s">
-        <v>380</v>
-      </c>
-      <c r="C70" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="72"/>
-      <c r="E70" s="76"/>
-    </row>
-    <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="116"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="5"/>
+      <c r="E69" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="115"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6135,7 +6119,7 @@
     <mergeCell ref="A14:A21"/>
     <mergeCell ref="A23:A42"/>
     <mergeCell ref="A44:A54"/>
-    <mergeCell ref="A56:A70"/>
+    <mergeCell ref="A56:A69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6150,32 +6134,32 @@
       <selection activeCell="A20" sqref="A20:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6328125" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="129" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="130" t="s">
+      <c r="C1" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="130" t="s">
+      <c r="D1" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="131" t="s">
+      <c r="E1" s="130" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="142" t="s">
+    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="141" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -6188,8 +6172,8 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="143"/>
+    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="142"/>
       <c r="B3" s="12" t="s">
         <v>162</v>
       </c>
@@ -6200,8 +6184,8 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="143"/>
+    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="142"/>
       <c r="B4" s="12" t="s">
         <v>280</v>
       </c>
@@ -6212,8 +6196,8 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="143"/>
+    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="142"/>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -6223,8 +6207,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="143"/>
+    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="142"/>
       <c r="B6" s="12" t="s">
         <v>161</v>
       </c>
@@ -6235,8 +6219,8 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="143"/>
+    <row r="7" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="142"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -6246,8 +6230,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="143"/>
+    <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="142"/>
       <c r="B8" s="12" t="s">
         <v>156</v>
       </c>
@@ -6257,8 +6241,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="143"/>
+    <row r="9" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="142"/>
       <c r="B9" s="12" t="s">
         <v>281</v>
       </c>
@@ -6268,8 +6252,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="143"/>
+    <row r="10" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="142"/>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -6279,8 +6263,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="143"/>
+    <row r="11" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="142"/>
       <c r="B11" s="12" t="s">
         <v>155</v>
       </c>
@@ -6290,8 +6274,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="143"/>
+    <row r="12" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="142"/>
       <c r="B12" s="12" t="s">
         <v>154</v>
       </c>
@@ -6301,8 +6285,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="144"/>
+    <row r="13" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="143"/>
       <c r="B13" s="12" t="s">
         <v>160</v>
       </c>
@@ -6312,15 +6296,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="132"/>
-      <c r="B14" s="133"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="134"/>
-    </row>
-    <row r="15" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="147" t="s">
+    <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="131"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="133"/>
+    </row>
+    <row r="15" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="146" t="s">
         <v>282</v>
       </c>
       <c r="B15" s="33" t="s">
@@ -6332,8 +6316,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="148"/>
+    <row r="16" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="147"/>
       <c r="B16" s="33" t="s">
         <v>288</v>
       </c>
@@ -6343,8 +6327,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="148"/>
+    <row r="17" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="147"/>
       <c r="B17" s="33" t="s">
         <v>289</v>
       </c>
@@ -6354,8 +6338,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="148"/>
+    <row r="18" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="147"/>
       <c r="B18" s="33" t="s">
         <v>290</v>
       </c>
@@ -6365,8 +6349,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="149"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="148"/>
       <c r="B19" s="12" t="s">
         <v>292</v>
       </c>
@@ -6376,15 +6360,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="132"/>
-      <c r="B20" s="133"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="134"/>
-    </row>
-    <row r="21" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="135" t="s">
+    <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="131"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="133"/>
+    </row>
+    <row r="21" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="134" t="s">
         <v>294</v>
       </c>
       <c r="B21" s="65" t="s">
@@ -6396,8 +6380,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="136"/>
+    <row r="22" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="135"/>
       <c r="B22" s="65" t="s">
         <v>285</v>
       </c>
@@ -6407,8 +6391,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="145"/>
+    <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="144"/>
       <c r="B23" s="65" t="s">
         <v>286</v>
       </c>
@@ -6418,8 +6402,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="145"/>
+    <row r="24" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="144"/>
       <c r="B24" s="65" t="s">
         <v>287</v>
       </c>
@@ -6429,25 +6413,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="145"/>
+    <row r="25" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="144"/>
       <c r="B25" s="65" t="s">
         <v>283</v>
       </c>
       <c r="C25" s="65"/>
-      <c r="D25" s="91"/>
+      <c r="D25" s="90"/>
       <c r="E25" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="146"/>
+    <row r="26" spans="1:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="145"/>
       <c r="B26" s="67" t="s">
         <v>284</v>
       </c>
       <c r="C26" s="67"/>
       <c r="D26" s="67"/>
-      <c r="E26" s="92" t="s">
+      <c r="E26" s="91" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6471,14 +6455,14 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6495,8 +6479,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="135" t="s">
+    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="134" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="57" t="s">
@@ -6509,8 +6493,8 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="136"/>
+    <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="135"/>
       <c r="B3" s="57" t="s">
         <v>80</v>
       </c>
@@ -6521,8 +6505,8 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="136"/>
+    <row r="4" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="135"/>
       <c r="B4" s="57" t="s">
         <v>94</v>
       </c>
@@ -6533,8 +6517,8 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="136"/>
+    <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="135"/>
       <c r="B5" s="57" t="s">
         <v>81</v>
       </c>
@@ -6545,8 +6529,8 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="136"/>
+    <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="135"/>
       <c r="B6" s="57" t="s">
         <v>95</v>
       </c>
@@ -6557,8 +6541,8 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="136"/>
+    <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="135"/>
       <c r="B7" s="57" t="s">
         <v>83</v>
       </c>
@@ -6569,8 +6553,8 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="136"/>
+    <row r="8" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="135"/>
       <c r="B8" s="57" t="s">
         <v>163</v>
       </c>
@@ -6581,8 +6565,8 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="136"/>
+    <row r="9" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="135"/>
       <c r="B9" s="57" t="s">
         <v>82</v>
       </c>
@@ -6593,8 +6577,8 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="136"/>
+    <row r="10" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="135"/>
       <c r="B10" s="57" t="s">
         <v>84</v>
       </c>
@@ -6605,8 +6589,8 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="136"/>
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="135"/>
       <c r="B11" s="57" t="s">
         <v>164</v>
       </c>
@@ -6617,8 +6601,8 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="136"/>
+    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="135"/>
       <c r="B12" s="57" t="s">
         <v>165</v>
       </c>
@@ -6629,8 +6613,8 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="136"/>
+    <row r="13" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="135"/>
       <c r="B13" s="57" t="s">
         <v>85</v>
       </c>
@@ -6641,8 +6625,8 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="136"/>
+    <row r="14" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="135"/>
       <c r="B14" s="57" t="s">
         <v>166</v>
       </c>
@@ -6653,8 +6637,8 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="136"/>
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="135"/>
       <c r="B15" s="57" t="s">
         <v>87</v>
       </c>
@@ -6665,8 +6649,8 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="136"/>
+    <row r="16" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="135"/>
       <c r="B16" s="57" t="s">
         <v>88</v>
       </c>
@@ -6677,8 +6661,8 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="136"/>
+    <row r="17" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="135"/>
       <c r="B17" s="57" t="s">
         <v>91</v>
       </c>
@@ -6689,8 +6673,8 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="136"/>
+    <row r="18" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="135"/>
       <c r="B18" s="57" t="s">
         <v>90</v>
       </c>
@@ -6701,8 +6685,8 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="136"/>
+    <row r="19" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="135"/>
       <c r="B19" s="57" t="s">
         <v>89</v>
       </c>
@@ -6713,8 +6697,8 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="136"/>
+    <row r="20" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="135"/>
       <c r="B20" s="57" t="s">
         <v>92</v>
       </c>
@@ -6725,8 +6709,8 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="141"/>
+    <row r="21" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="140"/>
       <c r="B21" s="57" t="s">
         <v>93</v>
       </c>
@@ -6737,7 +6721,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="27"/>
       <c r="B22" s="28"/>
       <c r="C22" s="29"/>
@@ -6745,8 +6729,8 @@
       <c r="E22" s="31"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="150" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="149" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="33" t="s">
@@ -6759,8 +6743,8 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="145"/>
+    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="144"/>
       <c r="B24" s="12" t="s">
         <v>143</v>
       </c>
@@ -6771,8 +6755,8 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="145"/>
+    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="144"/>
       <c r="B25" s="12" t="s">
         <v>142</v>
       </c>
@@ -6783,8 +6767,8 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="145"/>
+    <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="144"/>
       <c r="B26" s="12" t="s">
         <v>141</v>
       </c>
@@ -6795,8 +6779,8 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="145"/>
+    <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="144"/>
       <c r="B27" s="58" t="s">
         <v>140</v>
       </c>
@@ -6807,8 +6791,8 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="145"/>
+    <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="144"/>
       <c r="B28" s="12" t="s">
         <v>153</v>
       </c>
@@ -6819,8 +6803,8 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="145"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="144"/>
       <c r="B29" s="12" t="s">
         <v>144</v>
       </c>
@@ -6831,8 +6815,8 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="145"/>
+    <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="144"/>
       <c r="B30" s="12" t="s">
         <v>145</v>
       </c>
@@ -6843,8 +6827,8 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="145"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="144"/>
       <c r="B31" s="2" t="s">
         <v>133</v>
       </c>
@@ -6855,8 +6839,8 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="145"/>
+    <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="144"/>
       <c r="B32" s="12" t="s">
         <v>146</v>
       </c>
@@ -6867,8 +6851,8 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="145"/>
+    <row r="33" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="144"/>
       <c r="B33" s="58" t="s">
         <v>147</v>
       </c>
@@ -6879,8 +6863,8 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="145"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="144"/>
       <c r="B34" s="33" t="s">
         <v>134</v>
       </c>
@@ -6891,8 +6875,8 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="145"/>
+    <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="144"/>
       <c r="B35" s="59" t="s">
         <v>148</v>
       </c>
@@ -6903,8 +6887,8 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="145"/>
+    <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="144"/>
       <c r="B36" s="58" t="s">
         <v>149</v>
       </c>
@@ -6915,8 +6899,8 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="145"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="144"/>
       <c r="B37" s="36" t="s">
         <v>135</v>
       </c>
@@ -6927,8 +6911,8 @@
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="145"/>
+    <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="144"/>
       <c r="B38" s="58" t="s">
         <v>150</v>
       </c>
@@ -6939,8 +6923,8 @@
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="145"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="144"/>
       <c r="B39" s="33" t="s">
         <v>136</v>
       </c>
@@ -6951,8 +6935,8 @@
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="145"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="144"/>
       <c r="B40" s="33" t="s">
         <v>137</v>
       </c>
@@ -6963,8 +6947,8 @@
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="145"/>
+    <row r="41" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="144"/>
       <c r="B41" s="58" t="s">
         <v>152</v>
       </c>
@@ -6975,8 +6959,8 @@
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="145"/>
+    <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="144"/>
       <c r="B42" s="58" t="s">
         <v>151</v>
       </c>
@@ -6987,8 +6971,8 @@
       </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="151"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="150"/>
       <c r="B43" s="33" t="s">
         <v>138</v>
       </c>
@@ -6999,7 +6983,7 @@
       </c>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="32"/>
       <c r="B44" s="32"/>
       <c r="C44" s="29"/>
@@ -7007,8 +6991,8 @@
       <c r="E44" s="31"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="135" t="s">
+    <row r="45" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="134" t="s">
         <v>295</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -7021,8 +7005,8 @@
       </c>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="146"/>
+    <row r="46" spans="1:6" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="145"/>
       <c r="B46" s="4" t="s">
         <v>18</v>
       </c>
@@ -7033,14 +7017,14 @@
       </c>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -7067,14 +7051,14 @@
       <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -7091,8 +7075,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="135" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="134" t="s">
         <v>297</v>
       </c>
       <c r="B2" s="33" t="s">
@@ -7105,8 +7089,8 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="145"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="144"/>
       <c r="B3" s="33" t="s">
         <v>131</v>
       </c>
@@ -7117,8 +7101,8 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="145"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="144"/>
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
@@ -7129,8 +7113,8 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="145"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="144"/>
       <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
@@ -7141,8 +7125,8 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="145"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="144"/>
       <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
@@ -7153,8 +7137,8 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="145"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="144"/>
       <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
@@ -7165,8 +7149,8 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="145"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="144"/>
       <c r="B8" s="33" t="s">
         <v>41</v>
       </c>
@@ -7177,8 +7161,8 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="145"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="144"/>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
@@ -7189,8 +7173,8 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="145"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="144"/>
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
@@ -7201,8 +7185,8 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="145"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="144"/>
       <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
@@ -7213,8 +7197,8 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="145"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="144"/>
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
@@ -7225,8 +7209,8 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="145"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="144"/>
       <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
@@ -7237,8 +7221,8 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="145"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="144"/>
       <c r="B14" s="33" t="s">
         <v>47</v>
       </c>
@@ -7249,8 +7233,8 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="145"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="144"/>
       <c r="B15" s="33" t="s">
         <v>48</v>
       </c>
@@ -7261,8 +7245,8 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="145"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="144"/>
       <c r="B16" s="36" t="s">
         <v>49</v>
       </c>
@@ -7273,8 +7257,8 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="145"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="144"/>
       <c r="B17" s="33" t="s">
         <v>50</v>
       </c>
@@ -7285,8 +7269,8 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="145"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="144"/>
       <c r="B18" s="36" t="s">
         <v>51</v>
       </c>
@@ -7297,8 +7281,8 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="145"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="144"/>
       <c r="B19" s="33" t="s">
         <v>53</v>
       </c>
@@ -7309,8 +7293,8 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="145"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="144"/>
       <c r="B20" s="33" t="s">
         <v>54</v>
       </c>
@@ -7321,8 +7305,8 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="145"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="144"/>
       <c r="B21" s="33" t="s">
         <v>55</v>
       </c>
@@ -7333,8 +7317,8 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="145"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="144"/>
       <c r="B22" s="33" t="s">
         <v>56</v>
       </c>
@@ -7345,8 +7329,8 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="145"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="144"/>
       <c r="B23" s="33" t="s">
         <v>57</v>
       </c>
@@ -7357,8 +7341,8 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="151"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="150"/>
       <c r="B24" s="33" t="s">
         <v>58</v>
       </c>
@@ -7369,7 +7353,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="44"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
@@ -7377,8 +7361,8 @@
       <c r="E25" s="24"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="135" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="134" t="s">
         <v>296</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -7390,8 +7374,8 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="145"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="144"/>
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
@@ -7402,8 +7386,8 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="145"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="144"/>
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
@@ -7414,8 +7398,8 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="145"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="144"/>
       <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
@@ -7426,8 +7410,8 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="145"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="144"/>
       <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
@@ -7438,8 +7422,8 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="145"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="144"/>
       <c r="B31" s="2" t="s">
         <v>23</v>
       </c>
@@ -7450,8 +7434,8 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="145"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="144"/>
       <c r="B32" s="2" t="s">
         <v>24</v>
       </c>
@@ -7462,8 +7446,8 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="145"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="144"/>
       <c r="B33" s="2" t="s">
         <v>25</v>
       </c>
@@ -7474,8 +7458,8 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="145"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="144"/>
       <c r="B34" s="21" t="s">
         <v>26</v>
       </c>
@@ -7486,8 +7470,8 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="145"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="144"/>
       <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
@@ -7498,8 +7482,8 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="145"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="144"/>
       <c r="B36" s="2" t="s">
         <v>28</v>
       </c>
@@ -7510,8 +7494,8 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="151"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="150"/>
       <c r="B37" s="2" t="s">
         <v>59</v>
       </c>
@@ -7522,16 +7506,16 @@
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="93"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="92"/>
       <c r="B38" s="22"/>
       <c r="C38" s="23"/>
       <c r="D38" s="22"/>
       <c r="E38" s="24"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="155" t="s">
+    <row r="39" spans="1:8" ht="92" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="154" t="s">
         <v>300</v>
       </c>
       <c r="B39" s="12" t="s">
@@ -7539,36 +7523,36 @@
       </c>
       <c r="C39" s="34"/>
       <c r="D39" s="33"/>
-      <c r="E39" s="78" t="s">
+      <c r="E39" s="77" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="156"/>
+    <row r="40" spans="1:8" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="155"/>
       <c r="B40" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="C40" s="94"/>
+      <c r="C40" s="93"/>
       <c r="D40" s="36"/>
-      <c r="E40" s="78" t="s">
+      <c r="E40" s="77" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="156"/>
+    <row r="41" spans="1:8" ht="78.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="155"/>
       <c r="B41" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="C41" s="94"/>
+      <c r="C41" s="93"/>
       <c r="D41" s="36"/>
-      <c r="E41" s="78" t="s">
+      <c r="E41" s="77" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="45"/>
       <c r="B42" s="22"/>
       <c r="C42" s="23"/>
@@ -7576,8 +7560,8 @@
       <c r="E42" s="24"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="152" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="151" t="s">
         <v>298</v>
       </c>
       <c r="B43" s="65" t="s">
@@ -7589,8 +7573,8 @@
       <c r="D43" s="2"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="153"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="152"/>
       <c r="B44" s="12" t="s">
         <v>20</v>
       </c>
@@ -7600,8 +7584,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="153"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="152"/>
       <c r="B45" s="12" t="s">
         <v>21</v>
       </c>
@@ -7612,8 +7596,8 @@
       <c r="E45" s="3"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="154"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="153"/>
       <c r="B46" s="12" t="s">
         <v>22</v>
       </c>
@@ -7623,15 +7607,15 @@
       <c r="D46" s="2"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="43"/>
       <c r="B47" s="25"/>
       <c r="C47" s="23"/>
       <c r="D47" s="22"/>
       <c r="E47" s="24"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="135" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="134" t="s">
         <v>299</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -7643,8 +7627,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="145"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="144"/>
       <c r="B49" s="2" t="s">
         <v>34</v>
       </c>
@@ -7654,8 +7638,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="146"/>
+    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="145"/>
       <c r="B50" s="4" t="s">
         <v>35</v>
       </c>
@@ -7665,14 +7649,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -7700,32 +7684,32 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="122" t="s">
+      <c r="D1" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="123" t="s">
+      <c r="E1" s="122" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="136" t="s">
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="135" t="s">
         <v>306</v>
       </c>
       <c r="B2" s="58" t="s">
@@ -7738,8 +7722,8 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="136"/>
+    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="135"/>
       <c r="B3" s="58" t="s">
         <v>308</v>
       </c>
@@ -7750,8 +7734,8 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="136"/>
+    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="135"/>
       <c r="B4" s="58" t="s">
         <v>309</v>
       </c>
@@ -7762,8 +7746,8 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="141"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="140"/>
       <c r="B5" s="58" t="s">
         <v>310</v>
       </c>
@@ -7774,16 +7758,16 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="124"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="127"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="123"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="126"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="135" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="134" t="s">
         <v>332</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -7796,8 +7780,8 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="145"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="144"/>
       <c r="B8" s="2" t="s">
         <v>168</v>
       </c>
@@ -7808,8 +7792,8 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="145"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="144"/>
       <c r="B9" s="2" t="s">
         <v>171</v>
       </c>
@@ -7820,8 +7804,8 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="145"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="144"/>
       <c r="B10" s="2" t="s">
         <v>169</v>
       </c>
@@ -7832,8 +7816,8 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="145"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="144"/>
       <c r="B11" s="2" t="s">
         <v>167</v>
       </c>
@@ -7844,8 +7828,8 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="151"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="150"/>
       <c r="B12" s="21" t="s">
         <v>170</v>
       </c>
@@ -7856,16 +7840,16 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="128"/>
-      <c r="B13" s="125"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="127"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="127"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="126"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="95" t="s">
+    <row r="14" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="94" t="s">
         <v>304</v>
       </c>
       <c r="B14" s="67" t="s">
@@ -7877,14 +7861,14 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -7909,13 +7893,13 @@
       <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -7932,8 +7916,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="87" t="s">
         <v>313</v>
       </c>
       <c r="B2" s="57" t="s">
@@ -7945,15 +7929,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="66"/>
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
       <c r="D3" s="49"/>
       <c r="E3" s="50"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="142" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="141" t="s">
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -7965,8 +7949,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="143"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="142"/>
       <c r="B5" s="46" t="s">
         <v>64</v>
       </c>
@@ -7976,8 +7960,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="143"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="142"/>
       <c r="B6" s="46" t="s">
         <v>192</v>
       </c>
@@ -7987,8 +7971,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="143"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="142"/>
       <c r="B7" s="55" t="s">
         <v>182</v>
       </c>
@@ -7998,8 +7982,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="143"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="142"/>
       <c r="B8" s="55" t="s">
         <v>77</v>
       </c>
@@ -8009,8 +7993,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="143"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="142"/>
       <c r="B9" s="55" t="s">
         <v>78</v>
       </c>
@@ -8020,8 +8004,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="143"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="142"/>
       <c r="B10" s="55" t="s">
         <v>79</v>
       </c>
@@ -8031,8 +8015,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="144"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="143"/>
       <c r="B11" s="48" t="s">
         <v>97</v>
       </c>
@@ -8042,15 +8026,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="49"/>
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
       <c r="D12" s="49"/>
       <c r="E12" s="50"/>
     </row>
-    <row r="13" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="150" t="s">
+    <row r="13" spans="1:5" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="149" t="s">
  